--- a/movies.xlsx
+++ b/movies.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[' A puzzling game worth playing\n', ' convoluted bloody fun\n', ' Decent\n', ' They came, SAW and altered (Horror Movies)\n', ' Slick thriller in the mould of Se7en that covers writing weaknesses with consistent tension &amp; urgency\n', ' Great movie to start off the franchise...\n', ' Original terror movie that originates a successful franchise\n', ' I\'m not embarrassed that I "saw" this movie\n', ' Let The Game Begin...\n', ' The First Great Franchise of the Twenty-First Century\n', ' Derivative, cheapjack formula nauseates instead of intrigues...\n', ' James Wan and Leigh Whannell Take Us to the Bathroom\n', ' Profiteering\n', ' Better than expected\n', ' A game you have no choice to be a part of\n', ' Very unpleasant but it IS a horror film\n', ' Carpentry\n', ' "Let The Game Begin!"...\n', ' This is a masterpiece addition to the horror genre\n', " This is the most fun I've had without lubricant!\n", ' Somewhat disappointing but still enjoyable enough\n', ' The biggest surprise of 2004.\n', ' An experiment, and a mostly successful one at that\n', ' A cut above the rest.\n', ' Strong and effective for the most part\n']</t>
+          <t>[' A puzzling game worth playing\n', ' convoluted bloody fun\n', ' Decent\n', ' They came, SAW and altered (Horror Movies)\n', ' Slick thriller in the mould of Se7en that covers writing weaknesses with consistent tension &amp; urgency\n', ' Great movie to start off the franchise...\n', ' Original terror movie that originates a successful franchise\n', ' I\'m not embarrassed that I "saw" this movie\n', ' Let The Game Begin...\n', ' The First Great Franchise of the Twenty-First Century\n', ' Derivative, cheapjack formula nauseates instead of intrigues...\n', ' James Wan and Leigh Whannell Take Us to the Bathroom\n', ' Profiteering\n', ' Better than expected\n', ' A game you have no choice to be a part of\n', ' Very unpleasant but it IS a horror film\n', ' Carpentry\n', ' "Let The Game Begin!"...\n', ' This is a masterpiece addition to the horror genre\n', ' Somewhat disappointing but still enjoyable enough\n', " This is the most fun I've had without lubricant!\n", ' The biggest surprise of 2004.\n', ' An experiment, and a mostly successful one at that\n', ' A cut above the rest.\n', ' Strong and effective for the most part\n']</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[' An excellent comedy...I just don\'t understand it obtaining "cult status".\n', ' Great comedy that gets better with each viewing\n', ' So much fun\n', ' Loose change\n', ' Different Space\n', ' Life in an American Office\n', ' Amusing but really falls short of an easy target\n', " um, yeah, if people could pay attention to this movie, that'd be great\n", ' One-Joke Unappealing Movie\n', ' Take this job and shove it\n', " Intelligent satire; one of Judge's best works to date\n", " Yeah, if you could just watch this movie, that'd be great.\n", ' If Dilbert were a movie ...\n', ' Semi-Flop Initially\x85A Gem Almost Everyone Missed &amp; Now Rediscovered\n', ' I Worked There!\n', ' "Um...Yeah"\n', ' The Dream Of Doing Nothing...\n', ' Pretty depressing\n', ' Most excellent comedy.\n', ' The horrors of a desk-job and working with Windows 95\n', ' ....Meanwhile Milton has a "Hard" life on Caribbean !!!\n', ' "We don\'t have a lot of time on this Earth. We weren\'t meant to spend it this way!"\n', ' A great film!\n', ' The days of cool, easy and simple movies are over.\n', ' Slowburning nerd comedy about the MANY frustrations of having to endure mindnumbing office work.\n']</t>
+          <t>[' An excellent comedy...I just don\'t understand it obtaining "cult status".\n', ' Great comedy that gets better with each viewing\n', ' So much fun\n', ' Loose change\n', ' Different Space\n', ' Life in an American Office\n', ' Amusing but really falls short of an easy target\n', " um, yeah, if people could pay attention to this movie, that'd be great\n", ' One-Joke Unappealing Movie\n', ' Take this job and shove it\n', " Intelligent satire; one of Judge's best works to date\n", " Yeah, if you could just watch this movie, that'd be great.\n", ' If Dilbert were a movie ...\n', ' Semi-Flop Initially\x85A Gem Almost Everyone Missed &amp; Now Rediscovered\n', ' I Worked There!\n', ' "Um...Yeah"\n', ' The Dream Of Doing Nothing...\n', ' Pretty depressing\n', ' Most excellent comedy.\n', ' The horrors of a desk-job and working with Windows 95\n', ' ....Meanwhile Milton has a "Hard" life on Caribbean !!!\n', ' "We don\'t have a lot of time on this Earth. We weren\'t meant to spend it this way!"\n', ' A great film!\n', ' The days of cool, easy and simple movies are over.\n', ' Hits the spot\n']</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[' The first half was terrific...the last half, not so much!\n', ' A more than welcome return to galactic fun and excitement\n', ' fun overload\n', " You can't beat a bit of ELO\n", " The sequel we've been looking for\n", ' Magnificent Sequel\n', " Tries to do a bit much that doesn't work so well, but the core strengths are there\n", ' It went to a much bigger scale...\n', ' A fun sci-fi/superhero sequel\n', ' Far too much lame humour.\n', ' Guardians of the Galaxy Vol. 2 is almost as good as its predecessor\n', ' Pure fun\n', ' Fizzy Fun Full of Cool Color, Calamity, and Camraderie...Jokes &amp; Jingles of Pop Songs\n', ' More Of The Same\n', ' Everyone Needs Family\n', ' If you liked the first one...\n', ' A Family Reunion of Sorts\n', ' Second verse... same as the first?\n', " Too bad Chris Pratt can't act\n", ' Action-packed and amusing space fantasy with moments of depth and wonder\n', ' The Guardians of the Galaxy are back because the galaxy is once again in peril\n', " It's a pleasure\n", ' It always keeps a keen focus on its characters; a great follow-up.\n', ' Therapy of the Galaxy\n', ' A charming launch of summer blockbusters\n']</t>
+          <t>[' The first half was terrific...the last half, not so much!\n', ' A more than welcome return to galactic fun and excitement\n', ' fun overload\n', " You can't beat a bit of ELO\n", " The sequel we've been looking for\n", ' Magnificent Sequel\n', " Tries to do a bit much that doesn't work so well, but the core strengths are there\n", ' It went to a much bigger scale...\n', ' A fun sci-fi/superhero sequel\n', ' Far too much lame humour.\n', ' Guardians of the Galaxy Vol. 2 is almost as good as its predecessor\n', ' Pure fun\n', ' Fizzy Fun Full of Cool Color, Calamity, and Camraderie...Jokes &amp; Jingles of Pop Songs\n', ' More Of The Same\n', ' Everyone Needs Family\n', ' If you liked the first one...\n', ' A Family Reunion of Sorts\n', ' Second verse... same as the first?\n', " Too bad Chris Pratt can't act\n", ' Action-packed and amusing space fantasy with moments of depth and wonder\n', ' The Guardians of the Galaxy are back because the galaxy is once again in peril\n', " It's a pleasure\n", ' It always keeps a keen focus on its characters; a great follow-up.\n', ' Therapy of the Galaxy\n', ' A thoroughly delightful sequel, cunningly light on the plot renovation but wigged out in brimful hilarity and brainwaves\n']</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[" Terrence Malick's masterpiece\n", ' unique Malick style\n', ' War in the Head\n', ' The Thin Red Line\n', ' Saving ...\n', ' Frustrating and flawed in some regards but generally a beautiful piece that has a poetic flow and a structure that feels you can walk inside it\n', ' Visually stunning film, focused on the battle of Guadalcanal and with star-laden cast\n', ' contrary to many reviews, this is not the anti-"Saving Private Ryan"\n', ' The Ultimate Ensemble Cast For a War Movie\n', ' Hard Movie To Like At First, But It Gets Better....Much Better\n', ' A good "war" movie, I give it 7 of 10,\n', ' Tiresome meditation\n', ' Great Example of a war picture\n', ' Divisive and Didactic\n', " Wittgenstein's Red Line of Abstraction\n", ' Is Terrance Malik In Greenpeace ? ....\n', ' What a Contrast\n', ' Violence\n', " War don't ennoble men. It turns them into dogs... poisons the soul.\n", " Malick's Stunning Masterpiece\n", ' One of the best anti-war war movies\n', ' Equal parts spiritual and horrifying\n', ' I Fought My Own War\n', ' The Thin Red Line\n', " Better than I originally thought, but I still don't see it as a masterpiece\n"]</t>
+          <t>[" Terrence Malick's masterpiece\n", ' unique Malick style\n', ' War in the Head\n', ' The Thin Red Line\n', ' Saving ...\n', ' Frustrating and flawed in some regards but generally a beautiful piece that has a poetic flow and a structure that feels you can walk inside it\n', ' Visually stunning film, focused on the battle of Guadalcanal and with star-laden cast\n', ' contrary to many reviews, this is not the anti-"Saving Private Ryan"\n', ' The Ultimate Ensemble Cast For a War Movie\n', ' Hard Movie To Like At First, But It Gets Better....Much Better\n', ' A good "war" movie, I give it 7 of 10,\n', ' Tiresome meditation\n', ' Great Example of a war picture\n', ' Divisive and Didactic\n', " Wittgenstein's Red Line of Abstraction\n", ' Is Terrance Malik In Greenpeace ? ....\n', ' What a Contrast\n', ' Violence\n', " War don't ennoble men. It turns them into dogs... poisons the soul.\n", " Malick's Stunning Masterpiece\n", ' One of the best anti-war war movies\n', ' Equal parts spiritual and horrifying\n', ' The Thin Red Line\n', ' I Fought My Own War\n', " Better than I originally thought, but I still don't see it as a masterpiece\n"]</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[' solid enviro drama\n', ' Very Human Film\n', ' What a powerful movie.\n', ' Muddled but clear\n', ' Engaging but a bit too earnest and stodgy\n', " Not exactly a laugh a minute. Unless you're sat in front of me, that is.\n", ' Goliath Dupont taken down by the locals and a persistent lawyer.\n', " What to do when a Corporation is a 'Person', and that Person is the villain\n", ' Straight Down the Line\n', ' Good movie about a scandal that is still continuing thanks to the whole corrupt (in)justice system.\n', ' Worthy issues but no Erin Brokovich\n', " 'We protect us. We do. Nobody else'\n", ' Toss out the Teflon!\n', ' Revealing, and soul searching truth for moral justice against hidden corruption!\n', " In Pharma's Way\n", ' A story worthwhile telling for sure, but the way it is told is rather tedious with lots of (superfluous) family stuff distracting from the righteous underdog story.\n', ' the lice vs.the giant\n', ' An important story but a dull movie...\n', ' Interesting, engaging real life thriller\n', ' brave new world?\n', ' Not As Furious As It Should Be\n', ' Very good movie with only few issues\n', " And What About the Companies We Don't Know About\n", ' Ruffalo is One of the Best\n', ' Wow, who knew? This biopic story NEEDED to be told.\n']</t>
+          <t>[' solid enviro drama\n', ' Very Human Film\n', ' What a powerful movie.\n', ' Muddled but clear\n', ' Engaging but a bit too earnest and stodgy\n', " Not exactly a laugh a minute. Unless you're sat in front of me, that is.\n", ' Goliath Dupont taken down by the locals and a persistent lawyer.\n', " What to do when a Corporation is a 'Person', and that Person is the villain\n", ' Straight Down the Line\n', ' Good movie about a scandal that is still continuing thanks to the whole corrupt (in)justice system.\n', ' Worthy issues but no Erin Brokovich\n', " 'We protect us. We do. Nobody else'\n", ' Toss out the Teflon!\n', ' Revealing, and soul searching truth for moral justice against hidden corruption!\n', " In Pharma's Way\n", ' A story worthwhile telling for sure, but the way it is told is rather tedious with lots of (superfluous) family stuff distracting from the righteous underdog story.\n', ' the lice vs.the giant\n', ' Interesting, engaging real life thriller\n', ' An important story but a dull movie...\n', ' brave new world?\n', ' Not As Furious As It Should Be\n', ' Very good movie with only few issues\n', " And What About the Companies We Don't Know About\n", ' Ruffalo is One of the Best\n', ' Wow, who knew? This biopic story NEEDED to be told.\n']</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[' fun\n', ' Rise of the machines ...\n', ' Listen to the nerds and geeks!\n', ' An impressive animated action comedy\n', ' A Rhombus of Infinite Delights!\n', ' Fun, lively and vibrant\n', ' I loved how the movie comes full circle and I hope they make a sequel. Very good job, Netflix.\n', ' Exhausting\n', ' whirlwind of activity\n', ' Colorful, chaotic and endearing\n', ' Hyperactive but heartfelt.\n', ' Fun and funny with heart\n', ' The adventures are wonderful, the perfect strips, super fun and exciting...\n', ' fast and furiously funny\n', ' Wildly entertaining\n', ' An over the top KIDS cartoon.\n', ' Starts off mechanical, but it ramps up by the end\n', " Here comes Sony's Version of Pixar Classic to deliver their Best Animated film after Spider Verse.\n", ' sharpsharpsharp writing\n', ' A Family-Friendly Fare Marred By Its Hyper Execution\n', " I ain't your buddy, Pal.\n", ' Special Fun\n', ' A Rhombus of Infinite Subjugation...\n', ' Best Animation Of The 2021\n', ' Streaming Wars Get Out of Hand\n']</t>
+          <t>[' fun\n', ' Rise of the machines ...\n', ' Listen to the nerds and geeks!\n', ' An impressive animated action comedy\n', ' A Rhombus of Infinite Delights!\n', ' Fun, lively and vibrant\n', ' I loved how the movie comes full circle and I hope they make a sequel. Very good job, Netflix.\n', ' Exhausting\n', ' whirlwind of activity\n', ' Colorful, chaotic and endearing\n', ' Hyperactive but heartfelt.\n', ' Fun and funny with heart\n', ' The adventures are wonderful, the perfect strips, super fun and exciting...\n', ' Wildly entertaining\n', ' fast and furiously funny\n', ' An over the top KIDS cartoon.\n', ' Starts off mechanical, but it ramps up by the end\n', " Here comes Sony's Version of Pixar Classic to deliver their Best Animated film after Spider Verse.\n", ' sharpsharpsharp writing\n', ' A Family-Friendly Fare Marred By Its Hyper Execution\n', " I ain't your buddy, Pal.\n", ' Special Fun\n', ' A Rhombus of Infinite Subjugation...\n', ' Best Animation Of The 2021\n', ' Streaming Wars Get Out of Hand\n']</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[" the movie tries very hard to annoy but can't stop rooting for family\n", ' Could have been challenging and interesting but is patronisingly simplistic, sentimental and tiresome\n', ' Do you like this "I Am Sam"? Yes, I like it, Sam I am.\n', ' Worthy sentiment, but the arty presentation is illogical and shallow...\n', " It's getting hard to be someone but it all works out.\n", ' Better watch out, or Sean Penn will get you\n', ' Emotional\n', ' The walrus looks for Lucy in the sky.\n', ' Great, incredibly moving movie\n', ' Highly Manipulative Despite The Very Strong Lead Performance\n', ' Tears You Apart and Pieces You Back Together\n', ' Sam\n', " a lot going on, but it's worth it.\n", ' Annoying, stupid, over-dramatized, bittersweet drama.\n', ' ALL YOU NEED IS LOVE\n', ' . . . the worst case of sugar overdose since `The Majestic\n', " I just can't stop crying!\n", " Sean Penn should've won the Oscar that year!\n", " I wouldn't let Sam babysit my kid much less raise her.\n", ' A great performance by Sean Penn in a good movie\n', " Sorry but the real world ain't no Beatles' song...\n", ' Effective Performance By Sean Penn\n', " Don't Be Fooled\n", " Sean Penn's ploy to win an oscar\n", ' All You Need Is Love!\n']</t>
+          <t>[" the movie tries very hard to annoy but can't stop rooting for family\n", ' Could have been challenging and interesting but is patronisingly simplistic, sentimental and tiresome\n', ' Do you like this "I Am Sam"? Yes, I like it, Sam I am.\n', ' Worthy sentiment, but the arty presentation is illogical and shallow...\n', " It's getting hard to be someone but it all works out.\n", ' Better watch out, or Sean Penn will get you\n', ' Emotional\n', ' The walrus looks for Lucy in the sky.\n', ' Great, incredibly moving movie\n', ' Highly Manipulative Despite The Very Strong Lead Performance\n', ' Tears You Apart and Pieces You Back Together\n', ' Sam\n', " a lot going on, but it's worth it.\n", ' Annoying, stupid, over-dramatized, bittersweet drama.\n', ' ALL YOU NEED IS LOVE\n', ' . . . the worst case of sugar overdose since `The Majestic\n', " Sean Penn should've won the Oscar that year!\n", " I just can't stop crying!\n", " I wouldn't let Sam babysit my kid much less raise her.\n", ' A great performance by Sean Penn in a good movie\n', " Sorry but the real world ain't no Beatles' song...\n", ' Effective Performance By Sean Penn\n', " Don't Be Fooled\n", " Sean Penn's ploy to win an oscar\n", ' All You Need Is Love!\n']</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[' campy fun\n', ' Rare Sequel That Is Better Than the Original\n', ' The road is long\n', ' Road Warrior\n', ' The sequel surpasses the first movie by miles...\n', ' This stirring movie in comic-strip style is packed with unbelievable car stunts, thrills, chills and noisy action\n', ' an Australian movie that requires you to think about as much as "XxX"...\n', " Put on your ass-less leather chaps, pop on your best studded shoulder pads, and comb your mohawk—it's Mad Max time again!!\n", " truly threatening anarchic villains and action that doesn't feel like it'll stop\n", ' If You Want to Run Cool, You Got to Run \x85 on Heavy, Heavy Fuel.\n', ' Top notch escapism.\n', ' The last of the V8 Interceptors and the battle for gasoline!\n', ' Mad Max Gets Better\n', ' The dangerous car action rivals to the first\n', ' Yayy\n', ' Actually Better Than Its Predecessor\n', ' "And it was here, in this blighted place, that he learned to live again..."\n', ' This film stands as an elite masterpiece within the apocalypse genre\n', ' Best sequel ever? Could be\n', ' Fighting for fuel in the post-apocalyptic wasteland of the Outback\n', ' can see this one over and over again\n', " We're Partners!!\n", ' Easily the best to the Mad Max trilogy.\n', ' Excellent Sequel.\n', ' not as good as the original\n']</t>
+          <t>[' campy fun\n', ' Rare Sequel That Is Better Than the Original\n', ' The road is long\n', ' Road Warrior\n', ' The sequel surpasses the first movie by miles...\n', ' This stirring movie in comic-strip style is packed with unbelievable car stunts, thrills, chills and noisy action\n', ' an Australian movie that requires you to think about as much as "XxX"...\n', " Put on your ass-less leather chaps, pop on your best studded shoulder pads, and comb your mohawk—it's Mad Max time again!!\n", " truly threatening anarchic villains and action that doesn't feel like it'll stop\n", ' If You Want to Run Cool, You Got to Run \x85 on Heavy, Heavy Fuel.\n', ' Top notch escapism.\n', ' The last of the V8 Interceptors and the battle for gasoline!\n', ' Mad Max Gets Better\n', ' The dangerous car action rivals to the first\n', ' Yayy\n', ' Actually Better Than Its Predecessor\n', ' "And it was here, in this blighted place, that he learned to live again..."\n', ' This film stands as an elite masterpiece within the apocalypse genre\n', ' Best sequel ever? Could be\n', ' Fighting for fuel in the post-apocalyptic wasteland of the Outback\n', ' can see this one over and over again\n', " We're Partners!!\n", ' Easily the best to the Mad Max trilogy.\n', ' Excellent Sequel.\n', ' Mad Max 2\n']</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[' Joseph Gordon-Levitt has really come into his own....\n', ' Funny cancer movie\n', ' Bittersweet symphony\n', ' What a surprise of a movie...\n', ' Seth Rogen in a different role\n', ' a genuine surprise\n', ' A touching emotional journey\n', ' Great, emotional drama\n', ' Tackles Tough Topic\n', ' The Big C\n', ' 50/50 chance of getting...\n', " 50/50 Is a Pretty Good Way to Describe My Reaction to This Movie -- Half Liked It, Half Didn't\n", ' Tears, Laughs, Life Lessons\n', ' A perfectly fine, honest, little movie!\n', ' Emotional movie with some funny parts\n', ' It actually works - a comedy about illness\n', " 'We all have to die at one point. It is part of life.'\n", " It's a balancing act.\n", ' 50/50\n', ' A Nutshell Review: 50/50\n', ' my notes\n', ' A Genuinely Good Film...\n', ' Comedic, inspiring, dramatic, tearful, and effervescent\n', ' This film succeeds is because it feels honest\n', ' This movie might be separated 50/50 when it comes to the audiences, but I liked this movie\n']</t>
+          <t>[' Joseph Gordon-Levitt has really come into his own....\n', ' Funny cancer movie\n', ' Bittersweet symphony\n', ' What a surprise of a movie...\n', ' Seth Rogen in a different role\n', ' a genuine surprise\n', ' A touching emotional journey\n', ' Great, emotional drama\n', ' Tackles Tough Topic\n', ' The Big C\n', ' 50/50 chance of getting...\n', " 50/50 Is a Pretty Good Way to Describe My Reaction to This Movie -- Half Liked It, Half Didn't\n", ' Tears, Laughs, Life Lessons\n', ' A perfectly fine, honest, little movie!\n', ' Emotional movie with some funny parts\n', ' It actually works - a comedy about illness\n', " 'We all have to die at one point. It is part of life.'\n", ' 50/50\n', " It's a balancing act.\n", ' A Nutshell Review: 50/50\n', ' my notes\n', ' A Genuinely Good Film...\n', ' Comedic, inspiring, dramatic, tearful, and effervescent\n', ' This film succeeds is because it feels honest\n', ' This movie might be separated 50/50 when it comes to the audiences, but I liked this movie\n']</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[' Worst of the series, but still fun\n', ' bigger and more\n', ' John Wick: Chapter 4\n', ' Once more with a feeling\n', ' Brainless Videogame\n', ' Action, more action, and then even more action...\n', ' An impressive finale to the John Wick Quadrilogy\n', ' Three hour movie about killing people. Not much story.\n', ' Dialog Deficient...Keystone Kops Chaplain-Keaton Throwback...OK But Nowhere to Grow\n', ' Disappointing\n', ' It Kills!\n', ' God, what a rush!\n', ' John Wick: Chapter 4\n', ' Such is life.\n', ' What a pointless film\n', " It's wicked fun.\n", ' A new standard has been set for fight scenes\n', ' The main point of this film is that foreign countries . . .\n', ' Very boring chapter.\n', ' Always Pick John Wick\n', ' I feared the worst, but it was better than I expected, although not near as good as the original.\n', ' A thrilling masterpiece worth the long run time even better in IMAX! Important to note Rip Lance Reddick he was amazing in his career!\n', ' Determined to be an action classic, and is certainly a wild thrill ride\n', ' suspension of disbelief required -- YEN steals all his scenes\n', ' Death Served Cold\n']</t>
+          <t>[' Worst of the series, but still fun\n', ' bigger and more\n', ' John Wick: Chapter 4\n', ' Once more with a feeling\n', ' Brainless Videogame\n', ' Action, more action, and then even more action...\n', ' An impressive finale to the John Wick Quadrilogy\n', ' Three hour movie about killing people. Not much story.\n', ' Dialog Deficient...Keystone Kops Chaplain-Keaton Throwback...OK But Nowhere to Grow\n', ' Disappointing\n', ' It Kills!\n', ' God, what a rush!\n', ' John Wick: Chapter 4\n', ' Such is life.\n', ' What a pointless film\n', " It's wicked fun.\n", ' A new standard has been set for fight scenes\n', ' The main point of this film is that foreign countries . . .\n', ' Very boring chapter.\n', ' Always Pick John Wick\n', ' A thrilling masterpiece worth the long run time even better in IMAX! Important to note Rip Lance Reddick he was amazing in his career!\n', ' I feared the worst, but it was better than I expected, although not near as good as the original.\n', ' Determined to be an action classic, and is certainly a wild thrill ride\n', ' suspension of disbelief required -- YEN steals all his scenes\n', ' Death Served Cold\n']</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[' Well-meaning, but...\n', ' two wins and one\n', ' Astonishing Performance by Brendan Fraser\n', ' the greatness of Brendan Frasier\n', ' A spellbinding movie.\n', ' Size does matter\n', ' Unpleasant and Depressive\n', ' Quite good...\n', ' Engrossing, beautiful drama\n', ' People Are Amazing.\n', ' Great, emotional journey\n', ' A tremendous character piece that is an absolute must see\n', ' Not the Fat-Shaming Movie I Was Led to Believe\n', ' Trying to save us from his own sad story, just for a little while\n', ' Excellent acting and an okay story.\n', ' Fraser shines in a complex career-high turn.\n', ' The Whale\n', ' Not a whale of a time.\n', ' Dark painful film about addiction and last chance.\n', " Fraser will win Globes and Oscar--he's that good.\n", ' Tragic and sad end...\n', ' Father!\n', ' Gee Louise! The (ONCE) great director Darren Aronofsky has become a HAS BEEN...\n', " Masterful, One of the best movies I've seen!\n", ' Not the greatest subject matter, but this was an emotional watch with stunning performances.\n']</t>
+          <t>[' Well-meaning, but...\n', ' two wins and one\n', ' Astonishing Performance by Brendan Fraser\n', ' the greatness of Brendan Frasier\n', ' A spellbinding movie.\n', ' Size does matter\n', ' Unpleasant and Depressive\n', ' Quite good...\n', ' Engrossing, beautiful drama\n', ' People Are Amazing.\n', ' Great, emotional journey\n', ' A tremendous character piece that is an absolute must see\n', ' Not the Fat-Shaming Movie I Was Led to Believe\n', ' Trying to save us from his own sad story, just for a little while\n', ' Excellent acting and an okay story.\n', ' Fraser shines in a complex career-high turn.\n', ' The Whale\n', ' Not a whale of a time.\n', ' Dark painful film about addiction and last chance.\n', " Fraser will win Globes and Oscar--he's that good.\n", ' Tragic and sad end...\n', ' Father!\n', " Masterful, One of the best movies I've seen!\n", ' Gee Louise! The (ONCE) great director Darren Aronofsky has become a HAS BEEN...\n', ' Not the greatest subject matter, but this was an emotional watch with stunning performances.\n']</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[' dark and humorous\n', ' You Must Buy Into the Premise\n', ' circles of loneliness\n', ' An original, powerful movie.\n', ' To live and let die\n', ' nothing lasts forever\n', ' Friends in Ireland having difficulty with "friendship."\n', ' much ado about nothing.\n', ' A smart, thoughtful blend of ideas and moods, very well made all around\n', ' McDonagh scores again\n', " I fear that's where it's all gone wrong.\n", ' Very well crafted film, amazing acting, about a village in the middle of nowhere\n', ' A test of willpower and strength!\n', ' Beautifully acted and photographed. One of the best of theyear.\n', ' Cinema Omnivore - The Banshees of Inisherin (2022) 7.6/10\n', ' An Oscar-y movie I like???\n', ' A Dark Ale of Unfriendship\n', ' The dark side of Irish small-town eccentrics\n', ' I absolutely loved this even with 2 hours sleep I thoroughly enjoyed\n', ' An odd drama with a constant undercurrent of comedy\n', ' The abyssal hopelessness of a dying friendship, when one part simply cuts his ties\n', ' In the right universe, that should have swept the 2023 Oscars...\n', ' A slow but igniting take on how the slow poison grows and burns the friends alive.\n', ' Possibly the best thing McDonagh has ever done.\n', ' Subversive, off-beat comedy that veers off course in the middle\n']</t>
+          <t>[' dark and humorous\n', ' You Must Buy Into the Premise\n', ' circles of loneliness\n', ' An original, powerful movie.\n', ' To live and let die\n', ' nothing lasts forever\n', ' Friends in Ireland having difficulty with "friendship."\n', ' much ado about nothing.\n', ' A smart, thoughtful blend of ideas and moods, very well made all around\n', ' McDonagh scores again\n', " I fear that's where it's all gone wrong.\n", ' Very well crafted film, amazing acting, about a village in the middle of nowhere\n', ' A test of willpower and strength!\n', ' Cinema Omnivore - The Banshees of Inisherin (2022) 7.6/10\n', ' Beautifully acted and photographed. One of the best of theyear.\n', ' An Oscar-y movie I like???\n', ' A Dark Ale of Unfriendship\n', ' I absolutely loved this even with 2 hours sleep I thoroughly enjoyed\n', ' The dark side of Irish small-town eccentrics\n', ' An odd drama with a constant undercurrent of comedy\n', ' The abyssal hopelessness of a dying friendship, when one part simply cuts his ties\n', ' In the right universe, that should have swept the 2023 Oscars...\n', ' A slow but igniting take on how the slow poison grows and burns the friends alive.\n', ' Subversive, off-beat comedy that veers off course in the middle\n', ' Possibly the best thing McDonagh has ever done.\n']</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[' A mission to not fall out on\n', ' action Bond\n', ' The Hunt Odyssey\n', ' (Oops)He did it again\n', ' Great Action Film\n', ' Consistently slick and entertaining despite its complete focus on surface\n', ' A breathtaking sequel in which Ethan Hunt takes on an organization called the Apostles and other nasty enemies\n', ' Five megaton fun.\n', ' In 3D IMAX, quite an action movie.\n', ' a blast of Hollywood spectacle, with McQuarrie coming out technical guns blazing\n', ' Mission: Impossible - Fallout is perhaps the best one yet in the series!\n', ' My palms sweated for an hour!\n', ' Best &amp; Longest (147min)...Everyone Amped...Sleek Slick Sumptuous Sizzling Spy-Stuff\n', ' Best one thus far out of five MI movies\n', ' Tommy\n', ' the cliffs of Kashmir\n', " The franchise crossover you didn't know you wanted\n", ' Series shows no signs of decline; thrills abound\n', " 'What's done is done when we say it's done.'\n", " Every prior entry in the series has raised the bar in terms of action. This might've just launched it into the stratosphere.\n", ' Pretty standard\n', ' Mission bore me to death\n', ' Impossibly good\n', ' Best adventure of the summer and one of the best ever.\n', " The franchise categorically lives and dies with Tom Cruise's star charisma and undimmed spirit of pushing the envelop\n"]</t>
+          <t>[' A mission to not fall out on\n', ' action Bond\n', ' The Hunt Odyssey\n', ' (Oops)He did it again\n', ' Great Action Film\n', ' Consistently slick and entertaining despite its complete focus on surface\n', ' A breathtaking sequel in which Ethan Hunt takes on an organization called the Apostles and other nasty enemies\n', ' Five megaton fun.\n', ' In 3D IMAX, quite an action movie.\n', ' a blast of Hollywood spectacle, with McQuarrie coming out technical guns blazing\n', ' Mission: Impossible - Fallout is perhaps the best one yet in the series!\n', ' My palms sweated for an hour!\n', ' Best &amp; Longest (147min)...Everyone Amped...Sleek Slick Sumptuous Sizzling Spy-Stuff\n', ' Best one thus far out of five MI movies\n', ' Tommy\n', ' the cliffs of Kashmir\n', " The franchise crossover you didn't know you wanted\n", ' Series shows no signs of decline; thrills abound\n', " 'What's done is done when we say it's done.'\n", " Every prior entry in the series has raised the bar in terms of action. This might've just launched it into the stratosphere.\n", ' Pretty standard\n', ' Mission bore me to death\n', ' Impossibly good\n', " The franchise categorically lives and dies with Tom Cruise's star charisma and undimmed spirit of pushing the envelop\n", ' Best adventure of the summer and one of the best ever.\n']</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[' Exceptional, but probably not for younger viewers\n', ' Wonderfully atmospheric with exquisite visuals\n', ' The dullest animation ever made\n', ' Imaginative creepy\n', ' dark . and useful\n', ' Predictable, but fun nevertheless\n', ' Dark and Creepy\n', ' Dark and inventive film even if it is perhaps too scary for particularly young children who will not understand the context and only see images\n', ' a lot of Michigan people move to Oregon\n', ' Brilliant animation\n', ' A stunning 3D fantasy.\n', ' Very Much Neil Gaiman\n', ' Another New Standard In Artwork\n', ' Coraline was an interesting, if not truly thrilling, suspenseful stop-motion animated film\n', ' Amazing animation and highly imaginative scenes\n', ' Button Wholes\n', ' Well Done and Easy to Follow\n', ' A stop motion animation made like no other\n', ' If David Lynch Made Animated Films, They Would Be Like This\n', " Mother didn't like it.\n", ' Sweet Coraline\n', " There's no place like home.\n", ' Coraline\n', ' Behind the door\n', ' Good, but...\n']</t>
+          <t>[' Exceptional, but probably not for younger viewers\n', ' Wonderfully atmospheric with exquisite visuals\n', ' The dullest animation ever made\n', ' Imaginative creepy\n', ' dark . and useful\n', ' Predictable, but fun nevertheless\n', ' Dark and Creepy\n', ' Dark and inventive film even if it is perhaps too scary for particularly young children who will not understand the context and only see images\n', ' a lot of Michigan people move to Oregon\n', ' Brilliant animation\n', ' A stunning 3D fantasy.\n', ' Very Much Neil Gaiman\n', ' Another New Standard In Artwork\n', ' Coraline was an interesting, if not truly thrilling, suspenseful stop-motion animated film\n', ' Amazing animation and highly imaginative scenes\n', ' Button Wholes\n', ' Well Done and Easy to Follow\n', ' A stop motion animation made like no other\n', ' If David Lynch Made Animated Films, They Would Be Like This\n', " Mother didn't like it.\n", ' Sweet Coraline\n', ' Coraline\n', " There's no place like home.\n", ' Behind the door\n', ' Good, but...\n']</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[' The worst yet\n', ' Harry the fugitive\n', ' Darker than ever\n', ' A Step Up From the Previous Film\n', ' Trade Hallow against Horcrux\n', " Solidly entertaining despite feeling a bit like it's in a holding pattern but helped by the very dark tone to this penultimate film\n", ' totalitarianism takes over in the wizarding world\n', ' Coming To a Huge Finale...\n', ' The magic returns\n', ' no longer just for kids; a dark adult-fantasy movie with a couple of lulls\n', " School's Out for ... ever?\n", ' An entertaining adventure\n', ' The seventh installment, the appetiser.\n', ' Fascinating but "darker than dark" prelude to the finale...\n', ' A nice respite\n', ' This is an absolute gem and a must see\n', ' When Does Snape (or Anyone Other Than Harry and Hermione, for That Matter) Come Back into the Story?\n', " It's one of the 'worst' in the series because of its slow pace.\n", ' A lengthy introduction to something else\n', ' Deathly dark...\n', ' Potheads should be happy.\n', ' Harry Potter And The Deathly Hallows: Part 1\n', ' A Nutshell Review: Harry Potter and the Deathly Hallows: Part 1\n', ' Long and Drug Out\n', ' For Potter Buffs, Only!\n']</t>
+          <t>[' The worst yet\n', ' Harry the fugitive\n', ' Darker than ever\n', ' A Step Up From the Previous Film\n', ' Trade Hallow against Horcrux\n', " Solidly entertaining despite feeling a bit like it's in a holding pattern but helped by the very dark tone to this penultimate film\n", ' totalitarianism takes over in the wizarding world\n', ' Coming To a Huge Finale...\n', ' The magic returns\n', ' no longer just for kids; a dark adult-fantasy movie with a couple of lulls\n', " School's Out for ... ever?\n", ' An entertaining adventure\n', ' The seventh installment, the appetiser.\n', ' Fascinating but "darker than dark" prelude to the finale...\n', ' A nice respite\n', ' This is an absolute gem and a must see\n', ' When Does Snape (or Anyone Other Than Harry and Hermione, for That Matter) Come Back into the Story?\n', " It's one of the 'worst' in the series because of its slow pace.\n", ' A lengthy introduction to something else\n', ' Deathly dark...\n', ' Harry Potter And The Deathly Hallows: Part 1\n', ' Potheads should be happy.\n', ' A Nutshell Review: Harry Potter and the Deathly Hallows: Part 1\n', ' Long and Drug Out\n', ' For Potter Buffs, Only!\n']</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[' Pure Warrior\n', ' Such a great character\n', ' Great Fun\n', ' Introducing Rambo\n', " Don't push me, cause I'm close to the edge\n", ' Not a great film but reasonably effective as both an action movie and a message movie without being great as either\n', " He will give you a war you won't believe...\n", ' Violent movie that launched the Stallone career and his Rambo episodes\n', ' rugged individualism\n', ' The original and the best.\n', ' Rambo Kills Cops\n', ' We have met the enemy, and he is us.\n', ' Crap !!\n', ' After living with the specter of Rocky for years, Stallone finally hit pay-dirt as Rambo\n', ' cool, slick action-movie danger and excitement, if a wee bit preachy\n', ' Always be nice and hospitable to Vietnam veterans passing through your village!\n', ' OG rambo\n', ' "We ain\'t huntin\' him, he\'s huntin\' us..."\n', ' Well Crafted and Exciting Social Commentary\n', ' Entertaining\n', " It was a bad time for everyone, Rambo. It's all in the past now.\n", ' Rambo! The force of freedom\n', ' The first one is still the best one\n', ' Intense\n', ' Enough Is Enough...\n']</t>
+          <t>[' Pure Warrior\n', ' Such a great character\n', ' Great Fun\n', ' Introducing Rambo\n', " Don't push me, cause I'm close to the edge\n", ' Not a great film but reasonably effective as both an action movie and a message movie without being great as either\n', " He will give you a war you won't believe...\n", ' Violent movie that launched the Stallone career and his Rambo episodes\n', ' rugged individualism\n', ' The original and the best.\n', ' Rambo Kills Cops\n', ' Crap !!\n', ' We have met the enemy, and he is us.\n', ' After living with the specter of Rocky for years, Stallone finally hit pay-dirt as Rambo\n', ' cool, slick action-movie danger and excitement, if a wee bit preachy\n', ' Always be nice and hospitable to Vietnam veterans passing through your village!\n', ' OG rambo\n', ' "We ain\'t huntin\' him, he\'s huntin\' us..."\n', ' Well Crafted and Exciting Social Commentary\n', ' Entertaining\n', " It was a bad time for everyone, Rambo. It's all in the past now.\n", ' Rambo! The force of freedom\n', ' The first one is still the best one\n', ' Intense\n', ' Enough Is Enough...\n']</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[' intriguing\n', ' Good to be bad\n', ' a brief period of relationships\n', " Amusing perspective view of it's main star Julie\n", ' Norwegian "Annie Hall"\n', ' not the usual\n', ' A bit too long and dragged out.\n', ' dialogue rather splendid\n', ' You were the love of my life.\n', ' Impressive dramedy with a Cannes-winning actress performance.\n', ' Cinema Omnivore - The Worst Person in the World (2021) 8.0/10\n', " Fall in love or dont. That's what this movie is about. A difficult question indeed...\n", ' the story of an imperfect woman\n', ' An Achingly Accurate Portrait Of Millennial Angst\n', ' Diminished Aspirations...\n', ' Bored??\n', ' The life of Julie...\n', ' Worth Seeing\n', ' An honest and engaging dramedy\n', ' An excellent film\n', ' Like being hit by a freight train - in the best way possible\n', ' A WOMAN AT A CROSSROADS OF HER OWN DOING...!\n', ' What movie did they see?\n', ' Millennial Ingmar Bergman.\n', ' Worse title in the world.\n']</t>
+          <t>[' intriguing\n', ' Good to be bad\n', ' a brief period of relationships\n', " Amusing perspective view of it's main star Julie\n", ' Norwegian "Annie Hall"\n', ' not the usual\n', ' A bit too long and dragged out.\n', ' dialogue rather splendid\n', ' You were the love of my life.\n', ' Cinema Omnivore - The Worst Person in the World (2021) 8.0/10\n', ' Impressive dramedy with a Cannes-winning actress performance.\n', " Fall in love or dont. That's what this movie is about. A difficult question indeed...\n", ' the story of an imperfect woman\n', ' An Achingly Accurate Portrait Of Millennial Angst\n', ' Diminished Aspirations...\n', ' Bored??\n', ' The life of Julie...\n', ' Worth Seeing\n', ' An honest and engaging dramedy\n', ' An excellent film\n', ' Like being hit by a freight train - in the best way possible\n', ' A WOMAN AT A CROSSROADS OF HER OWN DOING...!\n', ' What movie did they see?\n', ' Millennial Ingmar Bergman.\n', ' Worse title in the world.\n']</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[' (the one with the scene in the diner) A very funny, witty and charmimg romantic comedy\n', ' It took long enough\n', ' Iconic rom-com\n', ' Terrific Comedy\n', ' revelation\n', ' And again and again ...\n', ' my orthodontist sat at the table where they met\n', ' Fun, But Too Much Like a Romantic Comedy\n', ' Old favorite never gets old.\n', ' Acerbic insights and clever sound-bites\n', ' Cute romcom\n', ' Fantastic\n', ' Orgasmic\n', ' A pretty good romantic comedy\n', " One of my all-time favorite comedies; romance at it's finest\n", ' Breath of fresh air\n', ' Entertaining, but Woody Allen-lite\n', ' The sex part always gets in the way\n', ' What can be said about this orgasm of fantastic dialogue, originality and acting?\n', ' One Great Movie!\n', ' An ultimate classic that has the eternal question:\n', ' Best rom-com I ever seen!\n', ' Captures the anxieties of friendship and romance.\n', ' Sleepless in New York\n', ' Sex in the city\n']</t>
+          <t>[' (the one with the scene in the diner) A very funny, witty and charmimg romantic comedy\n', ' It took long enough\n', ' Iconic rom-com\n', ' Terrific Comedy\n', ' revelation\n', ' And again and again ...\n', ' my orthodontist sat at the table where they met\n', ' Fun, But Too Much Like a Romantic Comedy\n', ' Old favorite never gets old.\n', ' Acerbic insights and clever sound-bites\n', ' Cute romcom\n', ' Fantastic\n', ' Orgasmic\n', ' A pretty good romantic comedy\n', " One of my all-time favorite comedies; romance at it's finest\n", ' Breath of fresh air\n', ' Entertaining, but Woody Allen-lite\n', ' The sex part always gets in the way\n', ' What can be said about this orgasm of fantastic dialogue, originality and acting?\n', ' One Great Movie!\n', ' Best rom-com I ever seen!\n', ' An ultimate classic that has the eternal question:\n', ' Captures the anxieties of friendship and romance.\n', ' Sleepless in New York\n', ' Sex in the city\n']</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[" Disney's best film in a long time!\n", ' Nicely Crafted Tale\n', ' charming\n', ' Disney tangled with Pixar\n', ' A Delightful Animation Based on the Fairy Tale By The Grimm Brothers\n', ' Solidly enjoyable family film with good laughs and songs\n', ' Fabulous...\n', ' now hair this\n', " Disney's 50th animation\n", " Disney's Tangled was quite an enjoyable computer-animated movie in 3-D for my friend and me\n", ' Wow this is so entertaining!\n', ' A cute animated film from Disney\n', ' Combines classic old-fashioned charm with a modern twist...a true Disney classic...\n', ' Doors\n', ' About what we might expect\n', ' By-the-numbers Disney fluff\n', ' Finally.\n', ' Excitement and Amusement for All\n', ' Goldilocks And Her Free Hairs\n', ' Patented Disney\n', ' Tangled Vs. Brave\n', ' A Nutshell Review: Tangled\n', ' Unimpressive\n', ' Seductive\n', ' A Must Watch for Kids!\n']</t>
+          <t>[" Disney's best film in a long time!\n", ' Nicely Crafted Tale\n', ' charming\n', ' Disney tangled with Pixar\n', ' A Delightful Animation Based on the Fairy Tale By The Grimm Brothers\n', ' Solidly enjoyable family film with good laughs and songs\n', ' Fabulous...\n', ' now hair this\n', " Disney's 50th animation\n", " Disney's Tangled was quite an enjoyable computer-animated movie in 3-D for my friend and me\n", ' Wow this is so entertaining!\n', ' A cute animated film from Disney\n', ' Combines classic old-fashioned charm with a modern twist...a true Disney classic...\n', ' Doors\n', ' About what we might expect\n', ' By-the-numbers Disney fluff\n', ' Finally.\n', ' Excitement and Amusement for All\n', ' Goldilocks And Her Free Hairs\n', ' Tangled Vs. Brave\n', ' Patented Disney\n', ' A Nutshell Review: Tangled\n', ' Unimpressive\n', ' Seductive\n', ' A Must Watch for Kids!\n']</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[' Ugly, depressing...yet interesting and worth your time.\n', ' Holmes And Watson At Holy Orders\n', ' inspired palimpsest\n', ' A monk and his novice helper attempt to solve a series of killings in a fourteenth-century abbey\n', ' The Name of the Rose\n', ' An Interesting Mystery\n', ' "From the beauty of the past, now disappeared, we hold only names..."\n', ' a cursed abbey in the mountains...\n', ' These nasty monks haunted my nightmares for 25 years...\n', ' Bookish or Boorish?\n', ' Long and complex but fascinating\n', ' Sexy\n', ' Deeply engaging\n', ' Murder mystery at a gloomy abbey during the Dark Ages with Sean Connery\n', ' Fascinating atmosphere and a great murder mystery\n', ' The Name of the Rose\n', ' Bleak and Sombre\n', ' knowledge and something else\n', ' A Novice Monk Has Sex &amp; Falls in "LOVE"!!\n', ' Elementary, my dear Adso!\n', ' death in a medieval monastery\n', ' An excellent period film.\n', ' Monks Being Murdered\n', ' Spooky setting in a cruel era when the Catholic Church held immense power\n', ' A Mini-Epic Lost In the Mist of Time\n']</t>
+          <t>[' Ugly, depressing...yet interesting and worth your time.\n', ' Holmes And Watson At Holy Orders\n', ' inspired palimpsest\n', ' A monk and his novice helper attempt to solve a series of killings in a fourteenth-century abbey\n', ' The Name of the Rose\n', ' An Interesting Mystery\n', ' "From the beauty of the past, now disappeared, we hold only names..."\n', ' a cursed abbey in the mountains...\n', ' These nasty monks haunted my nightmares for 25 years...\n', ' Bookish or Boorish?\n', ' Long and complex but fascinating\n', ' Sexy\n', ' Deeply engaging\n', ' Murder mystery at a gloomy abbey during the Dark Ages with Sean Connery\n', ' The Name of the Rose\n', ' Fascinating atmosphere and a great murder mystery\n', ' Bleak and Sombre\n', ' knowledge and something else\n', ' A Novice Monk Has Sex &amp; Falls in "LOVE"!!\n', ' Elementary, my dear Adso!\n', ' death in a medieval monastery\n', ' An excellent period film.\n', ' Monks Being Murdered\n', ' Spooky setting in a cruel era when the Catholic Church held immense power\n', ' A Mini-Epic Lost In the Mist of Time\n']</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[' Going to the well yet another time...enough already!\n', ' Pixar on the road\n', ' emotional\n', ' Not Great but Certainly Not a 1 or 2\n', ' Afterlife\n', ' High entertainment but not quite the pathos of previous\n', ' now I want to see a Toy Story-Shining mashup\n', " Four films in and 'Toy Story' is still charming\n", ' A very entertaining continuation of the Toy Story movies.\n', ' A more fitting conclusion to the Toy Story series\n', ' Toy Story 4 is as great as the first three in the series\n', ' Wonderful addition to the Toy Story Universe\n', ' Engaging and adventurous\n', ' THE TOY STORY SAGA IS DEFINITELY NOT "OUT OF SLINK"\n', ' 24 MORE YEARS\n', ' A sequel no one needed, and yet . . .\n', ' "... and beyond."\n', ' I hope this franchise never ends. Brilliant!\n', ' TOY STORY 4 plays fully up to our nostalgia and manages to squeeze something instructive out of the old gangs on a similar territory\n', ' fun with good heart\n', ' I thought this movie would have sucked. I was proven wrong.\n', ' Four Times a Charm\n', ' Another good one\n', ' Forky, Ducky, Bunny, and Bo peep best things about this!\n', " It just didn't do it for me, I'm afraid...\n"]</t>
+          <t>[' Going to the well yet another time...enough already!\n', ' Pixar on the road\n', ' emotional\n', ' Not Great but Certainly Not a 1 or 2\n', ' Afterlife\n', ' High entertainment but not quite the pathos of previous\n', ' now I want to see a Toy Story-Shining mashup\n', " Four films in and 'Toy Story' is still charming\n", ' A very entertaining continuation of the Toy Story movies.\n', ' A more fitting conclusion to the Toy Story series\n', ' Toy Story 4 is as great as the first three in the series\n', ' Wonderful addition to the Toy Story Universe\n', ' Engaging and adventurous\n', ' THE TOY STORY SAGA IS DEFINITELY NOT "OUT OF SLINK"\n', ' 24 MORE YEARS\n', ' A sequel no one needed, and yet . . .\n', ' "... and beyond."\n', ' TOY STORY 4 plays fully up to our nostalgia and manages to squeeze something instructive out of the old gangs on a similar territory\n', ' I hope this franchise never ends. Brilliant!\n', ' fun with good heart\n', ' I thought this movie would have sucked. I was proven wrong.\n', ' Four Times a Charm\n', ' Forky, Ducky, Bunny, and Bo peep best things about this!\n', ' Another good one\n', " It just didn't do it for me, I'm afraid...\n"]</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[' Incredibly powerful\n', ' dancing drunk Mads\n', ' teachers and their lives\n', ' Surprisingly good...\n', ' booze on first\n', ' If a little helps, just imagine how much a lot will help!\n', ' Did not connect with me\n', ' Great, original drama\n', ' Incredibly awkward, yet unexpectedly riveting\n', ' The Alcohol Version of "Reefer Madness"\n', ' if a little is good, is more better?\n', ' Recognizable scenes for people that like a drink.\n', ' What a life.\n', ' Well made, but misses\n', ' A mix of genius and cliché\n', ' Love without sex. Is it possible? Yes, and sweet it is.\n', ' Cinema Omnivore - Another Round (2020) 7.4/10\n', ' Not really funny, although it was a funny idea of letting teachers drink a lot to see if their educative skills would improve...\n', ' Do not try this at home!\n', ' More "skul" for better skills at school? An experimental review of "Another Round"...\n', ' breezy...a social experiment , or the glory of being under the influence\n', ' It could have been a Path-Breaking film on Alcohol culture but it opts to play safe with the general theories.\n', ' not only about drinking\n', " This could be Vinterberg's best film to date.\n", ' Mads Mikkelsen At His Absolute Best\n']</t>
+          <t>[' Incredibly powerful\n', ' dancing drunk Mads\n', ' teachers and their lives\n', ' Surprisingly good...\n', ' booze on first\n', ' If a little helps, just imagine how much a lot will help!\n', ' Did not connect with me\n', ' Great, original drama\n', ' Incredibly awkward, yet unexpectedly riveting\n', ' The Alcohol Version of "Reefer Madness"\n', ' if a little is good, is more better?\n', ' Recognizable scenes for people that like a drink.\n', ' What a life.\n', ' Well made, but misses\n', ' A mix of genius and cliché\n', ' Cinema Omnivore - Another Round (2020) 7.4/10\n', ' Love without sex. Is it possible? Yes, and sweet it is.\n', ' Not really funny, although it was a funny idea of letting teachers drink a lot to see if their educative skills would improve...\n', ' Do not try this at home!\n', ' More "skul" for better skills at school? An experimental review of "Another Round"...\n', ' breezy...a social experiment , or the glory of being under the influence\n', ' It could have been a Path-Breaking film on Alcohol culture but it opts to play safe with the general theories.\n', ' not only about drinking\n', " This could be Vinterberg's best film to date.\n", ' Mads Mikkelsen At His Absolute Best\n']</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>114. Y tu mamá también</t>
+          <t>114. And Your Mother Too</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[' violent cult movie\n', ' special\n', ' Gods bloody path\n', ' Good structure and simple concept to deliver genre standards but otherwise melodramatic, unimaginative and a bit daft\n', ' Cult Classic With Good Reason\n', ' An insult to Irish-Americans, gay FBI agents, and Mafiosos everywhere!\n', ' the flamboyant style and few drops of originality brushed over\n', ' Unexpectedly good\n', ' Down in the Boondocks with Troy Duffy\n', ' Anti Tarantino\n', ' Indulgent Cultism\n', ' A Fun Movie\n', ' Shallow and Stupid\n', ' I wanna be Tarantino\n', ' Definitely entertaining.\n', ' Great unusual action film\n', ' whilst I can understand the appeal for some, its not for me.\n', ' over-hyped\n', " If you've ever wanted to see Willem Dafoe French kiss a guy while dressed in drag, this movie is for you.\n", ' A classic film to mark the end of a century\n', ' Nothing worse than a bad surrogate. This is simply ANOTHER FAILED Tarantino rip off. BORING.\n', " They're on a deadly mission from God\n", ' It was so good, that the next day I bought it!\n', ' Wonderful gem!\n', ' Still fun to watch, but not as good as I remembered it to be\n']</t>
+          <t>[' violent cult movie\n', ' special\n', ' Gods bloody path\n', ' Good structure and simple concept to deliver genre standards but otherwise melodramatic, unimaginative and a bit daft\n', ' Cult Classic With Good Reason\n', ' An insult to Irish-Americans, gay FBI agents, and Mafiosos everywhere!\n', ' the flamboyant style and few drops of originality brushed over\n', ' Unexpectedly good\n', ' Down in the Boondocks with Troy Duffy\n', ' Anti Tarantino\n', ' Indulgent Cultism\n', ' A Fun Movie\n', ' Shallow and Stupid\n', ' I wanna be Tarantino\n', ' Definitely entertaining.\n', ' Great unusual action film\n', ' whilst I can understand the appeal for some, its not for me.\n', ' over-hyped\n', " If you've ever wanted to see Willem Dafoe French kiss a guy while dressed in drag, this movie is for you.\n", ' A classic film to mark the end of a century\n', ' Wonderful gem!\n', ' Nothing worse than a bad surrogate. This is simply ANOTHER FAILED Tarantino rip off. BORING.\n', " They're on a deadly mission from God\n", ' It was so good, that the next day I bought it!\n', ' Still fun to watch, but not as good as I remembered it to be\n']</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[' amazing Riz\n', ' Quite Real\n', ' A captivating movie.\n', ' The sound and the not sound\n', ' hear me out\n', ' Always wear your hearing protection!\n', ' A powerful story of transformation from tragic circumstance\n', ' Powerful\n', ' Original, confronting drama\n', ' a drummer loses his hearing\n', ' made me think because myself do work on stage a lot\n', ' Hits the right notes.\n', ' Powerful\n', ' Raw and gritty look at coming to terms with loss and facing acceptance.\n', ' Excellent addition to deafness canon in film.\n', ' Cinema Omnivore - Sound of Metal (2019) 7.3/10\n', ' Adorable...\n', ' Affecting take on the overcoming physical adversity genre\n', ' So so damn good!\n', ' Puts things into perspective.\n', ' Sound of Metal is a stressful, yet hopeful cinematic journey\n', ' From one universal language to another...\n', ' welcome to Deaf...\n', " An Auditory Revelation Powered By Riz Ahmed's Star-Making Showcase\n", ' Great movie\n']</t>
+          <t>[' amazing Riz\n', ' Quite Real\n', ' A captivating movie.\n', ' The sound and the not sound\n', ' hear me out\n', ' Always wear your hearing protection!\n', ' A powerful story of transformation from tragic circumstance\n', ' Powerful\n', ' Original, confronting drama\n', ' a drummer loses his hearing\n', ' made me think because myself do work on stage a lot\n', ' Hits the right notes.\n', ' Powerful\n', ' Raw and gritty look at coming to terms with loss and facing acceptance.\n', ' Cinema Omnivore - Sound of Metal (2019) 7.3/10\n', ' Excellent addition to deafness canon in film.\n', ' Adorable...\n', ' So so damn good!\n', ' Affecting take on the overcoming physical adversity genre\n', ' Puts things into perspective.\n', ' Sound of Metal is a stressful, yet hopeful cinematic journey\n', ' From one universal language to another...\n', ' welcome to Deaf...\n', " An Auditory Revelation Powered By Riz Ahmed's Star-Making Showcase\n", ' Great movie\n']</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[" Very much a worthy sequel, every bit as good as 'The Bourne Identity'\n", ' One of my all-time favourite thrillers\n', ' good Paul Greengrass action\n', ' Good Sequel\n', ' Carries it On\n', ' Story-wise the best\n', ' An imperfect but enjoyable and refreshingly old-fashioned thriller in a CGI bloated summer\n', ' Outstanding follow-up and with a similar premise to original movie\n', ' Good Thriller Ruined By Bad Camera\n', ' Stillbirth.\n', ' The DNA of the new 007 adventures\n', ' Lots To Like - A Great Sequel!\n', ' Top-notch thriller, with Jason Bourne on the run\n', ' a solid action movie, if not precisely as memorable as the first film\n', " Rockin' all over Europe!\n", ' Decent sequel\n', ' Intense and engaging\n', ' SUFFERS FROM SHAKY-CAM FAD...OTHERWISE FINE THRILLER...UPDATES SPY-GENRE\n', " Catch him if you can...he's still on the run...\n", ' Some viewers did not like the shaky cam but yt that still did not prevent them from watching the other Jason Bourne movies\n', ' Finger prints\n', ' Great Action but See the First One First\n', ' An Interesting Continuation\n', ' You told me Jason Bourne was dead.\n', " Bourne's Back in Business\n"]</t>
+          <t>[" Very much a worthy sequel, every bit as good as 'The Bourne Identity'\n", ' One of my all-time favourite thrillers\n', ' good Paul Greengrass action\n', ' Good Sequel\n', ' Carries it On\n', ' Story-wise the best\n', ' An imperfect but enjoyable and refreshingly old-fashioned thriller in a CGI bloated summer\n', ' Outstanding follow-up and with a similar premise to original movie\n', ' Good Thriller Ruined By Bad Camera\n', ' The DNA of the new 007 adventures\n', ' Stillbirth.\n', ' Lots To Like - A Great Sequel!\n', ' Top-notch thriller, with Jason Bourne on the run\n', ' a solid action movie, if not precisely as memorable as the first film\n', " Rockin' all over Europe!\n", ' Decent sequel\n', ' Intense and engaging\n', ' SUFFERS FROM SHAKY-CAM FAD...OTHERWISE FINE THRILLER...UPDATES SPY-GENRE\n', " Catch him if you can...he's still on the run...\n", ' Some viewers did not like the shaky cam but yt that still did not prevent them from watching the other Jason Bourne movies\n', ' Finger prints\n', ' Great Action but See the First One First\n', ' An Interesting Continuation\n', ' You told me Jason Bourne was dead.\n', " Bourne's Back in Business\n"]</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[' Best animated film of 2012? Absolutely!\n', ' Good animation, Great story\n', ' Another level\n', ' Not a wreck at all\n', ' The Sweetest Arcade Villain\n', ' Retro-cool points for sure, but needed more laughs and more heart\n', ' Sometimes it is good to be bad...\n', ' Have you got time to Wrecktify all the things that you should...\n', ' Best Animated Feature of 2012?\n', ' Film Improved As It Went On\n', ' A decent Disney animated film\n', ' Wreck-It Ralph was another enjoyable Walt Disney computer-animated feature\n', ' A fun, entertaining adventure\n', ' Original movie, and not just for kids\n', ' Well Put Together\n', ' Are arcade machines do kids still play those machines\n', ' A unique addition to the Disney universe that I would consider an absolute must see\n', ' Good, but could have been better\n', ' Tremendous\n', ' Has a lot of fun with a relatively unexplored section of pop-culture.\n', ' Wreck-It Ralph\n', ' A Nutshell Review: Wreck-It Ralph\n', ' A sweetly brat...\n', ' "My name is Ralph and I\'m a bad guy"\n', ' "I\'m not a glitch!"\n']</t>
+          <t>[' Best animated film of 2012? Absolutely!\n', ' Good animation, Great story\n', ' Another level\n', ' Not a wreck at all\n', ' The Sweetest Arcade Villain\n', ' Retro-cool points for sure, but needed more laughs and more heart\n', ' Sometimes it is good to be bad...\n', ' Have you got time to Wrecktify all the things that you should...\n', ' Best Animated Feature of 2012?\n', ' Film Improved As It Went On\n', ' A decent Disney animated film\n', ' Wreck-It Ralph was another enjoyable Walt Disney computer-animated feature\n', ' A fun, entertaining adventure\n', ' Original movie, and not just for kids\n', ' Well Put Together\n', ' Are arcade machines do kids still play those machines\n', ' A unique addition to the Disney universe that I would consider an absolute must see\n', ' Good, but could have been better\n', ' Tremendous\n', ' Has a lot of fun with a relatively unexplored section of pop-culture.\n', ' Wreck-It Ralph\n', ' A Nutshell Review: Wreck-It Ralph\n', ' A sweetly brat...\n', ' "I\'m not a glitch!"\n', ' "My name is Ralph and I\'m a bad guy"\n']</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[" people I don't care about doing things I don't care about for reasons I don't want to know about\n", ' Revenge Is a Dish Best Served Cold\n', ' Superficial but slick, engaging and fun regardless\n', ' Not as clever or as stylish as it thinks it is.\n', ' Unlucky at the Races\n', ' Stylish Post-Modern Movie\x85Witty, Violent, and Fun\n', ' A pleasant surprise\n', ' Bad Clumps\n', ' Excellent story\n', ' Intended for a specific demographic\n', ' The Kansas City Shuffle\n', ' There is no "they..." I did this to you. Me.\n', ' Where Did This Terrific Little Film Come From?\n', ' What a waste of time\n', ' Slick and enjoyable, but a little too clever for its own good\n', " Awful marketing aside, it's the uneven tone that does a real disservice\n", ' too much hipster dialog\n', ' A Surprise...of the Good Kind!\n', ' Decent lightweight thriller\n', ' Fun, if a tad predictable\n', ' Last Man Standing meets The Jackal and The Usual Suspects\n', ' A saucy mock thriller\n', ' A Nutshell Review: Luck Number SLevin\n', ' my notes\n', ' Wannabe smart. Wannabe Tarantino.\n']</t>
+          <t>[" people I don't care about doing things I don't care about for reasons I don't want to know about\n", ' Revenge Is a Dish Best Served Cold\n', ' Superficial but slick, engaging and fun regardless\n', ' Not as clever or as stylish as it thinks it is.\n', ' Unlucky at the Races\n', ' Stylish Post-Modern Movie\x85Witty, Violent, and Fun\n', ' A pleasant surprise\n', ' Bad Clumps\n', ' Excellent story\n', ' Intended for a specific demographic\n', ' The Kansas City Shuffle\n', ' There is no "they..." I did this to you. Me.\n', ' Where Did This Terrific Little Film Come From?\n', ' What a waste of time\n', ' Slick and enjoyable, but a little too clever for its own good\n', " Awful marketing aside, it's the uneven tone that does a real disservice\n", ' too much hipster dialog\n', ' A Surprise...of the Good Kind!\n', ' Decent lightweight thriller\n', ' Fun, if a tad predictable\n', ' Last Man Standing meets The Jackal and The Usual Suspects\n', ' A saucy mock thriller\n', ' A Nutshell Review: Luck Number SLevin\n', ' my notes\n', ' I forgot how enjoyable this film is\n']</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[' An important film due to its impact on the genre\n', ' Superb cop flick\n', ' One Kinky Cop\n', ' Great all around with iconic car subway chase\n', ' Copied Numerous Times\n', ' The French Connection\n', " An enjoyable cop thriller with plenty of good touches and an unmistakably 1970's feel\n", ' Classic thriller with an excellent Gene Hackman giving an Oscar winning performance\n', ' Either way...\n', ' Nothing Like Some Classic Gene Hackman...\n', ' Exciting, well acted, derivative\n', ' A pure masterpiece that no one can ignore\n', ' Hard To Tell The Good Guys From The Bad\n', ' "All right, Popeye\'s here!"\n', " what Friedkin set out to do, he accomplished tremendously; Hackman's at a peak\n", ' Fast and convincing.\n', ' A Brief Contrast\n', ' "Do you want the Red or the White?"\n', ' Good but not great\n', ' Gritty And Hard Hitting At The Time ...\n', ' Disconnection\n', " Another view of what NYC was like during the 1970's\n", ' Bonjour\n', ' What Not to Do in Poughkeepsie\n', ' Illicit Cargo...\n']</t>
+          <t>[' An important film due to its impact on the genre\n', ' Superb cop flick\n', ' One Kinky Cop\n', ' Great all around with iconic car subway chase\n', ' Copied Numerous Times\n', ' The French Connection\n', " An enjoyable cop thriller with plenty of good touches and an unmistakably 1970's feel\n", ' Classic thriller with an excellent Gene Hackman giving an Oscar winning performance\n', ' Either way...\n', ' Nothing Like Some Classic Gene Hackman...\n', ' A pure masterpiece that no one can ignore\n', ' Exciting, well acted, derivative\n', ' Hard To Tell The Good Guys From The Bad\n', ' "All right, Popeye\'s here!"\n', " what Friedkin set out to do, he accomplished tremendously; Hackman's at a peak\n", ' Fast and convincing.\n', ' A Brief Contrast\n', ' "Do you want the Red or the White?"\n', ' Good but not great\n', ' Gritty And Hard Hitting At The Time ...\n', ' Disconnection\n', " Another view of what NYC was like during the 1970's\n", ' Bonjour\n', ' What Not to Do in Poughkeepsie\n', ' Illicit Cargo...\n']</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[' The Theory of Almost Everything\n', ' great performances in sepia tone biopic\n', ' Grand Performance by Redmayne\n', ' Genius There Behind the Scenes\n', ' The powerful story of a much missed Genius.\n', ' Everything is (not always) awesome\n', ' with great genius come great challenges\n', ' Surprisingly Enjoyable\n', ' The love life and deteriorating health of theoretical physicist Stephen Hawking...pretty gummy at times\n', ' The Theory of Everything was one of the most touching of true-life love stories\n', ' An engaging story of a brilliant mind\n', ' No Deeper than a Shallow Weeper\n', ' Great, engaging story\n', " Sorry But It's Not As Good As Many People Claim\n", ' stephen hawking was a genius\n', ' Interesting by Default\n', ' Turning the Tide\n', ' Beautiful story!\n', ' Refreshingly chronological!\n', " Want Proof of God's Existence! Just Look at Stephen Hawking!\n", " 'I have a slight problem with the celestial dictatorship premise.'\n", ' Totally cliché, though also totally inoffensive\n', ' Focuses on the humour, resilience and love of the expertly portrayed protagonist and his strongest relationship.\n', " A compelling and educational love story drama that's a restrain but loving romance.\n", ' It has everything.\n']</t>
+          <t>[' The Theory of Almost Everything\n', ' great performances in sepia tone biopic\n', ' Grand Performance by Redmayne\n', ' Genius There Behind the Scenes\n', ' The powerful story of a much missed Genius.\n', ' Everything is (not always) awesome\n', ' with great genius come great challenges\n', ' Surprisingly Enjoyable\n', ' The love life and deteriorating health of theoretical physicist Stephen Hawking...pretty gummy at times\n', ' The Theory of Everything was one of the most touching of true-life love stories\n', ' An engaging story of a brilliant mind\n', ' No Deeper than a Shallow Weeper\n', ' Great, engaging story\n', " Sorry But It's Not As Good As Many People Claim\n", ' stephen hawking was a genius\n', ' Interesting by Default\n', ' Turning the Tide\n', ' Beautiful story!\n', ' Refreshingly chronological!\n', " Want Proof of God's Existence! Just Look at Stephen Hawking!\n", " 'I have a slight problem with the celestial dictatorship premise.'\n", ' Totally cliché, though also totally inoffensive\n', ' Focuses on the humour, resilience and love of the expertly portrayed protagonist and his strongest relationship.\n', " A compelling and educational love story drama that's a restrain but loving romance.\n", ' love is the theory behind everything, not time, not space, not God, only love\n']</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[' compelling characters\n', ' What a Mockery\n', ' The Trial of the Chicago 7\n', ' There are no politcal trials\n', ' Evoking emotions\n', ' Interesting and entertaining courtroom drama\n', ' Great doco\n', ' I loved this movie from beginning to end\n', ' Aaron Sorkin Fights Aaron Sorkin\n', ' objection, overruled\n', ' Objection!\n', ' Takes liberties, but gets the gist right\n', ' While I sympathize with the message of these movies, I find it hard to emotionally attach to such one sided and partizan work\n', ' Tense movie of a real life court drama that helped fight for truth, justice, and fairness.\n', ' I Predict A Riot\n', ' Dramatization of history rarely gets better than this.\n', ' Film Review - The Trial of Chicago 7 (2020) 7.8/10\n', ' Excellent...\n', ' entertaining bit of history\n', ' "What are you wearing? It\'s an homage to you!" Love that quote\n', ' Well made, interesting and relevant to the current climate, but feels very Hollywood\n', " The clash between pragmatism and idealism... with America's soul at stakes!\n", ' mis-justice\n', ' One of the best films of the year.\n', ' Highly engrossing historical courtroom drama\n']</t>
+          <t>[' compelling characters\n', ' What a Mockery\n', ' The Trial of the Chicago 7\n', ' There are no politcal trials\n', ' Evoking emotions\n', ' Interesting and entertaining courtroom drama\n', ' Great doco\n', ' I loved this movie from beginning to end\n', ' Aaron Sorkin Fights Aaron Sorkin\n', ' objection, overruled\n', ' Objection!\n', ' Takes liberties, but gets the gist right\n', ' While I sympathize with the message of these movies, I find it hard to emotionally attach to such one sided and partizan work\n', ' Tense movie of a real life court drama that helped fight for truth, justice, and fairness.\n', ' I Predict A Riot\n', ' Film Review - The Trial of Chicago 7 (2020) 7.8/10\n', ' Dramatization of history rarely gets better than this.\n', ' Excellent...\n', ' "What are you wearing? It\'s an homage to you!" Love that quote\n', ' entertaining bit of history\n', ' Well made, interesting and relevant to the current climate, but feels very Hollywood\n', " The clash between pragmatism and idealism... with America's soul at stakes!\n", ' mis-justice\n', ' Highly engrossing historical courtroom drama\n', ' One of the best films of the year.\n']</t>
         </is>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[" Trippy and adult...like many of Satoshi Kon's other films.\n", ' One of the most visually beautiful and unique animes there is\n', ' wild imaginative dreamworld\n', " It's a mind f**k (sorry for the expression)\n", ' Anime and Science Fiction Combine For Good Fun\n', ' His Own Mirror\n', ' Paprika is visceral delight\n', " Don't you think dreams and the Internet are similar? They are both areas where the repressed conscious mind vents.\n", ' Brief review\n', " You're waiting for a train...\n", ' Interesting premise and weird animation, but ultimately boring\n', " An Acid Trip You Don't Wanna Refuse!\n", ' top-notch anime film\n', ' A Visual and Intellectual Feast\n', ' Absolutely insane\n', ' Might be one of the best animated films of all time\n', ' Paprika sprinkles its spicy originality across a sprawling vibrant fever dream.\n', ' Check this out.\n', ' Paprika\n', ' Cheerful, weird fun\n', ' Breathtaking Dream Sequences Compensate for a Tangled Plot\n', ' Breathtaking Dream Sequences Compensate for a Tangled Plot\n', ' Susumu Hirasawa composed the score which is a good enough reason to watch this movie.\n', ' "Paprika" spices up the imagination in many surreal, unimaginable ways\n', ' Fantstic Movie by MADHOUSE and director Kon\n']</t>
+          <t>[" Trippy and adult...like many of Satoshi Kon's other films.\n", ' One of the most visually beautiful and unique animes there is\n', ' wild imaginative dreamworld\n', " It's a mind f**k (sorry for the expression)\n", ' Anime and Science Fiction Combine For Good Fun\n', ' His Own Mirror\n', ' Paprika is visceral delight\n', " Don't you think dreams and the Internet are similar? They are both areas where the repressed conscious mind vents.\n", ' Brief review\n', " You're waiting for a train...\n", ' Interesting premise and weird animation, but ultimately boring\n', " An Acid Trip You Don't Wanna Refuse!\n", ' top-notch anime film\n', ' A Visual and Intellectual Feast\n', ' Absolutely insane\n', ' Might be one of the best animated films of all time\n', ' Check this out.\n', ' Paprika sprinkles its spicy originality across a sprawling vibrant fever dream.\n', ' Paprika\n', ' Cheerful, weird fun\n', ' Breathtaking Dream Sequences Compensate for a Tangled Plot\n', ' Breathtaking Dream Sequences Compensate for a Tangled Plot\n', ' Susumu Hirasawa composed the score which is a good enough reason to watch this movie.\n', ' "Paprika" spices up the imagination in many surreal, unimaginable ways\n', ' Fantstic Movie by MADHOUSE and director Kon\n']</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[' Made on the cheap, just like the first one.\n', ' Firm favourite\n', ' fun B-movie splatter horror\n', ' Good Film\n', ' Do not read the book\n', ' Within the cabin\n', ' The element of comedy spiced it up...\n', ' Creepy and scary horror feast with plenty of gore , guts and loads of blood\n', ' Oh that hand!\n', ' A silly splat-stick horror classic-but not the film I wish it was.\n', ' Possibly the Best in the Genre\n', ' Horror Movie Played For Laughs; Extremely Entertaining\n', ' Back to the cabin in the woods...\n', ' more entertaining than the first; a great party flick\n', ' "I\'ll swallow your soul!" "Swallow this!"\n', ' From somebody who knows nothing about the first film..\n', ' Arguably Invented The Genre\x85Still The One To Beat\n', " So bad it's almost good. Almost.\n", ' The Flaming Groovy!\n', ' Same but Sillier\n', ' Violent, gruesome, over the top, a GREAT movie!\n', ' Very similar to the original, but still great entertainment.\n', ' "Hey! Whatta Ya Say We Have some Champagne, Hey Baby?!"\n', ' This belongs in the horror movie hall of fame\n', ' Swallow this!\n']</t>
+          <t>[' Made on the cheap, just like the first one.\n', ' Firm favourite\n', ' fun B-movie splatter horror\n', ' Good Film\n', ' Do not read the book\n', ' Within the cabin\n', ' The element of comedy spiced it up...\n', ' Creepy and scary horror feast with plenty of gore , guts and loads of blood\n', ' Oh that hand!\n', ' A silly splat-stick horror classic-but not the film I wish it was.\n', ' Possibly the Best in the Genre\n', ' Horror Movie Played For Laughs; Extremely Entertaining\n', ' Back to the cabin in the woods...\n', ' more entertaining than the first; a great party flick\n', ' "I\'ll swallow your soul!" "Swallow this!"\n', ' From somebody who knows nothing about the first film..\n', ' Arguably Invented The Genre\x85Still The One To Beat\n', " So bad it's almost good. Almost.\n", ' The Flaming Groovy!\n', ' Same but Sillier\n', ' Violent, gruesome, over the top, a GREAT movie!\n', ' Very similar to the original, but still great entertainment.\n', ' "Hey! Whatta Ya Say We Have some Champagne, Hey Baby?!"\n', ' This belongs in the horror movie hall of fame\n', " Just as demented and crazy as it's predecessor\n"]</t>
         </is>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[' Dark, affecting, entertaining vengeance\n', ' Entertaining Trek outing for an ageing crew\n', ' From Out Of The Past\n', ' Khannnn!!!!!\n', ' Highly Entertaining Sequel\n', ' Really Has a Spark\n', ' A good sequel...\n', ' Are You Out of Your Vulcan Mind?\n', ' hands down, my favorite Star Trek movie\n', ' an instant classic for Trekkies; casual fans get ready for one of the best yet\n', ' Marooned (light maroon)\n', ' A no-win situation is a possibility every commander may face.\n', ' Celestial Cat and Mouse\n', ' Possibly the Best Star Trek Film Ever Produced\n', ' Good as a genre movie and for its time but honestly nothing to get all that excited about.\n', ' Better\n', ' Twice as good as the original\n', ' A definite step up from the first Star Trek movie.\n', ' excellent Star Trek flick which delivers\n', ' Plenty to enjoy here\n', ' Star Trek II: The Wrath of Khan\n', ' A major improvement.\n', ' Brilliant\n', ' Signs of life...\n', ' One Memorable Film\n']</t>
+          <t>[' Dark, affecting, entertaining vengeance\n', ' Entertaining Trek outing for an ageing crew\n', ' From Out Of The Past\n', ' Khannnn!!!!!\n', ' Highly Entertaining Sequel\n', ' Really Has a Spark\n', ' A good sequel...\n', ' Are You Out of Your Vulcan Mind?\n', ' hands down, my favorite Star Trek movie\n', ' an instant classic for Trekkies; casual fans get ready for one of the best yet\n', ' Marooned (light maroon)\n', ' A no-win situation is a possibility every commander may face.\n', ' Celestial Cat and Mouse\n', ' Possibly the Best Star Trek Film Ever Produced\n', ' Good as a genre movie and for its time but honestly nothing to get all that excited about.\n', ' Better\n', ' Twice as good as the original\n', ' A definite step up from the first Star Trek movie.\n', ' Star Trek II: The Wrath of Khan\n', ' excellent Star Trek flick which delivers\n', ' Plenty to enjoy here\n', ' A major improvement.\n', ' Brilliant\n', ' Signs of life...\n', ' One Memorable Film\n']</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[' so great\n', ' Quite Down to Earth\n', ' Up (for it)\n', ' evolve your relations\n', ' Ove seems angry at the world and all the "idiots" he encounters daily.\n', ' Would Have Preferred a Less Overtly Sentimental Approach\n', ' A moving adaptation of a great novel.\n', ' Sweet, funny and sad...and destined to put a smile on your face.\n', " Can definitely see why it's received all of the acclaim that it's gotten.\n", " It's a Wonderful Strife...\n", ' Touching\n', ' "Gran Torino"-reminding Swedish movie\n', " It's okay\n", ' A heartwarming slice of life with a strong performance by Rolf Lassgard in the titular role.\n', ' The life after the loved one departed.\n', ' Wow\n', ' Unhappy Swede\n', ' Heart warming and Heart wrenching\n', ' So emotional and funny.\n', ' Predictable but thoroughly heartwarming.\n', ' Funny and very heartfelt\n', ' Funny and touching even if sometimes predictable\n', ' Feelggod movie with much truth, but a bit too much sugar\n', ' Funny Sensitive and very en\n', ' The process of being melted is much the same, but the first third of the unreachable part of life touches me more.\n']</t>
+          <t>[' so great\n', ' Quite Down to Earth\n', ' Up (for it)\n', ' evolve your relations\n', ' Ove seems angry at the world and all the "idiots" he encounters daily.\n', ' Would Have Preferred a Less Overtly Sentimental Approach\n', ' A moving adaptation of a great novel.\n', ' Sweet, funny and sad...and destined to put a smile on your face.\n', " Can definitely see why it's received all of the acclaim that it's gotten.\n", " It's a Wonderful Strife...\n", ' Touching\n', ' "Gran Torino"-reminding Swedish movie\n', " It's okay\n", ' A heartwarming slice of life with a strong performance by Rolf Lassgard in the titular role.\n', ' Wow\n', ' The life after the loved one departed.\n', ' Unhappy Swede\n', ' Heart warming and Heart wrenching\n', ' So emotional and funny.\n', ' Predictable but thoroughly heartwarming.\n', ' Funny and very heartfelt\n', ' Funny and touching even if sometimes predictable\n', ' Feelggod movie with much truth, but a bit too much sugar\n', ' Funny Sensitive and very en\n', ' The process of being melted is much the same, but the first third of the unreachable part of life touches me more.\n']</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[' Very slow, very dry yet very rewarding.\n', ' Very much a winner and the complete opposite of a loser\n', ' Terrific family movie\n', ' Beautiful, Authenic Film\n', " This Year's Lincoln (NE)\n", ' Style and lack of ...\n', ' Father and Son Journey\n', ' the Midwest looks miserable\n', ' A Nice Showcase For Bruce Dern\n', " 'I'm not trusting the mail with a million dollars.'\n", ' Flashes of talent throughout...yet the scenario is emotionally stunted\n', ' Beautiful, hilarious, poignant film\n', " Alexander Payne's mid west bittersweet suite\n", " Wow! Nebraska is one of the best movies I've seen this year, so far!\n", ' Charming simplicity\n', ' Not a Natural Disaster\x85This "Dust Bowl" is Man-Made\n', ' Sweet, charming, quirkily funny movie\n', ' The Ties That Bind in the American Heartland\n', ' Prize Winner\n', ' he sometimes tends towards cliché\n', ' A Slice of Americana Captured on Celluloid!\n', ' Brilliant\n', ' A movie of reflection and memory proving that life does age and pass still look back on it thru a trip!\n', ' A country for an old man.\n', " Payne's excellent ode to human warmth!\n"]</t>
+          <t>[' Very slow, very dry yet very rewarding.\n', ' Very much a winner and the complete opposite of a loser\n', ' Terrific family movie\n', ' Beautiful, Authenic Film\n', " This Year's Lincoln (NE)\n", ' Style and lack of ...\n', ' Father and Son Journey\n', ' the Midwest looks miserable\n', ' A Nice Showcase For Bruce Dern\n', " 'I'm not trusting the mail with a million dollars.'\n", ' Flashes of talent throughout...yet the scenario is emotionally stunted\n', ' Beautiful, hilarious, poignant film\n', " Alexander Payne's mid west bittersweet suite\n", " Wow! Nebraska is one of the best movies I've seen this year, so far!\n", ' Charming simplicity\n', ' Not a Natural Disaster\x85This "Dust Bowl" is Man-Made\n', ' Sweet, charming, quirkily funny movie\n', ' The Ties That Bind in the American Heartland\n', ' Prize Winner\n', ' he sometimes tends towards cliché\n', ' A Slice of Americana Captured on Celluloid!\n', ' Brilliant\n', ' A movie of reflection and memory proving that life does age and pass still look back on it thru a trip!\n', " Payne's excellent ode to human warmth!\n", ' A country for an old man.\n']</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[' Just lovely.\n', " Laika's best yet and a near-masterpiece\n", ' wonderful\n', ' "While My Guitar Gently Weeps" turned 50 last month\n', ' Beautiful Technique Hampered By An Awful Story\n', ' An adventure for children\n', ' A Rousing Animated Adventure Story\n', ' The craft on display here is staggering\n', ' Kubo and the Two Strings\n', " If you must blink, you'll miss a frame.\n", ' A stylish blend of Western and Eastern culture\n', ' a top-drawer white elephant\n', ' Absolutely wonderful\n', ' A beautiful and creative story\n', ' killer combo; studio LAIKA + Charlize Theron\n', ' A Creative Masterpiece\n', " Kind of a disappointment, that's for sure.\n", ' Passionate Filmmaking &amp; Dextrous Craftsmanship At Its Best\n', ' Beautifully crafted good animated movie\n', ' Magical\n', ' Thrilling, moving, and so beautifully crafted\n', " Possibly Laika's best film\n", ' The Vidiot Reviews...\n', ' Good story with some gorgeous visuals but forgettable characters\n', ' A boy, a monkey and a giant beetle team up for a quest.\n']</t>
+          <t>[' Just lovely.\n', " Laika's best yet and a near-masterpiece\n", ' wonderful\n', ' "While My Guitar Gently Weeps" turned 50 last month\n', ' Beautiful Technique Hampered By An Awful Story\n', ' An adventure for children\n', ' A Rousing Animated Adventure Story\n', ' The craft on display here is staggering\n', ' Kubo and the Two Strings\n', " If you must blink, you'll miss a frame.\n", ' A stylish blend of Western and Eastern culture\n', ' a top-drawer white elephant\n', ' Absolutely wonderful\n', ' A beautiful and creative story\n', ' killer combo; studio LAIKA + Charlize Theron\n', ' A Creative Masterpiece\n', " Kind of a disappointment, that's for sure.\n", ' Passionate Filmmaking &amp; Dextrous Craftsmanship At Its Best\n', ' Beautifully crafted good animated movie\n', ' Magical\n', ' Thrilling, moving, and so beautifully crafted\n', " Possibly Laika's best film\n", ' Good story with some gorgeous visuals but forgettable characters\n', ' The Vidiot Reviews...\n', ' A boy, a monkey and a giant beetle team up for a quest.\n']</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[' Well made but too disturbing for most viewers....including myself!\n', ' cold-hearted killer\n', ' He Had to Know\n', ' gone without a trace\n', ' Not as disturbing as many claim it to be.\n', ' Great Film About Abduction, Quite Tense\n', ' More Of A Character(s) Study\n', ' A serial killer not like the other ones...\n', ' three thoughts\n', ' Another Lady Vanishes\n', " It's a Dark Fate that Rules\n", ' Traceless.\n', ' Some Things Are Worse Than Death...\n', ' You see, Mr Hoffman. For me, dying is not the worse thing.\n', ' Riveting little thriller\n', ' a movie you will not want to watch again!\n', ' Genuinely eerie and mesmerizing Dutch thriller.\n', ' A somewhat over-touted but good European psychodrama\n', ' A Quiet, Unnerving &amp; Gradually Escalating Nightmare\n', " The truth has it's price\n", ' Superb and frightening\n', ' A Great Thriller...\n', ' Missing Ingredients\n', ' tight and tense abduction mystery\n', ' Great ending to a confusing plot\n']</t>
+          <t>[' Well made but too disturbing for most viewers....including myself!\n', ' cold-hearted killer\n', ' He Had to Know\n', ' gone without a trace\n', ' Not as disturbing as many claim it to be.\n', ' Great Film About Abduction, Quite Tense\n', ' More Of A Character(s) Study\n', ' A serial killer not like the other ones...\n', ' three thoughts\n', ' Another Lady Vanishes\n', " It's a Dark Fate that Rules\n", ' Traceless.\n', ' Some Things Are Worse Than Death...\n', ' You see, Mr Hoffman. For me, dying is not the worse thing.\n', ' Riveting little thriller\n', ' a movie you will not want to watch again!\n', ' Genuinely eerie and mesmerizing Dutch thriller.\n', ' A somewhat over-touted but good European psychodrama\n', ' A Quiet, Unnerving &amp; Gradually Escalating Nightmare\n', ' Superb and frightening\n', " The truth has it's price\n", ' A Great Thriller...\n', ' Missing Ingredients\n', ' tight and tense abduction mystery\n', ' Great ending to a confusing plot\n']</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[' Brilliant and ahead of its time\n', ' "Do It First, Do It Yourself, And Keep On Doing It"\n', " Violent 30's gangster movie\n", ' Evil to the Nth Degree\n', ' The World is Yours\n', ' Powerhouse performance\n', ' The Original Gangster Film\n', ' Unusual for HH\n', ' A masterpiece for the gangster genre movie.\n', ' Ahead Of Its Time, Action-Wise\n', ' the world is yours!\n', ' Preferred far more than the remake; Hawks, Hecht, and Muni are first-rate here\n', ' The World Is Yours\n', ' "Do it first, do it yourself, and keep on doing it."\n', ' The rise and fall of a power hungry mobster.\n', ' Over The Top\n', ' One of the first talking gangster films and a cinematic landmark\n', ' "Kinda Gaudy isn\'t it?\x85 Ain\'t it though, glad you like it."\n', ' Say Hello To A Masterpiece\n', ' An "Indictment of Gang Rule in America"\n', ' When the gangster film was born...still stunning...\n', ' Classic gangster film\n', ' "Get out of my way, Johnny. I\'m gonna spit!"\n', ' Paul Muni and Boris Karloff\n', ' Accent Man Paul Muni Goes Italian\n']</t>
+          <t>[' Brilliant and ahead of its time\n', ' "Do It First, Do It Yourself, And Keep On Doing It"\n', " Violent 30's gangster movie\n", ' Evil to the Nth Degree\n', ' The World is Yours\n', ' Powerhouse performance\n', ' The Original Gangster Film\n', ' A masterpiece for the gangster genre movie.\n', ' Unusual for HH\n', ' Ahead Of Its Time, Action-Wise\n', ' the world is yours!\n', ' Preferred far more than the remake; Hawks, Hecht, and Muni are first-rate here\n', ' The World Is Yours\n', ' "Do it first, do it yourself, and keep on doing it."\n', ' The rise and fall of a power hungry mobster.\n', ' Over The Top\n', ' One of the first talking gangster films and a cinematic landmark\n', ' "Kinda Gaudy isn\'t it?\x85 Ain\'t it though, glad you like it."\n', ' Say Hello To A Masterpiece\n', ' An "Indictment of Gang Rule in America"\n', ' When the gangster film was born...still stunning...\n', ' Classic gangster film\n', ' "Get out of my way, Johnny. I\'m gonna spit!"\n', ' Paul Muni and Boris Karloff\n', ' Accent Man Paul Muni Goes Italian\n']</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[' not just the essential\n', ' strange\n', " A children's story with profound philosophy\n", ' Good adaptation of the classic story\n', ' Single mother syndrome.\n', ' Interesting approach to the classic story\n', ' Brilliant!\n', ' Compelling magical transformative hypnotic magical best animation ever\n', ' Not bad interpretation of a classic\n', ' Good, but not perfect\n', ' Wonderful\n', ' Good\n', ' Interesting way to adapt the book\n', ' Growing up is not the problem. Forgetting is.\n', ' Full of heart, and story\n', ' Looking towards what really matters\n', ' LIGHT-HEARTED.\n', " With hints of humor and adventure, the whole essence of The Little Prince's original story and messages are here and it is impossible not to cry at the end\n", ' Gorgeous adaptation\n', ' Make sure you know what this movie is - and is not - before you go to see it\n', ' A solid kids film for those with a bit more imagination than me\n', ' Very good in its own way\n', " A children's movie that's hits home to both kids and parents alike\n", ' Little Boy Lost\n', ' Enjoyable\n']</t>
+          <t>[' not just the essential\n', ' strange\n', " A children's story with profound philosophy\n", ' Good adaptation of the classic story\n', ' Single mother syndrome.\n', ' Interesting approach to the classic story\n', ' Brilliant!\n', ' Compelling magical transformative hypnotic magical best animation ever\n', ' Not bad interpretation of a classic\n', ' Good, but not perfect\n', ' Wonderful\n', ' Good\n', ' Interesting way to adapt the book\n', ' Growing up is not the problem. Forgetting is.\n', ' Full of heart, and story\n', ' Looking towards what really matters\n', " With hints of humor and adventure, the whole essence of The Little Prince's original story and messages are here and it is impossible not to cry at the end\n", ' LIGHT-HEARTED.\n', ' Gorgeous adaptation\n', ' Make sure you know what this movie is - and is not - before you go to see it\n', ' A solid kids film for those with a bit more imagination than me\n', ' Very good in its own way\n', " A children's movie that's hits home to both kids and parents alike\n", ' Little Boy Lost\n', ' Enjoyable\n']</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[' fascinating character\n', ' Unconventional, Weird, Bizarre and Funny – A Great Homage to the Glitter Rock\n', ' What?\n', ' Two sets of arms...two sets of legs\n', ' Very strange but GREAT!\n', ' Luther is silent for a moment, as he stares at my little bishop in a turtleneck.\n', ' The Fabulous, Mesmerizing Hedwig\n', ' I could never hope to praise this enough: 10/10\n', ' The curtain call is a bit vague in its message, otherwise, a sterling music pic with a unique diva\n', ' brilliant\n', ' Broken lives and dreams\n', " A uniquely told rock musical that doesn't hold back and doesn't forgive\n", ' Awful songs drag down this mediocre musical.\n', ' Love You Stephen Trask\n', ' Movie You Have To Watch In A Trans State!\n', ' Brilliant toe-tapping stuff\n', ' Takes Time Finding the Real Person Under the Wigs\n', ' Love yourself\n', ' of the greatest modern musicals\n', ' A rock musical about a transsexual\n', ' The Origin of Love\n', ' Needs more story structure for my taste\n', ' Glam Slammed\n', ' You Just Want to Tell Her to Chill\n', ' Interesting and entertaining, but with a bummer of an ending\n']</t>
+          <t>[' fascinating character\n', ' Unconventional, Weird, Bizarre and Funny – A Great Homage to the Glitter Rock\n', ' What?\n', ' Two sets of arms...two sets of legs\n', ' Very strange but GREAT!\n', ' Luther is silent for a moment, as he stares at my little bishop in a turtleneck.\n', ' The Fabulous, Mesmerizing Hedwig\n', ' I could never hope to praise this enough: 10/10\n', ' The curtain call is a bit vague in its message, otherwise, a sterling music pic with a unique diva\n', ' brilliant\n', ' Broken lives and dreams\n', " A uniquely told rock musical that doesn't hold back and doesn't forgive\n", ' Awful songs drag down this mediocre musical.\n', ' Love You Stephen Trask\n', ' Movie You Have To Watch In A Trans State!\n', ' Brilliant toe-tapping stuff\n', ' Takes Time Finding the Real Person Under the Wigs\n', ' Love yourself\n', ' Glam Slammed\n', ' of the greatest modern musicals\n', ' A rock musical about a transsexual\n', ' The Origin of Love\n', ' Needs more story structure for my taste\n', ' You Just Want to Tell Her to Chill\n', ' Interesting and entertaining, but with a bummer of an ending\n']</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[' powerful indictment\n', ' A Sadistic and Manipulative Story\n', ' The wardens were dressed as nuns, and the inmates were only children.\n', ' One of the better films of the year; Bergman goes to Ireland, you could say...\n', ' Dark habits\n', ' Agonizing portrait of terrorism at an Irish convent "prison"...\n', ' Depicting an important time in Irish history\n', ' Fact-based HORROR!\n', " Intolerable Cruelty - One of the year's best films\n", " I rank writer/director Peter Mullan's `Magdalene Sisters' as the most violent film of 2003.\n", ' a clammy, unadorned survival drama is a gripping nay-sayer of God-awful religious abuse\n', " Where' s the Pope when you need him.\n", ' gripping docudrama\n', " Under The Sisters' Guidance\n", " You're not a man of God\n", ' ........to-be-Sharia-Law, to-be-Sharia-Law.\n', ' The other, other kind of terrorism.\n', ' The evil hypocrisy of the Catholic Church\n', ' " How can religious people who espouse mercy, have so little of it? "\n', ' Rot in Hell Now - Find Sins Later\n', ' A Sordid Irish Past Vividly Recreated\n', " I'd commit any sin, mortal or otherwise, to get the hell out of here.\n", ' Makes you want to punch a nun...\n', ' Brutal look at a shameful part of Irish history\n', ' Stunning portrayal of a shameful period in Irish history\n']</t>
+          <t>[' powerful indictment\n', ' A Sadistic and Manipulative Story\n', ' The wardens were dressed as nuns, and the inmates were only children.\n', ' One of the better films of the year; Bergman goes to Ireland, you could say...\n', ' Dark habits\n', ' Agonizing portrait of terrorism at an Irish convent "prison"...\n', ' Depicting an important time in Irish history\n', ' Fact-based HORROR!\n', " Intolerable Cruelty - One of the year's best films\n", ' a clammy, unadorned survival drama is a gripping nay-sayer of God-awful religious abuse\n', " I rank writer/director Peter Mullan's `Magdalene Sisters' as the most violent film of 2003.\n", " Where' s the Pope when you need him.\n", ' gripping docudrama\n', " Under The Sisters' Guidance\n", " You're not a man of God\n", ' ........to-be-Sharia-Law, to-be-Sharia-Law.\n', ' The other, other kind of terrorism.\n', ' The evil hypocrisy of the Catholic Church\n', ' " How can religious people who espouse mercy, have so little of it? "\n', ' Rot in Hell Now - Find Sins Later\n', ' A Sordid Irish Past Vividly Recreated\n', " I'd commit any sin, mortal or otherwise, to get the hell out of here.\n", ' Makes you want to punch a nun...\n', ' Brutal look at a shameful part of Irish history\n', ' Stunning portrayal of a shameful period in Irish history\n']</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[' art and life imitate each other, and Farhadi later said what needed to get said\n', ' a crime film, a morality story, thrilling, tragic, full of real human beings up there on the screen\n', ' Forgiveness and compassion\n', ' Another Slow Burn\n', ' another Farhadi masterpiece\n', ' Could have been worse\n', ' a rather complicated but great film\n', ' Hitchcock + Ibsen= realism at its low-key best.\n', " Farhadi's dramaturgy still rocks, but a fly in the ointment is that his hand-picked moral tale needs some tweaking\n", " The man who couldn't be a hero and had to turn into a monster...\n", ' Honour and revenge\n', " Asghar Farhadi's Latest Is His Fifth Consecutive Masterpiece. Tense &amp; Devastating.\n", ' Simple yet powerful story\n', ' Riveting and incredibly paced\n', ' A fascinating dramatic effort\n', ' 4.5 stars... Justice, Iran-style: a human psychological action movie for the mind\n', ' A WELL DESERVING WIN...!\n', ' When the realistic right and an emotional wrong collides.\n', ' Brilliant film, but very grim\n', ' Depressing Iranian Drama\n', ' A heavy piece of tragic brilliance.\n', ' Powerful and brilliantly executed\n', ' FAMILIAR EMOTIONS.\n', ' An absolute snoozefest\n', ' Farhadi rules\n']</t>
+          <t>[' art and life imitate each other, and Farhadi later said what needed to get said\n', ' a crime film, a morality story, thrilling, tragic, full of real human beings up there on the screen\n', ' Forgiveness and compassion\n', ' Another Slow Burn\n', ' another Farhadi masterpiece\n', ' Could have been worse\n', ' a rather complicated but great film\n', " Farhadi's dramaturgy still rocks, but a fly in the ointment is that his hand-picked moral tale needs some tweaking\n", ' Hitchcock + Ibsen= realism at its low-key best.\n', " The man who couldn't be a hero and had to turn into a monster...\n", ' Honour and revenge\n', " Asghar Farhadi's Latest Is His Fifth Consecutive Masterpiece. Tense &amp; Devastating.\n", ' Simple yet powerful story\n', ' Riveting and incredibly paced\n', ' A fascinating dramatic effort\n', ' 4.5 stars... Justice, Iran-style: a human psychological action movie for the mind\n', ' A WELL DESERVING WIN...!\n', ' When the realistic right and an emotional wrong collides.\n', ' Brilliant film, but very grim\n', ' Depressing Iranian Drama\n', ' A heavy piece of tragic brilliance.\n', ' Powerful and brilliantly executed\n', ' FAMILIAR EMOTIONS.\n', ' An absolute snoozefest\n', ' Farhadi rules\n']</t>
         </is>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[' Mission Accomplished\n', ' Mission: Impossible - Dead Reckoning Part One\n', ' AI taking over\n', ' At least 80% of the action sequences were already shown on the previews, you are basically paying the ticket price to see the drama\n', ' number 7 is even bigger\n', ' That is written\n', " Cruise Control at its finest - make sure to see it in IMAX ; one of the year's best films!\n", " It's getting to the point where I have to go to Tom Cruise movies for a fix\n", ' Mission Impossible: Dead Reckoning (Part One)\n', ' This mission of yours is going to cost you dearly.\n', ' Fantastic action and direction. Incredibly dumb plot.\n', ' One of the best actioners ever. Even beating itself.\n', ' Major props for putting "Part One" in the title\n', " IMF's Key to Success\n", ' Your high expectations will get a beating...\n', ' One of the most satisfying action IMAX experiences\n', " Tom Cruise's Signature Spy Action Thriller Sets the Path For A Better Follow-Up\n", " Lacks The Perfection Of 'Fallout' But Still A Strong Entry\n", ' What do you Reckon?\n', ' The Mission You Have Seen Many Times Already\n', ' Does More Than Blow The Doors Off...\n', ' Run Tom Cruise Run\n', ' Back bigger and better than ever, Dead Reckoning Part One puts most blockbusters to shame\n', ' Mission Impossible - Dead Reckoning Part 1\n', ' The gold standard of Hollywood action movies\n']</t>
+          <t>[' Mission Accomplished\n', ' Mission: Impossible - Dead Reckoning Part One\n', ' AI taking over\n', ' At least 80% of the action sequences were already shown on the previews, you are basically paying the ticket price to see the drama\n', ' number 7 is even bigger\n', ' That is written\n', " Cruise Control at its finest - make sure to see it in IMAX ; one of the year's best films!\n", " It's getting to the point where I have to go to Tom Cruise movies for a fix\n", ' Mission Impossible: Dead Reckoning (Part One)\n', ' This mission of yours is going to cost you dearly.\n', ' Fantastic action and direction. Incredibly dumb plot.\n', ' One of the best actioners ever. Even beating itself.\n', ' Major props for putting "Part One" in the title\n', " IMF's Key to Success\n", ' One of the most satisfying action IMAX experiences\n', ' Your high expectations will get a beating...\n', " Tom Cruise's Signature Spy Action Thriller Sets the Path For A Better Follow-Up\n", " Lacks The Perfection Of 'Fallout' But Still A Strong Entry\n", ' What do you Reckon?\n', ' The Mission You Have Seen Many Times Already\n', ' Does More Than Blow The Doors Off...\n', ' Run Tom Cruise Run\n', ' Back bigger and better than ever, Dead Reckoning Part One puts most blockbusters to shame\n', ' The gold standard of Hollywood action movies\n', ' Mission Impossible - Dead Reckoning Part 1\n']</t>
         </is>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[' Practically impossible to describe...you just need to see it for yourself.\n', ' Lamentable\n', ' imaginative and original\n', ' It Seemed Endless\n', ' too old for it\n', ' Everything Everywhere All at Once\n', " I don't see the hype.\n", ' Weight of Multiverse Talent\n', ' Overhyped and Overrated Bad Trip\n', ' Rather impressive movie...\n', ' Now this is what I like!\n', ' We go in a circle, do laundry, do income taxes, do laundry ... is that all there is?\n', ' Everything Everywhere All at Once deserved all the praise it got!\n', ' Disappointing: more style than substance\n', ' This is my early pick for best picture for 2022\n', ' Absolutely exemplary, truly brilliant, difficult to even put into words\n', ' Felt Like I Was Seeing the Inside of My Own Mind on Screen\n', ' Bonkers!\n', ' There is always something to love\n', " That's something different that we normally get and it's positive.\n", ' best film of 2022\n', ' Open your third (googly) eye...\n', ' Fantastic\n', " It starts a little slow, but it's worth it\n", ' A first-rate fantasy about the multiverse and much more with Michelle Yeoh at the top of her game.\n']</t>
+          <t>[' Practically impossible to describe...you just need to see it for yourself.\n', ' Lamentable\n', ' imaginative and original\n', ' It Seemed Endless\n', ' too old for it\n', ' Everything Everywhere All at Once\n', " I don't see the hype.\n", ' Weight of Multiverse Talent\n', ' Overhyped and Overrated Bad Trip\n', ' Rather impressive movie...\n', ' Now this is what I like!\n', ' We go in a circle, do laundry, do income taxes, do laundry ... is that all there is?\n', ' Everything Everywhere All at Once deserved all the praise it got!\n', ' Disappointing: more style than substance\n', ' This is my early pick for best picture for 2022\n', ' Absolutely exemplary, truly brilliant, difficult to even put into words\n', ' Felt Like I Was Seeing the Inside of My Own Mind on Screen\n', ' Bonkers!\n', ' There is always something to love\n', " That's something different that we normally get and it's positive.\n", ' best film of 2022\n', ' Open your third (googly) eye...\n', ' Fantastic\n', " It starts a little slow, but it's worth it\n", ' Cinema Omnivore - Everything Everywhere All at Once (2022) 8.2/10\n']</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[' I am the odd reviewer who did NOT love this film.\n', ' A story well worth owning\n', ' best one yet\n', ' We Already Know the Story\n', ' beautiful\n', " You Can't Always Get What You Want\n", ' Remaking - in a good way\n', ' Lady Bird meets Hermione Granger meets Ellie Grant meets Paul Atreides meets Miranda Priestley meets Saul Goodman\n', ' Filmed entirely in Massachusetts, this version is filled with movie stars.\n', ' A joy\n', ' Good acting and costumes\n', ' Okay, but not in the same league as the 1949 and 1994 versions\n', ' Glorious\n', ' an instant classic\n', ' Saoirse carries the show but the story is too fragmented\n', ' Perhaps as good as it could be.\n', ' A reflection on life a coming of age story also.\n', ' One of the best pics of the year.\n', " Gerwig's version of LITTLE WOMEN is a fully unleashed, poignantly relatable girl-power manifesto with a vengeance\n", ' Finally, a Little Women I enjoyed\n', ' Very well written love story\n', ' My first encounter with this story\n', ' A Joyful Celebration Of Sisterhood\n', ' Great movie\n', " What's Not to Like?\n"]</t>
+          <t>[' I am the odd reviewer who did NOT love this film.\n', ' A story well worth owning\n', ' best one yet\n', ' We Already Know the Story\n', ' beautiful\n', " You Can't Always Get What You Want\n", ' Remaking - in a good way\n', ' Lady Bird meets Hermione Granger meets Ellie Grant meets Paul Atreides meets Miranda Priestley meets Saul Goodman\n', ' Filmed entirely in Massachusetts, this version is filled with movie stars.\n', ' A joy\n', ' Good acting and costumes\n', ' Okay, but not in the same league as the 1949 and 1994 versions\n', ' Glorious\n', ' an instant classic\n', ' Saoirse carries the show but the story is too fragmented\n', ' Perhaps as good as it could be.\n', ' A reflection on life a coming of age story also.\n', " Gerwig's version of LITTLE WOMEN is a fully unleashed, poignantly relatable girl-power manifesto with a vengeance\n", ' One of the best pics of the year.\n', ' Very well written love story\n', ' Finally, a Little Women I enjoyed\n', ' My first encounter with this story\n', ' A Joyful Celebration Of Sisterhood\n', ' Great movie\n', " What's Not to Like?\n"]</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[' The cast alone makes this worthwhile...\n', ' "They Drag Me Back In Again"\n', ' Val Kilmer steals the show\n', ' Simply phenomenal...\n', ' Exciting revisionist Western with plenty of tension , thrills , gunplay and high body-count .\n', " Hey, Let's Play Cowboys and...\n", ' A Confederacy of Mustaches\n', ' Good western film, Kurt Russell and Val Kilmer carry it.\n', " Hell's coming with me!\n", ' Excellent epic. Wyatt Earp is an icon of the old west.\n', ' Heckuva Lotta Fun\n', ' Rollicking, entertaining western\n', ' Indeed, sir. The last charge of Wyatt Earp and his immortals.\n', ' Slow and meandering\n', ' Not Historically Accurate but Enjoyable All the Same\n', ' "Skin that smokewagon and see what happens."\n', " There's nothing I'd change about this film\n", ' Perhaps the most awesome western ever made.\n', ' Great\n', ' Entertaining Western; memorable Kilmer\n', ' "Tombstone" or "Wyatt Earp"? How about BOTH\n', " Best Wester I've seen!!!\n", ' "Never saw a rich man that didn\'t up with a guilty conscience"\n', ' The O.K. Corral\n', ' Russell, Paxton and Kilmer raise some hell in a small town\n']</t>
+          <t>[' The cast alone makes this worthwhile...\n', ' "They Drag Me Back In Again"\n', ' Val Kilmer steals the show\n', ' Simply phenomenal...\n', ' Exciting revisionist Western with plenty of tension , thrills , gunplay and high body-count .\n', " Hey, Let's Play Cowboys and...\n", ' A Confederacy of Mustaches\n', ' Good western film, Kurt Russell and Val Kilmer carry it.\n', " Hell's coming with me!\n", ' Excellent epic. Wyatt Earp is an icon of the old west.\n', ' Heckuva Lotta Fun\n', ' Rollicking, entertaining western\n', ' Indeed, sir. The last charge of Wyatt Earp and his immortals.\n', ' Slow and meandering\n', ' Not Historically Accurate but Enjoyable All the Same\n', ' "Skin that smokewagon and see what happens."\n', " There's nothing I'd change about this film\n", ' Perhaps the most awesome western ever made.\n', ' Great\n', ' Entertaining Western; memorable Kilmer\n', ' "Tombstone" or "Wyatt Earp"? How about BOTH\n', " Best Wester I've seen!!!\n", ' "Never saw a rich man that didn\'t up with a guilty conscience"\n', ' The O.K. Corral\n', ' Tombstone\n']</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[' A second adaptation of the book that is almost as good as the first\n', ' A good thriller, with one caveat\n', ' David Fincher Recreates\n', ' Excellent Performances and Strong Direction\n', ' Will They Continue the Series?\n', ' Connections\n', ' Solidly told story that builds well and has a real visual impact thanks to direction and cinematography\n', ' Nice remake by David Fincher from Larsson novel with fine performances by Daniel Craig and Rooney Mara\n', ' Well-crafted mystery, but Rooney Mara as Lisbeth Salander is the best reason to see this\n', ' A strong film\n', ' Much Too Soon for a Remake\n', ' About as good as the original\n', ' Book\n', ' Fincher Style to Spare, But Terrible Material\n', ' Comes forth with the Thaw\n', " A pretty standard movie for most part but that's not necessarily a bad thing of course.\n", ' Mesmerizing\n', ' Brilliant Cinema From All Concerned\n', ' The Girl with the Dragon Tattoo\n', ' This phenomenal piece of film-making stands up to the scrutiny of its remake status; riveting, unconventional work.\n', " Complex and in depth mystery that's spiced with raw and erotic feel good sex appeal.\n", ' A memorable girl\n', ' The Girl with the Dragon Tattoo: 7/10\n', ' A Nutshell Review: The Girl with the Dragon Tattoo\n', ' my notes\n']</t>
+          <t>[' A second adaptation of the book that is almost as good as the first\n', ' A good thriller, with one caveat\n', ' David Fincher Recreates\n', ' Excellent Performances and Strong Direction\n', ' Will They Continue the Series?\n', ' Connections\n', ' Solidly told story that builds well and has a real visual impact thanks to direction and cinematography\n', ' Nice remake by David Fincher from Larsson novel with fine performances by Daniel Craig and Rooney Mara\n', ' Well-crafted mystery, but Rooney Mara as Lisbeth Salander is the best reason to see this\n', ' A strong film\n', ' Much Too Soon for a Remake\n', ' About as good as the original\n', ' Book\n', ' Fincher Style to Spare, But Terrible Material\n', ' Comes forth with the Thaw\n', " A pretty standard movie for most part but that's not necessarily a bad thing of course.\n", ' Mesmerizing\n', ' Brilliant Cinema From All Concerned\n', ' The Girl with the Dragon Tattoo\n', ' This phenomenal piece of film-making stands up to the scrutiny of its remake status; riveting, unconventional work.\n', " Complex and in depth mystery that's spiced with raw and erotic feel good sex appeal.\n", ' The Girl with the Dragon Tattoo: 7/10\n', ' A memorable girl\n', ' A Nutshell Review: The Girl with the Dragon Tattoo\n', ' my notes\n']</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[" That's Hugh Grant?! It seems so unlike him in his other films!\n", ' chock full of the Ritchie style\n', ' Ritchie Back In Form\n', ' The Gentlemen\n', ' Guy Ritchie\n', ' Another disorganized and well-populated crime caper by great director Guy Ritchie\n', " Must hold the record for the most frequent use of the 'C' word.\n", " It's not enough to act like the king, you have to BE the king.\n", ' Complex\n', ' A star studded gem\n', ' GUY RITCHIE FUN-FEST...SLICKLY-PACED...DIALOG &amp; FASHION SHOW...AN UN-PC ROMP\n', ' Superb\n', ' Coach\n', ' need to see this one again...\n', ' back to the Ritchie roots\n', ' Ritchie back at what he does the best. Probably his best movie yet.\n', ' A return to form and a league of dishonorable bastards\n', " 'There's only one rule in the jungle: when the lion's hungry, he eats!'\n", ' Play a game with me, Guy.\n', ' Ritchie safely reverts to his blokeish, laddish idiom what is his claim to fame\n', ' not a fan of these types of movies\n', " Any bad? Yes. It's too smart. It simply does NOT want to stop being smart , ending up being boring after half an hour of SMART talk and more smart talk....\n", ' Enthralling experience\n', ' A return to form for Guy Ritchie\n', ' Guy Ritchie hits it right\n']</t>
+          <t>[" That's Hugh Grant?! It seems so unlike him in his other films!\n", ' chock full of the Ritchie style\n', ' Ritchie Back In Form\n', ' The Gentlemen\n', ' Guy Ritchie\n', ' Another disorganized and well-populated crime caper by great director Guy Ritchie\n', " Must hold the record for the most frequent use of the 'C' word.\n", " It's not enough to act like the king, you have to BE the king.\n", ' Complex\n', ' A star studded gem\n', ' GUY RITCHIE FUN-FEST...SLICKLY-PACED...DIALOG &amp; FASHION SHOW...AN UN-PC ROMP\n', ' Superb\n', ' Coach\n', ' need to see this one again...\n', ' back to the Ritchie roots\n', ' Ritchie back at what he does the best. Probably his best movie yet.\n', ' A return to form and a league of dishonorable bastards\n', " 'There's only one rule in the jungle: when the lion's hungry, he eats!'\n", ' Play a game with me, Guy.\n', ' Ritchie safely reverts to his blokeish, laddish idiom what is his claim to fame\n', ' not a fan of these types of movies\n', ' Enthralling experience\n', " Any bad? Yes. It's too smart. It simply does NOT want to stop being smart , ending up being boring after half an hour of SMART talk and more smart talk....\n", ' A return to form for Guy Ritchie\n', ' Guy Ritchie hits it right\n']</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[' A modern take\n', ' worthy remake\n', ' feeling the war\n', ' An incredibly powerful movie.\n', ' Brutal and compelling...\n', ' Splendid war epic\n', ' Great adaptation and remake\n', ' Harrowing Movie About the Horrors of War\n', ' The absurdity of war.\n', ' All Quiet on the Western Front\n', ' Apparently there were some difference between WWI and Battlefield I\n', ' Absolutely Nothing!\n', " Truly incredible, I don't why some bashed this it's one of the best war movies ever!\n", ' Realistic, brutal and incredibly disturbing.\n', " It's well-made. I just prefer the original.\n", ' if you liked...\n', ' Relive the horrors of World War I on the Western Front again after 9 decades through this CLASSIC motion picture.\n', ' the storm before the silence\n', ' Technically superb but it does suffer from overkill.\n', ' Stirring, full blooded war picture\n', " It's Okay\n", ' A Timely Reminder Of What War Leaves Behind In Its Wake\n', ' Superb War Movie\n', ' One of the Best War Films of All Time - All Quiet on the Western Front\n', ' Tanks For The Show\n']</t>
+          <t>[' A modern take\n', ' worthy remake\n', ' feeling the war\n', ' An incredibly powerful movie.\n', ' Brutal and compelling...\n', ' Splendid war epic\n', ' Great adaptation and remake\n', ' Harrowing Movie About the Horrors of War\n', ' The absurdity of war.\n', ' All Quiet on the Western Front\n', ' Apparently there were some difference between WWI and Battlefield I\n', ' Absolutely Nothing!\n', " Truly incredible, I don't why some bashed this it's one of the best war movies ever!\n", ' Realistic, brutal and incredibly disturbing.\n', " It's well-made. I just prefer the original.\n", ' if you liked...\n', ' Relive the horrors of World War I on the Western Front again after 9 decades through this CLASSIC motion picture.\n', ' the storm before the silence\n', ' Stirring, full blooded war picture\n', ' Technically superb but it does suffer from overkill.\n', " It's Okay\n", ' A Timely Reminder Of What War Leaves Behind In Its Wake\n', ' Superb War Movie\n', ' One of the Best War Films of All Time - All Quiet on the Western Front\n', ' Tanks For The Show\n']</t>
         </is>
       </c>
     </row>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[' An 80s classic\n', ' simple 80s action fun\n', ' Fun Mix of Action and Sci-Fi\n', ' An alien in the jungle\n', ' I see you\n', ' A Timeless Sci-Fi Action Movie\n', ' A B-movie creature feature given the A treatment by a great action director\n', ' Welcome to the jungle...\n', ' Nail-bitIng science fiction/thriller picture that packs action-packed from start to finish\n', " Let's consider what this movie predates (pun intended)\n", ' Pure action bliss.\n', ' Ridiculously Over-rated\n', ' Combat, mano a pseudopod.\n', ' If he can bleed, then he can die.....\n', ' Pure Escapism\n', ' A quality Schwarzenegger flick\n', ' "If it bleeds, we can kill it."\n', ' Powerful Picture\n', ' Ball busting Vietnam allegory McTiernan style delivers wholesale.\n', " They Don't Make Them Like This Anymore\n", ' The tone is similar to the "Alien" movies where the Predator is pursuing his victms\n', ' Brutal\n', ' The Hunters Become the Hunted\n', ' Let Us Prey...\n', ' Easily an all time classic\n']</t>
+          <t>[' An 80s classic\n', ' simple 80s action fun\n', ' Fun Mix of Action and Sci-Fi\n', ' An alien in the jungle\n', ' I see you\n', ' A Timeless Sci-Fi Action Movie\n', ' A B-movie creature feature given the A treatment by a great action director\n', ' Welcome to the jungle...\n', ' Nail-bitIng science fiction/thriller picture that packs action-packed from start to finish\n', " Let's consider what this movie predates (pun intended)\n", ' Pure action bliss.\n', ' Ridiculously Over-rated\n', ' If he can bleed, then he can die.....\n', ' Combat, mano a pseudopod.\n', ' Pure Escapism\n', ' A quality Schwarzenegger flick\n', ' "If it bleeds, we can kill it."\n', ' Powerful Picture\n', ' Ball busting Vietnam allegory McTiernan style delivers wholesale.\n', " They Don't Make Them Like This Anymore\n", ' The tone is similar to the "Alien" movies where the Predator is pursuing his victms\n', ' Brutal\n', ' The Hunters Become the Hunted\n', ' Let Us Prey...\n', ' Easily an all time classic\n']</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>[' The cinematic equivalent of watching a dog dragging its butt along the carpet\n', ' too long\n', ' I Thought It Was a Lot of Fun/Could be Hobbit Forming\n', ' not bad\n', ' The Ring: Beginning\n', ' Magic Journey\n', " A visual feast but yet I wasn't gripped by the story or characters as much as I should have been\n", ' Visually great, but somewhat flawed on the characters...\n', ' The Hobbit: An Expected Disappointment.\n', ' overlong, stuffed the gills, occasionally truly, unabashedly great\n', ' Very impressive visual effects\n', " Visually stunning, and that's it\n", ' Hobbits Have the Best Adventures\n', ' Producers took way too long to get it made, and as a result Peter Jackson lost his mojo\n', ' Filler Material\n', ' Delightful origin story\n', ' This is an underrated gem that gets overshadowed by the greatness of Lord of the Rings\n', ' Transporting\n', ' Boring and dragged out like a bad Wagner opera\n', ' The Hobbit: An Unexpected Journey\n', ' I do believe the worst is behind us.\n', ' A lot better than rumoured\n', ' Inappropriately Grandiose\n', " It's fun, but you can bet your Bilbo it's long.\n", ' The Hobbit: An Unexpected Journey\n']</t>
+          <t>[' The cinematic equivalent of watching a dog dragging its butt along the carpet\n', ' too long\n', ' I Thought It Was a Lot of Fun/Could be Hobbit Forming\n', ' not bad\n', ' The Ring: Beginning\n', ' Magic Journey\n', " A visual feast but yet I wasn't gripped by the story or characters as much as I should have been\n", ' Visually great, but somewhat flawed on the characters...\n', ' The Hobbit: An Expected Disappointment.\n', ' overlong, stuffed the gills, occasionally truly, unabashedly great\n', ' Very impressive visual effects\n', " Visually stunning, and that's it\n", ' Hobbits Have the Best Adventures\n', ' Producers took way too long to get it made, and as a result Peter Jackson lost his mojo\n', ' Filler Material\n', ' Delightful origin story\n', ' This is an underrated gem that gets overshadowed by the greatness of Lord of the Rings\n', ' Transporting\n', ' Boring and dragged out like a bad Wagner opera\n', ' The Hobbit: An Unexpected Journey\n', ' I do believe the worst is behind us.\n', ' A lot better than rumoured\n', ' Inappropriately Grandiose\n', ' The Hobbit: An Unexpected Journey\n', " It's fun, but you can bet your Bilbo it's long.\n"]</t>
         </is>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>[' A rebellion well worth saving\n', ' How They Brought The News From Aix To Ghent or Better Call Saw\n', ' Leading to the Jedi\n', ' Star Wars 3,5\n', ' A Prequel to the 1977 Star Wars\n', ' Emotion , thrills , noisy action , super-spectacle and impressive aerial combat effects\n', ' Episode 3 1/2: the non-Jedi story\n', ' The Star Wars Universe is back on track.\n', ' The Force is with me. I am one with The Force.\n', " Goes back to Star Wars' roots\n", ' "Rebellions are Built on Hope"......and Sacrifice\n', ' Formulaic plot but reasonably entertaining\n', ' Perhaps A Little Too Much Spectacle\n', ' An Excellent Treat\n', ' What\n', ' Best movie of the franchise (I said what I said 😂)\n', ' A New Hope for the Alliance\n', ' Defiant\n', ' From the five I watched thus far this one was the weaker one, still good though.\n', ' From the five I watched thus far this one was the weaker one, still good though.\n', " A story and characters that won't hold up on the small screen\n", " A more serious tone and 'gritty' battes set this apart from others in the series but a lifeless and surprise-free plot drag the experience down.\n", ' A complete disappointment\n', ' A good way to make Vader mad! An okay prequel that sets up "A New Hope" just fine!\n', " Some of the original's playfulness and plenty of Felicity Jones!\n"]</t>
+          <t>[' A rebellion well worth saving\n', ' How They Brought The News From Aix To Ghent or Better Call Saw\n', ' Leading to the Jedi\n', ' Star Wars 3,5\n', ' A Prequel to the 1977 Star Wars\n', ' Emotion , thrills , noisy action , super-spectacle and impressive aerial combat effects\n', ' Episode 3 1/2: the non-Jedi story\n', ' The Star Wars Universe is back on track.\n', ' The Force is with me. I am one with The Force.\n', " Goes back to Star Wars' roots\n", ' "Rebellions are Built on Hope"......and Sacrifice\n', ' Formulaic plot but reasonably entertaining\n', ' Perhaps A Little Too Much Spectacle\n', ' An Excellent Treat\n', ' What\n', ' Best movie of the franchise (I said what I said 😂)\n', ' A New Hope for the Alliance\n', ' Defiant\n', ' From the five I watched thus far this one was the weaker one, still good though.\n', ' From the five I watched thus far this one was the weaker one, still good though.\n', " A story and characters that won't hold up on the small screen\n", " A more serious tone and 'gritty' battes set this apart from others in the series but a lifeless and surprise-free plot drag the experience down.\n", ' A complete disappointment\n', ' A good way to make Vader mad! An okay prequel that sets up "A New Hope" just fine!\n', ' ROGUE ONE is a solid attempt to ginger up the jaded but still massively lucrative mega-universe of STAR WARS\n']</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[' One of the best Stephen King adaptations\n', ' She Just Craves His Company\n', ' great performances from Kathy Bates and James Caan\n', ' One of the Better King Adaptations\n', ' So Suspenseful if You Can Watch It\n', ' A great tense tale that is well told with very strong performances from the lead two\n', ' Talk about an unhealthy obsession...\n', ' the dangers of fame\n', ' Crime and Pun\n', ' The most terrific adaptation from Stephen King\n', ' Intense, technically marvelous...but the plot is queasy and unfair\n', ' how to deal with control-freak psychotic fans (or not, as case may be), by Stephen King\n', ' Kathy Bates is superb\n', ' Thriller from the mind of Stephen King.\n', ' Kathy Bates makes this film\n', " Best Book Adaptation I've Seen\n", ' One of the best adaptations of a Stephen King novel...\n', ' Ankles Away...\n', ' This is an absolute masterpiece and must see\n', ' Kathy Bates Gives a Cock a Doody Performance\n', ' Solid thriller, that could had been even better!\n', ' King Sized adaptation by Goldman; superb Bates &amp; Caan\n', ' I am guessing this is how all celebrities see us "regular" folk.\n', ' Not A Fan You Would Want!\n', ' A good thriller can be hard to find; drink this in.\n']</t>
+          <t>[' One of the best Stephen King adaptations\n', ' She Just Craves His Company\n', ' great performances from Kathy Bates and James Caan\n', ' One of the Better King Adaptations\n', ' So Suspenseful if You Can Watch It\n', ' A great tense tale that is well told with very strong performances from the lead two\n', ' Talk about an unhealthy obsession...\n', ' the dangers of fame\n', ' The most terrific adaptation from Stephen King\n', ' Crime and Pun\n', ' Intense, technically marvelous...but the plot is queasy and unfair\n', ' how to deal with control-freak psychotic fans (or not, as case may be), by Stephen King\n', ' Kathy Bates is superb\n', ' Thriller from the mind of Stephen King.\n', ' Kathy Bates makes this film\n', " Best Book Adaptation I've Seen\n", ' One of the best adaptations of a Stephen King novel...\n', ' Ankles Away...\n', ' This is an absolute masterpiece and must see\n', ' Kathy Bates Gives a Cock a Doody Performance\n', ' Solid thriller, that could had been even better!\n', ' King Sized adaptation by Goldman; superb Bates &amp; Caan\n', ' I am guessing this is how all celebrities see us "regular" folk.\n', ' Not A Fan You Would Want!\n', ' A good thriller can be hard to find; drink this in.\n']</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[' A bit "Hollywoodized" but who cares?!\n', ' Remember the Titans indeed- promised to be a great film and it was\n', ' fairly superficial and conventional\n', ' Not a Slam Dunk\n', ' Quite enjoyable even if it is corny and rather derivative\n', ' Sports film with a sentimental story and agreeable character studio\n', ' mightier than the Gods...\n', ' Football As Metaphor.\n', ' Entertaining, and with a story all peoples should see, I rate it "8" of 10.\n', ' Denzel pulls through\n', ' Predictable\n', ' In Greek mythology, the Titans were greater even than the gods.\n', ' More Than a Football Movie\n', ' Entertaining to a Certain Degree but Historically Inaccurate\n', ' An Easter Story\n', ' Racial Tension, Hut, Hut\n', " Decent but the best the genre has to offer? I really don't think so!\n", ' Crowd pleaser\n', ' best sports movie?\n', ' Lest we forget\n', ' "You play to win the game. You don\'t play to just play"\n', " Can't believe I didn't see it sooner\n", " A movie about all sorts of prejudice that isn't too heavy handed\n", ' Predictable but solid "feel good" football entertainment.\n', ' The Team with a Titanic Legacy...\n']</t>
+          <t>[' A bit "Hollywoodized" but who cares?!\n', ' Remember the Titans indeed- promised to be a great film and it was\n', ' fairly superficial and conventional\n', ' Not a Slam Dunk\n', ' Quite enjoyable even if it is corny and rather derivative\n', ' Sports film with a sentimental story and agreeable character studio\n', ' mightier than the Gods...\n', ' Football As Metaphor.\n', ' Entertaining, and with a story all peoples should see, I rate it "8" of 10.\n', ' Denzel pulls through\n', ' Predictable\n', ' In Greek mythology, the Titans were greater even than the gods.\n', ' More Than a Football Movie\n', ' Entertaining to a Certain Degree but Historically Inaccurate\n', ' An Easter Story\n', ' Racial Tension, Hut, Hut\n', " Decent but the best the genre has to offer? I really don't think so!\n", ' Crowd pleaser\n', ' best sports movie?\n', ' Lest we forget\n', " Can't believe I didn't see it sooner\n", ' "You play to win the game. You don\'t play to just play"\n', " A movie about all sorts of prejudice that isn't too heavy handed\n", ' Predictable but solid "feel good" football entertainment.\n', ' The Team with a Titanic Legacy...\n']</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>[" I didn't see what many others saw in this film.\n", " Didn't love it but appreciated it\n", ' Chandler Family Values\n', ' one epic scene\n', " Some of the Best Performances That You're Going to See\n", ' special\n', " It's a very engaging, character driven story, it's good.\n", ' Life is a ... sea(?)\n', ' family troubles on the New England coast\n', ' The Rise of the Second Affleck?\n', ' a masterpiece of little moments and some big ones\n', ' A heavy story of two wounded souls\n', ' Wonderful, emotional journey\n', ' So Frustrating It Should Be Called Madchester\n', ' Too slowly paced and overly familiar\n', ' Complicated family drama scenario\n', ' An Elegiac, Deeply Moving Film About Broken People\n', ' A gem on grief and sorrow\n', " I don't see any Oscar winning material\n", ' Loss and broken people\n', " I can't beat it. I can't beat it. I'm sorry.\n", " 'Uncle Lee, are you fundamentally unsound?\n", " A film that shows the up and down parts of life, it shows memories and it's about decision making.\n", ' A sure Oscar contender for Affleck and film.\n', ' a contemplative continuation in the aftermath of a latter-day Greek tragedy\n']</t>
+          <t>[" I didn't see what many others saw in this film.\n", " Didn't love it but appreciated it\n", ' Chandler Family Values\n', ' one epic scene\n', " Some of the Best Performances That You're Going to See\n", ' special\n', " It's a very engaging, character driven story, it's good.\n", ' Life is a ... sea(?)\n', ' family troubles on the New England coast\n', ' The Rise of the Second Affleck?\n', ' a masterpiece of little moments and some big ones\n', ' A heavy story of two wounded souls\n', ' Wonderful, emotional journey\n', ' So Frustrating It Should Be Called Madchester\n', ' Too slowly paced and overly familiar\n', ' Complicated family drama scenario\n', ' An Elegiac, Deeply Moving Film About Broken People\n', ' A gem on grief and sorrow\n', " I don't see any Oscar winning material\n", ' Loss and broken people\n', " I can't beat it. I can't beat it. I'm sorry.\n", " 'Uncle Lee, are you fundamentally unsound?\n", " A film that shows the up and down parts of life, it shows memories and it's about decision making.\n", ' a contemplative continuation in the aftermath of a latter-day Greek tragedy\n', ' A sure Oscar contender for Affleck and film.\n']</t>
         </is>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>[' Sylistically, it\'s hard to imagine Copolla making this film between his "Godfather" and "Godfather II".\n', ' Excellent\n', ' great 70s paranoia\n', ' Technology is the root of all evil\n', ' Listen up\n', ' Intelligent and ingenious thriller with magnificent acting by Gene Hackman and perfect direction by Coppola\n', ' major combination\n', ' Deftly Manuevered and Muscled For Rank\n', ' Through a semi-permeable membrane, darkly.\n', ' Between Alan Pakula and Sid Lumet\n', ' You Have To See This More Than Once\n', " Coppola's best film\n", " Coppola's 'other' nineteen-seventies classic; one of Hackman's most complex performances\n", " I always feel like ... somebody's eavesdropping on me! And I got no privacy...\n", ' Well written and well acted masterpiece of the 1970s.\n', ' One Theme in a Little Depth\n', ' Timely, Suspenseful Slow-Burn from Coppola and Hackman\n', ' A lesser-known Francis Ford Coppola gem\n', ' Simple\n', ' An Ironic Title\n', ' Why all the praise/\n', ' Good plot, bad script, dull characters...\n', ' Just as relevent now as it was back then\n', ' An outstanding classic, intensely captivating as it digs in its claws\n', ' Does for Sound Recordings What "Blowup" Did for Photographs\n']</t>
+          <t>[' Sylistically, it\'s hard to imagine Copolla making this film between his "Godfather" and "Godfather II".\n', ' Excellent\n', ' great 70s paranoia\n', ' Technology is the root of all evil\n', ' Listen up\n', ' Intelligent and ingenious thriller with magnificent acting by Gene Hackman and perfect direction by Coppola\n', ' major combination\n', ' Deftly Manuevered and Muscled For Rank\n', ' Between Alan Pakula and Sid Lumet\n', ' Through a semi-permeable membrane, darkly.\n', ' You Have To See This More Than Once\n', " Coppola's best film\n", " Coppola's 'other' nineteen-seventies classic; one of Hackman's most complex performances\n", " I always feel like ... somebody's eavesdropping on me! And I got no privacy...\n", ' Well written and well acted masterpiece of the 1970s.\n', ' One Theme in a Little Depth\n', ' Timely, Suspenseful Slow-Burn from Coppola and Hackman\n', ' A lesser-known Francis Ford Coppola gem\n', ' Simple\n', ' An Ironic Title\n', ' Why all the praise/\n', ' Good plot, bad script, dull characters...\n', ' Just as relevent now as it was back then\n', ' An outstanding classic, intensely captivating as it digs in its claws\n', ' Does for Sound Recordings What "Blowup" Did for Photographs\n']</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>[' Perfectly Entertaining Mix of Laughs and Drama\n', ' Growing up\n', ' Awesome Film\n', ' Get the balance right and keeps the viewer caring about the love\n', ' power to the off-the-grid lifestyle\n', ' Beautifully made\n', ' A captivating story of a unconventional way of parenting\n', ' "There is no actual food on this Menu."...Excellent Provocative Powerhouse\n', ' The idea of cutting away from the city is fascinating\n', ' a clash of philosophies\n', ' Inspiring movie\n', ' Refreshingly honest and heartfelt; a touching, beautiful and wonderfully eccentric film.\n', ' Thought provoking social commentary, but falls a little flat at the end\n', ' A rebel he did it his way a look at a different guy, a different lifestyle and a different way to live with family.\n', ' a savvy indie you cannot help but mulling over it afterwards and getting inspirations in afterthought\n', ' Captain Fantastic Reminds Us Who Viggo Mortensen Truly Is!\n', " I don't know what this movie was attempting to tell me\n", ' The difficult issue of how to relate to a suicide in the family\n', ' "Captain Fantastic" touches the greatness, but at the same time stays away from it\n', ' Not to be confused with Steve Rogers\n', ' This Movie Debates The Right To Live Your Life How You Choose\n', ' Power to the People, Stick it to the Man\n', ' Fine for what it is\n', ' One of the best movies of the year and one that needs to be seen, experienced and felt in order to fully understand why\n', ' The Vidiot Reviews...\n']</t>
+          <t>[' Perfectly Entertaining Mix of Laughs and Drama\n', ' Growing up\n', ' Awesome Film\n', ' Get the balance right and keeps the viewer caring about the love\n', ' power to the off-the-grid lifestyle\n', ' Beautifully made\n', ' A captivating story of a unconventional way of parenting\n', ' "There is no actual food on this Menu."...Excellent Provocative Powerhouse\n', ' The idea of cutting away from the city is fascinating\n', ' a clash of philosophies\n', ' Inspiring movie\n', ' Refreshingly honest and heartfelt; a touching, beautiful and wonderfully eccentric film.\n', ' Thought provoking social commentary, but falls a little flat at the end\n', ' A rebel he did it his way a look at a different guy, a different lifestyle and a different way to live with family.\n', ' a savvy indie you cannot help but mulling over it afterwards and getting inspirations in afterthought\n', ' Captain Fantastic Reminds Us Who Viggo Mortensen Truly Is!\n', " I don't know what this movie was attempting to tell me\n", ' The difficult issue of how to relate to a suicide in the family\n', ' "Captain Fantastic" touches the greatness, but at the same time stays away from it\n', ' Not to be confused with Steve Rogers\n', ' This Movie Debates The Right To Live Your Life How You Choose\n', ' Power to the People, Stick it to the Man\n', ' Fine for what it is\n', ' One of the best movies of the year and one that needs to be seen, experienced and felt in order to fully understand why\n', ' One of the best movies of the year so far\n']</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[' Not a film to cast away...\n', ' Loved it\n', ' Great one-man performance\n', ' Counteracting Loneliness\n', ' Robinson Tom Hanks(o)\n', " Slow but engaging drama that is driven by Hanks' brave performance\n", ' what Gilligan forgot to tell us\n', ' Okay, But Nowhere Near The Hype\n', " A quality film that just didn't grab me\n", ' A quiet tour-de-force for Hanks\n', ' one...\n', ' Amazing performance shines through\n', ' Great human drama!\n', " Hanks can't go wrong\n", ' Holiday\n', ' Hanks Pulls Off What Not Just Any Actor Could\n', ' Absolutely, positively ho-hum\n', ' Man VS. nature\n', ' One-of-a-kind type of film\n', ' A modern version of "Enoch Arden" focused on the man\'s lonely survival\n', ' begins to be almost fun\n', ' Marooned\n', ' Engaging and very powerful\n', ' Cast Away\n', " I'm raising my vote to 10/10\n"]</t>
+          <t>[' Not a film to cast away...\n', ' Loved it\n', ' Great one-man performance\n', ' Counteracting Loneliness\n', ' Robinson Tom Hanks(o)\n', " Slow but engaging drama that is driven by Hanks' brave performance\n", ' what Gilligan forgot to tell us\n', ' Okay, But Nowhere Near The Hype\n', " A quality film that just didn't grab me\n", ' A quiet tour-de-force for Hanks\n', ' one...\n', ' Amazing performance shines through\n', ' Great human drama!\n', " Hanks can't go wrong\n", ' Holiday\n', ' Hanks Pulls Off What Not Just Any Actor Could\n', ' Absolutely, positively ho-hum\n', ' Man VS. nature\n', ' One-of-a-kind type of film\n', ' A modern version of "Enoch Arden" focused on the man\'s lonely survival\n', ' begins to be almost fun\n', ' Marooned\n', ' Cast Away\n', ' Engaging and very powerful\n', " I'm raising my vote to 10/10\n"]</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>[' Far apart\n', ' Touching Film About an Evolving Friendship\n', ' boyhood\n', ' everything is so close and be aware that a tear will be flowing\n', ' Close\n', ' Close to being great, but drops the ball in its second half.\n', ' Cinema Omnivore - Close (2022) 7.7/10\n', ' Not Just Another Coming of Age Film...\n', ' A moving and memorable examination of innocence lost\n', ' An important message!\n', ' Istanbul Film Festival\n', ' A coming-of-age film for the ages\n', ' Thoughtful and touching\n', ' A Tragic Memory\n', ' Beautiful and heartbreaking...\n', " You'll probably always remember this\n", ' Guilt ridden adolescence.\n', ' Thoughtprovoking\n', ' We need movies like this\n', " Great until it isn't\n", ' Too "Close" to discomfort.\n', ' Overwrought and Overhyped\n', ' Beautiful and heart-wrenching\n', ' Radiance\n', " I cried hard with this movie, it's simply put a human experience\n"]</t>
+          <t>[' Far apart\n', ' Touching Film About an Evolving Friendship\n', ' boyhood\n', ' Close\n', ' everything is so close and be aware that a tear will be flowing\n', ' Close to being great, but drops the ball in its second half.\n', ' Cinema Omnivore - Close (2022) 7.7/10\n', ' Not Just Another Coming of Age Film...\n', ' A moving and memorable examination of innocence lost\n', ' An important message!\n', ' Istanbul Film Festival\n', ' A coming-of-age film for the ages\n', ' Thoughtful and touching\n', ' A Tragic Memory\n', ' Beautiful and heartbreaking...\n', " You'll probably always remember this\n", ' Guilt ridden adolescence.\n', ' Thoughtprovoking\n', ' We need movies like this\n', " Great until it isn't\n", ' Too "Close" to discomfort.\n', ' Overwrought and Overhyped\n', ' Beautiful and heart-wrenching\n', ' Radiance\n', " I cried hard with this movie, it's simply put a human experience\n"]</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>[' wonderful exotic visuals\n', ' magic\n', ' Thinking outside the Cell\n', ' Fantasy and Reality Entwined\n', ' If only the material had been as rich as the images then it would have been awesome, otherwise it is only good\n', ' A sumptuous tale of mythology and magic with gorgeous outdoors and breathtaking special effects\n', " Amazing Visuals &amp; Intaru's Acting Make This Memorable\n", ' Ran, Tempestuous\n', " We're a strange pair, aren't we?\n", ' You May Find Yourself Falling for "The Fall"\n', ' I Fell Hard for this one\n', ' Stunning and interesting\n', ' Seeds of Scheherazade\n', ' Great\n', ' Gorgeous scenery\n', ' A travel\n', ' A visual treat like no other!\n', ' Simply stunning!\n', " Visually gorgeous but in this case it isn't enough.\n", ' Different and subversive, but sadly not to my tastes\n', ' A epic fairy tale indeed\n', ' Spectacular Visuals, Story Not\n', ' magical fantasy film\n', ' Promising Director - Tarsem Singh - The Fall\n', ' Rising From The Fall\n']</t>
+          <t>[' wonderful exotic visuals\n', ' magic\n', ' Thinking outside the Cell\n', ' Fantasy and Reality Entwined\n', ' If only the material had been as rich as the images then it would have been awesome, otherwise it is only good\n', ' A sumptuous tale of mythology and magic with gorgeous outdoors and breathtaking special effects\n', " Amazing Visuals &amp; Intaru's Acting Make This Memorable\n", ' Ran, Tempestuous\n', " We're a strange pair, aren't we?\n", ' You May Find Yourself Falling for "The Fall"\n', ' I Fell Hard for this one\n', ' Stunning and interesting\n', ' Seeds of Scheherazade\n', ' Great\n', ' Gorgeous scenery\n', ' A travel\n', ' A visual treat like no other!\n', ' Simply stunning!\n', ' Different and subversive, but sadly not to my tastes\n', " Visually gorgeous but in this case it isn't enough.\n", ' A epic fairy tale indeed\n', ' Spectacular Visuals, Story Not\n', ' magical fantasy film\n', ' Promising Director - Tarsem Singh - The Fall\n', ' Rising From The Fall\n']</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>[' One of the grimmest films ever made\n', ' Evil inside\n', ' And the devil looked back...\n', ' Once upon a time, before Hollywood crap influence...\n', ' The greatest trick the Devil ever pulled was linking his name to this stupendous horror/thriller!\n', ' "Becoming a Monster to Fight a Monster"\n', ' Not for the faint of heart\n', ' The Devil You Know...\n', " There's nothing I'd change about this film, it's an absolute masterpiece.\n", ' Equally sickening and stunning, an incredible viewing experience\n', ' Just to make things that little bit harder to comfortably digest.\n', ' masterpiece\n', ' And the devil saw me.\n', ' I saw the devil...\n', ' A Nutshell Review: I Saw The Devil\n', ' my notes\n', ' Ugly and visceral serial killer movie.\n', ' A Bloodbath!\n', ' Extremely violent moral tale about grieving and revenge.\n', ' Haunting and disturbing!\n', ' A monstrous psycho-killer thriller with the equally diabolical and matured revenge.\n', ' [7.8] Two devils in parallel\n', ' Some great acting and lot of violence and some shock, but sort of a dull plot\n', " One of those movies that really has you questioning 'what the heck you're watching'!\n", ' I Saw TWO Devils\n']</t>
+          <t>[' One of the grimmest films ever made\n', ' Evil inside\n', ' And the devil looked back...\n', ' Once upon a time, before Hollywood crap influence...\n', ' The greatest trick the Devil ever pulled was linking his name to this stupendous horror/thriller!\n', ' "Becoming a Monster to Fight a Monster"\n', ' Not for the faint of heart\n', ' The Devil You Know...\n', " There's nothing I'd change about this film, it's an absolute masterpiece.\n", ' Equally sickening and stunning, an incredible viewing experience\n', ' Just to make things that little bit harder to comfortably digest.\n', ' masterpiece\n', ' And the devil saw me.\n', ' I saw the devil...\n', ' A Nutshell Review: I Saw The Devil\n', ' my notes\n', ' Ugly and visceral serial killer movie.\n', ' A Bloodbath!\n', ' Extremely violent moral tale about grieving and revenge.\n', ' Haunting and disturbing!\n', ' [7.8] Two devils in parallel\n', ' A monstrous psycho-killer thriller with the equally diabolical and matured revenge.\n', ' Some great acting and lot of violence and some shock, but sort of a dull plot\n', " One of those movies that really has you questioning 'what the heck you're watching'!\n", ' I Saw TWO Devils\n']</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>[" Aside from a few minor quibbles, an amazingly original film that's worth your time.\n", ' Started strong but fades a little, still great\n', ' Great Cast Bring Innocent Tale to Life\n', ' Whimsical and Sharp!\n', " Scout's honour\n", ' Growing up Wes Anderson style\n', ' I\'ve liked every Wes Anderson movie that I\'ve seen, and that includes "Moonrise Kingdom"\n', ' A Return to Genius From Wes Anderson?\n', " Wes Anderson's Moonrise Kingdom continues his off-kilter sense of drama\n", ' Beautiful visuals\n', ' Deadpan Delight\n', ' Sweet and entertaining\n', ' Somewhat compelling\n', ' Oh to Be 11 Years Old Again (Would You Really Want To?)\n', ' Island Girl\n', " Wes Anderson's best? No, I don't think so, but it's very enjoyable\n", " A tedious and tiresome affair that feels like a parody of the acclaimed director's signature style, rather than an earnest attempt at it.\n", ' Moonrise Kingdom\n', " Wes Anderson's Finest Film!\n", ' As stylish as it is pointless\n', ' A rare Wes Anderson extravaganza\n', ' Probably my favorite Wes Anderson film or at least top 3\n', " May be too quirky for some people's tastes\n", ' So Wes Anderson\n', ' Wes Anderson brings us another odd and quirky comedy masterpiece.\n']</t>
+          <t>[" Aside from a few minor quibbles, an amazingly original film that's worth your time.\n", ' Started strong but fades a little, still great\n', ' Great Cast Bring Innocent Tale to Life\n', ' Whimsical and Sharp!\n', " Scout's honour\n", ' Growing up Wes Anderson style\n', ' I\'ve liked every Wes Anderson movie that I\'ve seen, and that includes "Moonrise Kingdom"\n', ' A Return to Genius From Wes Anderson?\n', " Wes Anderson's Moonrise Kingdom continues his off-kilter sense of drama\n", ' Beautiful visuals\n', ' Deadpan Delight\n', ' Sweet and entertaining\n', ' Somewhat compelling\n', ' Oh to Be 11 Years Old Again (Would You Really Want To?)\n', ' Island Girl\n', " Wes Anderson's best? No, I don't think so, but it's very enjoyable\n", " A tedious and tiresome affair that feels like a parody of the acclaimed director's signature style, rather than an earnest attempt at it.\n", ' Moonrise Kingdom\n', " Wes Anderson's Finest Film!\n", ' Probably my favorite Wes Anderson film or at least top 3\n', ' As stylish as it is pointless\n', ' A rare Wes Anderson extravaganza\n', " May be too quirky for some people's tastes\n", ' So Wes Anderson\n', ' Wes Anderson brings us another odd and quirky comedy masterpiece.\n']</t>
         </is>
       </c>
     </row>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[' What we do in the ... mountains\n', ' call of the wild\n', " Taika Waitit's Best Work Yet\n", ' Very quirky and entertaining story of a man and a boy on the run in New Zealand.\n', ' a unique (in the correct sense of the word) comic discovery!\n', ' Slow start but good once it gets going\n', ' Feels Like a Wes Anderson Knock Off\n', ' Uncle Hec and Ricky for the win\n', ' could be a Disney flick\n', ' Quirky, funny and slightly absurdist but surprisingly emotionally resonant, too.\n', ' A total joy of character and setting. Netflix and Crackle\n', ' A massive crowd-pleaser in the international festival circuit from Kiwi country\n', ' my notes\n', ' Sam Neill &amp; Julian Dennison SOAR In This Delightful Adventure Comedy-Drama!\n', ' generally interesting but tonally inconsistent\n', ' Taika Waititi obviously has some talent!\n', ' A Downright Hilarious, Endlessly Entertaining &amp; Delightfully Heartwarming Kiwi Surprise\n', ' Engaging\n', ' Forgettable\n', ' Charming adventure-comedy from New Zealand can be enjoyed by people young and old\n', ' Has heart and is genuinely funny\n', " He finally found his place, and now it's in jeopardy!\n", ' What We Do in the Bush\n', ' A near-perfect blend of comedy and drama\n', ' On The Road\n']</t>
+          <t>[' What we do in the ... mountains\n', ' call of the wild\n', " Taika Waitit's Best Work Yet\n", ' Very quirky and entertaining story of a man and a boy on the run in New Zealand.\n', ' a unique (in the correct sense of the word) comic discovery!\n', ' Slow start but good once it gets going\n', ' Feels Like a Wes Anderson Knock Off\n', ' Uncle Hec and Ricky for the win\n', ' could be a Disney flick\n', ' Quirky, funny and slightly absurdist but surprisingly emotionally resonant, too.\n', ' A massive crowd-pleaser in the international festival circuit from Kiwi country\n', ' A total joy of character and setting. Netflix and Crackle\n', ' my notes\n', ' Sam Neill &amp; Julian Dennison SOAR In This Delightful Adventure Comedy-Drama!\n', ' generally interesting but tonally inconsistent\n', ' Taika Waititi obviously has some talent!\n', ' A Downright Hilarious, Endlessly Entertaining &amp; Delightfully Heartwarming Kiwi Surprise\n', ' Engaging\n', ' Forgettable\n', ' Charming adventure-comedy from New Zealand can be enjoyed by people young and old\n', ' Has heart and is genuinely funny\n', " He finally found his place, and now it's in jeopardy!\n", ' What We Do in the Bush\n', ' A near-perfect blend of comedy and drama\n', ' On The Road\n']</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[' fresh vampire movie\n', ' Let the Right One In\n', ' Quite Shocking\n', " Just don't expect too much horror\n", ' Stylish and One of the Best Vampire Movies Ever\n', ' Swedish film dealing with an emotive and frightening story about an outcast , lonely boy and a strange girl\n', " Sweden's vampires\n", ' Although Only Two Years Old, Already Recognized As Classic\n', " You are twelve, forever going on thirteen, baby it's time to drink \x85 blood\n", ' If it was a horror movie, then it failed miserably\n', ' David v. Goliath/Friendship Story\n', ' Painfully Slow\n', ' LET THE RIGHT ONE IN (Tomas Alfredson, 2008) ***1/2\n', ' This is a horror masterpiece that is an absolute must see\n', ' To flee is life, to linger death.\n', ' Overrated film without a lot going for it\n', ' An Eerily Beautiful Film About a Little Boy and His Vampire Girlfriend\n', ' Horror for all generations, that treats its audience, both you and old, seriously.\n', ' See how smart a vampire story can be?\n', ' In the Bleak Midwinter\n', ' Wonderful, beautiful and bloody\n', ' Subtly plays with the tropes of its genre to deliver a subversive story of outsider romance.\n', " Once you get into the rhythm of it, you're hooked. Glad I saw it!\n", ' A Nutshell Review: Let The Right One In\n', ' Beautifully sad and melancholic vampire tale about loneliness and longing for love.\n']</t>
+          <t>[' fresh vampire movie\n', ' Let the Right One In\n', ' Quite Shocking\n', " Just don't expect too much horror\n", ' Stylish and One of the Best Vampire Movies Ever\n', ' Swedish film dealing with an emotive and frightening story about an outcast , lonely boy and a strange girl\n', " Sweden's vampires\n", ' Although Only Two Years Old, Already Recognized As Classic\n', " You are twelve, forever going on thirteen, baby it's time to drink \x85 blood\n", ' If it was a horror movie, then it failed miserably\n', ' David v. Goliath/Friendship Story\n', ' Painfully Slow\n', ' LET THE RIGHT ONE IN (Tomas Alfredson, 2008) ***1/2\n', ' This is a horror masterpiece that is an absolute must see\n', ' Overrated film without a lot going for it\n', ' To flee is life, to linger death.\n', ' An Eerily Beautiful Film About a Little Boy and His Vampire Girlfriend\n', ' Horror for all generations, that treats its audience, both you and old, seriously.\n', ' See how smart a vampire story can be?\n', ' In the Bleak Midwinter\n', ' Wonderful, beautiful and bloody\n', ' Subtly plays with the tropes of its genre to deliver a subversive story of outsider romance.\n', " Once you get into the rhythm of it, you're hooked. Glad I saw it!\n", ' A Nutshell Review: Let The Right One In\n', ' Beautifully sad and melancholic vampire tale about loneliness and longing for love.\n']</t>
         </is>
       </c>
     </row>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[' A genre benchmark\n', ' Superlative stuff\n', ' "In Me you see the honor of France"\n', " don't get the love for this\n", " This Time It's Impersonal\n", ' Exciting thriller with top-notch actors and excellent direction\n', ' Best Frederick Forsythe adaptation\n', " Oh, it's such a perfect (Jackal-) Day!\n", ' Single-Minded Thriller\n', ' Crisp, Clean, and Cool\n', ' Superb thriller\n', ' Chacal.\n', ' Oh Dear ...\n', ' Bravo! Bravo! Bravissimo!\n', ' Very well-done\n', ' Stylish espionage thriller...neat location photography...\n', ' Biography of a professional assassin\n', ' The way a thriller should be made\n', ' Fantastic thriller!\n', ' Another one of those good films that could have been great\n', ' My Masterpiece number 26!!\n', ' Gentleman Assassin.\n', ' Brilliant classic thriller!\n', ' The Day of the Jackal\n', " Coldly efficient like it's central character\n"]</t>
+          <t>[' A genre benchmark\n', ' Superlative stuff\n', ' "In Me you see the honor of France"\n', " don't get the love for this\n", " This Time It's Impersonal\n", ' Exciting thriller with top-notch actors and excellent direction\n', ' Best Frederick Forsythe adaptation\n', " Oh, it's such a perfect (Jackal-) Day!\n", ' Single-Minded Thriller\n', ' Crisp, Clean, and Cool\n', ' Superb thriller\n', ' Chacal.\n', ' Oh Dear ...\n', ' Bravo! Bravo! Bravissimo!\n', ' Very well-done\n', ' Stylish espionage thriller...neat location photography...\n', ' Biography of a professional assassin\n', ' The way a thriller should be made\n', ' Fantastic thriller!\n', ' Another one of those good films that could have been great\n', ' My Masterpiece number 26!!\n', ' Gentleman Assassin.\n', ' The Day of the Jackal\n', ' Brilliant classic thriller!\n', " Coldly efficient like it's central character\n"]</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>[' Absolutely wonderful\n', ' beautiful wonder but emotionally cold\n', ' Striking Beauty From the First Shot to the Last\n', ' Breathtaking Visually\n', ' A Prairie story\n', ' Dear Terrence Malick: you should have ended here\n', ' A Malick Film Through and Through\n', ' In A Class By Itself\n', ' Somber, well-cast, epic-scaled human drama\n', ' Magnificent\n', ' Remembrance of Things Past\n', ' Beyond the Visuals\n', ' A visual feast\n', " Cinematography Is This Movie's True Star\n", ' Days of Heaven\n', ' Masterful\n', " Unique, Beautiful, Memorable. It's like heaven on earth\n", ' One of the Most Beautiful Films Ever Made.\n', ' Visually-amazing\n', ' One of the Most Beautiful Films Ever Made!\n', ' Dominant Terrence Malick.\n', ' Stunning piece of film-making, many, including myself, consider it to be one of the top films of all time\n', ' Hallmark card come to life...\n', ' "Nobody\'s perfect. There was never a perfect person around. You just have half-angel and half-devil in you."\n', ' A visual tour-de-force\n']</t>
+          <t>[' Absolutely wonderful\n', ' beautiful wonder but emotionally cold\n', ' Striking Beauty From the First Shot to the Last\n', ' Breathtaking Visually\n', ' A Prairie story\n', ' Dear Terrence Malick: you should have ended here\n', ' A Malick Film Through and Through\n', ' In A Class By Itself\n', ' Somber, well-cast, epic-scaled human drama\n', ' Magnificent\n', ' Remembrance of Things Past\n', ' Beyond the Visuals\n', ' A visual feast\n', " Cinematography Is This Movie's True Star\n", ' Days of Heaven\n', ' Masterful\n', " Unique, Beautiful, Memorable. It's like heaven on earth\n", ' One of the Most Beautiful Films Ever Made.\n', ' Visually-amazing\n', ' One of the Most Beautiful Films Ever Made!\n', ' Stunning piece of film-making, many, including myself, consider it to be one of the top films of all time\n', ' Dominant Terrence Malick.\n', ' Hallmark card come to life...\n', ' "Nobody\'s perfect. There was never a perfect person around. You just have half-angel and half-devil in you."\n', ' A visual tour-de-force\n']</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>[' Among the best war films ever.\n', ' well made war movie\n', ' Masterpiece\n', ' Another Perspective of the Same Battle\n', ' Impressive and mature war film\n', ' Courage and horror war with a Japanese point of sight\n', ' all war is the same\n', ' A War Film Unlike Any Other\n', ' Best if Watched After "Flags of Our Fathers"\n', ' Good look at the battle on Iwo Jima\n', ' Possibly the Best Movie About World War II Ever Made\n', ' Ranks with Das Boot as greatest War film ever made.\n', " Admired It, But Wasn't Overwhelmed By It\n", ' The Kitchen Floor\n', " Interesting look from the 'other' side.\n", ' The problem with military dictatorships and how the Americans came to KICK AXX\n', ' A good film, but not quite a classic...\n', ' The Other Side of War!\n', ' Memorial Day\n', " I'm surprised Flags of Our Fathers got such mixed reviews and Letters from Iwo Jima only got raves\n", ' First-rate drama from a unique point of view\n', ' A Nutshell Review: Letters from Iwo Jima\n', " Do what is right because it's right.\n", ' Much better than its counterpart...\n', " Eastwood's greatest film\n"]</t>
+          <t>[' Among the best war films ever.\n', ' well made war movie\n', ' Masterpiece\n', ' Another Perspective of the Same Battle\n', ' Impressive and mature war film\n', ' Courage and horror war with a Japanese point of sight\n', ' all war is the same\n', ' A War Film Unlike Any Other\n', ' Best if Watched After "Flags of Our Fathers"\n', ' Good look at the battle on Iwo Jima\n', ' Possibly the Best Movie About World War II Ever Made\n', ' Ranks with Das Boot as greatest War film ever made.\n', " Admired It, But Wasn't Overwhelmed By It\n", ' The Kitchen Floor\n', " Interesting look from the 'other' side.\n", ' The problem with military dictatorships and how the Americans came to KICK AXX\n', ' A good film, but not quite a classic...\n', ' The Other Side of War!\n', ' Memorial Day\n', " I'm surprised Flags of Our Fathers got such mixed reviews and Letters from Iwo Jima only got raves\n", ' First-rate drama from a unique point of view\n', ' A Nutshell Review: Letters from Iwo Jima\n', " Do what is right because it's right.\n", ' Much better than its counterpart...\n', ' A bit too slow, but still a rewarding experience\n']</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[' Fascinating and well made, but this will probably NOT capture the hearts of everyone!\n', " I don't know what to say...\n", ' less fanciful Studio Ghibli\n', ' Follow the cat\n', " a minor gem in the Ghibli cannon - which means it's amazing, and here in the small ways that count\n", " This isn't Studio Ghibili's best movie but it is definitely a must see\n", ' Could be retold for centuries and not lose its value\n', ' Ghibli cannot be stopped!\n', ' Very nice childhood passing anime\n', ' Film Review - Whisper of the Heart (1995) 8.2/10\n', ' innocuous pleasant and forgetable\n', ' A simple story stretched too thin\n', ' An Unadulterated Illustration Of Teenage Love, Dreams &amp; Aspirations\n', ' Listen to the Whisper\n', ' This is how you do nostalgia\n', ' Whisper of the Heart quietly grounds a fantastical romance shrouded in lyrical dedication.\n', " Despite its flaws, if you're not in a jaded mood it can be quite revitalizing.\n", ' Must see film for all aspiring creators\n', " Charming But Slow, This Isn't an Essential Ghibli\n", ' Worst Country Roads cover ever\n', " It's good!\n", ' "If You Listen Closely"\n', ' Cute\n', ' Pleasant Surprise\n', ' Subdued Yet Inspiring Theme\n']</t>
+          <t>[' Fascinating and well made, but this will probably NOT capture the hearts of everyone!\n', " I don't know what to say...\n", ' less fanciful Studio Ghibli\n', ' Follow the cat\n', " a minor gem in the Ghibli cannon - which means it's amazing, and here in the small ways that count\n", " This isn't Studio Ghibili's best movie but it is definitely a must see\n", ' Could be retold for centuries and not lose its value\n', ' Ghibli cannot be stopped!\n', ' Very nice childhood passing anime\n', ' Film Review - Whisper of the Heart (1995) 8.2/10\n', ' innocuous pleasant and forgetable\n', ' A simple story stretched too thin\n', ' An Unadulterated Illustration Of Teenage Love, Dreams &amp; Aspirations\n', ' Listen to the Whisper\n', ' This is how you do nostalgia\n', " Despite its flaws, if you're not in a jaded mood it can be quite revitalizing.\n", ' Whisper of the Heart quietly grounds a fantastical romance shrouded in lyrical dedication.\n', ' Must see film for all aspiring creators\n', " Charming But Slow, This Isn't an Essential Ghibli\n", ' Worst Country Roads cover ever\n', " It's good!\n", ' "If You Listen Closely"\n', ' Cute\n', ' Pleasant Surprise\n', ' Subdued Yet Inspiring Theme\n']</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>[' Really liking if not quite loving Vincent\n', ' more about the animation style\n', ' One of a Kind\n', ' a masterpiece\n', " van Gogh's style comes to cinema\n", " Visually fascinating, the postman's son tries to deliver a letter.\n", ' A piece of art\n', ' Beautiful, exquisite, truly one of a kind\n', ' Awkward Mix of Mystery and Biography\n', ' weathered faces lined in pain\n', " It's visually stunning but, for the love of Vincent, it's boring.\n", ' a head-turner for both art lovers and cineastes\n', ' Visually stunning\n', ' Like sitting in a beautiful, boring art gallery\n', " The mystery of Vincent van Gogh's death explained in all its unfathomable tragedy\n", ' an immersing visual experience\n', ' A nice comforting film to fall asleep to.\n', " Literally Brings Vincent Van Gogh's Oil Paintings Alive On Film.\n", ' Huh?\n', ' Impressive in its achievement\n', ' A unique effort\n', ' A unique effort\n', ' An orignal movie, a wonderful investigation in the life of Van Gogh\n', ' Loving Vincent\n', ' Ear you go!\n']</t>
+          <t>[' Really liking if not quite loving Vincent\n', ' more about the animation style\n', ' One of a Kind\n', ' a masterpiece\n', " van Gogh's style comes to cinema\n", " Visually fascinating, the postman's son tries to deliver a letter.\n", ' A piece of art\n', ' Beautiful, exquisite, truly one of a kind\n', ' Awkward Mix of Mystery and Biography\n', ' weathered faces lined in pain\n', " It's visually stunning but, for the love of Vincent, it's boring.\n", ' a head-turner for both art lovers and cineastes\n', ' Visually stunning\n', ' Like sitting in a beautiful, boring art gallery\n', " The mystery of Vincent van Gogh's death explained in all its unfathomable tragedy\n", ' an immersing visual experience\n', ' A nice comforting film to fall asleep to.\n', " Literally Brings Vincent Van Gogh's Oil Paintings Alive On Film.\n", ' Huh?\n', ' Impressive in its achievement\n', ' An orignal movie, a wonderful investigation in the life of Van Gogh\n', ' A unique effort\n', ' A unique effort\n', ' Loving Vincent\n', ' Ear you go!\n']</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[' Daring and yet not daring at the same time.\n', ' powerful and funny\n', ' surprising\n', ' The pit factor\n', ' Some stereotypes of course\n', ' stand united\n', ' Completely blown away\n', ' A Little Bit Annoying, But Its Heart Is in the Right Place\n', ' If we only could understand the accents\x85..\n', ' The best feel-good gay movie since "Beautiful Thing"\n', " An inspiring story, even if it sometimes doesn't feel right as a film\n", ' Pride\n', ' Definitely a crowd-pleaser!\n', ' Overrated and uninvolving\n', ' They Should Be Proud\n', ' Fantastic\n', " The movie is very emotional and you can't help but feeling angry for the way this group is treated for just trying to help someone.\n", ' Engaging and likeable\n', ' Pride without Prejudice\n', ' Even more inspiring because it really happened.\n', " Often intriguing, although curiously lacking, drama about leftist-unity in 80's Britain.\n", ' Touching true story! 6/10\n', ' Pride joyfully prides itself in being a feel good, if occasionally flat, comedic drama.\n', ' Vivid Dramatization of a Turning Point in Contemporary British History\n', ' Fabulous-brilliant-touching-inspirational\n']</t>
+          <t>[' Daring and yet not daring at the same time.\n', ' powerful and funny\n', ' surprising\n', ' The pit factor\n', ' Some stereotypes of course\n', ' stand united\n', ' Completely blown away\n', ' A Little Bit Annoying, But Its Heart Is in the Right Place\n', ' If we only could understand the accents\x85..\n', " An inspiring story, even if it sometimes doesn't feel right as a film\n", ' The best feel-good gay movie since "Beautiful Thing"\n', ' Pride\n', ' Definitely a crowd-pleaser!\n', ' Overrated and uninvolving\n', ' They Should Be Proud\n', ' Fantastic\n', " The movie is very emotional and you can't help but feeling angry for the way this group is treated for just trying to help someone.\n", ' Engaging and likeable\n', ' Pride without Prejudice\n', ' Even more inspiring because it really happened.\n', " Often intriguing, although curiously lacking, drama about leftist-unity in 80's Britain.\n", ' Touching true story! 6/10\n', ' Pride joyfully prides itself in being a feel good, if occasionally flat, comedic drama.\n', ' Vivid Dramatization of a Turning Point in Contemporary British History\n', ' Fabulous-brilliant-touching-inspirational\n']</t>
         </is>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[' Fearlessly hard hitting\n', ' humanity from Ken Loach\n', ' Claim and shame\n', ' A heart wrenching story\n', ' Disappointing Prequel To Blakes 7\n', " Dan's Labyrinth\n", ' Moving, urgent and necessary; impassioned, heart-wrenching stuff.\n', ' High-class drama about Brit lower class.\n', ' A double bill of I, Daniel Blake (2016) and Sorry We Missed You (2019)\n', ' The day the film will lose its relevance, the world will be a happier place...\n', ' Sadly important\n', ' The best film I have seen this year.\n', ' Not very subtle, but still makes a valid and moving point\n', " A Stimulating Piece Of Smart Storytelling That's As Endearing As It Is Heartbreaking\n", ' Great movie\n', " I don't get the hype\n", ' A touching slice of realism\n', ' Packs a thunderous emotional and social wallop\n', ' A reminder that the society is made up of all kinds of people and some of them need gentle assistance.\n', ' Demanding Dignity\n', ' Excellent film about a man being strangled by bureaucratic red tape\n', " One of Loach's best films\n", ' British Working Class\n', " Not one of Loach's best efforts\n", ' The last will be the last\n']</t>
+          <t>[' Fearlessly hard hitting\n', ' humanity from Ken Loach\n', ' Claim and shame\n', ' A heart wrenching story\n', ' Disappointing Prequel To Blakes 7\n', " Dan's Labyrinth\n", ' Moving, urgent and necessary; impassioned, heart-wrenching stuff.\n', ' A double bill of I, Daniel Blake (2016) and Sorry We Missed You (2019)\n', ' High-class drama about Brit lower class.\n', ' The day the film will lose its relevance, the world will be a happier place...\n', ' Sadly important\n', ' Not very subtle, but still makes a valid and moving point\n', ' The best film I have seen this year.\n', " A Stimulating Piece Of Smart Storytelling That's As Endearing As It Is Heartbreaking\n", ' Great movie\n', " I don't get the hype\n", ' A touching slice of realism\n', ' Packs a thunderous emotional and social wallop\n', ' A reminder that the society is made up of all kinds of people and some of them need gentle assistance.\n', ' Demanding Dignity\n', ' Excellent film about a man being strangled by bureaucratic red tape\n', " One of Loach's best films\n", ' British Working Class\n', " Not one of Loach's best efforts\n", ' The last will be the last\n']</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>[' hard cold mood\n', ' Bleak and Disturbing\n', ' useful parable\n', ' Black and White (Ribbon)\n', ' Prolix, Overrated and Disappointing\n', ' I gave God a chance to kill me.\n', ' The Best Horror Film of 2009\n', ' No Simple Who-Dunnit\n', ' Black &amp; white is dead, long live black &amp; white!\n', ' 144 minutes of bared nerve endings\n', ' Ignorance poses as Innocence: The White Ribbon\n', ' Eine Deutsche Kindergeschichte\n', " Artful analysis of evil's origins\n", ' The White Ribbon: 8/10\n', ' Lead pieces\n', ' Critique of Impure Reasons...\n', ' Out of time\n', ' punishment and guilt as sources of evil\n', ' The Origin Of Cruelty In Every Society.\n', ' the very definition of an "art film"\n', ' An engaging and meaningful film\n', ' Pure evil...\n', ' A Frustratingly Great Film!\n', ' The narrator\n', ' A beautiful, long, troubling, and dry experience, Germany a generation before the Nazis\n']</t>
+          <t>[' hard cold mood\n', ' Bleak and Disturbing\n', ' useful parable\n', ' Black and White (Ribbon)\n', ' Prolix, Overrated and Disappointing\n', ' I gave God a chance to kill me.\n', ' The Best Horror Film of 2009\n', ' No Simple Who-Dunnit\n', ' Black &amp; white is dead, long live black &amp; white!\n', ' 144 minutes of bared nerve endings\n', ' Ignorance poses as Innocence: The White Ribbon\n', ' Eine Deutsche Kindergeschichte\n', ' The White Ribbon: 8/10\n', " Artful analysis of evil's origins\n", ' Lead pieces\n', ' Critique of Impure Reasons...\n', ' Out of time\n', ' punishment and guilt as sources of evil\n', ' The Origin Of Cruelty In Every Society.\n', ' the very definition of an "art film"\n', ' An engaging and meaningful film\n', ' Pure evil...\n', ' A Frustratingly Great Film!\n', ' The narrator\n', ' A beautiful, long, troubling, and dry experience, Germany a generation before the Nazis\n']</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>[' Creepy and atmospheric.\n', ' Terrifying and unforgettable\n', ' A Lot of Explaining To Do\n', ' Slow psychological ghost story\n', ' Consummate Ghost Story from Antiquity\n', ' The Innocents\n', ' Ambiguous and Beautifully Crafted\n', ' house of the damned\n', ' Guilty of being a waste of time.\n', ' A Classic Horror With Atmosphere\n', " Child's play\n", " Handsome, literate, well-acted...all that's missing is a scary hook\n", ' Kind of a pre-Exorcist, but so much more\n', ' The influence of "the innocents".....\n', " It's 'The Sound of Music' from hell!!\n", ' The Screw Turns on Film\n', ' One Particular Scene\n', ' Horror Real or Imagined Remains Horrifying\n', ' Oh willow I die, oh willow I die...\n', ' Atmospheric but not quite the chilling effect it had on stage...\n', ' "Big Rooms Get Bigger At Night!"...\n', ' "Gone is my lord and the grave is his prison."\n', ' It was only the wind, my dear.\n', ' Really good, if slightly slow-building film\n', ' Unexpectedly chilling classic\n']</t>
+          <t>[' Creepy and atmospheric.\n', ' Terrifying and unforgettable\n', ' A Lot of Explaining To Do\n', ' Slow psychological ghost story\n', ' Consummate Ghost Story from Antiquity\n', ' The Innocents\n', ' Ambiguous and Beautifully Crafted\n', ' house of the damned\n', ' Guilty of being a waste of time.\n', ' A Classic Horror With Atmosphere\n', " Child's play\n", " Handsome, literate, well-acted...all that's missing is a scary hook\n", ' Kind of a pre-Exorcist, but so much more\n', ' The influence of "the innocents".....\n', " It's 'The Sound of Music' from hell!!\n", ' The Screw Turns on Film\n', ' One Particular Scene\n', ' Horror Real or Imagined Remains Horrifying\n', ' Oh willow I die, oh willow I die...\n', ' Atmospheric but not quite the chilling effect it had on stage...\n', ' "Big Rooms Get Bigger At Night!"...\n', ' "Gone is my lord and the grave is his prison."\n', ' Really good, if slightly slow-building film\n', ' It was only the wind, my dear.\n', ' Unexpectedly chilling classic\n']</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>[' the gang is a little sad\n', ' Guardians of the Galaxy Vol 3\n', ' (K)now your (G)roots\n', ' The Story of Rocket\n', ' Quite a ride...\n', ' More of the same. A LOT more!\n', ' Very entertaining inter-galaxy adventure.\n', " This isn't the best Marvel movie but it is an entertaining one\n", ' Harsh\n', ' Guardians of the Galaxy Vol. 3\n', " My beloved raccoon. The story has been yours all along. You just didn't know it.\n", ' Occasional brilliancy, but overall weak\n', ' A great trilogy has been solidified\n', ' Many agnostics have questioned the existence of . . .\n', ' Too long.\n', ' The World of Dr. Moreau\n', ' Weakest in the trilogy but still quite entertaining\n', ' One of the most satisfying IMAX experiences ever!\n', ' Oh, please...!!\n', " A heavy but exciting ride that's on par with the other two movies\n", " Solid conclusion to Gunn's trilogy\n", ' Surprising third entry into the Guardians trilogy, showing the end in sight\n', ' Another Wild Ride\n', ' A Fitting Finale To Guardians Of The Galaxy Saga\n', ' Since You Been Gone\n']</t>
+          <t>[' the gang is a little sad\n', ' Guardians of the Galaxy Vol 3\n', ' (K)now your (G)roots\n', ' The Story of Rocket\n', ' Quite a ride...\n', ' More of the same. A LOT more!\n', ' Very entertaining inter-galaxy adventure.\n', " This isn't the best Marvel movie but it is an entertaining one\n", ' Harsh\n', ' Guardians of the Galaxy Vol. 3\n', " My beloved raccoon. The story has been yours all along. You just didn't know it.\n", ' Occasional brilliancy, but overall weak\n', ' A great trilogy has been solidified\n', ' Many agnostics have questioned the existence of . . .\n', ' Too long.\n', ' The World of Dr. Moreau\n', ' One of the most satisfying IMAX experiences ever!\n', ' Weakest in the trilogy but still quite entertaining\n', ' Oh, please...!!\n', " A heavy but exciting ride that's on par with the other two movies\n", " Solid conclusion to Gunn's trilogy\n", ' Surprising third entry into the Guardians trilogy, showing the end in sight\n', ' Another Wild Ride\n', ' A Fitting Finale To Guardians Of The Galaxy Saga\n', ' Since You Been Gone\n']</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[' How to make a film about pornography, disco and drugs great\n', ' Good fun, but not ageing too well\n', ' "I\'m A Star, I\'m A Bright Shining Star"\n', ' Great cast great director\n', ' An engaging and energetic film\n', ' like it is\n', ' An eye-wateringly huge\x85 success.\n', ' Cynical, cathartic, exhausting...\n', ' Odd, Funny and Touching\n', ' Dirk Diggler\n', ' Great second movie from PT Anderson\n', ' A Great Film On A Difficult Subject\n', ' Loosely Based on the Life of John C. Holmes\n', ' This is an underrated masterpiece that is a must see\n', ' Boogie Till You Drop\n', ' The rise and fall of a porn star.- A surprisingly epic movie.\n', ' the film works, like some dream\n', " A daring movie about porn industry of 70' and 80'\n", ' This baby just draws you in\n', ' Re-Visiting BOOGIE NIGHTS\n', ' Boogie Nights\n', ' Saturday night fever.\n', ' Boogie Nights\n', ' Splendid!\n', ' A sprawling portrait of male insecurity and female dehumanization\n']</t>
+          <t>[' How to make a film about pornography, disco and drugs great\n', ' Good fun, but not ageing too well\n', ' "I\'m A Star, I\'m A Bright Shining Star"\n', ' Great cast great director\n', ' An engaging and energetic film\n', ' like it is\n', ' An eye-wateringly huge\x85 success.\n', ' Cynical, cathartic, exhausting...\n', ' Odd, Funny and Touching\n', ' Dirk Diggler\n', ' Great second movie from PT Anderson\n', ' A Great Film On A Difficult Subject\n', ' Loosely Based on the Life of John C. Holmes\n', ' This is an underrated masterpiece that is a must see\n', ' Boogie Till You Drop\n', ' The rise and fall of a porn star.- A surprisingly epic movie.\n', ' the film works, like some dream\n', " A daring movie about porn industry of 70' and 80'\n", ' This baby just draws you in\n', ' Re-Visiting BOOGIE NIGHTS\n', ' Boogie Nights\n', ' Saturday night fever.\n', ' Boogie Nights\n', ' Splendid!\n', ' So damn good!\n']</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[' Endearing and hugely enjoyable\n', ' Quirky stop motion adventure\n', ' Claymation Wes Anderson style\n', ' Great Fun\n', ' It Was Fantastic!\n', ' Animated animals\n', ' Lots of Quirky Fun\n', ' Great Dialog, Visual Make This A Winner For Adults\n', " a marvelous clubhouse of a movie where we're all invited to laugh and feel happy\n", ' Entertaining but nothing exceptional\n', ' Refreshing Return to Stop-Motion for a Diverting Treatment\n', ' Something for everyone\n', " Best Stop-Motion Film I've Ever Seen\n", ' This is a very well done family film that is a bit underrated\n', ' If what I think is happening is happening - it better not be.\n', ' Fantastic, Mr. Anderson\n', ' Cluster Cuss of Wild Animals\n', ' Fantastic Mr Fox review\n', ' Fantastic Mr. Fox\n', " A lot of weaknesses, but it's pleasant and kind of beautiful at times\n", ' An enjoyable adaptation with a good plot, quirky humour and excellent casting.\n', ' Entertaining\n', ' Sartre and Satire\n', " Wes Anderson's animation competently deserves the adjective in its title\n", ' A Nutshell Review: Fantastic Mr. Fox\n']</t>
+          <t>[' Endearing and hugely enjoyable\n', ' Quirky stop motion adventure\n', ' Claymation Wes Anderson style\n', ' Great Fun\n', ' It Was Fantastic!\n', ' Animated animals\n', ' Lots of Quirky Fun\n', ' Great Dialog, Visual Make This A Winner For Adults\n', " a marvelous clubhouse of a movie where we're all invited to laugh and feel happy\n", ' Entertaining but nothing exceptional\n', ' Refreshing Return to Stop-Motion for a Diverting Treatment\n', ' Something for everyone\n', " Best Stop-Motion Film I've Ever Seen\n", ' This is a very well done family film that is a bit underrated\n', ' If what I think is happening is happening - it better not be.\n', ' Fantastic, Mr. Anderson\n', ' Cluster Cuss of Wild Animals\n', ' Fantastic Mr Fox review\n', ' Fantastic Mr. Fox\n', " A lot of weaknesses, but it's pleasant and kind of beautiful at times\n", ' An enjoyable adaptation with a good plot, quirky humour and excellent casting.\n', ' Entertaining\n', " Wes Anderson's animation competently deserves the adjective in its title\n", ' Sartre and Satire\n', ' A Nutshell Review: Fantastic Mr. Fox\n']</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>[" Zack Snyder's Justice League\n", ' Justice ... served?\n', ' Lots of Superheros in one 4-hour movie.\n', ' Even worse than your average comic book movie in that it goes on forever\n', ' This was so good from beginning to end and had a nice pace between storyline and action scenes.\n', ' The Assembly Cut\n', " Imperfect, yet still renders the 'Whedon cut' absolutely obsolete.\n", ' A huge improvement over the 2017 cut\n', ' Boring from the very start. Why? Because more and more CGI effects numb my brain. Even superhero movies should always be about the CHARACTERS and NOT the special effects!\n', ' interesting, overlong, unnecessary\n', ' So much satisfying than the previous Justice League!\n', " I'm glad that they found a way to resurrect this superhero film\n", ' what universe do you believe in???\n', " Long awaited Snyder Cut is longer but definitely better than the Justice League's theatrical cut.\n", ' film equivalent of bohemian rhapsody\n', " Zack Snyder's Magnum Opus\n", ' Good movie, yet its not fair to compare it to original\n', ' Vast Improvement\n', ' 8\n', ' Luckily I happen to have an IMAX screen laying around the house, said no one. Ever.\n', ' Just watch it...\n', ' Much Better\n', " What's in the Box\n", ' Take some time for this\n', ' Epic, awesome, and Zack Snyders vision delivers the dc universe.\n']</t>
+          <t>[" Zack Snyder's Justice League\n", ' Justice ... served?\n', ' Lots of Superheros in one 4-hour movie.\n', ' Even worse than your average comic book movie in that it goes on forever\n', ' This was so good from beginning to end and had a nice pace between storyline and action scenes.\n', ' The Assembly Cut\n', " Imperfect, yet still renders the 'Whedon cut' absolutely obsolete.\n", ' A huge improvement over the 2017 cut\n', ' So much satisfying than the previous Justice League!\n', ' Boring from the very start. Why? Because more and more CGI effects numb my brain. Even superhero movies should always be about the CHARACTERS and NOT the special effects!\n', ' interesting, overlong, unnecessary\n', " I'm glad that they found a way to resurrect this superhero film\n", ' what universe do you believe in???\n', " Long awaited Snyder Cut is longer but definitely better than the Justice League's theatrical cut.\n", ' film equivalent of bohemian rhapsody\n', " Zack Snyder's Magnum Opus\n", ' Good movie, yet its not fair to compare it to original\n', ' Vast Improvement\n', ' 8\n', ' Luckily I happen to have an IMAX screen laying around the house, said no one. Ever.\n', ' Just watch it...\n', ' Much Better\n', " What's in the Box\n", ' Take some time for this\n', ' Epic, awesome, and Zack Snyders vision delivers the dc universe.\n']</t>
         </is>
       </c>
     </row>
@@ -14571,7 +14571,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>[' Well done, though it sure helps if you remember Watergate.\n', ' The Story Of A Lifetime\n', ' Hoffman and Redford energizes investigation\n', ' A Sojourn into Investigative Reporting\n', " All the President's Men\n", ' An engaging political drama that delivers in a slow, wordy film\n', ' Remarkable film about two intrepid reporters , Bob Woodward and Carl Berstein , who investigate the Watergate conspiracy\n', " I'd like to see this happen to Bush.\n", ' The story of two journalists who brought down a president\n', ' Politics In A Digestible, Enjoyable Format\n', ' Superlative\n', ' DNA of the political thriller genre\n', ' Hollywood comes to D.C.\n', ' seen this many times, never reviewed\n', " Alan J. Pakula's peak\n", ' a tight ball of a mystery movie, gets better with more viewings\n', ' An altogether remarkable achievement.\n', ' "THE PEN IS MIGHTIER THAN THE SWORD"...SEARING CINEMA-VERITE...INVESTIGATIVE JOURNALISM\'S RAW METHODS &amp; MACHINERY\n', ' The Fourth Estate Heavy at Work\n', ' Best step by step example of journalism ever portrayed on film\n', ' An Abuse of Power\n', ' Accurate portrayal of Watergate reporting\n', ' A Thrilling Movie About How Fun It Is to Be a Journalist\n', " How the domino's fell.\n", ' The Real Dynamic Duo\n']</t>
+          <t>[' Well done, though it sure helps if you remember Watergate.\n', ' The Story Of A Lifetime\n', ' Hoffman and Redford energizes investigation\n', ' A Sojourn into Investigative Reporting\n', " All the President's Men\n", ' An engaging political drama that delivers in a slow, wordy film\n', ' Remarkable film about two intrepid reporters , Bob Woodward and Carl Berstein , who investigate the Watergate conspiracy\n', " I'd like to see this happen to Bush.\n", ' The story of two journalists who brought down a president\n', ' Politics In A Digestible, Enjoyable Format\n', ' DNA of the political thriller genre\n', ' Superlative\n', ' Hollywood comes to D.C.\n', ' seen this many times, never reviewed\n', " Alan J. Pakula's peak\n", ' a tight ball of a mystery movie, gets better with more viewings\n', ' An altogether remarkable achievement.\n', ' "THE PEN IS MIGHTIER THAN THE SWORD"...SEARING CINEMA-VERITE...INVESTIGATIVE JOURNALISM\'S RAW METHODS &amp; MACHINERY\n', ' The Fourth Estate Heavy at Work\n', ' Best step by step example of journalism ever portrayed on film\n', ' An Abuse of Power\n', ' Accurate portrayal of Watergate reporting\n', ' A Thrilling Movie About How Fun It Is to Be a Journalist\n', " How the domino's fell.\n", ' The Real Dynamic Duo\n']</t>
         </is>
       </c>
     </row>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>[' Good but a bit scary to this old fashioned father.\n', ' A beautifully blossomed wallflower\n', ' Young Cast has Heart\n', ' Charming Gem of a Picture\n', ' Harry who?\n', ' school can be an unpleasant time\n', ' Decent Coming-of-Age Tale\n', ' A more gritty teen film\n', ' The Perks of Being a Wallflower has perhaps the most realistic touching of teen relationships depicted on film\n', ' Overrated\n', ' Incredible movie\n', ' Add It to the List of Films That Make Me Glad I Never Have to Relive High School\n', ' We are infinite\n', ' Touching drama - worth watching\n', " 'We accept the love we think we deserve.'\n", ' Cliché\n', ' Good coming of age film that reminds you of your high school days of trying to fit in.\n', ' Cool, sentimental, and melodramatic\n', " The heart-touching story of a boy's first high school year\n", ' A Nutshell Review: The Perks of Being a Wallflower\n', ' Overrated, but beautiful, symbolic, necessary, intense and real, the sensational plot twist...\n', ' Were my bonds really infinite? Am I a wallflower?\n', ' Welcome to the Island of Misfit Toys\n', ' Good Teen Film\n', ' My expectations were very minimal but I have to say I loved it!\n']</t>
+          <t>[' Good but a bit scary to this old fashioned father.\n', ' A beautifully blossomed wallflower\n', ' Young Cast has Heart\n', ' Charming Gem of a Picture\n', ' Harry who?\n', ' school can be an unpleasant time\n', ' Decent Coming-of-Age Tale\n', ' A more gritty teen film\n', ' The Perks of Being a Wallflower has perhaps the most realistic touching of teen relationships depicted on film\n', ' Overrated\n', ' Incredible movie\n', ' Add It to the List of Films That Make Me Glad I Never Have to Relive High School\n', ' We are infinite\n', ' Touching drama - worth watching\n', " 'We accept the love we think we deserve.'\n", ' Cliché\n', ' Good coming of age film that reminds you of your high school days of trying to fit in.\n', " The heart-touching story of a boy's first high school year\n", ' Cool, sentimental, and melodramatic\n', ' A Nutshell Review: The Perks of Being a Wallflower\n', ' Overrated, but beautiful, symbolic, necessary, intense and real, the sensational plot twist...\n', ' Were my bonds really infinite? Am I a wallflower?\n', ' Welcome to the Island of Misfit Toys\n', ' Good Teen Film\n', ' My expectations were very minimal but I have to say I loved it!\n']</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>[' Very nearly a wonder\n', ' try hard tear-jerker\n', ' No Cheap Sentimentality\n', ' Mask\n', ' Heartwarming Story\n', ' Yeah, this is a really good movie. Boy born with Treacher Collins Syndrome.\n', ' Wonder\n', ' Got me sobbing\n', ' Wonderful journey\n', ' sweet message movie\n', ' Generally generic but enjoyably wholesome.\n', ' Wonderful family greatness\n', ' Heartwarming and just awesome.\n', " Suga, Suga, and mo' Suga\n", " Extremely relatable to me, in some ways more so than any other film I've ever seen!\n", ' Good family movie\n', ' The Real Problem\n', ' As Heartwarming as it is Heartbreaking\n', ' A wonderful family film\n', ' Good for what it is\n', ' Beautiful...\n', ' A beautiful message and a sweet sad story that will play with your emotions.\n', ' A kind-hearted and lovable family drama\n', ' The Vidiot Reviews....\n', ' Wonder\n']</t>
+          <t>[' Very nearly a wonder\n', ' try hard tear-jerker\n', ' No Cheap Sentimentality\n', ' Mask\n', ' Heartwarming Story\n', ' Yeah, this is a really good movie. Boy born with Treacher Collins Syndrome.\n', ' Wonder\n', ' Got me sobbing\n', ' Wonderful journey\n', ' sweet message movie\n', ' Generally generic but enjoyably wholesome.\n', ' Wonderful family greatness\n', ' Heartwarming and just awesome.\n', " Suga, Suga, and mo' Suga\n", " Extremely relatable to me, in some ways more so than any other film I've ever seen!\n", ' Good family movie\n', ' The Real Problem\n', ' As Heartwarming as it is Heartbreaking\n', ' A wonderful family film\n', ' Good for what it is\n', ' Beautiful...\n', ' A beautiful message and a sweet sad story that will play with your emotions.\n', ' A kind-hearted and lovable family drama\n', ' Wonder\n', ' The Vidiot Reviews....\n']</t>
         </is>
       </c>
     </row>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>[' Incredibly depressing...but with some AMAZING performances and a great script.\n', ' Irreconcilable Differences\n', ' Should\'ve Been Called "Divorce Story"\n', ' Marriage Story\n', ' Well acted, but so slow.\n', ' Live together, being apart or Kramer vs Kramer reboot\n', ' Beautiful and Heartbreaking\n', ' Black Widow meets Kylo Ren\n', ' Sadly too realistic depiction of a family going through divorce.\n', ' Gives you a heavy heart\n', ' Good but takes a fair bit of patience\n', ' As someone who went through a divorce I can tell you it brought back so many emotions and bad memories.\n', ' true life... so much arguing.\n', ' Career Best\n', ' masterful story telling and acting\n', ' Not for me, too long, too simple, too boring.\n', ' Divorce the good bad and the ugly\n', " 'I never really came alive for myself; I was only feeding his aliveness'\n", ' Full of love despite being about a divorce.\n', ' A film that will make one feel sad and gloom, still the performances and story is direct and honest.\n', ' Film Review - Marriage Story (2019) 7.8/10\n', ' Mgtow movie\n', ' Watch "Kramer Vs Kramer" instead, it\'s much better acted, more touching and with more spark, wit and punch.\n', ' not that interesting\n', ' Astonishing all the way through\n']</t>
+          <t>[' Incredibly depressing...but with some AMAZING performances and a great script.\n', ' Irreconcilable Differences\n', ' Should\'ve Been Called "Divorce Story"\n', ' Marriage Story\n', ' Well acted, but so slow.\n', ' Live together, being apart or Kramer vs Kramer reboot\n', ' Beautiful and Heartbreaking\n', ' Black Widow meets Kylo Ren\n', ' Sadly too realistic depiction of a family going through divorce.\n', ' Gives you a heavy heart\n', ' Good but takes a fair bit of patience\n', ' As someone who went through a divorce I can tell you it brought back so many emotions and bad memories.\n', ' true life... so much arguing.\n', ' Career Best\n', ' masterful story telling and acting\n', ' Not for me, too long, too simple, too boring.\n', ' Divorce the good bad and the ugly\n', " 'I never really came alive for myself; I was only feeding his aliveness'\n", ' Full of love despite being about a divorce.\n', ' A film that will make one feel sad and gloom, still the performances and story is direct and honest.\n', ' Film Review - Marriage Story (2019) 7.8/10\n', ' Mgtow movie\n', ' Astonishing all the way through\n', ' Watch "Kramer Vs Kramer" instead, it\'s much better acted, more touching and with more spark, wit and punch.\n', ' not that interesting\n']</t>
         </is>
       </c>
     </row>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>[' Faboulously original.\n', ' Very intriguing\n', " culmination of Linklater's sensibilities\n", ' More Than Just a Gimmick\n', ' Is It Just Gimmicky?\n', ' I love it\n', ' A child of our time\n', ' Life (moving)\n', ' no matter what happens, you must keep going\n', ' A Brilliant Concept, But Execution Is Spotty\n', ' An almost good idea\n', ' Scrapbook of episodes: a touchstone for some audiences, alienating to others\n', ' Richard Linklater really did a worthy 12-year project with Boyhood\n', ' A unique offering\n', ' Wonderful, innovative movie\n', ' Easier To Respect Than To Genuinely Enjoy\n', ' Unassuming Masterpiece\n', ' Instead of "Before", this is During\n', ' Twelve year project well executed\n', ' It Happened Here\n', " 'Like watching paint dry'\n", ' Very good (even if I wished I liked it as much as everyone else does)\n', ' A special film\n', " An excellent and wonderful film of life, discovery, it's about growing up with time.\n", " The year's best so far.\n"]</t>
+          <t>[' Faboulously original.\n', ' Very intriguing\n', " culmination of Linklater's sensibilities\n", ' More Than Just a Gimmick\n', ' Is It Just Gimmicky?\n', ' I love it\n', ' A child of our time\n', ' Life (moving)\n', ' no matter what happens, you must keep going\n', ' A Brilliant Concept, But Execution Is Spotty\n', ' An almost good idea\n', ' Scrapbook of episodes: a touchstone for some audiences, alienating to others\n', ' Richard Linklater really did a worthy 12-year project with Boyhood\n', ' A unique offering\n', ' Wonderful, innovative movie\n', ' Easier To Respect Than To Genuinely Enjoy\n', ' Unassuming Masterpiece\n', ' Instead of "Before", this is During\n', ' Twelve year project well executed\n', ' It Happened Here\n', " 'Like watching paint dry'\n", ' Very good (even if I wished I liked it as much as everyone else does)\n', ' A special film\n', " An excellent and wonderful film of life, discovery, it's about growing up with time.\n", " the film is unique, groundbreaking, winsome and crowd-pleasing, what's more one can expect?\n"]</t>
         </is>
       </c>
     </row>
@@ -15388,7 +15388,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>[' like watching an episode of "Mama\'s Family"\n', ' Superb film and one of the best films of 1968\n', ' Christmas With Henry And Eleanor Plantagenet\n', ' Big time acting from big time actors\n', " A Tour de Force for O'Toole and Hepburn\n", ' a gem\n', ' Machiavellian and Dysfunctional Family of Snakes\n', " Extraordinary battle of wits and verbal warfare between O'Toole and Hepburn\n", ' the lion is king of the jungle, and of England\n', " Peter O'Toole as King\n", ' Well-acted but one-note\n', ' Kind of a Medieval "Who\'s Afraid of Virginia Woolf"\n', ' Chinon,my native town!\n', ' Game of Thrones 68\n', ' Gall in the Family\n', ' Interesting but slow, overwrought and overshouted\n', ' I marvel at you after all these years. Still like a democratic drawbridge: going down for everybody.\n', ' Dysfunctional family comes home for the holidays...\n', ' Incredible acting\n', ' A historical drama as brilliant as it is biting\n', ' A Glorious Royal Feud\n', " Please Knight Peter O'Toole!\n", ' Eleanor of Baaaston\n', ' The Lion in Winter\n', " Excellent Film with some of the most inspiring performances you'll ever see in a long time\n"]</t>
+          <t>[' like watching an episode of "Mama\'s Family"\n', ' Superb film and one of the best films of 1968\n', ' Christmas With Henry And Eleanor Plantagenet\n', ' Big time acting from big time actors\n', " A Tour de Force for O'Toole and Hepburn\n", ' a gem\n', ' Machiavellian and Dysfunctional Family of Snakes\n', " Extraordinary battle of wits and verbal warfare between O'Toole and Hepburn\n", ' the lion is king of the jungle, and of England\n', " Peter O'Toole as King\n", ' Well-acted but one-note\n', ' Kind of a Medieval "Who\'s Afraid of Virginia Woolf"\n', ' Chinon,my native town!\n', ' Game of Thrones 68\n', ' Gall in the Family\n', ' Interesting but slow, overwrought and overshouted\n', ' I marvel at you after all these years. Still like a democratic drawbridge: going down for everybody.\n', ' Dysfunctional family comes home for the holidays...\n', ' Incredible acting\n', ' A historical drama as brilliant as it is biting\n', ' A Glorious Royal Feud\n', " Please Knight Peter O'Toole!\n", ' The Lion in Winter\n', ' Eleanor of Baaaston\n', " Excellent Film with some of the most inspiring performances you'll ever see in a long time\n"]</t>
         </is>
       </c>
     </row>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>[" A really good film....but what's with that awful shaky cam?!\n", ' Compelling little indie with great performances\n', ' Two lives of Grace\n', ' Playing out\n', ' Mostly avoids sentiment by virtue of how delicate, convincing, intimate and engaging it is\n', ' It speaks to the heart\n', ' Great - an original, engaging and emotional film\n', ' Troubled Kids and Troubled Adults\n', ' Here We Go\n', ' Forget your blockbusters--this is super cinema without the price tag.\n', ' Cretton has done a remarkable job and emerged as one of the few new talents worthy of our attention\n', ' Like all great drama it manages to find the light in the darkness!\n', ' Heartwarming &amp; Heartbreaking at the Same Time.\n', ' Incredibly moving.\n', ' Where is the Love, Academy?\n', ' Superb Performances, Underwhelming Character Development,\n', ' Realistic feeling and emotionally moving\n', ' A star making film for Cretton and actress Brie Larson\n', ' What An Emotional Punch\n', ' A turning point for many in their career\n', ' Powerful movie about a group home\n', ' May just be the best film of the year\n', ' Short Term 12 cares for its viewers by making them feel every emotion possible.\n', ' Something of a Missed Opportunity\n', ' Hard-hitting yet hopeful drama\n']</t>
+          <t>[" A really good film....but what's with that awful shaky cam?!\n", ' Compelling little indie with great performances\n', ' Two lives of Grace\n', ' Playing out\n', ' Mostly avoids sentiment by virtue of how delicate, convincing, intimate and engaging it is\n', ' It speaks to the heart\n', ' Great - an original, engaging and emotional film\n', ' Troubled Kids and Troubled Adults\n', ' Here We Go\n', ' Cretton has done a remarkable job and emerged as one of the few new talents worthy of our attention\n', ' Forget your blockbusters--this is super cinema without the price tag.\n', ' Like all great drama it manages to find the light in the darkness!\n', ' Heartwarming &amp; Heartbreaking at the Same Time.\n', ' Incredibly moving.\n', ' Where is the Love, Academy?\n', ' Superb Performances, Underwhelming Character Development,\n', ' Realistic feeling and emotionally moving\n', ' A star making film for Cretton and actress Brie Larson\n', ' What An Emotional Punch\n', ' A turning point for many in their career\n', ' Powerful movie about a group home\n', ' May just be the best film of the year\n', ' Short Term 12 cares for its viewers by making them feel every emotion possible.\n', ' Something of a Missed Opportunity\n', ' Hard-hitting yet hopeful drama\n']</t>
         </is>
       </c>
     </row>
@@ -15619,7 +15619,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>[' Disney all the way\n', " It's not bad\n", ' Tear jerker\n', ' Togo or not to go.\n', ' Good to go Togo\n', ' Good...\n', ' Good and involving movie\n', ' The Heart of a Survivor\n', ' An incredible true story, told perfectly.\n', ' What a story...\n', " True appreciation of a dog's heroism\n", " A fantastic surprise. One of the best Disney film's in years!\n", ' Great Doggy Tale\n', ' What a film\n', ' EMOTIONAL!\n', ' My dawg!\n', ' Not just a dog story\n', ' Robodogs to the Heart\n', ' American ( A+ Movie) My Ratings 10/10\n', ' Great\n', " Would have enjoyed even more if I hadn't seen the rave reviews.\n", ' A Heartwarming Story\n', ' A story of Togo the brave presented by the timeless Willem Dafoe.\n', ' An inspiring tale of the relationship between humans and canines through the most challenging of hardships\n', ' Pleasantly surprised\n']</t>
+          <t>[' Disney all the way\n', " It's not bad\n", ' Tear jerker\n', ' Togo or not to go.\n', ' Good to go Togo\n', ' Good...\n', ' Good and involving movie\n', ' The Heart of a Survivor\n', ' An incredible true story, told perfectly.\n', ' What a story...\n', " True appreciation of a dog's heroism\n", " A fantastic surprise. One of the best Disney film's in years!\n", ' Great Doggy Tale\n', ' What a film\n', ' EMOTIONAL!\n', ' My dawg!\n', ' Not just a dog story\n', ' Robodogs to the Heart\n', ' American ( A+ Movie) My Ratings 10/10\n', ' Great\n', ' A Heartwarming Story\n', " Would have enjoyed even more if I hadn't seen the rave reviews.\n", ' A story of Togo the brave presented by the timeless Willem Dafoe.\n', ' An inspiring tale of the relationship between humans and canines through the most challenging of hardships\n', ' Pleasantly surprised\n']</t>
         </is>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>[' The series keeps being great\n', ' The Director and Stars Still Have It\n', ' Is this the end?\n', ' Marriage Crisis or Bipolar Disorder?\n', ' The Long-Term Romance Part Three\n', ' my film of the year - and many others I should hope\n', ' Not charming anymore\n', ' Mixed feelings\n', ' The third and final "Before...." movies\n', ' So Far the Best of the "Before..." Series\n', ' Masterpiece\n', ' The magic continues\n', ' Nice ending (?) for one of the best romantic sagas in cinema\n', ' Oxygen for the serious film-goer\n', ' a third time is still a charm!\n', " Don't think, just watch\n", ' Not as strong as Before Sunrise.\n', " I'm Cutting This A Bit Of Slack\n", " Hard to sit through at times but it's still very well done and believable.\n", ' A Magnificent Conclusion To A Remarkable Trilogy.\n', ' One-third of a romantic magnum opus\n', ' Great picture - "maybe it\'s not perfect, but it\'s real"\n', " It's official- The best trilogy of all time\n", ' The best third...\n', ' The three films together are stunning! But this is the least of them\n']</t>
+          <t>[' The series keeps being great\n', ' The Director and Stars Still Have It\n', ' Is this the end?\n', ' Marriage Crisis or Bipolar Disorder?\n', ' The Long-Term Romance Part Three\n', ' my film of the year - and many others I should hope\n', ' Not charming anymore\n', ' Mixed feelings\n', ' The third and final "Before...." movies\n', ' So Far the Best of the "Before..." Series\n', ' Masterpiece\n', ' The magic continues\n', ' Nice ending (?) for one of the best romantic sagas in cinema\n', ' a third time is still a charm!\n', ' Oxygen for the serious film-goer\n', " Don't think, just watch\n", ' Not as strong as Before Sunrise.\n', " I'm Cutting This A Bit Of Slack\n", " Hard to sit through at times but it's still very well done and believable.\n", ' A Magnificent Conclusion To A Remarkable Trilogy.\n', ' One-third of a romantic magnum opus\n', ' Great picture - "maybe it\'s not perfect, but it\'s real"\n', " It's official- The best trilogy of all time\n", ' The best third...\n', ' The three films together are stunning! But this is the least of them\n']</t>
         </is>
       </c>
     </row>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>[' sweet coming-of-age\n', ' Teenage kicks\n', ' Brilliant\n', ' a real sweet heart of a movie, but with actual edge and, most importantly, good rock songs!\n', ' Enjoyable, and great music too!\n', ' Basic plot but quite entertaining\n', " A John Hughes Movie for a Generation of People Who Don't Know Who John Hughes Was\n", ' London Calling\n', ' So sweet\n', ' Boys and Girls on Film\n', ' Delightful Musical with laughs and heart.\n', ' a beacon of prowess in filmmaking\n', ' Lovely, engaging musical\n', ' I love this soundtrack!\n', ' A real tonic of a movie\n', " John Carney's best film yet!\n", ' The Feel-Good Irish Movie Of The Year\n', ' For Brothers Everywhere\n', ' A lot of fun\n', ' A Heartwarming Film that is Ridiculous Fun,\n', ' "Futurist Band Forming"\n', ' WHEN DREAMS MEET REALITY...!\n', ' Back to the 80s with rock and roll and romance.\n', ' Riddle of The Singer\n', ' Starts promisingly, ends in cliché\n']</t>
+          <t>[' sweet coming-of-age\n', ' Teenage kicks\n', ' Brilliant\n', ' a real sweet heart of a movie, but with actual edge and, most importantly, good rock songs!\n', ' Enjoyable, and great music too!\n', ' Basic plot but quite entertaining\n', " A John Hughes Movie for a Generation of People Who Don't Know Who John Hughes Was\n", ' London Calling\n', ' So sweet\n', ' Boys and Girls on Film\n', ' a beacon of prowess in filmmaking\n', ' Delightful Musical with laughs and heart.\n', ' Lovely, engaging musical\n', ' I love this soundtrack!\n', ' A real tonic of a movie\n', " John Carney's best film yet!\n", ' The Feel-Good Irish Movie Of The Year\n', ' For Brothers Everywhere\n', ' A lot of fun\n', ' A Heartwarming Film that is Ridiculous Fun,\n', ' "Futurist Band Forming"\n', ' WHEN DREAMS MEET REALITY...!\n', ' Back to the 80s with rock and roll and romance.\n', ' Riddle of The Singer\n', ' Starts promisingly, ends in cliché\n']</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>[' starts off slowly but picks up speed in second half\n', ' German meditation\n', ' First Experience with Wim Wenders\n', ' Wings of Desire\n', ' Wim Wenders shows us our lives from the beyond\n', ' A True Work of Art\n', ' Full of magical elements...\n', " a poetic feast for the senses - that should tell you if you'll like it.\n", ' When the child was a child...\n', ' Disappointing\n', ' Thinks very highly of itself\n', " Don't cry for me. I'm already dead.\n", ' Storyteller thrust to the edge\n', ' Many people love it\n', ' Wings of Desire\n', ' Magnificent\n', ' WINGS OF DESIRE holds dear in its heart the most elemental sensation of being alive, a knockout, through and through\n', ' Makes making great movies look easy...\n', ' A Classic German Fantasy about human Life and the desires of being human.\n', ' What makes us human\n', ' Kinda great movie, but rough abound the edges\n', ' Essay on Sleepiness.\n', ' Floating eye\n', " By the time it gets a little full of itself, you are so mesmerized and awestruck it doesn't matter\n", ' Wings of Desire\n']</t>
+          <t>[' starts off slowly but picks up speed in second half\n', ' German meditation\n', ' First Experience with Wim Wenders\n', ' Wings of Desire\n', ' Wim Wenders shows us our lives from the beyond\n', ' A True Work of Art\n', ' Full of magical elements...\n', " a poetic feast for the senses - that should tell you if you'll like it.\n", ' When the child was a child...\n', ' Disappointing\n', ' Thinks very highly of itself\n', " Don't cry for me. I'm already dead.\n", ' Storyteller thrust to the edge\n', ' Many people love it\n', ' Wings of Desire\n', ' Magnificent\n', ' WINGS OF DESIRE holds dear in its heart the most elemental sensation of being alive, a knockout, through and through\n', ' Makes making great movies look easy...\n', ' A Classic German Fantasy about human Life and the desires of being human.\n', ' What makes us human\n', ' Kinda great movie, but rough abound the edges\n', ' Essay on Sleepiness.\n', ' Floating eye\n', " By the time it gets a little full of itself, you are so mesmerized and awestruck it doesn't matter\n", ' Outstanding angelic fantasy\n']</t>
         </is>
       </c>
     </row>
@@ -16480,76 +16480,76 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>488. The Sacrifice</t>
+          <t>488. The Leopard</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>3h 6m</t>
         </is>
       </c>
       <c r="D489" t="n">
         <v>7.9</v>
       </c>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="n">
+        <v>100</v>
+      </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>tt0091670</t>
+          <t>tt0057091</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>[" With The Sacrifice, Tarkovsky's film career ends on a high\n", ' Tarkovsky\n', " the soul of the artist/poet with his profound 'swan song', an elegy to life and death and the soul\n", ' Existential fear\n', " Tarkovsky's last film on the eve of his death speculating in doomsday\n", ' The Final Lament From Andrei Tarkovsky\n', ' For patients viewers only.\n', ' Slow pace allows time to immerse yourself in philosophical thought\n', ' Following through on a Promise\n', ' Tarkovsky paying tribute to Bergman\n', ' Weak.\n', ' A Masterpiece....Or is it ?\n', ' Do not watch for entertainment but to be pushed to reflect inward\n', ' A Typical Tarkovsky Affair.\n', ' A tour of everything Tarkovsky.\n', ' My Mother (Maria), The Bomb\n', ' Genius pummelling you into submission.\n', ' Stamina needed\n', ' Mesmerizing, Spellbinding Masterpiece\n', ' Hard to describe.\n', ' "Can\'t you express yourself clearly, man?"\n', " it's Deep!\n", ' Ah, Sweden!\n', ' Disappointing end to an astonishing career.\n', ' Another excellent film by Tarkovsky\n']</t>
+          <t>[' Risorgimento\n', ' The Leopard\n', ' an experience\n', ' Paintings in Movement\n', " Glamorous as well as spectacular historical drama about the uprising of 1860's Sicily during the unification of Italy\n", ' life in a declining institution\n', ' The End of Sicily?\n', " Visconti's film about dying aristocracy in Sicily\n", " it's one of Visconti's most ambitious and gorgeous films\n", ' Long but fascinating\n', " Luchino Visconti's finest achievement\n", ' A Fantastic Period Film from Luchino Visconti\n', ' Burt Lancaster goes Italian aristocratic.\n', ' the prancing and dancing in monied splendour goes on for the whole of the final 40 minutes\n', ' Sumptuous, but difficult to follow\n', ' On the inevitability of change\n', ' No Longer the Biggest Cat in the Jungle\n', ' The Leopard\n', ' Sunset of a world\n', ' An apotheosis of nobility\n', ' Keeping His Paws in the Gilded Cage\n', ' a classic by all definition\n', ' The Leopard\n', ' the leopard\n', ' Overlong and dull\n']</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>489. The Philadelphia Story</t>
+          <t>489. The Sacrifice</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D490" t="n">
         <v>7.9</v>
       </c>
-      <c r="E490" t="n">
-        <v>96</v>
-      </c>
+      <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>tt0032904</t>
+          <t>tt0091670</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>[' Very good and very polished...but an Oscar for Best Actor for Stewart?!\n', ' Witty and romantic with a great cast, great writing and great direction\n', ' Dictating her own comeback\n', ' What a threesome\n', ' Sparkling, to Say the Least\n', ' Delightful Classic Romantic Comedy\n', ' Great dialogue, great performances and a real fun, urgent pace to the material make this a delightfully fun film\n', ' Classic comedy with three towering big stars , Katharine Hepburn , Gary Grant and James Stewart giving wonderful performances\n', ' "The Philadelphia Story" vs "High Society"\n', ' Just Not My Cup of Tea\n', ' Vastly Overrated Movie With Unlikeable Characters\n', ' Glossy, arch society comedy\n', ' Great ensemble cast makes this one POP\n', ' Can hardly go wrong with these three lookers\n', ' After so many years, I finally got to watch The Philadelphia Story with my mom just now!\n', ' Philadelphia Freedom for Katharine Hepburn with George Cukor\n', ' The game of love in high society.\n', ' Overrated, Despite the Big Names\n', ' Good, but feels a bit dated\n', ' Main Line society wedding\n', ' Great film but VERY talky\n', ' Spoiled, arrogant Tracy Lord fits Hepburn like a glove...\n', ' Overrated screwball comedy\n', ' The time to make up your mind about people is never\n', ' A very fun film with great characters and a magnificent cast\n']</t>
+          <t>[" With The Sacrifice, Tarkovsky's film career ends on a high\n", ' Tarkovsky\n', " the soul of the artist/poet with his profound 'swan song', an elegy to life and death and the soul\n", ' Existential fear\n', " Tarkovsky's last film on the eve of his death speculating in doomsday\n", ' The Final Lament From Andrei Tarkovsky\n', ' For patients viewers only.\n', ' Slow pace allows time to immerse yourself in philosophical thought\n', ' Following through on a Promise\n', ' Tarkovsky paying tribute to Bergman\n', ' Weak.\n', ' A Masterpiece....Or is it ?\n', ' Do not watch for entertainment but to be pushed to reflect inward\n', ' A Typical Tarkovsky Affair.\n', ' A tour of everything Tarkovsky.\n', ' My Mother (Maria), The Bomb\n', ' Genius pummelling you into submission.\n', ' Stamina needed\n', ' Mesmerizing, Spellbinding Masterpiece\n', ' Hard to describe.\n', ' "Can\'t you express yourself clearly, man?"\n', " it's Deep!\n", ' Ah, Sweden!\n', ' Disappointing end to an astonishing career.\n', ' Another excellent film by Tarkovsky\n']</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>490. Talk to Her</t>
+          <t>490. The Philadelphia Story</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -16561,33 +16561,33 @@
         <v>7.9</v>
       </c>
       <c r="E491" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>tt0287467</t>
+          <t>tt0032904</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>[' some problems in intriguing movie\n', ' Offbeat and sensitive melodrama about two men care for women in coma masterfully acted and directed\n', ' the alternate relationships\n', ' Talk to Her\n', ' Another World\n', ' One of the best films of 2002\n', ' Interesting and emotional drama\n', " Big boys don't cry..\n", ' Very good...\n', ' Love is the saddest thing when it goes away\n', " One of Almodovar's More Satisfying Movies\n", ' Two Comas and a Bullfight\n', ' Good movie but not brilliant like some say here\n', " When a man loves a woman (and she doesn't know it)...\n", ' Talk to Her\n', " Look but don't touch.\n", " It's a provocative Almodovar at his best.\n", ' Strangely fascinating\n', ' Intriguing but object-oriented\n', ' Intelligent and Sensible\n', ' a unique vision of love\n', ' Was Killing Six Bulls Really Necessary?\n', ' Two Men, Two Women, Two Comas---See a Pattern?\n', ' Illusory flowers, the bloom not unreal\n', ' Disappointment\n']</t>
+          <t>[' Very good and very polished...but an Oscar for Best Actor for Stewart?!\n', ' Witty and romantic with a great cast, great writing and great direction\n', ' Dictating her own comeback\n', ' What a threesome\n', ' Sparkling, to Say the Least\n', ' Delightful Classic Romantic Comedy\n', ' Great dialogue, great performances and a real fun, urgent pace to the material make this a delightfully fun film\n', ' Classic comedy with three towering big stars , Katharine Hepburn , Gary Grant and James Stewart giving wonderful performances\n', ' "The Philadelphia Story" vs "High Society"\n', ' Just Not My Cup of Tea\n', ' Vastly Overrated Movie With Unlikeable Characters\n', ' Glossy, arch society comedy\n', ' Great ensemble cast makes this one POP\n', ' Can hardly go wrong with these three lookers\n', ' After so many years, I finally got to watch The Philadelphia Story with my mom just now!\n', ' Philadelphia Freedom for Katharine Hepburn with George Cukor\n', ' The game of love in high society.\n', ' Overrated, Despite the Big Names\n', ' Good, but feels a bit dated\n', ' Main Line society wedding\n', ' Great film but VERY talky\n', ' Spoiled, arrogant Tracy Lord fits Hepburn like a glove...\n', ' Overrated screwball comedy\n', ' The time to make up your mind about people is never\n', ' A very fun film with great characters and a magnificent cast\n']</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>491. The Thin Man</t>
+          <t>491. Talk to Her</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -16598,386 +16598,386 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>tt0025878</t>
+          <t>tt0287467</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>[' Great fun--and probably the best of the genre\n', ' A classic that I think has held up well\n', ' William Powell and Myrna Loy are a fun couple\n', " I'll Drink to That!!\n", " Some Old Friends Can Tell The Same Jokes Again And It's Fine\n", ' Delightful mystery\n', ' Witty, Delightful and Charming\n', ' Enjoyable mystery made better by the playing of Powell and Loy\n', ' Can you say all-around classic?\n', ' First in a Series...\n', ' An Era Where Liquor Was Always The Answer\n', ' Former detective is working on a case...of scotch!\n', ' The first of the series, and one of the best\n', ' look up \'Charming-as-all-heck Detective Movie" in the dictionary\n', ' Say hello to a very interesting couple.\n', ' The first in a great series of mystery films\n', ' The Adorable Alcoholic\n', ' Superb combination of comedy and crime-drama: very funny and highly intriguing\n', ' Waiter, will you serve the nuts? ... I mean, will you serve the guests the nuts?\n', ' First rate\n', ' Formula Thin Man stuff is still witty and sophisticated...\n', ' Classic oldie\n', ' "The murderer is right in this room. Sitting at this table. You may serve the fish."\n', ' Waiter, will you serve the nuts? I mean, will you serve the guests the nuts?\n', ' follow along as married couple solves mystery\n']</t>
+          <t>[' some problems in intriguing movie\n', ' Offbeat and sensitive melodrama about two men care for women in coma masterfully acted and directed\n', ' the alternate relationships\n', ' Talk to Her\n', ' Another World\n', ' One of the best films of 2002\n', ' Interesting and emotional drama\n', " Big boys don't cry..\n", ' Very good...\n', ' Love is the saddest thing when it goes away\n', " One of Almodovar's More Satisfying Movies\n", ' Two Comas and a Bullfight\n', ' Good movie but not brilliant like some say here\n', " When a man loves a woman (and she doesn't know it)...\n", ' Talk to Her\n', " Look but don't touch.\n", " It's a provocative Almodovar at his best.\n", ' Strangely fascinating\n', ' Intriguing but object-oriented\n', ' Intelligent and Sensible\n', ' a unique vision of love\n', ' Was Killing Six Bulls Really Necessary?\n', ' Two Men, Two Women, Two Comas---See a Pattern?\n', ' Illusory flowers, the bloom not unreal\n', ' Disappointment\n']</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>492. Amour</t>
+          <t>492. The Thin Man</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D493" t="n">
         <v>7.9</v>
       </c>
       <c r="E493" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>tt1602620</t>
+          <t>tt0025878</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>[' Slow movie but truthful\n', ' Two Great Performances\n', ' about love\n', ' Late Amour\n', ' Depressing End of a Journey\n', " Amour was worthy of this year's Oscar for Best Foreign Language Film\n", ' A powerful portrayal of the ultimate love\n', ' Beautiful, heartbreaking, phenomenal: a must-see\n', ' Certainly Accomplished, But It Left Me Cold\n', ' Dedicated to the one I love\n', " 'Things will go on, and then one day it will all be over.'\n", ' Straightforward, unflinching look at the indignities of old age and death\n', ' Painful, tough it proves though that love last a lifetime!\n', ' Uncompromising true love, unHollywood style.\n', ' Love\n', ' A Nutshell Review: Amour\n', ' an event\n', ' Beautiful...\n', ' A Worthy Film!\n', " If you didn't have a reason to seek out a foreign film before reading this, you certainly do now\n", ' Death affirming\n', ' Extremely slow moving and sad.\n', ' An Intimate &amp; Heartwrenching Experience.\n', ' Love in its purest form\n', ' Definitely a Haneke film\n']</t>
+          <t>[' Great fun--and probably the best of the genre\n', ' A classic that I think has held up well\n', ' William Powell and Myrna Loy are a fun couple\n', " I'll Drink to That!!\n", " Some Old Friends Can Tell The Same Jokes Again And It's Fine\n", ' Delightful mystery\n', ' Witty, Delightful and Charming\n', ' Enjoyable mystery made better by the playing of Powell and Loy\n', ' Can you say all-around classic?\n', ' First in a Series...\n', ' An Era Where Liquor Was Always The Answer\n', ' Former detective is working on a case...of scotch!\n', ' The first of the series, and one of the best\n', ' look up \'Charming-as-all-heck Detective Movie" in the dictionary\n', ' Say hello to a very interesting couple.\n', ' The first in a great series of mystery films\n', ' The Adorable Alcoholic\n', ' Superb combination of comedy and crime-drama: very funny and highly intriguing\n', ' Waiter, will you serve the nuts? ... I mean, will you serve the guests the nuts?\n', ' First rate\n', ' Formula Thin Man stuff is still witty and sophisticated...\n', ' Classic oldie\n', ' "The murderer is right in this room. Sitting at this table. You may serve the fish."\n', ' Waiter, will you serve the nuts? I mean, will you serve the guests the nuts?\n', ' follow along as married couple solves mystery\n']</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>493. Nostalghia</t>
+          <t>493. Amour</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="D494" t="n">
         <v>7.9</v>
       </c>
-      <c r="E494" t="inlineStr"/>
+      <c r="E494" t="n">
+        <v>95</v>
+      </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>tt0086022</t>
+          <t>tt1602620</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>[" Tarkovsky's first non-Soviet film does not disappoint\n", " almost too obtuse with some of its poetry, but it's the work of a master nonetheless\n", ' Has its moments, but glacially paced\n', ' A Masterpiece Of Cinematic Boredom\n', ' Miracles in an Empty Pool\n', ' Go in with an open mind and the time and you might be pleasantly surprised.\n', ' Uneasy, hermetic\n', ' Homesickness in three layers\n', ' difficult yes, but worth the effort\n', ' Beautiful and interpretable for multiple meanings.\n', " Every Tarkovsky film is a masterpiece. He didn't make a bad movie.\n", ' Typical of Tarkovsky\n', ' Tarkovsky, drowning in nostalgia.\n', ' Visually astonishing\n', ' Masterpiece\n', ' Can you get more cult than this?\n', ' "Nostalghia" is a masterpiece and a work of art\n', " Nostalghia is Tarkovsky's devotion to faith and spirituality made art.\n", ' In search of faith\n', ' Annotating, Amplifying, Extending\n', ' similar to "Sacrifice"\n', ' Beautiful, Strange, Powerful, Haunting Masterpiece\n', ' "Poetry is untranslatable, like the whole of art."\n', ' 1+1=1 : or even a thousand raindrops makes ONE big pool, even inside the house\n', ' Nice contrast and light in photography\n']</t>
+          <t>[' Slow movie but truthful\n', ' Two Great Performances\n', ' about love\n', ' Late Amour\n', ' Depressing End of a Journey\n', " Amour was worthy of this year's Oscar for Best Foreign Language Film\n", ' A powerful portrayal of the ultimate love\n', ' Beautiful, heartbreaking, phenomenal: a must-see\n', ' Certainly Accomplished, But It Left Me Cold\n', ' Dedicated to the one I love\n', " 'Things will go on, and then one day it will all be over.'\n", ' Straightforward, unflinching look at the indignities of old age and death\n', ' Painful, tough it proves though that love last a lifetime!\n', ' Love\n', ' Uncompromising true love, unHollywood style.\n', ' A Nutshell Review: Amour\n', ' an event\n', ' Beautiful...\n', ' A Worthy Film!\n', " If you didn't have a reason to seek out a foreign film before reading this, you certainly do now\n", ' Death affirming\n', ' Extremely slow moving and sad.\n', ' An Intimate &amp; Heartwrenching Experience.\n', ' Love in its purest form\n', ' Definitely a Haneke film\n']</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>494. Once Were Warriors</t>
+          <t>494. Nostalghia</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D495" t="n">
         <v>7.9</v>
       </c>
-      <c r="E495" t="n">
-        <v>77</v>
-      </c>
+      <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
-          <t>tt0110729</t>
+          <t>tt0086022</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>[' difficult to watch but fantastic movie\n', ' powerful and memorable\n', " it's a gritty life for indigenous people\n", ' The New Zealand Outsiders\n', ' Once was Lee Tamahori\n', ' Harrowing but a must see\n', ' Scary\n', ' Amazing\n', ' A Nutshell Review: Once Were Warriors\n', ' A great film\n', ' The power and importance of cultural roots.\n', " If You Gave This Movie Less Than 9/10 Then You Didn't Watch it Or Didn't Get It!!!\n", ' Brutal and powerful\n', ' A searing New Zealand classic\n', ' Great acting and direction, but a hard film to watch.\n', ' The tragic life of one Maori family\n', ' One word: WOW\n', ' An Extremely Powerful And Emotional Film...\n', ' Completely engrossing\n', ' A powerful experience indeed!\n', ' A Brilliant Film\n', ' Excellent, but hard to like\n', ' Jake the Snake\n', ' Fantastic Acting\n', ' Excellent\n']</t>
+          <t>[" Tarkovsky's first non-Soviet film does not disappoint\n", " almost too obtuse with some of its poetry, but it's the work of a master nonetheless\n", ' Has its moments, but glacially paced\n', ' A Masterpiece Of Cinematic Boredom\n', ' Miracles in an Empty Pool\n', ' Go in with an open mind and the time and you might be pleasantly surprised.\n', ' Uneasy, hermetic\n', ' Homesickness in three layers\n', ' difficult yes, but worth the effort\n', ' Beautiful and interpretable for multiple meanings.\n', " Every Tarkovsky film is a masterpiece. He didn't make a bad movie.\n", ' Typical of Tarkovsky\n', ' Tarkovsky, drowning in nostalgia.\n', ' Visually astonishing\n', ' Masterpiece\n', ' Can you get more cult than this?\n', ' "Nostalghia" is a masterpiece and a work of art\n', " Nostalghia is Tarkovsky's devotion to faith and spirituality made art.\n", ' In search of faith\n', ' Annotating, Amplifying, Extending\n', ' similar to "Sacrifice"\n', ' Beautiful, Strange, Powerful, Haunting Masterpiece\n', ' "Poetry is untranslatable, like the whole of art."\n', ' 1+1=1 : or even a thousand raindrops makes ONE big pool, even inside the house\n', ' Nice contrast and light in photography\n']</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>495. Harvey</t>
+          <t>495. Once Were Warriors</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D496" t="n">
         <v>7.9</v>
       </c>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="n">
+        <v>77</v>
+      </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>tt0042546</t>
+          <t>tt0110729</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>[' Utterly charming and sweet little comedy\n', ' Beautiful, funny, touching and magical, everything a fantasy film should be\n', ' "I recommend pleasant, you may quote me"\n', ' Such a charming movie\n', ' Great Fun\n', ' Jimmy at His Best\n', ' perfect\n', ' An enjoyably light and amusing film\n', " Fun and agreeable classic comedy based on a hit play with James Stewart's top-notch acting\n", ' contrast this rabbit with the one in "Donnie Darko"\n', ' James Stewart and a Giant Rabbit... Joy!\n', " The Good &amp; Bad Of 'Harvey'\n", ' Monotonously cheerful...\n', ' The gentler side of humanity\n', ' a weird-light comedy about a pleasant-crazy man\n', ' The Wide Wonderful World of the Loony Bin-"Harvey" ***\'/12\n', ' If You Go Chasing Rabbits\n', ' A Stab at Who Harvey Is\n', ' Pleasant Magical Spoof...Wonderfully Witty Charming and Fun\n', ' That damn 6ft 3" rabbit is as charming as ever.\n', " There's an awful lot of whimsical nonsense going on...\n", ' Miracles Under Lampposts...\n', ' Extremely charming\n', ' "I\'ve never heard Harvey say a word against Akron."\n', ' A warm, lovely, heartfelt, and earnestly funny comedy\n']</t>
+          <t>[' difficult to watch but fantastic movie\n', ' powerful and memorable\n', " it's a gritty life for indigenous people\n", ' The New Zealand Outsiders\n', ' Once was Lee Tamahori\n', ' Harrowing but a must see\n', ' Scary\n', ' Amazing\n', ' A Nutshell Review: Once Were Warriors\n', ' A great film\n', ' The power and importance of cultural roots.\n', " If You Gave This Movie Less Than 9/10 Then You Didn't Watch it Or Didn't Get It!!!\n", ' Brutal and powerful\n', ' A searing New Zealand classic\n', ' Great acting and direction, but a hard film to watch.\n', ' The tragic life of one Maori family\n', ' One word: WOW\n', ' An Extremely Powerful And Emotional Film...\n', ' Completely engrossing\n', ' A powerful experience indeed!\n', ' A Brilliant Film\n', ' Excellent, but hard to like\n', ' Jake the Snake\n', ' Fantastic Acting\n', ' Excellent\n']</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>496. A Taxi Driver</t>
+          <t>496. Harvey</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="D497" t="n">
         <v>7.9</v>
       </c>
-      <c r="E497" t="n">
-        <v>69</v>
-      </c>
+      <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
-          <t>tt6878038</t>
+          <t>tt0042546</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>[' The Ethical Dictates of Taxi-Driving\n', ' A very good film\n', ' A time depiction\n', ' Extremely entertaining\n', ' Remember Gwangju\n', " Led by Song Kang-Ho's Outstanding Performance, 'A Taxi Driver' Is An Unexpected Delight\n", ' South Korean History...\n', ' Just watch it...\n', ' An inspiring anecdote!\n', ' MEANINGFUL.\n', ' A general problem of the Korean movie or TV drama series\n', ' A powerful story\n', ' A Taxi Driver Review: South Korean Cinema at its best &amp; in its finest form.\n', ' Great Korean Thriller Hidden Beneath the Over-dramatic Mush.\n', ' A simmering and shocking chapter in modern South Korean history led by the fantastic Song Kang-ho\n', ' Great film\n', ' WHAT. A. MOVIE!!\n', ' Movie about people\n', ' Beautiful- worth watching\n', ' great film\n', ' Very good\n', ' POV of common citizens during political and military disturbances\n', ' A masterpiece\n', ' Colourful, beautiful and sweet little film\n', ' A collective sense of democracy in the best political film of the decade\n']</t>
+          <t>[' Utterly charming and sweet little comedy\n', ' Beautiful, funny, touching and magical, everything a fantasy film should be\n', ' "I recommend pleasant, you may quote me"\n', ' Such a charming movie\n', ' Great Fun\n', ' Jimmy at His Best\n', ' perfect\n', ' An enjoyably light and amusing film\n', " Fun and agreeable classic comedy based on a hit play with James Stewart's top-notch acting\n", ' contrast this rabbit with the one in "Donnie Darko"\n', ' James Stewart and a Giant Rabbit... Joy!\n', " The Good &amp; Bad Of 'Harvey'\n", ' Monotonously cheerful...\n', ' The gentler side of humanity\n', ' a weird-light comedy about a pleasant-crazy man\n', ' The Wide Wonderful World of the Loony Bin-"Harvey" ***\'/12\n', ' If You Go Chasing Rabbits\n', ' A Stab at Who Harvey Is\n', ' Pleasant Magical Spoof...Wonderfully Witty Charming and Fun\n', ' That damn 6ft 3" rabbit is as charming as ever.\n', " There's an awful lot of whimsical nonsense going on...\n", ' Miracles Under Lampposts...\n', ' Extremely charming\n', ' "I\'ve never heard Harvey say a word against Akron."\n', ' A warm, lovely, heartfelt, and earnestly funny comedy\n']</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>497. The Adventures of Robin Hood</t>
+          <t>497. A Taxi Driver</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D498" t="n">
         <v>7.9</v>
       </c>
       <c r="E498" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>tt0029843</t>
+          <t>tt6878038</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>[" What's not to love about this film?!\n", ' Classic treatment of a timeless legend, and of all the film versions this is THE definitive one\n', ' Exciting, colourful, and old-fashioned in the best sense\n', ' "You Speak Treason"................................"Fluently"\n', ' Oh The Colors\n', ' For Its Time a Breakthrough and a Fun Movie\n', ' Nostalgic and Delightful Adventure\n', ' Hardly high art but it is tremendous fun even after the better part of a century\n', ' Swashbuckling , action , romance and dueling in this definitive adventure movie\n', " Just great; you'll keep wanting more! And Alan Hale's obesity comments forecast what his son would experience as The Skipper.\n", ' The Classic Robin Hood Tale\n', ' The best Robin Hood movie ever\n', " Flynn's Foes &amp; Friends Fall Flat, But The Film Is Fine\n", " Considered by many to be 'the' definitive Robin Hood movie.\n", ' not a great film, no... a great MOVIE in every sense of the word though\n', ' Adventures of Robin Hood A Marvelous One ***1/2\n', ' In Living Color\n', ' Rousing from Beginning to End\n', ' Still the definitive, and best, Robin Hood movie\n', ' Textures\n', ' The best "Robin Hood" ever!\n', ' "Welcome to Sherwood, my lady!"\n', ' This film is kind of weak in comparison to Capatin Blood and Sea Hawks\n', ' A Splendid Movie\n', ' Delightful Errol Flynn\n']</t>
+          <t>[' The Ethical Dictates of Taxi-Driving\n', ' A very good film\n', ' A time depiction\n', ' Extremely entertaining\n', ' Remember Gwangju\n', " Led by Song Kang-Ho's Outstanding Performance, 'A Taxi Driver' Is An Unexpected Delight\n", ' South Korean History...\n', ' Just watch it...\n', ' An inspiring anecdote!\n', ' MEANINGFUL.\n', ' A general problem of the Korean movie or TV drama series\n', ' A powerful story\n', ' A Taxi Driver Review: South Korean Cinema at its best &amp; in its finest form.\n', ' Great Korean Thriller Hidden Beneath the Over-dramatic Mush.\n', ' A simmering and shocking chapter in modern South Korean history led by the fantastic Song Kang-ho\n', ' Great film\n', ' WHAT. A. MOVIE!!\n', ' Movie about people\n', ' Beautiful- worth watching\n', ' great film\n', ' Very good\n', ' POV of common citizens during political and military disturbances\n', ' A masterpiece\n', ' Colourful, beautiful and sweet little film\n', ' A collective sense of democracy in the best political film of the decade\n']</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>498. Mildred Pierce</t>
+          <t>498. The Adventures of Robin Hood</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D499" t="n">
         <v>7.9</v>
       </c>
       <c r="E499" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>tt0037913</t>
+          <t>tt0029843</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>[' Very enjoyable and melodramatic\n', ' Superb and completely deserving of its classic status\n', " Mama, You're a Frump\n", ' pulpy soapy melodrama done well\n', ' Crawford Picks Up the Gold\n', ' Tightly Drawn Noir Drama\n', " Soapy but enjoyable story, even if the dramatic bookends don't work as well as they should\n", ' Classic melodrama with intrigue and magnificent performances\n', ' ambition, no matter how well-intentioned, can lead to terrible things\n', ' Class: Born Into It?\n', ' Great acting....but beware!\n', ' Glossy trash!\n', ' Mildred, you smell of Crisco\n', ' Imitation of life\n', " a cold cut of film-noir that's about that unbreakable bond between mother and daughter\n", ' Mildred the Great\n', ' Joan Crawford Gets Her Man of Gold\n', ' It is not easy to keep a determined woman down.\n', ' A Closer Look at Two Social Themes\n', ' TOP-NOTCH FILM-NOIR/SOAP...MIDDLE CLASS STRUGGLES AND IN-HOUSE EVIL\n', ' Superb, classic drama\n', ' Veda, does a new house mean so much to you that you would trade me for it?\n', " One of Crawford's best\n", ' Another great film noir from a James M. Cain novel...\n', ' Ann Blyth outshines Joan Crawford\n']</t>
+          <t>[" What's not to love about this film?!\n", ' Classic treatment of a timeless legend, and of all the film versions this is THE definitive one\n', ' Exciting, colourful, and old-fashioned in the best sense\n', ' "You Speak Treason"................................"Fluently"\n', ' Oh The Colors\n', ' For Its Time a Breakthrough and a Fun Movie\n', ' Nostalgic and Delightful Adventure\n', ' Hardly high art but it is tremendous fun even after the better part of a century\n', ' Swashbuckling , action , romance and dueling in this definitive adventure movie\n', " Just great; you'll keep wanting more! And Alan Hale's obesity comments forecast what his son would experience as The Skipper.\n", ' The Classic Robin Hood Tale\n', ' The best Robin Hood movie ever\n', " Flynn's Foes &amp; Friends Fall Flat, But The Film Is Fine\n", " Considered by many to be 'the' definitive Robin Hood movie.\n", ' not a great film, no... a great MOVIE in every sense of the word though\n', ' Adventures of Robin Hood A Marvelous One ***1/2\n', ' In Living Color\n', ' Rousing from Beginning to End\n', ' Still the definitive, and best, Robin Hood movie\n', ' Textures\n', ' The best "Robin Hood" ever!\n', ' "Welcome to Sherwood, my lady!"\n', ' This film is kind of weak in comparison to Capatin Blood and Sea Hawks\n', ' A Splendid Movie\n', ' Delightful Errol Flynn\n']</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>499. Amarcord</t>
+          <t>499. Mildred Pierce</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D500" t="n">
         <v>7.9</v>
       </c>
-      <c r="E500" t="inlineStr"/>
+      <c r="E500" t="n">
+        <v>88</v>
+      </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>tt0071129</t>
+          <t>tt0037913</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>[' Perhaps my favorite Fellini film\n', ' Another wonderful Fellini movie\n', ' needs a compelling charismatic lead\n', ' Good Fellini Film\n', ' Lush With Memories\n', ' Carnivalesque\n', ' Fellini always had something to offer\n', ' Nailed it\n', ' Fellini Remembers\n', " One of the best of Italian, and Fellini's, films\n", ' Has its moments but more silly than funny\n', ' Fellini Nostalgia\n', ' Is this the best film ever made?\n', ' More intelligible and informed comment\n', " Fellini's loving memories\n", ' testimony. or only old -new picture\n', ' We all are clowns in the big top of Life ...\n', ' Sentimental journey\n', ' cheeky satire\n', " Fellini's Incompetence\n", ' Interesting...\n', ' Fellini and Flatulence\n', ' A masterpiece\n', ' A beautiful ode to nostalgia\n', ' amarcord\n']</t>
+          <t>[' Very enjoyable and melodramatic\n', ' Superb and completely deserving of its classic status\n', " Mama, You're a Frump\n", ' pulpy soapy melodrama done well\n', ' Crawford Picks Up the Gold\n', ' Tightly Drawn Noir Drama\n', " Soapy but enjoyable story, even if the dramatic bookends don't work as well as they should\n", ' Classic melodrama with intrigue and magnificent performances\n', ' ambition, no matter how well-intentioned, can lead to terrible things\n', ' Class: Born Into It?\n', ' Great acting....but beware!\n', ' Glossy trash!\n', ' Mildred, you smell of Crisco\n', ' Imitation of life\n', " a cold cut of film-noir that's about that unbreakable bond between mother and daughter\n", ' Mildred the Great\n', ' Joan Crawford Gets Her Man of Gold\n', ' It is not easy to keep a determined woman down.\n', ' A Closer Look at Two Social Themes\n', ' TOP-NOTCH FILM-NOIR/SOAP...MIDDLE CLASS STRUGGLES AND IN-HOUSE EVIL\n', ' Superb, classic drama\n', ' Veda, does a new house mean so much to you that you would trade me for it?\n', " One of Crawford's best\n", ' Another great film noir from a James M. Cain novel...\n', ' Ann Blyth outshines Joan Crawford\n']</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>500. Kal Ho Naa Ho</t>
+          <t>500. Amarcord</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>3h 6m</t>
+          <t>2h 3m</t>
         </is>
       </c>
       <c r="D501" t="n">
         <v>7.9</v>
       </c>
-      <c r="E501" t="n">
-        <v>54</v>
-      </c>
+      <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
-          <t>tt0347304</t>
+          <t>tt0071129</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>[' A Good Film!\n', ' Now, that was long!\n', ' Iss Kal ko Bhool Jao\n', ' Pretty Woman\n', ' Good, though could have been better\n', ' Uneven film, good comedy by Shahrukh but irritating melodrama\n', ' Entertaining\n', ' This Is The Best Film\n', ' Terrific, emotional film\n', ' Excellent, Fantastic and Superb\n', ' There could be a tomorow.\n', ' Perfect.\n', ' Wonderfully Moving Romantic Drama\n', ' Kal Ho Naa Ho is a heartwarming and engaging film\n', ' Emotional roller coaster with more dips than rises...\n', ' All gloss fizz no real content\n', ' Warm, subtle and deeply moving.\n', ' famous romantic movies\n', ' Dismal failure.\n', ' A very heart touching film.This film is love and passion.\n', ' First Bollywood Film\n', ' Spirited and very emotional Bollywood romantic comedy\n', ' A great watch!! Must watch.\n', ' Character embrassed\n', ' A movie that hits you at the right place\n']</t>
+          <t>[' Perhaps my favorite Fellini film\n', ' Another wonderful Fellini movie\n', ' needs a compelling charismatic lead\n', ' Good Fellini Film\n', ' Lush With Memories\n', ' Carnivalesque\n', ' Fellini always had something to offer\n', ' Nailed it\n', ' Fellini Remembers\n', " One of the best of Italian, and Fellini's, films\n", ' Has its moments but more silly than funny\n', ' Fellini Nostalgia\n', ' Is this the best film ever made?\n', ' More intelligible and informed comment\n', " Fellini's loving memories\n", ' testimony. or only old -new picture\n', ' We all are clowns in the big top of Life ...\n', ' Sentimental journey\n', ' cheeky satire\n', " Fellini's Incompetence\n", ' Interesting...\n', ' Fellini and Flatulence\n', ' A masterpiece\n', ' A beautiful ode to nostalgia\n', ' amarcord\n']</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>501. The Red Circle</t>
+          <t>501. Kal Ho Naa Ho</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>3h 6m</t>
         </is>
       </c>
       <c r="D502" t="n">
         <v>7.9</v>
       </c>
       <c r="E502" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>tt0065531</t>
+          <t>tt0347304</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>[' admirable work\n', ' Silence is ... jewel\n', ' Great Heist Movie\n', ' Masterful\n', " The master's trade mark.\n", ' Looking for that big payday\n', ' One of my new favorite heist pictures: a smooth success for Melville and his cast\n', ' AFter a great first hour it sort of peters out\n', ' As Good As It Gets\n', " All men are guilty. They're born innocent, but it doesn't last.\n", ' A direly underappreciated, exquisite classic\n', ' Suffers from Some Slow Pacing But Otherwise a Very Good Urban Crime Drama\n', ' just as well I was not aware of the running time before deciding to re-watch\n', ' Cold and calculated French heist film\n', ' Le Cercle Rouge\n', ' Unexpectedly unsatisfying\n', ' an episode in the dialog between American and French cinema\n', ' Le Cercle Rouge\n', ' Excellent French Noir\n', ' Lots of Padding\n', ' Well shot n well acted heist film.\n', ' Melville Masterpiece!\n', ' Simplicity and Style\n', ' le cercle rouge\n', " There is a cool, relentless precision to Melville's flawless crime classic.\n"]</t>
+          <t>[' A Good Film!\n', ' Now, that was long!\n', ' Iss Kal ko Bhool Jao\n', ' Pretty Woman\n', ' Good, though could have been better\n', ' Uneven film, good comedy by Shahrukh but irritating melodrama\n', ' Entertaining\n', ' This Is The Best Film\n', ' Terrific, emotional film\n', ' Excellent, Fantastic and Superb\n', ' There could be a tomorow.\n', ' Perfect.\n', ' Wonderfully Moving Romantic Drama\n', ' Kal Ho Naa Ho is a heartwarming and engaging film\n', ' Emotional roller coaster with more dips than rises...\n', ' All gloss fizz no real content\n', ' Warm, subtle and deeply moving.\n', ' famous romantic movies\n', ' Dismal failure.\n', ' A very heart touching film.This film is love and passion.\n', ' First Bollywood Film\n', ' Spirited and very emotional Bollywood romantic comedy\n', ' A great watch!! Must watch.\n', ' Character embrassed\n', ' A movie that hits you at the right place\n']</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>502. Kagemusha</t>
+          <t>502. The Red Circle</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2h 42m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D503" t="n">
         <v>7.9</v>
       </c>
       <c r="E503" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>tt0080979</t>
+          <t>tt0065531</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>[' incredibly BIG and beautiful but also very sterile\n', ' Another great film from Akira Kurasawa\n', ' epic with static scenes\n', ' Another Brilliant Epic\n', ' Go, Bid The Soldiers Shoot\n', ' The Ultimate in Epic Samurai Tales\n', ' The master masterpiece\n', ' I prefer"Ran" over the Shadow Warrior\n', ' A Magnificent Film\n', ' My God, Look at Those Colors!\n', ' Great message, but flawed\n', ' Very pleasantly surprised\n', ' Great pretentious epic but well worth seeing to the end\n', ' The Pawn who impersonated the Mountain...\n', ' Stunning\n', ' Gorgeous To Look At But Also A Slog At Times\n', ' Excellent tale of conflict, deception and ambition in Sengoku Japan\n', ' Acting and visuals are great, but the writing/pacing drag it down a little\n', ' Living in the shadows\n', ' Kagemusha: The Shadow Warrior proves how important leadership is in a conflict.\n', ' More then just the final rehearsal of "Ran"\n', " How isn't this on IMDB top 250?\n", " Not one of Kurosawa's best.\n", ' "The shadow of a man"\n', ' cinematography is so gorgeous ( D+ Movie ) My Ratings 7/10\n']</t>
+          <t>[' admirable work\n', ' Silence is ... jewel\n', ' Great Heist Movie\n', ' Masterful\n', " The master's trade mark.\n", ' Looking for that big payday\n', ' One of my new favorite heist pictures: a smooth success for Melville and his cast\n', ' AFter a great first hour it sort of peters out\n', ' As Good As It Gets\n', " All men are guilty. They're born innocent, but it doesn't last.\n", ' A direly underappreciated, exquisite classic\n', ' Suffers from Some Slow Pacing But Otherwise a Very Good Urban Crime Drama\n', ' just as well I was not aware of the running time before deciding to re-watch\n', ' Le Cercle Rouge\n', ' Cold and calculated French heist film\n', ' Unexpectedly unsatisfying\n', ' an episode in the dialog between American and French cinema\n', ' Excellent French Noir\n', ' Le Cercle Rouge\n', ' Lots of Padding\n', ' Well shot n well acted heist film.\n', ' Melville Masterpiece!\n', ' Simplicity and Style\n', ' le cercle rouge\n', " There is a cool, relentless precision to Melville's flawless crime classic.\n"]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>503. Cat on a Hot Tin Roof</t>
+          <t>503. Kagemusha</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 42m</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -16988,520 +16988,522 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>tt0051459</t>
+          <t>tt0080979</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>[' While toned down from the play, it sizzles fantastically on the screen\n', ' "Maggie the Cat is Alive"\n', ' Great performances despite the changes\n', ' Remarkable Performances\n', ' As Intense as It Gets\n', ' A powerful film with intense drama in which Newman and Miss Taylor give strong interpretations\n', ' Elizabeth Taylor, RIP\n', ' Silly Hollywood White-Washing\n', ' "What is the victory of a cat on a hot tin roof? I wish I knew..."\n', " a great cast in the film version of one of Tennessee Williams' great plays\n", ' Truth be known!\n', ' Great film!\n', ' Skeletons in the Closet\n', ' Lumpy, Loud, and Overrated\n', ' Great drama\n', ' Toned down from the play but still powerful\n', " A play defined by it's actor's performances\n", ' An Unusual Family Dynamic\n', ' A classic, but not the best\n', ' This is a masterpiece that should be in the American cinematic hall of fame\n', ' Elizabeth Taylor that shines so brightly\n', ' Among true stars as Taylor &amp; Newman who shine is Burl Ives, could he got two Academy Awards in same year???\n', ' Packs a punch!\n', " A catharsis-inspiring chamber drama that is worthy of Williams' name, regardless of the compromises inflicted by an odious force majeure\n", ' like a Swiss clock\n']</t>
+          <t>[' incredibly BIG and beautiful but also very sterile\n', ' Another great film from Akira Kurasawa\n', ' epic with static scenes\n', ' Another Brilliant Epic\n', ' Go, Bid The Soldiers Shoot\n', ' The Ultimate in Epic Samurai Tales\n', ' The master masterpiece\n', ' I prefer"Ran" over the Shadow Warrior\n', ' A Magnificent Film\n', ' My God, Look at Those Colors!\n', ' Great message, but flawed\n', ' Very pleasantly surprised\n', ' Great pretentious epic but well worth seeing to the end\n', ' The Pawn who impersonated the Mountain...\n', ' Stunning\n', ' Gorgeous To Look At But Also A Slog At Times\n', ' Excellent tale of conflict, deception and ambition in Sengoku Japan\n', ' Acting and visuals are great, but the writing/pacing drag it down a little\n', ' Living in the shadows\n', ' Kagemusha: The Shadow Warrior proves how important leadership is in a conflict.\n', ' More then just the final rehearsal of "Ran"\n', " How isn't this on IMDB top 250?\n", " Not one of Kurosawa's best.\n", ' "The shadow of a man"\n', ' cinematography is so gorgeous ( D+ Movie ) My Ratings 7/10\n']</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>504. Cléo from 5 to 7</t>
+          <t>504. Cat on a Hot Tin Roof</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D505" t="n">
         <v>7.9</v>
       </c>
       <c r="E505" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>tt0055852</t>
+          <t>tt0051459</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>[' France: How of Existentialism and Feminism\n', ' From ignorance to enlightenment.\n', ' A natural reaction of a self reflection of oneself upon wating for results from a doctor\n', ' Antoine Et Cleopatre\n', ' Thoughtful and enjoyable\n', ' Spending Time with Cleo\n', ' The bright side of life.\n', ' As enjoyable as it was influential\n', ' Cleo de 5 à 7 is fine piece of work of poetic existentialism!!!\n', ' Beautiful and profound\n', ' Left Bank of The French New Wave\n', ' All very engaging and original, adorable...\n', ' Going around all Paris with beauty under the cloud of death\n', " Nouvelle Vague and Vague à l'Ame...\n", ' A Polarising Spectacle...\n', ' Foreseen in Cards, Reflected in Glass\n', ' Appearances; desire\n', ' A CLASSIC AT ANY TIME...!\n', ' The breakthrough of the versatile and until old age very productive Agnes Varda\n', " Girl's night movie\n", ' French New Wave from a feminist perspective\n', ' Bland 90 Minutes With A Blank Young Woman\n', ' Interesting.\n', ' Character study\n', ' A thousand stars\n']</t>
+          <t>[' While toned down from the play, it sizzles fantastically on the screen\n', ' "Maggie the Cat is Alive"\n', ' Great performances despite the changes\n', ' Remarkable Performances\n', ' As Intense as It Gets\n', ' A powerful film with intense drama in which Newman and Miss Taylor give strong interpretations\n', ' Elizabeth Taylor, RIP\n', ' Silly Hollywood White-Washing\n', ' "What is the victory of a cat on a hot tin roof? I wish I knew..."\n', " a great cast in the film version of one of Tennessee Williams' great plays\n", ' Truth be known!\n', ' Great film!\n', ' Skeletons in the Closet\n', ' Lumpy, Loud, and Overrated\n', ' Great drama\n', ' Toned down from the play but still powerful\n', " A play defined by it's actor's performances\n", ' An Unusual Family Dynamic\n', ' A classic, but not the best\n', ' This is a masterpiece that should be in the American cinematic hall of fame\n', ' Elizabeth Taylor that shines so brightly\n', ' Among true stars as Taylor &amp; Newman who shine is Burl Ives, could he got two Academy Awards in same year???\n', ' Packs a punch!\n', " A catharsis-inspiring chamber drama that is worthy of Williams' name, regardless of the compromises inflicted by an odious force majeure\n", ' like a Swiss clock\n']</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>505. The Big Heat</t>
+          <t>505. Cléo from 5 to 7</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D506" t="n">
         <v>7.9</v>
       </c>
-      <c r="E506" t="inlineStr"/>
+      <c r="E506" t="n">
+        <v>87</v>
+      </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>tt0045555</t>
+          <t>tt0055852</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>[' Glenn Ford does a great job\n', ' Smoldering corruption\n', ' Top-notch crime thriller\n', ' Very modern police crime drama\n', ' Good Lang\n', ' Nice Formulaic Film Noir\n', ' Gritty, brutal, intense and powerful \x96 a fantastic pot-boiler than stands out almost half a century later\n', ' Fascinating noir film with a terrific performance by Glenn Ford and well directed by the master Fritz Lang\n', ' An incredible piece of cinema history\n', " Not My Favorite of Lang's Films, But Solid\n", ' "You\'re about as romantic as a pair of handcuffs!"\n', ' tough, uncompromising late noir\n', ' a hard boiled egg of a classic, with a side of coffee...\n', ' Not Too Hot to Handle for Fritz Lang and Glenn Ford\n', ' A fearless detective takes on the bad guys and the cops.\n', ' A-List Film-Noir...Brightly Lit Revenge...Cop Ford Simmering Hate\n', ' Classic film-noir crime-thriller\n', ' Fritz Lang deals nicely in obsession and corruption.\n', ' Forerunner of L.A. CONFIDENTIAL and THE BLACK DAHLIA...\n', " I thought it had more action and was quite dissapointed that it didn't\n", ' Investigating an Apparent Suicide\n', ' One of the Best\n', ' Prisons are bulging with dummies who wonder how they got there.\n', ' fun noir\n', " Don't Let Gloria Grahame Make the Coffee\n"]</t>
+          <t>[' France: How of Existentialism and Feminism\n', ' From ignorance to enlightenment.\n', ' A natural reaction of a self reflection of oneself upon wating for results from a doctor\n', ' Antoine Et Cleopatre\n', ' Thoughtful and enjoyable\n', ' Spending Time with Cleo\n', ' The bright side of life.\n', ' As enjoyable as it was influential\n', ' Cleo de 5 à 7 is fine piece of work of poetic existentialism!!!\n', ' Beautiful and profound\n', ' Left Bank of The French New Wave\n', ' All very engaging and original, adorable...\n', ' Going around all Paris with beauty under the cloud of death\n', " Nouvelle Vague and Vague à l'Ame...\n", ' A Polarising Spectacle...\n', ' Foreseen in Cards, Reflected in Glass\n', ' Appearances; desire\n', ' A CLASSIC AT ANY TIME...!\n', ' The breakthrough of the versatile and until old age very productive Agnes Varda\n', " Girl's night movie\n", ' French New Wave from a feminist perspective\n', ' Bland 90 Minutes With A Blank Young Woman\n', ' Interesting.\n', ' Character study\n', ' A thousand stars\n']</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>506. The Return</t>
+          <t>506. The Big Heat</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D507" t="n">
         <v>7.9</v>
       </c>
-      <c r="E507" t="n">
-        <v>82</v>
-      </c>
+      <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr">
         <is>
-          <t>tt0376968</t>
+          <t>tt0045555</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>[' a sermon\n', ' Strong performances and interesting direction and development make up for the weaknesses inherent in such a minimalistic film\n', ' it really hits you\n', ' A memorable film\n', " An absent father should not be the only thing the children should be concerned about what about the Russian gov't\n", ' A well made and beautiful looking drama.\n', ' Riveting domestic drama like no other\n', ' About love\n', ' Over touted esoteric minimalism\n', ' Sparse and foreboding\n', " One of cinema's great debuts.\n", ' one of the best movies of the decade\n', ' Are We There Yet?\n', ' Powerful, haunting movie\n', ' The Return braves the blustery Russian rain to seek familial reconnection.\n', ' Get your tongue around this name: Zvyagintsev\n', ' R.I.P Vladimir Garin\n', ' Little action, much tension, very wel done by director Andrey Zviagintsev\n', ' "The Return" heralded the resurgence of Russian cinema.\n', ' Classy Russian psychodrama\n', ' Something about Boys and Men in the Wild\n', ' The ambiguous and turbulent teen emotions ring true\n', ' Brilliant--yet not a work on par with a Tarkovsky or a Kozintsev\n', ' The Return of the Prodigal Odysseus\n', ' ...of the man.\n']</t>
+          <t>[' Glenn Ford does a great job\n', ' Smoldering corruption\n', ' Top-notch crime thriller\n', ' Very modern police crime drama\n', ' Good Lang\n', ' Nice Formulaic Film Noir\n', ' Gritty, brutal, intense and powerful \x96 a fantastic pot-boiler than stands out almost half a century later\n', ' Fascinating noir film with a terrific performance by Glenn Ford and well directed by the master Fritz Lang\n', ' An incredible piece of cinema history\n', " Not My Favorite of Lang's Films, But Solid\n", ' "You\'re about as romantic as a pair of handcuffs!"\n', ' tough, uncompromising late noir\n', ' a hard boiled egg of a classic, with a side of coffee...\n', ' Not Too Hot to Handle for Fritz Lang and Glenn Ford\n', ' A fearless detective takes on the bad guys and the cops.\n', ' A-List Film-Noir...Brightly Lit Revenge...Cop Ford Simmering Hate\n', ' Classic film-noir crime-thriller\n', ' Fritz Lang deals nicely in obsession and corruption.\n', ' Forerunner of L.A. CONFIDENTIAL and THE BLACK DAHLIA...\n', " I thought it had more action and was quite dissapointed that it didn't\n", ' Investigating an Apparent Suicide\n', ' One of the Best\n', ' Prisons are bulging with dummies who wonder how they got there.\n', ' fun noir\n', " Don't Let Gloria Grahame Make the Coffee\n"]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>507. Gully Boy</t>
+          <t>507. The Return</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2h 34m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D508" t="n">
         <v>7.9</v>
       </c>
       <c r="E508" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>tt2395469</t>
+          <t>tt0376968</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[' THE TIME COMES... ALONG WITH CUSHDY FILM\n', ' Little India Directory Review: Gully Boy (6 Stars)\n', ' A must watch for every passionate person!\n', ' Good Bollywood Slow-burner; Rags-to-riches story meets Rap/Hip-Hop.\n', ' A gem\n', ' The Hate U Give to Youth ...\n', ' "Change your reality to match your dreams"\n', ' I was WRONG to compare Gully Boy with 8 Miles\n', ' Apna time aayega\n', ' Ranveer/Alia show\n', ' The Zoya Factor!\n', ' Inspiring!!\n', ' Best Acting, Direction and Script writing\n', ' Falsely advertised movie\n', ' An Applause for the wonderful Lyrics\n', ' some fantastic performances\n', ' To the streets!\n', ' A gritty tale on Mumbai rappers.....\n', ' Apna Time Aayegaa\n', ' Entertainment ekdum hard hai bhai..!!\n', ' Best one by zoya !\n', " It's marvellous.\n", ' A Coming of Age Story that Reflects the Dreams of the Downtrodden in our Country\n', ' Wow, Ranveer nailed it!\n', " Zoya Akhtar's Best Work\n"]</t>
+          <t>[' a sermon\n', ' Strong performances and interesting direction and development make up for the weaknesses inherent in such a minimalistic film\n', ' it really hits you\n', ' A memorable film\n', " An absent father should not be the only thing the children should be concerned about what about the Russian gov't\n", ' A well made and beautiful looking drama.\n', ' Riveting domestic drama like no other\n', ' About love\n', ' Over touted esoteric minimalism\n', ' Sparse and foreboding\n', " One of cinema's great debuts.\n", ' one of the best movies of the decade\n', ' Are We There Yet?\n', ' Powerful, haunting movie\n', ' The Return braves the blustery Russian rain to seek familial reconnection.\n', ' Get your tongue around this name: Zvyagintsev\n', ' R.I.P Vladimir Garin\n', ' Little action, much tension, very wel done by director Andrey Zviagintsev\n', ' "The Return" heralded the resurgence of Russian cinema.\n', ' Classy Russian psychodrama\n', ' Something about Boys and Men in the Wild\n', ' The ambiguous and turbulent teen emotions ring true\n', ' Brilliant--yet not a work on par with a Tarkovsky or a Kozintsev\n', ' The Return of the Prodigal Odysseus\n', ' ...of the man.\n']</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>508. About Elly</t>
+          <t>508. Gully Boy</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 34m</t>
         </is>
       </c>
       <c r="D509" t="n">
         <v>7.9</v>
       </c>
       <c r="E509" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>tt1360860</t>
+          <t>tt2395469</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>[' Magnificent acting....\n', ' Social commentary masquerading as a mystery thriller\n', ' What Has Happened to Elly?\n', ' A getaway goes wrong\n', ' An Iranian cinematic gem by Asghar Farhadi even after lacking theoretical sense.\n', ' The Sound of the Sea\n', ' An Ordinary Story Told In An ExtraOrdinary Manner.\n', ' Sophisticated Iranians on vacation at the Caspian Sea\n', ' A « very bad trip », dramatic and eastern (web)\n', ' Excellent Film About Secrets and Lies\n', ' Academy Award encourages a viewing\n', ' That pace...\n', ' Another gem from Iran\n', ' DROVE ME DILLY!\n', ' Impressive film from Iran\n', ' Raw and multi-layered\n', ' Brilliant film... from the most unlikely location.\n', " The Director's Film...!!\n", ' Iranian cinema is really brilliant\n', ' Another beautiful plot from Asghar Farhadi\n', ' "She made me raise my hand to her!"\n', ' Simple but effective\n', ' a bitter ending is better than an endless bitterness\n', ' a mystery of happenstance - and a matchless masterpiece at that\n', ' About the Lies We Tell and The Truths We Hide!\n']</t>
+          <t>[' THE TIME COMES... ALONG WITH CUSHDY FILM\n', ' Little India Directory Review: Gully Boy (6 Stars)\n', ' A must watch for every passionate person!\n', ' Good Bollywood Slow-burner; Rags-to-riches story meets Rap/Hip-Hop.\n', ' A gem\n', ' The Hate U Give to Youth ...\n', ' "Change your reality to match your dreams"\n', ' I was WRONG to compare Gully Boy with 8 Miles\n', ' Apna time aayega\n', ' Ranveer/Alia show\n', ' The Zoya Factor!\n', ' Inspiring!!\n', ' Best Acting, Direction and Script writing\n', ' Falsely advertised movie\n', ' An Applause for the wonderful Lyrics\n', ' some fantastic performances\n', ' To the streets!\n', ' A gritty tale on Mumbai rappers.....\n', ' Apna Time Aayegaa\n', ' Entertainment ekdum hard hai bhai..!!\n', ' Best one by zoya !\n', " It's marvellous.\n", ' A Coming of Age Story that Reflects the Dreams of the Downtrodden in our Country\n', ' Wow, Ranveer nailed it!\n', " Zoya Akhtar's Best Work\n"]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>509. Nine Queens</t>
+          <t>509. About Elly</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>1h 54m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D510" t="n">
         <v>7.9</v>
       </c>
       <c r="E510" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>tt0247586</t>
+          <t>tt1360860</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>[' A bit like an Argentinian version of "The Sting"\n', ' Watch this instead of the Remake\n', ' The Argentinean Sting\n', ' Two con men partner up for a big swindle\n', ' David Mamet, eat your heart out!\n', ' Too slow\n', ' Great, fun and original.\n', ' Honour Among Thieves\n', ' I have never seen a film as relentlessly uncompromising about the allure, power, and banality of the con game.\n', ' Smart, very smart movie, with some excellent acting performances.\n', ' Here a scam, there a scam, everywhere a scam-scam\n', ' The longest con\n', ' Engaging, well-paced thriller.\n', ' Sticky &amp; Square\n', ' Nine Queens for only one...\n', ' Nifty and sharp little Argentinian crime thriller looking at petty street cons and large scale heists.\n', ' Nine Queens:An excellent thriller from Argentina which has been shamelessly copied by other incompetent cinemas.\n', ' Whalloping Ride of a Twisty Caper Film\n', ' first no, second no, third yes\n', ' Average con artist movie\n', " Slippin' Juan\n", ' Perfect\n', ' this is argentina, post 2000. is bielinsky most influential movie ever\n', ' Nice characters/unoriginal story/lazy directing\n']</t>
+          <t>[' Magnificent acting....\n', ' Social commentary masquerading as a mystery thriller\n', ' What Has Happened to Elly?\n', ' A getaway goes wrong\n', ' An Iranian cinematic gem by Asghar Farhadi even after lacking theoretical sense.\n', ' The Sound of the Sea\n', ' An Ordinary Story Told In An ExtraOrdinary Manner.\n', ' Sophisticated Iranians on vacation at the Caspian Sea\n', ' A « very bad trip », dramatic and eastern (web)\n', ' Excellent Film About Secrets and Lies\n', ' Academy Award encourages a viewing\n', ' That pace...\n', ' Another gem from Iran\n', ' DROVE ME DILLY!\n', ' Impressive film from Iran\n', ' Raw and multi-layered\n', ' Brilliant film... from the most unlikely location.\n', " The Director's Film...!!\n", ' Iranian cinema is really brilliant\n', ' Another beautiful plot from Asghar Farhadi\n', ' "She made me raise my hand to her!"\n', ' Simple but effective\n', ' a bitter ending is better than an endless bitterness\n', ' a mystery of happenstance - and a matchless masterpiece at that\n', ' About the Lies We Tell and The Truths We Hide!\n']</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>510. The Rules of the Game</t>
+          <t>510. Nine Queens</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 54m</t>
         </is>
       </c>
       <c r="D511" t="n">
         <v>7.9</v>
       </c>
       <c r="E511" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>tt0031885</t>
+          <t>tt0247586</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>[' seems to have aged poorly\n', ' The Rules of the Game\n', " I Can't Get Past the Events!\n", ' The Hypocrite and Shallow Life of the Bourgeois French Class Close to the Forthcoming World War II\n', ' an earlier Gosford Park\n', ' A Film of Its Time\n', " Not the best of the Renoir work I've seen so far, even as I see and enjoy why it really works\n", ' Not sure what all the fuss is about\n', ' Class Rules! Okay\n', ' The awful thing about life is this: Everybody has their reasons.\n', ' Enjoyable and well made - and specifically lent power by real life circumstances\n', ' Every Film Student Knows This One\n', ' Tangled Webs\n', ' The movie goes really crazy in its last third.\n', ' Interesting satire, but overrated\n', ' French farce.\n', ' irony is all in-your-face\n', " The good thing is it's a 'Mad Comedy' and the bad thing is it's a 'MAD Film'. No wonder why people scorned it.\n", ' Everybody Has Their Reasons\n', ' Overrated Renoir Film by Film Students - La regle du jeu (The Rules of the Game)\n', ' Love Triangles of Badness...\n', ' Satisfying Story, Stylish Technique, Perceptive Commentary\n', " Truly one of the 'greatest films ever made'\n", " I think the key to the film is the director's performance\n", ' Rules like father like son, a masterpiece.\n']</t>
+          <t>[' A bit like an Argentinian version of "The Sting"\n', ' Watch this instead of the Remake\n', ' The Argentinean Sting\n', ' Two con men partner up for a big swindle\n', ' David Mamet, eat your heart out!\n', ' Too slow\n', ' Great, fun and original.\n', ' Honour Among Thieves\n', ' I have never seen a film as relentlessly uncompromising about the allure, power, and banality of the con game.\n', ' Smart, very smart movie, with some excellent acting performances.\n', ' Here a scam, there a scam, everywhere a scam-scam\n', ' The longest con\n', ' Engaging, well-paced thriller.\n', ' Sticky &amp; Square\n', ' Nine Queens for only one...\n', ' Nifty and sharp little Argentinian crime thriller looking at petty street cons and large scale heists.\n', ' Nine Queens:An excellent thriller from Argentina which has been shamelessly copied by other incompetent cinemas.\n', ' Whalloping Ride of a Twisty Caper Film\n', ' first no, second no, third yes\n', ' Average con artist movie\n', " Slippin' Juan\n", ' Perfect\n', ' this is argentina, post 2000. is bielinsky most influential movie ever\n', ' Nice characters/unoriginal story/lazy directing\n']</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>511. No Man's Land</t>
+          <t>511. The Rules of the Game</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D512" t="n">
         <v>7.9</v>
       </c>
       <c r="E512" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>tt0283509</t>
+          <t>tt0031885</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>[' The UN does what the UN usually does....\n', " good black comedy but the standoff doesn't make sense\n", ' The Universe of an Insane War, Showed in a Trench in Bosnia-Herzegovina\n', ' Intelligent and humorous critic against the Yugoslavian war\n', ' how war snowballs\n', ' Intelligent anti war movie.\n', ' A Depiction Of The Ineffective U.N.\n', ' One of the Best Pictures of the Year, shattering and brilliant\n', ' You started this war!... No, YOU started this war!!\n', ' Excellent\n', ' This Won An Oscar ?\n', ' Not quite Oscar worthy, but still very good.\n', ' Now... tell me. Who started the war?\n', ' Good satire on war that still also shows the horrors of war.\n', ' The struggle in the former Yugoslavia in 1993 never looked clearer or more devastating than in this little morality play of a movie.\n', ' about war, in different manner\n', ' Good journeyman war satire slightly over-touted with some plotholes.\n', ' Stronger psychologically than politically\n', ' Sometimes a World Torn Apart.\n', ' Besides some awkward performances and English dialogue, this is pretty great\n', ' Grim, powerful war movie\n', ' Tragic and funny\n', ' Fiction, but at least it lets us make a stab at understanding the Bosnian war\n', ' Very Funny and Very Tense and Frank Look at Post-Cold War Conflicts\n', ' Poignant and effective\n']</t>
+          <t>[' seems to have aged poorly\n', ' The Rules of the Game\n', " I Can't Get Past the Events!\n", ' The Hypocrite and Shallow Life of the Bourgeois French Class Close to the Forthcoming World War II\n', ' an earlier Gosford Park\n', ' A Film of Its Time\n', " Not the best of the Renoir work I've seen so far, even as I see and enjoy why it really works\n", ' Not sure what all the fuss is about\n', ' Class Rules! Okay\n', ' The awful thing about life is this: Everybody has their reasons.\n', ' Enjoyable and well made - and specifically lent power by real life circumstances\n', ' Every Film Student Knows This One\n', ' Tangled Webs\n', ' The movie goes really crazy in its last third.\n', ' Interesting satire, but overrated\n', ' French farce.\n', ' irony is all in-your-face\n', " The good thing is it's a 'Mad Comedy' and the bad thing is it's a 'MAD Film'. No wonder why people scorned it.\n", ' Everybody Has Their Reasons\n', ' Overrated Renoir Film by Film Students - La regle du jeu (The Rules of the Game)\n', ' Love Triangles of Badness...\n', ' Satisfying Story, Stylish Technique, Perceptive Commentary\n', " Truly one of the 'greatest films ever made'\n", " I think the key to the film is the director's performance\n", ' Rules like father like son, a masterpiece.\n']</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>512. My Man Godfrey</t>
+          <t>512. No Man's Land</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>1h 34m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D513" t="n">
         <v>7.9</v>
       </c>
       <c r="E513" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>tt0028010</t>
+          <t>tt0283509</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>[" About as close to perfect a light comedy as you'll find from the 30s\n", ' Excellent\n', ' Set Firmly In The Depression\n', ' not necessarily the right match\n', ' How Can You Not Love It\n', ' seductive. ago and ago\n', ' Delightfully Naive and Funny\n', ' Quite Enjoyable\n', ' Affordable Insanity.\n', ' "The only difference between a derelict and a man is a job."\n', ' A big hit in its day, now a rather forced and shrill bit of screwball...\n', ' Brother, can you spare a dime?\n', ' William Powell Gets Reacquainted with Carole Lombard\n', " And It's from Lowly Universal Studios\n", ' The Man\n', ' I see a room full of empty headed nitwits!\n', ' Scavenger hunt\n', ' Sorry, but this one is vastly overrated...\n', ' Screwball comedy staple\n', ' "Can you buttle?"\n', ' Brilliant, funny, smart, essential\n', ' The Screwiest of Screwball Comedies\n', ' Fun entertainment.\n', ' My Forgotten Man\n', ' The Butler Did It.\n']</t>
+          <t>[' The UN does what the UN usually does....\n', " good black comedy but the standoff doesn't make sense\n", ' The Universe of an Insane War, Showed in a Trench in Bosnia-Herzegovina\n', ' Intelligent and humorous critic against the Yugoslavian war\n', ' how war snowballs\n', ' Intelligent anti war movie.\n', ' A Depiction Of The Ineffective U.N.\n', ' One of the Best Pictures of the Year, shattering and brilliant\n', ' You started this war!... No, YOU started this war!!\n', ' Excellent\n', ' This Won An Oscar ?\n', ' Not quite Oscar worthy, but still very good.\n', ' Now... tell me. Who started the war?\n', ' Good satire on war that still also shows the horrors of war.\n', ' The struggle in the former Yugoslavia in 1993 never looked clearer or more devastating than in this little morality play of a movie.\n', ' about war, in different manner\n', ' Good journeyman war satire slightly over-touted with some plotholes.\n', ' Stronger psychologically than politically\n', ' Sometimes a World Torn Apart.\n', ' Besides some awkward performances and English dialogue, this is pretty great\n', ' Grim, powerful war movie\n', ' Tragic and funny\n', ' Fiction, but at least it lets us make a stab at understanding the Bosnian war\n', ' Very Funny and Very Tense and Frank Look at Post-Cold War Conflicts\n', ' Poignant and effective\n']</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>513. The Way He Looks</t>
+          <t>513. My Man Godfrey</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>1h 34m</t>
         </is>
       </c>
       <c r="D514" t="n">
         <v>7.9</v>
       </c>
       <c r="E514" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>tt1702014</t>
+          <t>tt0028010</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>[' A beautiful, refreshing, positive and empowering story\n', ' Adolescent Vision\n', ' Teen sex at its best!\n', " This year's Oscar Foreign Film contender from Brazil!\n", ' A Sensitive Portrayal...\n', ' Simple, but very effective\n', ' Some prince charming is not after the princess.\n', ' Outstanding movie from Brazil\n', ' A teen film with a big difference!\n', ' A refreshing, breezy, subversive, overwhelming pick-me-up.\n', ' Sympathetic and endearing movie.\n', ' Heartfelt\n', ' Exceptional film of coming of age tale from Brazil,\n', ' Gem of a movie\n', " Heartwarming and Delightful; As Sweet and Charming as the Short it's based on.\n", ' Incredible cinema in a short OR feature\n', ' The way he looks review\n', ' Incredibly sweet and beautiful love story\n', ' Lovely Coming of Age Story\n', ' Why this film resonates with us\n', ' Quality\n', ' Nice,comforting cute\n', ' A cute movie, but that is all\n', ' Subtle and tactile romance\n', ' Real Deep Touching Movie!\n']</t>
+          <t>[" About as close to perfect a light comedy as you'll find from the 30s\n", ' Excellent\n', ' Set Firmly In The Depression\n', ' not necessarily the right match\n', ' How Can You Not Love It\n', ' seductive. ago and ago\n', ' Delightfully Naive and Funny\n', ' Quite Enjoyable\n', ' Affordable Insanity.\n', ' "The only difference between a derelict and a man is a job."\n', ' A big hit in its day, now a rather forced and shrill bit of screwball...\n', ' Brother, can you spare a dime?\n', ' William Powell Gets Reacquainted with Carole Lombard\n', " And It's from Lowly Universal Studios\n", ' The Man\n', ' I see a room full of empty headed nitwits!\n', ' Scavenger hunt\n', ' Sorry, but this one is vastly overrated...\n', ' Screwball comedy staple\n', ' "Can you buttle?"\n', ' Brilliant, funny, smart, essential\n', ' The Screwiest of Screwball Comedies\n', ' Fun entertainment.\n', ' My Forgotten Man\n', ' The Butler Did It.\n']</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>514. Battleship Potemkin</t>
+          <t>514. The Way He Looks</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>1h 6m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D515" t="n">
         <v>7.9</v>
       </c>
       <c r="E515" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>tt0015648</t>
+          <t>tt1702014</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>[' Battleship Potemkin\n', ' great work\n', ' The Rising\n', " A gripping story told with style and passion as well as a 'must see' piece of cinema history\n", ' still great after all these years\n', ' Greatest Silent Film Ever?\n', ' in a word, magnificent\n', " Like Citizen Kane it's almost been TOO analyzed and cherished as a landmark, but still not without good reason\n", ' Dynamic Masterpiece\n', ' Soviet propaganda masterpiece from Sergei Eisenstein\n', ' Groundbreaking...Influential...Powerful...Invented &amp; Embellished Cinema Techniques\n', ' Historic and great\n', " It looked like it saw it's own future with the likes of Stalin and Vladimir Putin\n", ' Phenomenal editing and cinematography!\n', ' Epic Propaganda\n', ' red flag\n', ' Communist Propaganda\n', " No point gilding the lily - it's first-rate cinema.\n", " I don't give a darn that it's been said a million times before: Battleship Potemkin simply IS one of the greatest films ever made, like it or not\n", ' Worth watching, but suffers from being a propaganda film\n', ' Violent, necessary, communist, revolutionary...\n', ' Great Russian Masterpiece\n', ' A few thoughts on a widely regarded masterpiece\n', ' Mutiny on a Russian battleship 1905 with consequences both tragic and heroic\n', ' A Classic Cinematic Magnum Opus on the legendary tale of Russian Revolution.\n']</t>
+          <t>[' A beautiful, refreshing, positive and empowering story\n', ' Adolescent Vision\n', " This year's Oscar Foreign Film contender from Brazil!\n", ' Teen sex at its best!\n', ' A Sensitive Portrayal...\n', ' Simple, but very effective\n', ' Some prince charming is not after the princess.\n', ' Outstanding movie from Brazil\n', ' A teen film with a big difference!\n', ' A refreshing, breezy, subversive, overwhelming pick-me-up.\n', ' Sympathetic and endearing movie.\n', ' Heartfelt\n', ' Exceptional film of coming of age tale from Brazil,\n', ' Gem of a movie\n', " Heartwarming and Delightful; As Sweet and Charming as the Short it's based on.\n", ' Incredible cinema in a short OR feature\n', ' The way he looks review\n', ' Incredibly sweet and beautiful love story\n', ' Lovely Coming of Age Story\n', ' Why this film resonates with us\n', ' Quality\n', ' Nice,comforting cute\n', ' A cute movie, but that is all\n', ' Subtle and tactile romance\n', ' Real Deep Touching Movie!\n']</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>515. Beauty and the Beast</t>
+          <t>515. Battleship Potemkin</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>1h 6m</t>
         </is>
       </c>
       <c r="D516" t="n">
         <v>7.9</v>
       </c>
       <c r="E516" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>tt0038348</t>
+          <t>tt0015648</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>[" Cocteau's greatest masterpiece\n", ' Stunning, simply stunning!\n', ' Forget Disney\n', " French classic fantasy but I don't like the acting\n", ' Great\n', ' What is Genius...See This Film\n', ' An engaging adult fairytale\n', ' Beautiful Fantastic Film\n', ' Magnifique!\n', ' For its time, as for today, a unique, emotionally involving adaptation\n', ' Good adaptation of the classic fairy tale\n', ' Beastly\n', ' This was not the masterpiece I expected...\n', ' "May the devil himself splatter you with dung."\n', ' A lovely fantasy classic\n', ' Not the best telling of the story but still a greatly made one.\n', ' My masterpiece number 130!!!\n', ' Magical masterpiece\n', ' Nice visuals, old-fashioned story\n', " Granted, Cocteau sprays his own magic potion onto the story's child-friendly prospect, and its ending comes off as both expected and unexpected\n", ' No comment on this flick should be taken seriously . . .\n', ' A visual feast you can eat with your eyes\n', ' one of a kind perfect and unforgettable\n', ' Tale As Old As Time\n', ' Meow!\n']</t>
+          <t>[' Battleship Potemkin\n', ' great work\n', ' The Rising\n', " A gripping story told with style and passion as well as a 'must see' piece of cinema history\n", ' still great after all these years\n', ' Greatest Silent Film Ever?\n', ' in a word, magnificent\n', " Like Citizen Kane it's almost been TOO analyzed and cherished as a landmark, but still not without good reason\n", ' Dynamic Masterpiece\n', ' Soviet propaganda masterpiece from Sergei Eisenstein\n', ' Groundbreaking...Influential...Powerful...Invented &amp; Embellished Cinema Techniques\n', ' Historic and great\n', " It looked like it saw it's own future with the likes of Stalin and Vladimir Putin\n", ' Phenomenal editing and cinematography!\n', ' Epic Propaganda\n', ' red flag\n', ' Communist Propaganda\n', " No point gilding the lily - it's first-rate cinema.\n", " I don't give a darn that it's been said a million times before: Battleship Potemkin simply IS one of the greatest films ever made, like it or not\n", ' Worth watching, but suffers from being a propaganda film\n', ' Violent, necessary, communist, revolutionary...\n', ' Great Russian Masterpiece\n', ' A few thoughts on a widely regarded masterpiece\n', ' Mutiny on a Russian battleship 1905 with consequences both tragic and heroic\n', ' A Classic Cinematic Magnum Opus on the legendary tale of Russian Revolution.\n']</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>516. 4 Months, 3 Weeks and 2 Days</t>
+          <t>516. Beauty and the Beast</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>1h 53m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="D517" t="n">
         <v>7.9</v>
       </c>
       <c r="E517" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>tt1032846</t>
+          <t>tt0038348</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>[' Bleak harsh indie\n', ' Quite Understated\n', ' The Romania House Rules\n', ' at its best its a stark, haunting look at a complex issue without much sentimentality\n', ' Good but not as good as the hype\n', ' Not for the feint of heart\n', ' Another Chipper Valentine to Romania\n', ' Not a Dinner Party for Simple Folk\n', ' Cinema Verité from Romania\n', ' A Nutshell Review: 4 Months, 3 Weeks, 2 Days\n', ' Stunningly human\n', ' the end of the transition for Romanian cinema\n', ' A Devastating Portrayal Of Life\n', ' unforgettable human drama\n', ' Intensely personal and realistic and harrowing...and intensely well done\n', ' Tiresome\n', ' Depressing\n', ' Terror and danger in Communist-era Romania as less-than encouraged events and actions are played out.\n', ' 4 Months, 3 Weeks and 2 Days harrowingly tests how far one is willing to go for a friend.\n', ' Watch on a Wednesday.\n', " One of the Greatest Films I Have Ever Seen, and Here's Why:\n", ' Combining a socially relevant subject with almost Hitchcock like suspense\n', ' CONTROVERSIAL.\n', ' It never resonated with me\n', ' Spartan style lends to thesping, but film still needs tweaking.\n']</t>
+          <t>[" Cocteau's greatest masterpiece\n", ' Stunning, simply stunning!\n', ' Forget Disney\n', " French classic fantasy but I don't like the acting\n", ' Great\n', ' What is Genius...See This Film\n', ' An engaging adult fairytale\n', ' Beautiful Fantastic Film\n', ' Magnifique!\n', ' For its time, as for today, a unique, emotionally involving adaptation\n', ' Good adaptation of the classic fairy tale\n', ' Beastly\n', ' This was not the masterpiece I expected...\n', ' "May the devil himself splatter you with dung."\n', ' A lovely fantasy classic\n', ' Not the best telling of the story but still a greatly made one.\n', ' My masterpiece number 130!!!\n', ' Magical masterpiece\n', ' Nice visuals, old-fashioned story\n', " Granted, Cocteau sprays his own magic potion onto the story's child-friendly prospect, and its ending comes off as both expected and unexpected\n", ' No comment on this flick should be taken seriously . . .\n', ' A visual feast you can eat with your eyes\n', ' one of a kind perfect and unforgettable\n', ' Tale As Old As Time\n', ' Meow!\n']</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>517. 3-Iron</t>
+          <t>517. 4 Months, 3 Weeks and 2 Days</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 53m</t>
         </is>
       </c>
       <c r="D518" t="n">
         <v>7.9</v>
       </c>
       <c r="E518" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>tt0423866</t>
+          <t>tt1032846</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>[' Silent movie\n', ' Reality and Dream\n', ' A strange and somewhat fascinating movie with a satisfactary conclusion\n', ' A deep beautiful story of reality and illusion\n', " One of the most unusual and original love-stories you'll ever see.\n", ' Arty yet involving\n', ' A quiet, artful movie. I liked it, too :)\n', ' A Disquietingly Quiet Love Story\n', ' odd but compelling art film\n', ' Air she holds by the hand\n', ' Very Different\n', ' Contemporary Korean gem that uses basic techniques but gets across a complicated meaning.\n', ' Hollow at its core\n', ' A recognizably human, scintillating sweet slice of preternatural life!\n', ' Elegant and simple\n', ' Elegance saves shallow high concept\n', ' A film that becomes more and more symbolic along the way\n', ' A sporting ménage à trois\n', ' Strange almost other-worldly story...\n', ' It was finee\n', ' Originality in abundance\n', ' Strange and interesting romance story\n', ' No not really. Far from it.\n', ' Beauty\n', ' Love at Sight\n']</t>
+          <t>[' Bleak harsh indie\n', ' Quite Understated\n', ' The Romania House Rules\n', ' at its best its a stark, haunting look at a complex issue without much sentimentality\n', ' Good but not as good as the hype\n', ' Not for the feint of heart\n', ' Another Chipper Valentine to Romania\n', ' Not a Dinner Party for Simple Folk\n', ' Cinema Verité from Romania\n', ' A Nutshell Review: 4 Months, 3 Weeks, 2 Days\n', ' Stunningly human\n', ' the end of the transition for Romanian cinema\n', ' A Devastating Portrayal Of Life\n', ' unforgettable human drama\n', ' Intensely personal and realistic and harrowing...and intensely well done\n', ' Tiresome\n', ' Depressing\n', ' Terror and danger in Communist-era Romania as less-than encouraged events and actions are played out.\n', ' Watch on a Wednesday.\n', ' 4 Months, 3 Weeks and 2 Days harrowingly tests how far one is willing to go for a friend.\n', " One of the Greatest Films I Have Ever Seen, and Here's Why:\n", ' Combining a socially relevant subject with almost Hitchcock like suspense\n', ' CONTROVERSIAL.\n', ' It never resonated with me\n', ' Spartan style lends to thesping, but film still needs tweaking.\n']</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>518. Sullivan's Travels</t>
+          <t>518. 3-Iron</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D519" t="n">
         <v>7.9</v>
       </c>
-      <c r="E519" t="inlineStr"/>
+      <c r="E519" t="n">
+        <v>72</v>
+      </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>tt0034240</t>
+          <t>tt0423866</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>[' I felt totally out of step with everyone....so I decided to try it once again.\n', ' Art versus entertainment\n', ' Laughter, A Precious Commodity In This Cockeyed Caravan\n', ' with a little sex in it\n', ' Good\n', ' My First Preston Sturges\n', ' The Importance of Comedy\n', ' Very good picaresque comedy set in Depression era about a filmmaker posing as a tramp in his quest for the truth\n', ' O brother, where thou art...\n', ' The Power of Laughter\n', ' Deserves Its Lofty Reputation\n', ' A cockeyed caravan of slapstick, melodrama, romance and a touch of sentiment...\n', ' A director discovers the magic of laughter\n', " Sullivan's Travels- He Got the Last Laugh ***\n", ' Several Comments\n', ' Interesting and entertaining\n', ' Please put in a good word with Lubitsch!\n', ' Uneven satire is pastiche of various genres but manages some brilliant comic moments...\n', ' One word to describe this is "outdated"\n', ' Preston Sturges Defends Mindless Comedy in a Film with a Big Brain and an Even Bigger Heart\n', ' A bit of a mixed bag.\n', ' O, Brother Where Art Thou? - Classic American comedy\n', ' Among poverty, starvation has an answer....laugh as said Sturges!!\n', ' A Masterpiece Of Comedy/Drama.\n', ' Travels and travails\n']</t>
+          <t>[' Silent movie\n', ' Reality and Dream\n', ' A strange and somewhat fascinating movie with a satisfactary conclusion\n', ' A deep beautiful story of reality and illusion\n', " One of the most unusual and original love-stories you'll ever see.\n", ' Arty yet involving\n', ' A quiet, artful movie. I liked it, too :)\n', ' A Disquietingly Quiet Love Story\n', ' odd but compelling art film\n', ' Air she holds by the hand\n', ' Very Different\n', ' Contemporary Korean gem that uses basic techniques but gets across a complicated meaning.\n', ' Hollow at its core\n', ' A recognizably human, scintillating sweet slice of preternatural life!\n', ' Elegant and simple\n', ' Elegance saves shallow high concept\n', ' A film that becomes more and more symbolic along the way\n', ' A sporting ménage à trois\n', ' Strange almost other-worldly story...\n', ' It was finee\n', ' Originality in abundance\n', ' Strange and interesting romance story\n', ' No not really. Far from it.\n', ' Beauty\n', ' Love at Sight\n']</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>519. The Lost Weekend</t>
+          <t>519. Sullivan's Travels</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -17510,93 +17512,93 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
-          <t>tt0037884</t>
+          <t>tt0034240</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>[' Alcohol addiction has never been more harrowingly depicted on film\n', ' Once Upon A Time There Was A Bat And A Mouse\n', ' daring groundbreaking movie-making back in the day\n', ' Insidious\n', ' The Insanities of an Alcoholic Writer in a Weekend in 1945\n', ' Heart-breaking tale about a drunk man who gradually drags his life into alcoholism\n', ' This definitely was the right movie for Best Picture that year.\n', ' Milland and Wilder are a Great Combination\n', ' That calls for a drink.\n', ' Billy Wilder takes on alcoholism\n', ' more than just a simple "message" movie, Wilder tries to make addiction as human a crisis as possible\n', ' The Lost Weekend- Weekend Worth Remembering ***1/2\n', ' How daring can the screen dare to be?\n', " It's not the Social Hour\n", ' For some reason I can watch this film over and over...\n', ' Searing, haunting examination of alcoholism and its consequences\n', ' Delirium is a disease that only comes at night.,\n', ' Days of wine and Four Roses\n', ' Powerful landmark film on alcoholism has lost none of its status...Ray Milland deserved his Oscar...\n', " Well Below Wilder's Usual Standard\n", ' A true unique and daring movie.\n', ' Alcoholic Drama.\n', " Billy Wilder's lost film\n", ' A powerful cry against addiction in all its forms.\n', ' Social disease\n']</t>
+          <t>[' I felt totally out of step with everyone....so I decided to try it once again.\n', ' Art versus entertainment\n', ' Laughter, A Precious Commodity In This Cockeyed Caravan\n', ' with a little sex in it\n', ' Good\n', ' My First Preston Sturges\n', ' The Importance of Comedy\n', ' Very good picaresque comedy set in Depression era about a filmmaker posing as a tramp in his quest for the truth\n', ' O brother, where thou art...\n', ' The Power of Laughter\n', ' Deserves Its Lofty Reputation\n', ' A cockeyed caravan of slapstick, melodrama, romance and a touch of sentiment...\n', ' A director discovers the magic of laughter\n', " Sullivan's Travels- He Got the Last Laugh ***\n", ' Several Comments\n', ' Interesting and entertaining\n', ' Please put in a good word with Lubitsch!\n', ' Uneven satire is pastiche of various genres but manages some brilliant comic moments...\n', ' One word to describe this is "outdated"\n', ' Preston Sturges Defends Mindless Comedy in a Film with a Big Brain and an Even Bigger Heart\n', ' A bit of a mixed bag.\n', ' O, Brother Where Art Thou? - Classic American comedy\n', ' Among poverty, starvation has an answer....laugh as said Sturges!!\n', ' A Masterpiece Of Comedy/Drama.\n', ' Travels and travails\n']</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>520. Elevator to the Gallows</t>
+          <t>520. The Lost Weekend</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D521" t="n">
         <v>7.9</v>
       </c>
-      <c r="E521" t="n">
-        <v>94</v>
-      </c>
+      <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
-          <t>tt0051378</t>
+          <t>tt0037884</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>[' early Louis Malle\n', ' New Wave, Noir\n', ' Camera Has Many Photos\n', ' A bit weak in the middle section for some tastes but still an enjoyably ironic story\n', ' A Strong Debut From Malle\n', " Louis Malle's auspicious debut\n", ' naturalistic to a T, cool to the bone, atmosphere and suspense pay-off\n', ' Hung Up on a Grappling Hook\n', ' Overrated\n', ' My Friend before Dinner\n', ' The black cat has it...\n', " French film noir doesn't get any better than this...\n", ' Stuck...\n', ' Outstanding Film Noir\n', ' Terrifically smart, flavorful crime thriller\n', ' The Camera has more than one picture\n', ' Far too self conscious to be a real noir contender.\n', ' As cool as the other side of the pillow\n', ' Malle a wunderkind!\n', ' Stylish neo-noir famous for being a very early twitch of the French New Wave\n', ' A horrible mess of complications to a murder leading to several, but made with fascinating brilliance.\n', ' Malle Debuts With Success\n', ' Nice Tight Murder Tale - Elevator to the Gallows\n', ' Implausible Perfection...\n', ' Miles Davis and Paris at Night--and some great crime suspense, too...\n']</t>
+          <t>[' Alcohol addiction has never been more harrowingly depicted on film\n', ' Once Upon A Time There Was A Bat And A Mouse\n', ' daring groundbreaking movie-making back in the day\n', ' Insidious\n', ' The Insanities of an Alcoholic Writer in a Weekend in 1945\n', ' Heart-breaking tale about a drunk man who gradually drags his life into alcoholism\n', ' This definitely was the right movie for Best Picture that year.\n', ' Milland and Wilder are a Great Combination\n', ' That calls for a drink.\n', ' Billy Wilder takes on alcoholism\n', ' more than just a simple "message" movie, Wilder tries to make addiction as human a crisis as possible\n', ' The Lost Weekend- Weekend Worth Remembering ***1/2\n', ' How daring can the screen dare to be?\n', " It's not the Social Hour\n", ' For some reason I can watch this film over and over...\n', ' Searing, haunting examination of alcoholism and its consequences\n', ' Delirium is a disease that only comes at night.,\n', ' Days of wine and Four Roses\n', ' Powerful landmark film on alcoholism has lost none of its status...Ray Milland deserved his Oscar...\n', " Well Below Wilder's Usual Standard\n", ' A true unique and daring movie.\n', ' Alcoholic Drama.\n', " Billy Wilder's lost film\n", ' A powerful cry against addiction in all its forms.\n', ' Social disease\n']</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>521. Dev.D</t>
+          <t>521. Elevator to the Gallows</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2h 24m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D522" t="n">
         <v>7.9</v>
       </c>
-      <c r="E522" t="inlineStr"/>
+      <c r="E522" t="n">
+        <v>94</v>
+      </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>tt1327035</t>
+          <t>tt0051378</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>[' Dev.Doofus\n', " Devdas 'Redefined'\n", ' Anurag goes Madhur Bhandarkar way and delivers a well-crafted, bold but vulgar version.\n', ' Devdas Kashyap-Style\n', ' Interesting retake on Devdas!!\n', ' Where master fails, disciple excels!\n', ' A More Modern Bollywood Needs The Scissors\n', ' Good movie !\n', ' Modern adaptation of DevDas with Perfection !\n', ' Anurag Kashyap "The Maverick of Indian Cinema"\n', ' This is a very different Bollywood movie\n', ' A Modern Take on a Classic Story\n', ' Daring and Innovative Storytelling\n', ' 2021 ??\n', ' AESTHETICALLY AND EMOTIONALLY POWERFUL\n', ' An excellent cautionary and introspective tale\n', ' The Fundoo Emosonal Atyaachar\n', ' Documenting B- grade sleaze with A-grade class\n', ' A Classic - probably for the ages\n', " Dev.D - Ek 'modern' loser ki kahani\n", ' Bollywood goes French Film Style\n', ' A movie of International Standards\n', ' Bad remake\n', ' Boring and waste of time\n', ' Watch it\n']</t>
+          <t>[' early Louis Malle\n', ' New Wave, Noir\n', ' Camera Has Many Photos\n', ' A bit weak in the middle section for some tastes but still an enjoyably ironic story\n', ' A Strong Debut From Malle\n', " Louis Malle's auspicious debut\n", ' naturalistic to a T, cool to the bone, atmosphere and suspense pay-off\n', ' Hung Up on a Grappling Hook\n', ' Overrated\n', ' My Friend before Dinner\n', ' The black cat has it...\n', " French film noir doesn't get any better than this...\n", ' Stuck...\n', ' Outstanding Film Noir\n', ' Terrifically smart, flavorful crime thriller\n', ' The Camera has more than one picture\n', ' Far too self conscious to be a real noir contender.\n', ' As cool as the other side of the pillow\n', ' Malle a wunderkind!\n', ' Stylish neo-noir famous for being a very early twitch of the French New Wave\n', ' A horrible mess of complications to a murder leading to several, but made with fascinating brilliance.\n', ' Malle Debuts With Success\n', ' Nice Tight Murder Tale - Elevator to the Gallows\n', ' Implausible Perfection...\n', ' Miles Davis and Paris at Night--and some great crime suspense, too...\n']</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>522. Pad Man</t>
+          <t>522. Dev.D</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 24m</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -17605,126 +17607,126 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr">
         <is>
-          <t>tt7218518</t>
+          <t>tt1327035</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>[' Uxoriousness\n', ' Heartfelt &amp; Well-Acted!\n', ' An EYE OPENER CLASSIC for Sensible People.\n', ' What We Take for Granted\n', ' Long Review: Padman\n', ' Standard pipeline products\n', ' Padman Review: India has got the most innovative superhero!\n', ' I enjoyed this movie\n', ' Padman is a refreshing journey which should be lauded for its boldness and message for a cause\n', ' Important but lacks focus\n', ' Recommended 👍\n', " Padman is yet another Akshay's entertainer with social message\n", ' Sincere film\n', " A good film for it's message and execution.\n", ' The real USP of the film is that it is a biography\n', ' This issue must have been addressed so I appreciate it even being over dramatic, slow and preachy at places\n', ' Powerful....\n', ' Problem is good\n', ' I never thought a movie like this would be made in India.\n', ' Emotional, Inspirational and Engaging Biopic\n', ' Not brilliant!\n', ' Brave attempt\n', ' A brave and an inspirational attempt......\n', ' Pad Man: R Balki\'s first "period" film with full of social message\n', ' Got placed in my all time Favs!\n']</t>
+          <t>[' Dev.Doofus\n', " Devdas 'Redefined'\n", ' Anurag goes Madhur Bhandarkar way and delivers a well-crafted, bold but vulgar version.\n', ' Devdas Kashyap-Style\n', ' Interesting retake on Devdas!!\n', ' Where master fails, disciple excels!\n', ' A More Modern Bollywood Needs The Scissors\n', ' Good movie !\n', ' Modern adaptation of DevDas with Perfection !\n', ' Anurag Kashyap "The Maverick of Indian Cinema"\n', ' This is a very different Bollywood movie\n', ' A Modern Take on a Classic Story\n', ' Daring and Innovative Storytelling\n', ' 2021 ??\n', ' AESTHETICALLY AND EMOTIONALLY POWERFUL\n', ' An excellent cautionary and introspective tale\n', ' The Fundoo Emosonal Atyaachar\n', ' Documenting B- grade sleaze with A-grade class\n', ' A Classic - probably for the ages\n', " Dev.D - Ek 'modern' loser ki kahani\n", ' Bollywood goes French Film Style\n', ' A movie of International Standards\n', ' Bad remake\n', ' Boring and waste of time\n', ' Watch it\n']</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>523. Through a Glass Darkly</t>
+          <t>523. Pad Man</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D524" t="n">
         <v>7.9</v>
       </c>
-      <c r="E524" t="n">
-        <v>84</v>
-      </c>
+      <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr">
         <is>
-          <t>tt0055499</t>
+          <t>tt7218518</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>[" A brilliant film if not quite among Bergman's finest\n", ' Through a Glass Darkly\n', ' Four Lost Souls\n', ' Lack of Communication and the Absence of God – The Beginning of the Trilogy of Silence\n', ' Not My Favorite Bergman, But a Solid Film\n', ' Predictably despairing, less predictably unreachable...\n', " One of Bergman's best works: tragic/poetic/remarkable\n", ' Typical Bergman, Meaning Nihilistically Depressing\n', ' it is all fated and there is also other two parts to come\n', ' Through a Glass Darkly\n', ' Great film\n', " The Circle of Life, according to Bergman, a round trip between Reality and Illusion ... or the convenience of our own's illusory reality ...\n", ' Yet another luminous achivement for Ingmar Bergman in bringing maximum intellectual content within short time.\n', ' Karin Through the Looking Glass...\n', ' A Haunting, Somber Movie That Stays With You Long Afterwards\n', ' through a glass darkly\n', ' Visceral, emotional, and marvelously penetrative\n', ' Bergman brings us much closer to those tough life questions with intimate drama\n', " What a way to kick off Bergman's trilogy!\n", ' Bergman Never Suspends the Pleasure of Mastering the Narrative Because of an Aesthetic Interest in the Meticulous Cinematic Effect\n', " Såsom i en spegel . Some of Bergman's most unforgettable sequences.\n", " One of Bergman's best\n", ' Not so much a film about mental illness, but about the way in which loved ones handle this illness\n', ' The first of Bergman\'s "Winter Light" trilogy is step forward in style and subtlety\n', ' A stagnant and ultimately underwhelming picture\n']</t>
+          <t>[' Uxoriousness\n', ' Heartfelt &amp; Well-Acted!\n', ' An EYE OPENER CLASSIC for Sensible People.\n', ' What We Take for Granted\n', ' Long Review: Padman\n', ' Standard pipeline products\n', ' Padman Review: India has got the most innovative superhero!\n', ' I enjoyed this movie\n', ' Padman is a refreshing journey which should be lauded for its boldness and message for a cause\n', ' Important but lacks focus\n', ' Recommended 👍\n', " Padman is yet another Akshay's entertainer with social message\n", ' Sincere film\n', " A good film for it's message and execution.\n", ' The real USP of the film is that it is a biography\n', ' This issue must have been addressed so I appreciate it even being over dramatic, slow and preachy at places\n', ' Powerful....\n', ' Problem is good\n', ' I never thought a movie like this would be made in India.\n', ' Emotional, Inspirational and Engaging Biopic\n', ' Not brilliant!\n', ' Brave attempt\n', ' A brave and an inspirational attempt......\n', ' Pad Man: R Balki\'s first "period" film with full of social message\n', ' Got placed in my all time Favs!\n']</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>524. C.R.A.Z.Y.</t>
+          <t>524. Through a Glass Darkly</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D525" t="n">
         <v>7.9</v>
       </c>
       <c r="E525" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>tt0401085</t>
+          <t>tt0055499</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>[' love the first act\n', ' An engaging and touching ending\n', ' A Celebration of Familial Love and Individual Resilience\n', ' A fresh take on family life\n', ' One of the best films of 2005\n', ' Growing Pains\n', ' A triumph for Jean-Marc Vallée\n', ' Growing up in Quebec in the sixties and seventies.\n', ' Finest coming of age and dysfunctional family movie\n', ' Crazy for C.R.A.Z.Y!\n', ' A family film\n', ' one of those Hidden Gems\n', ' Coming of age &amp; coming out\n', ' Unexpectedly Moving\n', ' A very heartwarming and thought provoking experience.\n', ' I Have Forgiven Jesus\n', " The most precious thing in the world is have children's, and that puts on in evidence when you're losing one\n", ' Rich, beautifully nuanced &amp; sometimes sweetly old-fashioned coming-of-age chronicle.\n', ' Zac\n', ' Truly Lame\n', ' Families can be a messy business\n', ' Time heals all wounds\n', ' M-A. G.-----I just may be moving to Canada.......\n', ' Enjoyable enough, but nothing special\n', " If you like pointless boring movies, you'll LOVE this one\n"]</t>
+          <t>[" A brilliant film if not quite among Bergman's finest\n", ' Through a Glass Darkly\n', ' Four Lost Souls\n', ' Lack of Communication and the Absence of God – The Beginning of the Trilogy of Silence\n', ' Not My Favorite Bergman, But a Solid Film\n', ' Predictably despairing, less predictably unreachable...\n', " One of Bergman's best works: tragic/poetic/remarkable\n", ' Typical Bergman, Meaning Nihilistically Depressing\n', ' it is all fated and there is also other two parts to come\n', ' Through a Glass Darkly\n', ' Great film\n', " The Circle of Life, according to Bergman, a round trip between Reality and Illusion ... or the convenience of our own's illusory reality ...\n", ' Yet another luminous achivement for Ingmar Bergman in bringing maximum intellectual content within short time.\n', ' Karin Through the Looking Glass...\n', ' A Haunting, Somber Movie That Stays With You Long Afterwards\n', ' through a glass darkly\n', ' Visceral, emotional, and marvelously penetrative\n', ' Bergman brings us much closer to those tough life questions with intimate drama\n', " What a way to kick off Bergman's trilogy!\n", ' Bergman Never Suspends the Pleasure of Mastering the Narrative Because of an Aesthetic Interest in the Meticulous Cinematic Effect\n', " Såsom i en spegel . Some of Bergman's most unforgettable sequences.\n", " One of Bergman's best\n", ' Not so much a film about mental illness, but about the way in which loved ones handle this illness\n', ' The first of Bergman\'s "Winter Light" trilogy is step forward in style and subtlety\n', ' A stagnant and ultimately underwhelming picture\n']</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>525. Badhaai Ho</t>
+          <t>525. C.R.A.Z.Y.</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D526" t="n">
         <v>7.9</v>
       </c>
-      <c r="E526" t="inlineStr"/>
+      <c r="E526" t="n">
+        <v>81</v>
+      </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>tt7725596</t>
+          <t>tt0401085</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>[" It's Never Too Late\n", ' Long Review: Badhaai Ho (7 Stars)\n', ' We need more such films in Indian Cinema!!\n', ' First half for the win! [+61%]\n', ' The new age of offspring\n', " Surekha Sikri, Gajraj Rao and Neena Gupta steals the show in this Ayushmann Khurrana film !!! Don't miss it\n", ' An epic Family-Entertainer highlighting worth of a family.\n', ' Hilarious!!!\n', ' Best Hindi Film of 2018\n', ' A Perfect Mix of Comedy, Drama, Emotions &amp; Romance !!!\n', ' Badhaai Ho makes you cry (of happiness).\n', ' Impactful\n', ' The perfect family film\n', ' The comedy engages you thoroughly...!!\n', ' Wish I watched it in cinema\n', ' Jus Okay\n', ' What a beautiful movie!!\n', ' A decent comedy with some extraordinary performances\n', ' Badhaai Ho Review\n', ' AN ENJOYABLE WATCH !!\n', ' Bubble buster for the typical Indian value systems\n', ' A unique family entertainer with a heart-warming, happy ending!\n', ' A fun ride\n', ' Indian Entertainment!\n', ' Tere liye to mera baap hi kafi hai\n']</t>
+          <t>[' love the first act\n', ' An engaging and touching ending\n', ' A Celebration of Familial Love and Individual Resilience\n', ' A fresh take on family life\n', ' One of the best films of 2005\n', ' Growing Pains\n', ' A triumph for Jean-Marc Vallée\n', ' Growing up in Quebec in the sixties and seventies.\n', ' Finest coming of age and dysfunctional family movie\n', ' Crazy for C.R.A.Z.Y!\n', ' A family film\n', ' one of those Hidden Gems\n', ' Coming of age &amp; coming out\n', ' Unexpectedly Moving\n', ' A very heartwarming and thought provoking experience.\n', ' I Have Forgiven Jesus\n', " The most precious thing in the world is have children's, and that puts on in evidence when you're losing one\n", ' Rich, beautifully nuanced &amp; sometimes sweetly old-fashioned coming-of-age chronicle.\n', ' Zac\n', ' Families can be a messy business\n', ' Truly Lame\n', ' Time heals all wounds\n', ' M-A. G.-----I just may be moving to Canada.......\n', ' Enjoyable enough, but nothing special\n', " If you like pointless boring movies, you'll LOVE this one\n"]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>526. Airlift</t>
+          <t>526. Badhaai Ho</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -17733,29 +17735,29 @@
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>tt4387040</t>
+          <t>tt7725596</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>[' Sincere, But Never Power-Packed!\n', ' Ordinary film as a movie lover and above Ordinary as an Indian.\n', " 2016's First Good Film Is Here. ♦ Grade B-\n", " Akshay's films might not be reaching the infamous 100 crore status, but the man is rightly choosing his subjects becoming the new-age Bharat Kumar for the present generation.\n", ' Airlift Review : Excellent gift for all Indians and cinema lovers...\n', ' Airlift is nail-biting, reality-based action thriller that is going to give you goose bumps. Brilliant !!\n', ' Highly Recommended 👍\n', ' Unfortunately, just another Bollywood film\n', ' I Forgot It an Hour After I Watched It\n', ' Common man turning into a hero.... an inspirational film.....\n', ' Airlift (U/A) Hindi ------------ my Rating: ★★★★★ WORTH WATCHING\n', ' Uplifts Indian cinema standard\n', ' They changed the name of the main character to suit their political agenda!\n', ' Good Plot\n', ' Not convincing one-man show\n', ' Akshay Kumar proves his caliber as a hero that one can relate to\n', ' I knew it, that just Akshay can do this role brilliantly\n', ' Airlift will surely touch all Indians by heart!\n', ' India\'s own "Schindler\'s List"!\n', ' Authentic and a simple flick, that focuses only on storyline\n', ' Hope in the darkest hours\n', ' its all about being akshay\n', ' A tale of hope and humanity that breaks all political, societal, religious barriers.\n', ' Movie is well executed &amp; well Acted\n', ' Great Bollywood Movie to Start the Year\n']</t>
+          <t>[" It's Never Too Late\n", ' Long Review: Badhaai Ho (7 Stars)\n', ' We need more such films in Indian Cinema!!\n', ' First half for the win! [+61%]\n', ' The new age of offspring\n', " Surekha Sikri, Gajraj Rao and Neena Gupta steals the show in this Ayushmann Khurrana film !!! Don't miss it\n", ' An epic Family-Entertainer highlighting worth of a family.\n', ' Hilarious!!!\n', ' Best Hindi Film of 2018\n', ' A Perfect Mix of Comedy, Drama, Emotions &amp; Romance !!!\n', ' Badhaai Ho makes you cry (of happiness).\n', ' Impactful\n', ' The perfect family film\n', ' The comedy engages you thoroughly...!!\n', ' Wish I watched it in cinema\n', ' Jus Okay\n', ' What a beautiful movie!!\n', ' A decent comedy with some extraordinary performances\n', ' Badhaai Ho Review\n', ' AN ENJOYABLE WATCH !!\n', ' Bubble buster for the typical Indian value systems\n', ' A unique family entertainer with a heart-warming, happy ending!\n', ' A fun ride\n', ' Indian Entertainment!\n', ' Tere liye to mera baap hi kafi hai\n']</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>527. Jab We Met</t>
+          <t>527. Airlift</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -17764,29 +17766,29 @@
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>tt1093370</t>
+          <t>tt4387040</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>[' The story begins with a vivacious nut and a man suffering a nervous breakdown.\n', ' A Cute Romantic-Comedy\n', " Now that's entertainment!\n", ' entertaining Indian screwball comedy powered by Kareena Kapoor\n', ' Train Mein Encounter\n', ' Surprise\n', ' Lovely, simple and full of life\n', ' A free spirited girl, changes business tycoon for good and in turn gets returned her favor.\n', ' No logic; Only emotions\n', ' Decent entertainer with fine songs\n', ' Perfected by Imtiaz Ali\n', ' Surprisingly good, unlike most of the love stories\n', ' A Bubbly, Enjoyable Romantic Movie......\n', " Now That's A Real Entertainment Movie\n", ' JAB WE MET\n', ' Sweet feel-good romantic comedy!\n', ' Good I Saw....\n', ' WoW! Beautiful✨❤😍\n', ' Delightful Comedy-Drama\n', ' Jab We Met is an endearing and feel-good film that leaves a lasting impression\n', ' Good Romantic Movie !\n', ' Go on this journey from Mumbai to Bhatinda!!\n', " If I had a word, I surely write somethin'!\n", ' The real magic of this film lies in the performances of its two main leads- Kareena and Shahid\n', ' One of the best romcoms of the 2000s\n']</t>
+          <t>[' Sincere, But Never Power-Packed!\n', ' Ordinary film as a movie lover and above Ordinary as an Indian.\n', " 2016's First Good Film Is Here. ♦ Grade B-\n", " Akshay's films might not be reaching the infamous 100 crore status, but the man is rightly choosing his subjects becoming the new-age Bharat Kumar for the present generation.\n", ' Airlift Review : Excellent gift for all Indians and cinema lovers...\n', ' Airlift is nail-biting, reality-based action thriller that is going to give you goose bumps. Brilliant !!\n', ' Highly Recommended 👍\n', ' Unfortunately, just another Bollywood film\n', ' I Forgot It an Hour After I Watched It\n', ' Common man turning into a hero.... an inspirational film.....\n', ' Airlift (U/A) Hindi ------------ my Rating: ★★★★★ WORTH WATCHING\n', ' Uplifts Indian cinema standard\n', ' They changed the name of the main character to suit their political agenda!\n', ' Good Plot\n', ' Not convincing one-man show\n', ' Akshay Kumar proves his caliber as a hero that one can relate to\n', ' I knew it, that just Akshay can do this role brilliantly\n', ' Airlift will surely touch all Indians by heart!\n', ' India\'s own "Schindler\'s List"!\n', ' Authentic and a simple flick, that focuses only on storyline\n', ' Hope in the darkest hours\n', ' its all about being akshay\n', ' A tale of hope and humanity that breaks all political, societal, religious barriers.\n', ' Movie is well executed &amp; well Acted\n', ' Great Bollywood Movie to Start the Year\n']</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>528. Super 30</t>
+          <t>528. Jab We Met</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2h 34m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -17795,29 +17797,29 @@
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>tt7485048</t>
+          <t>tt1093370</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>[' One-Line Review: Super 30 (6 Stars)\n', ' Super 30 is indeed a super film\n', " Hrithik's One of the Best Performance\n", ' Hrithik never disappoints.\n', ' Hrithik Roshan ... Bow before you !!!\n', ' Good movie with good acting from Bollywood.\n', " 'Super-30'-The name says it all.\n", ' Hrithik Roshan Ranks High On Performance With Full Emotions !!!\n', ' Superb super 30\n', ' Too much drama\n', ' Inspired India\n', ' Not a brilliant film, but certainly a story that deserves to be told\n', ' One time watch...\n', ' Not well made\n', ' A great biopic wasted.\n', ' Brilliant movie! Best movie of this year!\n', ' Education is business !\n', ' super performance by H.Roshan\n', ' inspiring but limited\n', ' Best Movie of Hrithik Roshan till day. Amazing.\n', ' Inspiring Biopic\n', ' Hrithik inject his terrific performance to make it Super-Hit\n', ' Hrithik is a good actor- No one can forget this! Good movie.\n', ' excellent\n', ' Classy and Massy\n']</t>
+          <t>[' The story begins with a vivacious nut and a man suffering a nervous breakdown.\n', ' A Cute Romantic-Comedy\n', " Now that's entertainment!\n", ' entertaining Indian screwball comedy powered by Kareena Kapoor\n', ' Train Mein Encounter\n', ' Surprise\n', ' Lovely, simple and full of life\n', ' A free spirited girl, changes business tycoon for good and in turn gets returned her favor.\n', ' No logic; Only emotions\n', ' Decent entertainer with fine songs\n', ' Perfected by Imtiaz Ali\n', ' Surprisingly good, unlike most of the love stories\n', ' A Bubbly, Enjoyable Romantic Movie......\n', " Now That's A Real Entertainment Movie\n", ' JAB WE MET\n', ' Sweet feel-good romantic comedy!\n', ' Good I Saw....\n', ' WoW! Beautiful✨❤😍\n', ' Delightful Comedy-Drama\n', ' Jab We Met is an endearing and feel-good film that leaves a lasting impression\n', ' Good Romantic Movie !\n', ' Go on this journey from Mumbai to Bhatinda!!\n', " If I had a word, I surely write somethin'!\n", ' The real magic of this film lies in the performances of its two main leads- Kareena and Shahid\n', ' One of the best romcoms of the 2000s\n']</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>529. Baby</t>
+          <t>529. Super 30</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2h 39m</t>
+          <t>2h 34m</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -17826,52 +17828,50 @@
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>tt3848892</t>
+          <t>tt7485048</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>[' Fall little bit short to make a way to Oscar\n', ' A Satisfactory Espionage Drama. ♦ 53%\n', ' One of best Bollywood thrillers in recent time.\n', ' A well shot, inspired espionage thriller that surprisingly has its director coming into form post 100 minutes.\n', ' Baby\n', ' Baby Review- True Action Thriller film after a long time...\n', ' BABY is a daring attempt which should be lauded and appreciated\n', ' shows what a true soldier is!\n', ' Edge of the seat action thriller\n', ' Good to know that CIA,Mossad thing happens in India too!!!!!\n', ' Baby\n', ' Very Slick\n', ' Gem of Indian cinema( Neeraj ka kamaal)\n', ' Praiseworthy action thriller.\n', ' An above average spy thriller especially in "Bollywood"\n', ' BABY film is a damn hit, Baby!!!\n', ' Ambitious with some edge-of-seat thrills, sadly nothing more\n', ' Gripping!\n', ' MUST WATCH if you are interested in high-quality thrillers\n', ' An elite encounter with (tik tok) clocky speed\n', ' BABY Review\n', ' It was a wonderfully directed thriller that will literally show what "on the edge of the seat" means\n', ' "Masterpiece"\n', ' High-Voltage Espionage Thriller\n', ' The film is a clean thriller.\n']</t>
+          <t>[' One-Line Review: Super 30 (6 Stars)\n', ' Super 30 is indeed a super film\n', " Hrithik's One of the Best Performance\n", ' Hrithik never disappoints.\n', ' Hrithik Roshan ... Bow before you !!!\n', ' Good movie with good acting from Bollywood.\n', " 'Super-30'-The name says it all.\n", ' Hrithik Roshan Ranks High On Performance With Full Emotions !!!\n', ' Superb super 30\n', ' Too much drama\n', ' Inspired India\n', ' Not a brilliant film, but certainly a story that deserves to be told\n', ' One time watch...\n', ' Not well made\n', ' A great biopic wasted.\n', ' Brilliant movie! Best movie of this year!\n', ' Education is business !\n', ' super performance by H.Roshan\n', ' inspiring but limited\n', ' Best Movie of Hrithik Roshan till day. Amazing.\n', ' Inspiring Biopic\n', ' Hrithik inject his terrific performance to make it Super-Hit\n', ' Hrithik is a good actor- No one can forget this! Good movie.\n', ' excellent\n', ' Classy and Massy\n']</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>530. Killers of the Flower Moon</t>
+          <t>530. Baby</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>3h 26m</t>
+          <t>2h 39m</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>8</v>
-      </c>
-      <c r="E531" t="n">
-        <v>89</v>
-      </c>
+        <v>7.9</v>
+      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>tt5537002</t>
+          <t>tt3848892</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>[' Another Martin Scorsese masterpiece.\n', ' Not able to blossom\n', ' Another Scorsese-DiCaprio masterpiece, offering a unique storyline, well-developed characters and captivating circumstances\n', ' Coyote want money\n', ' Killers of the Flower Moon\n', " I'd hesitate to call it a masterpiece, but it's a good effort that proves Scorsese's still got it.\n", ' In depth long drawn out look at times of greed, corruption, secrets, and murder.\n', " Arguably Scorsese's best and certainly an Oscar contender.\n", ' One of the best of the year - great movie\n', ' Good Enough\n', " Far from a misfire, Scorsese's epic doesn't always hit the mark\n", ' Different from what I had expected\n', ' No one does it like Scorsese\n', ' Perfectly handled\n', ' Covfefe\n', ' Another excursion in indulgence and overnarration from Scorsese\n', ' Scorsese tries\n', ' Kills In Artistic Expression, But These Flowers Wilt In Depression And Bloated Time\n', ' Good but not spectacular\n', ' When you have unlimited budget to make a simple movie...\n', ' Cinematic Gold\n', ' Excellent, but could have been at least 1/2 hour shorter and less heavy-handed\n', ' Each scene has Martin Scorsese at his best, Leonardo DiCaprio gave one of his most complex and finest performances - a spectacular and perfect film\n', ' Killers Of The Flower Moon Was Another Masterpiece From The Master Of Cinema Himself Martin Scorsese\n', " It's long, but it fits the scope of the story perfectly!\n"]</t>
+          <t>[' Fall little bit short to make a way to Oscar\n', ' A Satisfactory Espionage Drama. ♦ 53%\n', ' One of best Bollywood thrillers in recent time.\n', ' A well shot, inspired espionage thriller that surprisingly has its director coming into form post 100 minutes.\n', ' Baby\n', ' Baby Review- True Action Thriller film after a long time...\n', ' BABY is a daring attempt which should be lauded and appreciated\n', ' shows what a true soldier is!\n', ' Edge of the seat action thriller\n', ' Good to know that CIA,Mossad thing happens in India too!!!!!\n', ' Baby\n', ' Very Slick\n', ' Gem of Indian cinema( Neeraj ka kamaal)\n', ' Praiseworthy action thriller.\n', ' An above average spy thriller especially in "Bollywood"\n', ' BABY film is a damn hit, Baby!!!\n', ' Ambitious with some edge-of-seat thrills, sadly nothing more\n', ' Gripping!\n', ' MUST WATCH if you are interested in high-quality thrillers\n', ' An elite encounter with (tik tok) clocky speed\n', ' BABY Review\n', ' It was a wonderfully directed thriller that will literally show what "on the edge of the seat" means\n', ' "Masterpiece"\n', ' High-Voltage Espionage Thriller\n', ' The film is a clean thriller.\n']</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>531. Past Lives</t>
+          <t>531. Killers of the Flower Moon</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -17881,700 +17881,700 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>3h 26m</t>
         </is>
       </c>
       <c r="D532" t="n">
         <v>8</v>
       </c>
       <c r="E532" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>tt13238346</t>
+          <t>tt5537002</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>[' The future is written\n', ' Like a Stephen Sondheim Song Come to Life\n', ' Past Lives\n', ' A film of reconnection and memories and it shows what might have been.\n', ' Cinema Omnivore - Past Lives (2023) 7.6/10\n', ' a fine bilingual and multicultural romantic drama\n', ' You Never Forget Your First Love\n', ' The Lives of Others...\n', ' Good Enough\n', ' Best movie of 2023 (so far)\n', ' Painfully good\n', " Another 'W' for A24 Studios\n", ' Understatedly emotional\n', ' A tender story fascinatingly told with incredible depth! [+88%]\n', ' Longing, Melancholy, and the Power of In-Yun\n', ' Thoughtful and affecting autobiographical tale\n', ' The Whole Movie Lacked A Voice\n', ' Realistic\n', ' Beautiful\n', ' Simple sensitive movie worth seeing\n', ' Utterly beautiful!\n', " One of those movies that critics LOVE, but it's actually empty inside.\n", ' A sincere, touching look at two interesting people and the way that life has dictated their fates\n', ' 7.1/10. Recommended\n', ' The path not taken\n']</t>
+          <t>[' Another Martin Scorsese masterpiece.\n', ' Not able to blossom\n', ' Another Scorsese-DiCaprio masterpiece, offering a unique storyline, well-developed characters and captivating circumstances\n', ' Coyote want money\n', ' Killers of the Flower Moon\n', " I'd hesitate to call it a masterpiece, but it's a good effort that proves Scorsese's still got it.\n", ' In depth long drawn out look at times of greed, corruption, secrets, and murder.\n', " Arguably Scorsese's best and certainly an Oscar contender.\n", ' One of the best of the year - great movie\n', ' Good Enough\n', " Far from a misfire, Scorsese's epic doesn't always hit the mark\n", ' Different from what I had expected\n', ' No one does it like Scorsese\n', ' Perfectly handled\n', ' Covfefe\n', ' Another excursion in indulgence and overnarration from Scorsese\n', ' Scorsese tries\n', ' Kills In Artistic Expression, But These Flowers Wilt In Depression And Bloated Time\n', ' Good but not spectacular\n', ' When you have unlimited budget to make a simple movie...\n', ' Substantial addition to Scorsese\n', ' Cinematic Gold\n', ' Excellent, but could have been at least 1/2 hour shorter and less heavy-handed\n', ' Each scene has Martin Scorsese at his best, Leonardo DiCaprio gave one of his most complex and finest performances - a spectacular and perfect film\n', ' Killers Of The Flower Moon Was Another Masterpiece From The Master Of Cinema Himself Martin Scorsese\n']</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>532. Dune</t>
+          <t>532. Past Lives</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="D533" t="n">
         <v>8</v>
       </c>
       <c r="E533" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>tt1160419</t>
+          <t>tt13238346</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>[" A big improvement over the first film, but it still doesn't quite hit the mark.\n", ' One trick pony\n', ' The Beginning\n', ' inspired sketch\n', ' Dune: Part One\n', ' My movie of 2021, so far.\n', ' Lord of the Dune sand\n', ' Visually impressive, but rather unnecessary remake...\n', " Impressive and spectacular production about a mythic and emotionally charged hero's journey\n", ' destiny will come\n', " I'd rather watch Spice World: The Movie.\n", ' A desert covered in Spice and Sand Worms on the prowl, very large Sand Worms!\n', ' I liked it\n', ' Eye-Sore that Makes the Eyes-Sore...Watching Through the Thick Gold &amp; Tan Filtered Lenses...Layers Upon Layers of Dust, Dirt, Wind, &amp; Sand\n', ' Entertaining\n', ' This is an all-time great science fiction movie\n', ' stunning visuals\n', " I can't wait for part two, and hope for more parts after that if they're of the same quality as this one.\n", " That's how it's dune.\n", ' Immersive\n', " More of a remake of Lynch's film, rather than an adaptation of the book\n", ' Tense compelling space sci-fi opera of uprising, journey, and it involves a chosen one!\n', ' Cinema Omnivore - Dune (2021) 8.4/10\n', ' visual and auditory explosion of beauty\n', ' Regular...\n']</t>
+          <t>[' The future is written\n', ' Like a Stephen Sondheim Song Come to Life\n', ' Past Lives\n', ' A film of reconnection and memories and it shows what might have been.\n', ' Cinema Omnivore - Past Lives (2023) 7.6/10\n', ' a fine bilingual and multicultural romantic drama\n', ' You Never Forget Your First Love\n', ' The Lives of Others...\n', ' Good Enough\n', ' A beautiful debut film from Celine Song\n', ' Best movie of 2023 (so far)\n', ' Painfully good\n', " Another 'W' for A24 Studios\n", ' Understatedly emotional\n', ' A tender story fascinatingly told with incredible depth! [+88%]\n', ' Longing, Melancholy, and the Power of In-Yun\n', ' Thoughtful and affecting autobiographical tale\n', ' The Whole Movie Lacked A Voice\n', ' Realistic\n', ' Beautiful\n', ' Simple sensitive movie worth seeing\n', ' Utterly beautiful!\n', " One of those movies that critics LOVE, but it's actually empty inside.\n", ' A sincere, touching look at two interesting people and the way that life has dictated their fates\n', ' 7.1/10. Recommended\n']</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>533. Blade Runner 2049</t>
+          <t>533. Dune</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="D534" t="n">
         <v>8</v>
       </c>
       <c r="E534" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>tt1856101</t>
+          <t>tt1160419</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>[' Jaw dropping and richly rewarding...well worth running with\n', ' pure cinema\n', ' Excellent, Intellectual Science Fiction\n', ' the story\n', ' Dickensian\n', ' Back to the blade\n', ' Beautifully made, but shockingly slow.\n', ' Slow and beautiful\n', " Shameful Use of the Characters from Philip K. Dick's Novel\n", " Engaging and thoughtful even if the pacing and sudden action doesn't always work\n", ' This picture successfully combines visuals with character , though the complicated story is still somewhat impressive\n', " humanity's possible fate\n", ' A visually stunning return to the world of Blade Runners and replicants\n', ' Thirty years later Blade Runners still have work to do\n', ' Outstanding sequel!\n', ' Visually striking existential science fiction mystery\n', ' Dull Slow-Motion Slog...Long Tedious Underwhelming Misfire\n', ' Intriguing and engaging\n', ' Not better than the original but still exceptional\n', ' Slogging Our Way Through a Dystopian Future\n', " Say it ain't so, Joe\n", ' 30 years later, aged like fine wine\n', ' It could be our future.\n', ' Blade Runner 2049 review\n', ' A worthy entry indeed\n']</t>
+          <t>[" A big improvement over the first film, but it still doesn't quite hit the mark.\n", ' One trick pony\n', ' The Beginning\n', ' inspired sketch\n', ' Dune: Part One\n', ' My movie of 2021, so far.\n', ' Lord of the Dune sand\n', ' Visually impressive, but rather unnecessary remake...\n', " Impressive and spectacular production about a mythic and emotionally charged hero's journey\n", ' destiny will come\n', " I'd rather watch Spice World: The Movie.\n", ' A desert covered in Spice and Sand Worms on the prowl, very large Sand Worms!\n', ' I liked it\n', ' Eye-Sore that Makes the Eyes-Sore...Watching Through the Thick Gold &amp; Tan Filtered Lenses...Layers Upon Layers of Dust, Dirt, Wind, &amp; Sand\n', ' Entertaining\n', ' This is an all-time great science fiction movie\n', ' stunning visuals\n', " I can't wait for part two, and hope for more parts after that if they're of the same quality as this one.\n", " That's how it's dune.\n", ' Immersive\n', " More of a remake of Lynch's film, rather than an adaptation of the book\n", ' Tense compelling space sci-fi opera of uprising, journey, and it involves a chosen one!\n', ' Cinema Omnivore - Dune (2021) 8.4/10\n', ' visual and auditory explosion of beauty\n', ' Regular...\n']</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>534. Planet of the Apes</t>
+          <t>534. Blade Runner 2049</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D535" t="n">
         <v>8</v>
       </c>
       <c r="E535" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>tt0063442</t>
+          <t>tt1856101</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>[' This film needs no remake!\n', ' Simply brilliant!\n', ' A cornerstone of sci-fi cinema\n', ' "Human See, Human Do"\n', ' Sci-fi icon\n', ' Too Many Questions\n', ' The torch bearer\n', ' Great film with classic images, themes and scenes\n', ' Classic and energetic science-fiction movie with a terrific Charlton Heston\n', ' Get your hands off this movie, you damn dirty remake!\n', ' Monkey magic.\n', ' Apes and Man... Together\n', ' Purely awesome\n', ' Those damned dirty apes!\n', ' An all-time sci-fi classic.\n', ' ITS A MADHOUSE! TERRIFIC CLASSIC!\n', ' A sci fi classic for a reason\n', ' Fox Goes Ape\n', " I'm a seeker, too. But my dreams aren't like yours. I can't help thinking that somewhere in the universe there has to be something better than man. Has to be.\n", ' Great Film\n', ' Get your stinkin paws off me you damn dirty apes!\n', ' First movie that has a twist of irony that align with the Twilight Zone\n', ' "I can\'t help thinking somewhere in the universe there has to be something better than man. Has to be."\n', ' This is one of the greatest science fiction movies of all time\n', ' Take your stinking paws off me, you damned dirty ape!\n']</t>
+          <t>[' Jaw dropping and richly rewarding...well worth running with\n', ' pure cinema\n', ' Excellent, Intellectual Science Fiction\n', ' the story\n', ' Dickensian\n', ' Back to the blade\n', ' Beautifully made, but shockingly slow.\n', ' Slow and beautiful\n', " Shameful Use of the Characters from Philip K. Dick's Novel\n", " Engaging and thoughtful even if the pacing and sudden action doesn't always work\n", ' This picture successfully combines visuals with character , though the complicated story is still somewhat impressive\n', " humanity's possible fate\n", ' A visually stunning return to the world of Blade Runners and replicants\n', ' Thirty years later Blade Runners still have work to do\n', ' Outstanding sequel!\n', ' Visually striking existential science fiction mystery\n', ' Dull Slow-Motion Slog...Long Tedious Underwhelming Misfire\n', ' Intriguing and engaging\n', ' Not better than the original but still exceptional\n', ' Slogging Our Way Through a Dystopian Future\n', " Say it ain't so, Joe\n", ' 30 years later, aged like fine wine\n', ' It could be our future.\n', ' Blade Runner 2049 review\n', ' A worthy entry indeed\n']</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>535. The Princess Bride</t>
+          <t>535. Planet of the Apes</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D536" t="n">
         <v>8</v>
       </c>
       <c r="E536" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>tt0093779</t>
+          <t>tt0063442</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>[' Outstanding!\n', ' Lively swashbuckler\n', ' Funny touching love story (not just the fairy tale)\n', ' old flavor\n', ' Knowing modern fairy tale that sits between affectionate spoof and poor B-movie\n', ' Above average fantasy movie with straight-forward action, sword-fights, and lots of monsters\n', ' A Must-See, Plain and Simple\n', ' Generally A Fun Film, So No Reason For Religious Cheap Shots\n', ' "As you wish" means "I love you."\n', ' so much fun\n', ' a fun fairytale satire, as much as it is a successful fable for pure genre fans\n', ' Glad I saw it\n', ' It\'s not just a "Kissing" Movie\n', ' Wonderful, heart-warming movie\n', ' Great Writing\n', ' THE PRINCESS BRIDE (Rob Reiner, 1987) **1/2\n', ' "This is true love - you think this happens every day?"\n', ' This is one of the most underrated American cinematic classics\n', ' A Uniquely Charming Fairy Tale\n', ' As You Wish...\n', ' Nicely done fantasy romance comedy movie.\n', ' All of the classical fantasy elements remixed in a charming stew\n', " Its tone isn't as solid as you'd expect, but its better moments can still be enjoyed without much hesitation.\n", " It's A Cute Fantasy Film\n", ' charming\n']</t>
+          <t>[' This film needs no remake!\n', ' Simply brilliant!\n', ' A cornerstone of sci-fi cinema\n', ' "Human See, Human Do"\n', ' Sci-fi icon\n', ' Too Many Questions\n', ' The torch bearer\n', ' Great film with classic images, themes and scenes\n', ' Classic and energetic science-fiction movie with a terrific Charlton Heston\n', ' Get your hands off this movie, you damn dirty remake!\n', ' Monkey magic.\n', ' Apes and Man... Together\n', ' Purely awesome\n', ' Those damned dirty apes!\n', ' An all-time sci-fi classic.\n', ' ITS A MADHOUSE! TERRIFIC CLASSIC!\n', ' A sci fi classic for a reason\n', ' Fox Goes Ape\n', " I'm a seeker, too. But my dreams aren't like yours. I can't help thinking that somewhere in the universe there has to be something better than man. Has to be.\n", ' Great Film\n', ' Get your stinkin paws off me you damn dirty apes!\n', ' First movie that has a twist of irony that align with the Twilight Zone\n', ' "I can\'t help thinking somewhere in the universe there has to be something better than man. Has to be."\n', ' This is one of the greatest science fiction movies of all time\n', ' Take your stinking paws off me, you damned dirty ape!\n']</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>536. The Martian</t>
+          <t>536. The Princess Bride</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2h 24m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D537" t="n">
         <v>8</v>
       </c>
       <c r="E537" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>tt3659388</t>
+          <t>tt0093779</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>[" It's hard to imagine Ridley Scott directing a film like this one....\n", ' Tasks for your survival\n', ' fun thrilling space adventure\n', ' Technically Great and a Wonderful Performance by Damon\n', ' Fun but Far From Great\n', ' The man on Mars\n', " Roasted, Mashed, Boiled, Sauteed? How'd you do your Potatoes?\n", ' The Gardener out of space\n', ' Total Lack of Emotion and Suspense\n', ' Entertaining and slick enough to make you go with it\n', ' How to singlehandedly colonize a barren planet...\n', ' Quite Possibly the Best of 2015\n', ' a thoughtful, exciting, crowd-pleasing movie about problem-solving\n', ' Donald Glover steals the movie\n', ' So touching!\n', ' Typical Overrated Claptrap\x85Familiar, Forced, and Forgettable\n', ' Fascinating and enthralling tale of resourcefulness, ingenuity and survival\n', ' Not Brilliant And Not A Musical\n', ' Techie, Sciencie, and Moving\n', ' Intersting movie about survival on Mars\n', ' Out of this World!\n', ' Smart, exciting crowd-pleaser\n', ' What It Would Be Like to Be Stranded on Mars with a Frat Boy\n', ' Steely Eyed Missile Man\n', " Despise all the haters I do like Sci-Fi's like The Martian\n"]</t>
+          <t>[' Outstanding!\n', ' Lively swashbuckler\n', ' Funny touching love story (not just the fairy tale)\n', ' old flavor\n', ' Knowing modern fairy tale that sits between affectionate spoof and poor B-movie\n', ' Above average fantasy movie with straight-forward action, sword-fights, and lots of monsters\n', ' A Must-See, Plain and Simple\n', ' Generally A Fun Film, So No Reason For Religious Cheap Shots\n', ' "As you wish" means "I love you."\n', ' so much fun\n', ' a fun fairytale satire, as much as it is a successful fable for pure genre fans\n', ' Glad I saw it\n', ' It\'s not just a "Kissing" Movie\n', ' Wonderful, heart-warming movie\n', ' Great Writing\n', ' THE PRINCESS BRIDE (Rob Reiner, 1987) **1/2\n', ' "This is true love - you think this happens every day?"\n', ' This is one of the most underrated American cinematic classics\n', ' A Uniquely Charming Fairy Tale\n', ' As You Wish...\n', ' Nicely done fantasy romance comedy movie.\n', ' All of the classical fantasy elements remixed in a charming stew\n', " Its tone isn't as solid as you'd expect, but its better moments can still be enjoyed without much hesitation.\n", " It's A Cute Fantasy Film\n", ' charming\n']</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>537. Deadpool</t>
+          <t>537. The Martian</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 24m</t>
         </is>
       </c>
       <c r="D538" t="n">
         <v>8</v>
       </c>
       <c r="E538" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>tt1431045</t>
+          <t>tt3659388</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>[' I am NOT the target audience for this one...please keep this in mind as you read.\n', ' Like its hero, rough around the edges but not without its charms\n', ' dead funny\n', ' A Different and Better Kind of Super Hero\n', ' The rogue marvel\n', ' Not MCU, but still great\n', ' An Anti-Superhero Is Born\n', ' Not quite as fun as it wants to be, but still fun\n', ' Good, wholesome fun and entertainment...\n', ' Super. But no hero.\n', ' what a (very good) Deadpool movie needed to be\n', ' Deadpool is for anyone who loves a hilarious R-rated action superhero film!\n', ' Infectiously funny\n', ' I generally hate super hero blockbuster films...\n', ' Nasty Fun &amp; Invigorating\x85You Thought These Things Were All the Same\n', ' Outrageously funny, original and entertaining\n', ' Raunchy\n', ' Definitely Not Suited for a General Audience\n', ' "And that\'s why Regina rhymes with fun."\n', " This is a rare comic book movie that's a 10/10 and instant classic\n", " A Gun Fetishist's Wet Dream\n", ' The real heroes here\n', ' Strikes the exact right tone\n', ' Deadpool is the funniest and most enjoyable to watch super hero\n', ' Quirky and funny Marvel Comics parody with a dirtbag non-superhero\n']</t>
+          <t>[" It's hard to imagine Ridley Scott directing a film like this one....\n", ' Tasks for your survival\n', ' fun thrilling space adventure\n', ' Technically Great and a Wonderful Performance by Damon\n', ' Fun but Far From Great\n', ' The man on Mars\n', " Roasted, Mashed, Boiled, Sauteed? How'd you do your Potatoes?\n", ' The Gardener out of space\n', ' Total Lack of Emotion and Suspense\n', ' Entertaining and slick enough to make you go with it\n', ' How to singlehandedly colonize a barren planet...\n', ' Quite Possibly the Best of 2015\n', ' a thoughtful, exciting, crowd-pleasing movie about problem-solving\n', ' Donald Glover steals the movie\n', ' So touching!\n', ' Typical Overrated Claptrap\x85Familiar, Forced, and Forgettable\n', ' Fascinating and enthralling tale of resourcefulness, ingenuity and survival\n', ' Not Brilliant And Not A Musical\n', ' Techie, Sciencie, and Moving\n', ' Intersting movie about survival on Mars\n', ' Out of this World!\n', ' Smart, exciting crowd-pleaser\n', ' What It Would Be Like to Be Stranded on Mars with a Frat Boy\n', ' Steely Eyed Missile Man\n', " Despise all the haters I do like Sci-Fi's like The Martian\n"]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>538. The Avengers</t>
+          <t>538. Deadpool</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D539" t="n">
         <v>8</v>
       </c>
       <c r="E539" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>tt0848228</t>
+          <t>tt1431045</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>[' The world loves it, though I still think the original "Iron Man", "Thor" and "Captain America" were my favorites.\n', ' Not 100% perfect but still an outstanding film in so many ways\n', ' Wanted to hate it, ended up loving it\n', ' Avengers vs TDKR\n', ' A Gem of an Action Movie\n', " I'm Too Old for This!\n", ' New York Geography\n', ' Avengers Assemble at once\n', " If they can't save the box office, they sure as hell will avenge it\n", ' Excellent Adventure\n', ' Consistently enjoyable effects and noise with the right amount of fun mixed in\n', ' More superheroes...\n', ' Charlie Chaplin meets Lucy meets Jules\n', ' What a load of Chitauri.\n', ' Great Movie... But Not That Great\n', ' "We need a plan of attack." ... "I have a plan: attack!"\n', ' Fun, and great characters and dialog first and foremost\n', " The Avengers is a nearly excellent first movie featuring Marvel's Earth's Mightiest Heroes\n", ' A great blockbuster\n', ' The viewpoint of an old classic movie fan who does not read comic books...\n', ' All style, no substance\n', ' Other Worlds\n', " Everything that's happening, the things that are about to come to light, people might just need a little old fashioned.\n", ' Great comic book motion picture\n', ' Comics\n']</t>
+          <t>[' I am NOT the target audience for this one...please keep this in mind as you read.\n', ' Like its hero, rough around the edges but not without its charms\n', ' dead funny\n', ' A Different and Better Kind of Super Hero\n', ' The rogue marvel\n', ' Not MCU, but still great\n', ' An Anti-Superhero Is Born\n', ' Not quite as fun as it wants to be, but still fun\n', ' Good, wholesome fun and entertainment...\n', ' Super. But no hero.\n', ' what a (very good) Deadpool movie needed to be\n', ' Deadpool is for anyone who loves a hilarious R-rated action superhero film!\n', ' Infectiously funny\n', ' I generally hate super hero blockbuster films...\n', ' Nasty Fun &amp; Invigorating\x85You Thought These Things Were All the Same\n', ' Outrageously funny, original and entertaining\n', ' Raunchy\n', ' Definitely Not Suited for a General Audience\n', ' "And that\'s why Regina rhymes with fun."\n', " This is a rare comic book movie that's a 10/10 and instant classic\n", " A Gun Fetishist's Wet Dream\n", ' The real heroes here\n', ' Strikes the exact right tone\n', ' Deadpool is the funniest and most enjoyable to watch super hero\n', ' Quirky and funny Marvel Comics parody with a dirtbag non-superhero\n']</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>539. La La Land</t>
+          <t>539. The Avengers</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="D540" t="n">
         <v>8</v>
       </c>
       <c r="E540" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>tt3783958</t>
+          <t>tt0848228</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>[' Like a dream come true, one of those films that totally banishes the blues away\n', ' Short of greatness\n', ' love letter to Hollywood\n', ' A Love Letter to Hollywood\n', ' A Really Pleasant Experience\n', ' beautiful\n', ' Starts Well\n', ' The Artists\n', " It's ok, if you click the musical numbers.\n", ' Moonlighting Hollywood\n', ' Cute but Overrated\n', ' Pleasant enough but ultimately superficial and a little smug\n', ' Worth the hype\n', " Weightless--as it's meant to be--and not without heart, but this balloon wafts away instead of soars...\n", ' La La Land\n', ' La La Land was quite realistic for an original musical but also fantastic in some sequences\n', " It's alright\n", ' Not simply just a musical or a romantic drama - this is so much better than that\n', ' Very Well Made But Not My Kind Of Movie\n', ' Dazzling\n', ' Smart and enjoyable, bringing the vibes of classics into the twenty-first century\n', ' A Love Song About Bittersweet Happy Endings\n', ' a gem with full spectrum of emotions\n', ' Only watch if you LOVE musicals\n', ' This "hardly musical" can\'t compare with the great song and dance films of the past\n']</t>
+          <t>[' The world loves it, though I still think the original "Iron Man", "Thor" and "Captain America" were my favorites.\n', ' Not 100% perfect but still an outstanding film in so many ways\n', ' Wanted to hate it, ended up loving it\n', ' Avengers vs TDKR\n', ' A Gem of an Action Movie\n', " I'm Too Old for This!\n", ' New York Geography\n', ' Avengers Assemble at once\n', " If they can't save the box office, they sure as hell will avenge it\n", ' Excellent Adventure\n', ' Consistently enjoyable effects and noise with the right amount of fun mixed in\n', ' More superheroes...\n', ' Charlie Chaplin meets Lucy meets Jules\n', ' What a load of Chitauri.\n', ' Great Movie... But Not That Great\n', ' "We need a plan of attack." ... "I have a plan: attack!"\n', ' Fun, and great characters and dialog first and foremost\n', " The Avengers is a nearly excellent first movie featuring Marvel's Earth's Mightiest Heroes\n", ' A great blockbuster\n', ' The viewpoint of an old classic movie fan who does not read comic books...\n', ' All style, no substance\n', ' Other Worlds\n', " Everything that's happening, the things that are about to come to light, people might just need a little old fashioned.\n", ' Great comic book motion picture\n', ' Comics\n']</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>540. Casino Royale</t>
+          <t>540. La La Land</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2h 24m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="D541" t="n">
         <v>8</v>
       </c>
       <c r="E541" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>tt0381061</t>
+          <t>tt3783958</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>[' Visually exhilarating, but there is something missing\n', ' An all-time Bond favourite\n', ' Reboot with a bang\n', ' One of the Best Bonds\n', ' Here It Is/Where It All Began\n', ' The Best James Bond Movie In the Last Years\n', ' An impressively dark, engaging and exciting entry in the Bond series \x96 just what it needed after Die Another Day\n', ' Daniel Craig introduction , he is terrific as tough and brutal James Bond\n', ' The Russian 007\n', ' Casino Royale\n', ' This is NOT James Bond (As We Know Him Through The Years)\n', ' A reboot if ever there was one\n', ' Big and beautiful\n', ' Casino loyale\n', ' not an all-time champion Bond film, but one that makes me anticipate Craig- and more Bond movies like this- in the future\n', ' Casino Royale is great Bond beginning for Daniel Craig\n', ' Daniel Craig 🙌🏽\n', ' Casino Royale-Downward Flush Quickly *1/2\n', ' Daniel Craig Assumes the Position\n', ' Be prepared to be marvelled and thrilled!\n', ' "You take the next one. There\'s not enough room in here for me and your ego."\n', ' The Bond Goes On\n', ' New Ground, New Space\n', ' Arrogance and self-awareness seldom go hand in hand.\n', ' Brazen Bond is a put off\n']</t>
+          <t>[' Like a dream come true, one of those films that totally banishes the blues away\n', ' Short of greatness\n', ' love letter to Hollywood\n', ' A Love Letter to Hollywood\n', ' A Really Pleasant Experience\n', ' beautiful\n', ' Starts Well\n', ' The Artists\n', " It's ok, if you click the musical numbers.\n", ' Moonlighting Hollywood\n', ' Cute but Overrated\n', ' Pleasant enough but ultimately superficial and a little smug\n', ' Worth the hype\n', " Weightless--as it's meant to be--and not without heart, but this balloon wafts away instead of soars...\n", ' La La Land\n', ' La La Land was quite realistic for an original musical but also fantastic in some sequences\n', " It's alright\n", ' Not simply just a musical or a romantic drama - this is so much better than that\n', ' Very Well Made But Not My Kind Of Movie\n', ' Dazzling\n', ' Smart and enjoyable, bringing the vibes of classics into the twenty-first century\n', ' A Love Song About Bittersweet Happy Endings\n', ' a gem with full spectrum of emotions\n', ' Only watch if you LOVE musicals\n', ' This "hardly musical" can\'t compare with the great song and dance films of the past\n']</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>541. Guardians of the Galaxy</t>
+          <t>541. Casino Royale</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 24m</t>
         </is>
       </c>
       <c r="D542" t="n">
         <v>8</v>
       </c>
       <c r="E542" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>tt2015381</t>
+          <t>tt0381061</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>[' Worth seeing...but #37?\n', ' Lots of fun and excitement in this galaxy\n', ' a galaxy full of fun\n', ' A Nice Surprise for a Non-Comic Book Guy\n', ' Escape\n', ' This is really Groot!\n', ' One of the Best Sci-Fi of this Year\n', ' Generally funny and entertaining, helping it get over the occasional more serious hump\n', ' Wow. Just wow...\n', ' A really fun space opera\n', " Please don't feel like you HAVE to laugh.\n", ' A Special Effects Mess and ADHD Editing, But Funny\n', " Good, but doesn't match the hype\n", ' a winning combination of comedy, characters, and special fx (and a little heart)\n', ' Guardians of the Galaxy was another awesome Marvel movie\n', ' Star lord\n', ' An enjoyable film\n', ' All style, no substance, but reasonably entertaining\n', " I Can't Understand The Love For This\n", " Anti-Heroes Don't Strike a Chord\n", ' Very good comic book movie\n', ' Lots of CGI and Action\n', ' Pelvic sorcery saves the galaxy\n', " I've Played Video Games That Make Better Movies Than This Stinker\n", ' Dance like Kevin Bacon\n']</t>
+          <t>[' Visually exhilarating, but there is something missing\n', ' An all-time Bond favourite\n', ' Reboot with a bang\n', ' One of the Best Bonds\n', ' Here It Is/Where It All Began\n', ' The Best James Bond Movie In the Last Years\n', ' An impressively dark, engaging and exciting entry in the Bond series \x96 just what it needed after Die Another Day\n', ' Daniel Craig introduction , he is terrific as tough and brutal James Bond\n', ' The Russian 007\n', ' Casino Royale\n', ' This is NOT James Bond (As We Know Him Through The Years)\n', ' A reboot if ever there was one\n', ' Big and beautiful\n', ' Casino loyale\n', ' not an all-time champion Bond film, but one that makes me anticipate Craig- and more Bond movies like this- in the future\n', ' Casino Royale is great Bond beginning for Daniel Craig\n', ' Daniel Craig 🙌🏽\n', ' Casino Royale-Downward Flush Quickly *1/2\n', ' Daniel Craig Assumes the Position\n', ' Be prepared to be marvelled and thrilled!\n', ' "You take the next one. There\'s not enough room in here for me and your ego."\n', ' The Bond Goes On\n', ' New Ground, New Space\n', ' Arrogance and self-awareness seldom go hand in hand.\n', ' Brazen Bond is a put off\n']</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>542. Donnie Darko</t>
+          <t>542. Guardians of the Galaxy</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>1h 53m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D543" t="n">
         <v>8</v>
       </c>
       <c r="E543" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>tt0246578</t>
+          <t>tt2015381</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>[' cool premise and unique blend\n', ' Worth a Second Look\n', ' not comfortable\n', ' Future\n', ' One of the Weirdest and Most Intriguing Cult Movies Ever\n', ' Confusing, dark, difficult and confusing but very enjoyable and worth the work\n', ' A complex and surprising horror thriller with a surreal psychological twist\n', ' in the context of September 11...\n', ' One of the Greatest Films of My Generation\n', ' "It\'s meant to be ironic..."\n', ' Wow! A real refrigerator talk film\n', ' Donny and the bunny man\n', ' A good film, with a fervent cult following, but it shoots short of greatness\n', " '...and I find it kinda funny, I find it kinda sad' (Mad World)\n", " What's Up, Doc?\n", ' Why are you wearing that stupid man suit?\n', ' The Movie Is Weird\x85...That Was A Compliment\n', ' Excellent\n', " Don't Be Ashamed To Say It's Not A Masterpiece\n", ' Not My Cup of Tea\n', ' Arthouse movie confusing throughout\n', ' Rabbit\n', ' Whats all the shouting about?\n', ' "Wake Up!"...\n', ' This movie will always be a cult classic and a cinematic masterpiece\n']</t>
+          <t>[' Worth seeing...but #37?\n', ' Lots of fun and excitement in this galaxy\n', ' a galaxy full of fun\n', ' A Nice Surprise for a Non-Comic Book Guy\n', ' Escape\n', ' This is really Groot!\n', ' One of the Best Sci-Fi of this Year\n', ' Generally funny and entertaining, helping it get over the occasional more serious hump\n', ' Wow. Just wow...\n', ' A really fun space opera\n', " Please don't feel like you HAVE to laugh.\n", ' A Special Effects Mess and ADHD Editing, But Funny\n', " Good, but doesn't match the hype\n", ' a winning combination of comedy, characters, and special fx (and a little heart)\n', ' Guardians of the Galaxy was another awesome Marvel movie\n', ' Star lord\n', ' An enjoyable film\n', ' All style, no substance, but reasonably entertaining\n', " I Can't Understand The Love For This\n", " Anti-Heroes Don't Strike a Chord\n", ' Very good comic book movie\n', ' Lots of CGI and Action\n', ' Pelvic sorcery saves the galaxy\n', " I've Played Video Games That Make Better Movies Than This Stinker\n", ' Dance like Kevin Bacon\n']</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>543. CODA</t>
+          <t>543. Donnie Darko</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>1h 53m</t>
         </is>
       </c>
       <c r="D544" t="n">
         <v>8</v>
       </c>
       <c r="E544" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>tt10366460</t>
+          <t>tt0246578</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>[' Heart-wrenchingly beautiful\n', ' sweet and funny\n', ' A Remarkable Film\n', ' inspired remake\n', ' Fine Little Middlebrow Movie\n', ' A great movie, that offers so much variety.\n', ' those with disabilities deserve our respect\n', ' Beautiful\n', ' Sweet, feel-good movie\n', ' dream a little dream\n', ' Ifyou liked La Famille Bélier you will like this one as well.\n', ' Generically enjoyable.\n', ' Emotional family drama of life, love, and communication.\n', ' A worthy Oscar nominee. Powerful.\n', ' An exciting film...\n', " Certainly Met the Oscar's Coda\n", " feel good story you've seen so many versions of\n", ' Lovely movie worthy of nominations\n', ' Stunning! Simply STUNNING!!\n', ' This thought-provoking family drama is a realistic emotional ride\n', ' A very well-done and inspirational family picture and quite an improvement on the original!\n', ' great...\n', " The New 'Star Is Born' meets a metaphorical coming-of-age story. So many metaphors and feelings and they don't need words at all.\n", ' legit sleeper hit\n', ' Just Another Solid Remake\n']</t>
+          <t>[' cool premise and unique blend\n', ' Worth a Second Look\n', ' not comfortable\n', ' Future\n', ' One of the Weirdest and Most Intriguing Cult Movies Ever\n', ' Confusing, dark, difficult and confusing but very enjoyable and worth the work\n', ' A complex and surprising horror thriller with a surreal psychological twist\n', ' in the context of September 11...\n', ' One of the Greatest Films of My Generation\n', ' "It\'s meant to be ironic..."\n', ' Wow! A real refrigerator talk film\n', ' Donny and the bunny man\n', ' A good film, with a fervent cult following, but it shoots short of greatness\n', " '...and I find it kinda funny, I find it kinda sad' (Mad World)\n", " What's Up, Doc?\n", ' Why are you wearing that stupid man suit?\n', ' The Movie Is Weird\x85...That Was A Compliment\n', ' Excellent\n', " Don't Be Ashamed To Say It's Not A Masterpiece\n", ' Not My Cup of Tea\n', ' Arthouse movie confusing throughout\n', ' Rabbit\n', ' Whats all the shouting about?\n', ' "Wake Up!"...\n', ' This movie will always be a cult classic and a cinematic masterpiece\n']</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>544. Her</t>
+          <t>544. CODA</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D545" t="n">
         <v>8</v>
       </c>
       <c r="E545" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>tt1798709</t>
+          <t>tt10366460</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>[' Not a movie for the kids, but very insightful and rather sad.\n', ' Magical, if polarising, film-making\n', ' Romance in need of human contact\n', " Sorry but I Just Couldn't Connect With It\n", ' Intriguing Premise....But Do We Care?\n', ' poetic\n', ' Virtual girlfriend\n', ' And him\n', ' But in the End, We Are Still Humans\n', ' Good ideas and generally works but it is overlong and forces its emotional importance too much, ultimately undermining itself\n', ' The Positives in the Human Condition\n', ' A Utopian world with the same old male-female sexual hang-ups...\n', ' heart-shaped hard-drive\n', ' Strange\n', ' Tedious and boring\n', ' Highly Unoriginal and Hardly Profound\n', ' Disappointing\n', ' HER (Spike Jonze, 2013) **1/2\n', ' Lonelier Than Ever\n', ' What is Love?\n', ' No thank you.\n', ' Strange but still fascinating\n', ' An intelligent and nuanced sci-fi romance that satirises our current obsession with smart-phones to remind us for the need to connect with people.\n', ' Well done\n', ' An original exploration of the nature of love and feeling flops\n']</t>
+          <t>[' Heart-wrenchingly beautiful\n', ' sweet and funny\n', ' A Remarkable Film\n', ' inspired remake\n', ' Fine Little Middlebrow Movie\n', ' A great movie, that offers so much variety.\n', ' those with disabilities deserve our respect\n', ' Beautiful\n', ' Sweet, feel-good movie\n', ' dream a little dream\n', ' Ifyou liked La Famille Bélier you will like this one as well.\n', ' Generically enjoyable.\n', ' Emotional family drama of life, love, and communication.\n', ' A worthy Oscar nominee. Powerful.\n', ' An exciting film...\n', " Certainly Met the Oscar's Coda\n", ' Lovely movie worthy of nominations\n', " feel good story you've seen so many versions of\n", ' Stunning! Simply STUNNING!!\n', ' This thought-provoking family drama is a realistic emotional ride\n', ' A very well-done and inspirational family picture and quite an improvement on the original!\n', ' great...\n', " The New 'Star Is Born' meets a metaphorical coming-of-age story. So many metaphors and feelings and they don't need words at all.\n", ' legit sleeper hit\n', ' Just Another Solid Remake\n']</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>545. The Revenant</t>
+          <t>545. Her</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2h 36m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D546" t="n">
         <v>8</v>
       </c>
       <c r="E546" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>tt1663202</t>
+          <t>tt1798709</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>[" Absolutely brilliant, one of Iñárritu's and Di Caprio's best\n", ' Survival\n', ' beautifully shot\n', ' The Wonderful Visuals Bring the Film to Life\n', ' Mostly Gut Wrenching but Also, a Bit Simplistic\n', ' The cinematography\n', ' Pain and Glory\n', ' Outstanding, no more needs to be said.\n', ' Can you bear it?\n', ' Original, Fascinating, Brutal and Realistic with another Great Performance of Leonardo DiCaprio\n', ' Handsomely made, compelling in its brutality, but narratively a bit too simple\n', ' Watchable, but...\n', ' Leonardo DiCaprio said what needed to get said\n', ' Will Leo Finally Win?\n', ' Man in the wilderness\n', ' The Revenant was quite a thrilling drama that I just watched!\n', ' Excessively violent, and yet manages to be boring\n', ' Visually Visceral - Decaprio Wheezes &amp; Grunts &amp; Hardy Mumbles an Accent\n', ' Interesting tale of survival and revenge\n', ' A Boring, One-Note Slog\n', ' Leo and Snow and Bears, Oh My!\n', ' Leonardo DiCaprio at his best\n', ' Hugh Glass has a bad day\n', ' My Masterpiece number 134!!!\n', " 'On est tous des sauvages' ('We are all savages')\n"]</t>
+          <t>[' Not a movie for the kids, but very insightful and rather sad.\n', ' Magical, if polarising, film-making\n', ' Romance in need of human contact\n', " Sorry but I Just Couldn't Connect With It\n", ' Intriguing Premise....But Do We Care?\n', ' poetic\n', ' Virtual girlfriend\n', ' And him\n', ' But in the End, We Are Still Humans\n', ' Good ideas and generally works but it is overlong and forces its emotional importance too much, ultimately undermining itself\n', ' The Positives in the Human Condition\n', ' A Utopian world with the same old male-female sexual hang-ups...\n', ' heart-shaped hard-drive\n', ' Strange\n', ' Tedious and boring\n', ' Highly Unoriginal and Hardly Profound\n', ' Disappointing\n', ' HER (Spike Jonze, 2013) **1/2\n', ' Lonelier Than Ever\n', ' What is Love?\n', ' No thank you.\n', ' Strange but still fascinating\n', ' An intelligent and nuanced sci-fi romance that satirises our current obsession with smart-phones to remind us for the need to connect with people.\n', ' Well done\n', ' An original exploration of the nature of love and feeling flops\n']</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>546. Black Swan</t>
+          <t>546. The Revenant</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 36m</t>
         </is>
       </c>
       <c r="D547" t="n">
         <v>8</v>
       </c>
       <c r="E547" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>tt0947798</t>
+          <t>tt1663202</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>[" I can't believe the work that Natalie Portman put into this film and it's easy to see why she received the Oscar.\n", ' Beautiful, tragic, haunting and nightmarish\n', ' Aronofsky wins again\n', ' Losing Yourself In The Darkness Of The Part\n', ' Amazing Natalie Portman performance\n', ' Incredibly Effective Sexual-Thriller\n', ' Painful to Watch\n', ' the seductive darkness\n', ' The beauty and darkness mirror that of Odette and Odile.\n', ' Goose (bumps)\n', ' Obsession for Perfection and Madness\n', ' Engaging psychological horror despite not being as "high-brow" as the ballet frame suggests\n', ' madness to Chaikovsky\n', " Not at all what I was expecting (I certainly wasn't expecting Kunis to do that to Portman!).\n", ' A Bit Over-hyped, But Still a Solid Film\n', ' Ballerinas and bloodshed...overwrought and distinctly unpleasant\n', ' Natalie Portman certainly did a compelling enough job to earn all those awards for Black Swan\n', ' An exotic look at an unintentional self transformation\n', ' Stylish and Subversive\n', ' Great psychological drama\n', ' Aronofsky dabbles in mirrors, triplicates and the doppelgänger effect.\n', ' Well Directed But Let Down By Frustrating Story Telling\n', " Most Ballet I've Ever Watched\n", ' Unstable ballerina loses grip on reality and becomes The Black Swan...\n', ' Discouraging for anyone who liked ballet dancing\n']</t>
+          <t>[" Absolutely brilliant, one of Iñárritu's and Di Caprio's best\n", ' Survival\n', ' beautifully shot\n', ' The Wonderful Visuals Bring the Film to Life\n', ' Mostly Gut Wrenching but Also, a Bit Simplistic\n', ' The cinematography\n', ' Pain and Glory\n', ' Outstanding, no more needs to be said.\n', ' Can you bear it?\n', ' Original, Fascinating, Brutal and Realistic with another Great Performance of Leonardo DiCaprio\n', ' Handsomely made, compelling in its brutality, but narratively a bit too simple\n', ' Watchable, but...\n', ' Leonardo DiCaprio said what needed to get said\n', ' Will Leo Finally Win?\n', ' Man in the wilderness\n', ' The Revenant was quite a thrilling drama that I just watched!\n', ' Excessively violent, and yet manages to be boring\n', ' Visually Visceral - Decaprio Wheezes &amp; Grunts &amp; Hardy Mumbles an Accent\n', ' Interesting tale of survival and revenge\n', ' A Boring, One-Note Slog\n', ' Leo and Snow and Bears, Oh My!\n', ' Leonardo DiCaprio at his best\n', ' Hugh Glass has a bad day\n', ' My Masterpiece number 134!!!\n', " 'On est tous des sauvages' ('We are all savages')\n"]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>547. The Incredibles</t>
+          <t>547. Black Swan</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D548" t="n">
         <v>8</v>
       </c>
       <c r="E548" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>tt0317705</t>
+          <t>tt0947798</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>[' Exceptional fare for the entire family\n', ' Excellent Pixar film, not the best one, but still very good!\n', ' Love the family\n', ' Plays All the Right Notes\n', ' A family affair.\n', ' Super Pixar\n', ' A Movie That Really Deserves to Be Among the IMDb Top 100\n', ' Pixar Super Heroes\n', ' Good Entertainemt For About Any Age\n', ' Not quite incredible, but certainly still good.\n', ' "No capes!!"\n', ' My favorite film from Pixar in over five years- Bird and company produce a triumph of a family film\n', ' Its popularity is well justified\n', ' Quite formulaic but kids will enjoy it\n', " One of Pixar's Best\n", ' Full speed ahead once it gets past a slow start...\n', ' the incredibles is an incredible movie that has to be seen to be beleived\n', ' Pixar Does It Again\n', ' Totally Wicked, Pixar\n', ' I hate to sound cliché but this truly is an incredible movie.\n', ' Holds up\n', " Super(b)! Pixar Does It Again! One of the Year's Best!\n", ' Living in an ordinary world...\n', ' An "Incredible" triumph in the genre of super hero movies.\n', ' A Superior Animated Film!\n']</t>
+          <t>[" I can't believe the work that Natalie Portman put into this film and it's easy to see why she received the Oscar.\n", ' Beautiful, tragic, haunting and nightmarish\n', ' Aronofsky wins again\n', ' Losing Yourself In The Darkness Of The Part\n', ' Amazing Natalie Portman performance\n', ' Incredibly Effective Sexual-Thriller\n', ' Painful to Watch\n', ' the seductive darkness\n', ' The beauty and darkness mirror that of Odette and Odile.\n', ' Goose (bumps)\n', ' Obsession for Perfection and Madness\n', ' Engaging psychological horror despite not being as "high-brow" as the ballet frame suggests\n', ' madness to Chaikovsky\n', " Not at all what I was expecting (I certainly wasn't expecting Kunis to do that to Portman!).\n", ' A Bit Over-hyped, But Still a Solid Film\n', ' Ballerinas and bloodshed...overwrought and distinctly unpleasant\n', ' Natalie Portman certainly did a compelling enough job to earn all those awards for Black Swan\n', ' An exotic look at an unintentional self transformation\n', ' Stylish and Subversive\n', ' Great psychological drama\n', ' Aronofsky dabbles in mirrors, triplicates and the doppelgänger effect.\n', ' Well Directed But Let Down By Frustrating Story Telling\n', " Most Ballet I've Ever Watched\n", ' Unstable ballerina loses grip on reality and becomes The Black Swan...\n', ' Discouraging for anyone who liked ballet dancing\n']</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>548. Zootopia</t>
+          <t>548. The Incredibles</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D549" t="n">
         <v>8</v>
       </c>
       <c r="E549" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>tt2948356</t>
+          <t>tt0317705</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>[" The jewel of Disney's 'second renaissance'\n", ' fun with nice message\n', ' What a Great Surprise\n', ' Pride and diversity\n', ' A Magical film\n', ' Welcome to the Jungle\n', ' Zootropolis\n', ' Really Liked It\n', " a smart, funny, deeper than you'd expect animated film for adults as much as for kids\n", ' Zootopia is another enjoyable Disney computer-animated movie\n', ' Enjoyable\n', ' Timely, Engaging, Elevated &amp; Enlightening Entertainment\n', ' Sweet, engaging and wonderfully original with a great message\n', ' Funny Clever Movie\n', ' fun for the whole fam-ba-lee\n', ' Perfectly Fine But Uninspired\n', ' Was pretty good, but thought it needed more humor...\n', ' The story has promise; most of the characters, not so much\n', ' Smart, funny and beautifully animated\n', ' Nicely noir inflected and appropriately allegorical.\n', ' Buddy cop movie, with 3D animated cute err... animals\n', ' Fun for the whole family.\n', ' Two thumbs up!\n', ' Masterful!\n', ' Strong story and characters create something special\n']</t>
+          <t>[' Exceptional fare for the entire family\n', ' Excellent Pixar film, not the best one, but still very good!\n', ' Love the family\n', ' Plays All the Right Notes\n', ' A family affair.\n', ' Super Pixar\n', ' A Movie That Really Deserves to Be Among the IMDb Top 100\n', ' Pixar Super Heroes\n', ' Good Entertainemt For About Any Age\n', ' Not quite incredible, but certainly still good.\n', ' "No capes!!"\n', ' My favorite film from Pixar in over five years- Bird and company produce a triumph of a family film\n', ' Its popularity is well justified\n', ' Quite formulaic but kids will enjoy it\n', " One of Pixar's Best\n", ' Full speed ahead once it gets past a slow start...\n', ' the incredibles is an incredible movie that has to be seen to be beleived\n', ' Pixar Does It Again\n', ' Totally Wicked, Pixar\n', ' I hate to sound cliché but this truly is an incredible movie.\n', ' Holds up\n', " Super(b)! Pixar Does It Again! One of the Year's Best!\n", ' Living in an ordinary world...\n', ' An "Incredible" triumph in the genre of super hero movies.\n', ' A Superior Animated Film!\n']</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>549. Sin City</t>
+          <t>549. Zootopia</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D550" t="n">
         <v>8</v>
       </c>
       <c r="E550" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>tt0401792</t>
+          <t>tt2948356</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>[' Original style\n', ' Black &amp; White in vivid colors\n', ' Very Violent and Overrated\n', " Target audience will love it &amp; it's a nice contrast to the usual summer fare but the sexual violence and depiction of women will be a problem to some\n", " A hard-boiled and bone-chilling movie formed by various thrilling stories from Frank Miller's comic books\n", ' violent as only Tarantino and Rodriguez could do it\n', ' A Live Action Comic\n', ' A Visual Achievement\n', ' Pretty Visuals, Ugly Story\n', ' A brutal stew...\n', ' not quite going along with the pack of others- I recommend Sin City, but...\n', ' Not my type of film\n', ' Brilliant\n', ' Nice Coat you Have There, Mr Miller\n', ' Visceral, Visionary, Visual, Sin City kicks the big un!\n', ' Sin City a cinematic crime\n', ' Hard movie to rate\n', ' Yellow\n', ' Justice Served...\n', ' Stylish, a comic book brought to life\n', ' Sick but Sensational\n', " That's a Mighty Fine Coat\n", " Gives 'movie violence' a new meaning.\n", ' One word? Rocks\n', ' "SIN"fully good! Makes "PULP FICTION" look like "BEACH BLANKET BINGO" - one of \'05\'s best films!\n']</t>
+          <t>[" The jewel of Disney's 'second renaissance'\n", ' fun with nice message\n', ' What a Great Surprise\n', ' Pride and diversity\n', ' A Magical film\n', ' Welcome to the Jungle\n', ' Zootropolis\n', ' Really Liked It\n', " a smart, funny, deeper than you'd expect animated film for adults as much as for kids\n", ' Zootopia is another enjoyable Disney computer-animated movie\n', ' Enjoyable\n', ' Timely, Engaging, Elevated &amp; Enlightening Entertainment\n', ' Sweet, engaging and wonderfully original with a great message\n', ' Funny Clever Movie\n', ' fun for the whole fam-ba-lee\n', ' Perfectly Fine But Uninspired\n', ' Was pretty good, but thought it needed more humor...\n', ' The story has promise; most of the characters, not so much\n', ' Smart, funny and beautifully animated\n', ' Nicely noir inflected and appropriately allegorical.\n', ' Buddy cop movie, with 3D animated cute err... animals\n', ' Two thumbs up!\n', ' Fun for the whole family.\n', ' Masterful!\n', ' Strong story and characters create something special\n']</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>550. The Imitation Game</t>
+          <t>550. Sin City</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>1h 54m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D551" t="n">
         <v>8</v>
       </c>
       <c r="E551" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>tt2084970</t>
+          <t>tt0401792</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>[" That 'The Imitation Game' was so acclaimed is hardly an enigma at all\n", ' Exemplary film-making\n', ' The Enigmatic Man\n', ' functional historical drama lands a couple of solid punches\n', ' Excellent Performances and Strong Story\n', ' Take It as a Tale of an Amazing Man, Even Though it May Have Some Suspect History\n', ' embroidery\n', ' Breaking the code\n', ' Film making at its best.\n', ' Games people play ....\n', ' Excellent Dramatic Thriller Based on a True Story\n', " A good tale with a fine lead performance, even if it doesn't delve into details, or worry too much about historical accuracy\n", " Interesting and pretty good drama based on Alan Turing's life , magnificently played by Benedict Cumberbatch\n", ' compute everything to win\n', ' Amazing Storytelling\n', ' beautiful performance by Benedict Cumberbatch\n', ' The Imitation Game was perhaps the best film of last year\n', ' Enigma\n', ' A touching epic\n', ' "Today, we call them Computers."\n', ' Good historical drama\n', ' Ignoring Important Facts Makes For A Better Film\n', ' The Blandest Award Bait Movie of the Year\n', ' Thinking Differently\n', ' About cryptology\n']</t>
+          <t>[' Original style\n', ' Black &amp; White in vivid colors\n', ' Very Violent and Overrated\n', " Target audience will love it &amp; it's a nice contrast to the usual summer fare but the sexual violence and depiction of women will be a problem to some\n", " A hard-boiled and bone-chilling movie formed by various thrilling stories from Frank Miller's comic books\n", ' violent as only Tarantino and Rodriguez could do it\n', ' A Live Action Comic\n', ' A Visual Achievement\n', ' Pretty Visuals, Ugly Story\n', ' A brutal stew...\n', ' not quite going along with the pack of others- I recommend Sin City, but...\n', ' Not my type of film\n', ' Brilliant\n', ' Nice Coat you Have There, Mr Miller\n', ' Visceral, Visionary, Visual, Sin City kicks the big un!\n', ' Sin City a cinematic crime\n', ' Hard movie to rate\n', ' Yellow\n', ' Justice Served...\n', ' Stylish, a comic book brought to life\n', ' Sick but Sensational\n', " That's a Mighty Fine Coat\n", " Gives 'movie violence' a new meaning.\n", ' One word? Rocks\n', ' "SIN"fully good! Makes "PULP FICTION" look like "BEACH BLANKET BINGO" - one of \'05\'s best films!\n']</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>551. Groundhog Day</t>
+          <t>551. The Imitation Game</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 54m</t>
         </is>
       </c>
       <c r="D552" t="n">
         <v>8</v>
       </c>
       <c r="E552" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>tt0107048</t>
+          <t>tt2084970</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>[' Delightful film with great performances and a surprisingly refreshing concept\n', ' Great Harold Ramis touch and Sarcastic Bill Murray\n', ' Great Performance by Murray\n', ' A Soul Reclaimed\n', ' An amazing, memorable movie.\n', ' Very enjoyable comedy that is totally driven by a great Bill Murray\n', ' Agreeable movie in which Bill Murray is doomed to relive the same day over and over again\n', ' Is time on his side?\n', ' A film with great repeat value.\n', ' Same Old/Same Old.....And We Love It!\n', ' One to watch over and over again\n', ' Hardly profound, but likable enough...\n', ' funny and thought-provoking\n', ' An endless day where everyday is like Sunday\n', ' A uniquely funny fantasy/comedy\n', " Groundhog Day was one of Harold Ramis' best movies as director\n", ' Cute\n', ' Complex, endearing movie; more than just "high concept" comedy.\n', ' Go With The Flow\n', ' Is it snowing in space?\n', ' Every day like the one before...\n', ' Love it\n', ' Reliving Deja Vu All Over Again\n', ' An iconic masterpiece\n', ' GROUNDHOG DAY (Harold Ramis, 1993) ***\n']</t>
+          <t>[" That 'The Imitation Game' was so acclaimed is hardly an enigma at all\n", ' Exemplary film-making\n', ' The Enigmatic Man\n', ' functional historical drama lands a couple of solid punches\n', ' Excellent Performances and Strong Story\n', ' Take It as a Tale of an Amazing Man, Even Though it May Have Some Suspect History\n', ' embroidery\n', ' Breaking the code\n', ' Film making at its best.\n', ' Games people play ....\n', ' Excellent Dramatic Thriller Based on a True Story\n', " A good tale with a fine lead performance, even if it doesn't delve into details, or worry too much about historical accuracy\n", " Interesting and pretty good drama based on Alan Turing's life , magnificently played by Benedict Cumberbatch\n", ' compute everything to win\n', ' Amazing Storytelling\n', ' beautiful performance by Benedict Cumberbatch\n', ' The Imitation Game was perhaps the best film of last year\n', ' Enigma\n', ' A touching epic\n', ' "Today, we call them Computers."\n', ' Good historical drama\n', ' Ignoring Important Facts Makes For A Better Film\n', ' The Blandest Award Bait Movie of the Year\n', ' Thinking Differently\n', ' About cryptology\n']</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>552. JFK</t>
+          <t>552. Groundhog Day</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>3h 9m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -18585,29 +18585,29 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>tt0102138</t>
+          <t>tt0107048</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>[' Pretty much what I expected...unfortunately.\n', ' A real labour of love\n', ' The Real Story?\n', ' Great movie-making in unsupportable history\n', ' No Matter What You Believe About the Conspiracy, a Brilliantly Made Film\n', ' an enigma\n', ' No stone left unturned\n', ' It may not be fact but Stone delivers with pace and easily grips for pretty much the whole running time\n', ' the conspiracy continues unraveling\n', ' Conspiracies May Be Dumb, But Make For Great Cinema\n', ' Hey, Ollie....Thanks For Giving Us Objective History Lessons!\n', ' Byzantine docudrama\n', " Don't forget your dying king\n", " Back, and to the left....Stone's second best picture behind Born on the Fourth\n", ' I want to believe\n', ' A Brief Reminder\n', ' A Great and Gargantuan Masterwork\n', ' Dynamic Piece Of Speculative Fantasy\n', ' No expense spared and no corners cut\n', ' Speculative but riveting...superb story-telling...\n', ' Bang\n', ' The military-industrial complex\n', " Might Be the Only Oliver Stone Movie I've Ever Liked\n", ' Mystery, Riddle, Enigma\n', ' Very interesting film, but horrible pacing\n']</t>
+          <t>[' Delightful film with great performances and a surprisingly refreshing concept\n', ' Great Harold Ramis touch and Sarcastic Bill Murray\n', ' Great Performance by Murray\n', ' A Soul Reclaimed\n', ' An amazing, memorable movie.\n', ' Very enjoyable comedy that is totally driven by a great Bill Murray\n', ' Agreeable movie in which Bill Murray is doomed to relive the same day over and over again\n', ' Is time on his side?\n', ' A film with great repeat value.\n', ' Same Old/Same Old.....And We Love It!\n', ' One to watch over and over again\n', ' Hardly profound, but likable enough...\n', ' funny and thought-provoking\n', ' An endless day where everyday is like Sunday\n', ' A uniquely funny fantasy/comedy\n', " Groundhog Day was one of Harold Ramis' best movies as director\n", ' Cute\n', ' Complex, endearing movie; more than just "high concept" comedy.\n', ' Go With The Flow\n', ' Is it snowing in space?\n', ' Every day like the one before...\n', ' Love it\n', ' Reliving Deja Vu All Over Again\n', ' An iconic masterpiece\n', ' GROUNDHOG DAY (Harold Ramis, 1993) ***\n']</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>553. Dances with Wolves</t>
+          <t>553. JFK</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>3h 9m</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -18618,95 +18618,95 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>tt0099348</t>
+          <t>tt0102138</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>[' Exceptionally gorgeous and touching\n', ' A marvel from beginning to end\n', ' Thorough and compelling\n', ' Going Native American\n', ' Epic and compelling human drama\n', ' A Great View of a Time Now Gone\n', ' An enjoyable patient epic but you need to accept the naïve and simplistic way it is presented to get into it\n', ' last days of the frontier\n', ' A Story of White and Red on the Frontier\n', ' Horribly Biased, But A Memorable, Entertaining Film\n', ' A long but absorbing movie, deals with "white man" displacing Native Americans out west.\n', ' Good epic\n', ' Assimilation in Reverse\n', ' Prefabricated, Posturing Picture\n', ' Well-intentioned but badly executed: tedious, self-indulgent and pretentious\n', ' It is the trail of a true human being. I think you are on this trail and it is good to see.\n', ' Horses\n', ' Quite Possibly the Best Film of 1990\n', ' A masterpiece, a classic\n', ' This is a beautiful movie that tells a worthwhile story that makes the 3 hours run time bearable.\n', ' Tastes Slightly of Watered Down Spielberg\n', ' Its Indian name is Does Not Show Age\n', " Costner's final grace note\n", ' Rediscover "Dances With Wolves"\n', ' A New Identity.\n']</t>
+          <t>[' Pretty much what I expected...unfortunately.\n', ' A real labour of love\n', ' The Real Story?\n', ' Great movie-making in unsupportable history\n', ' No Matter What You Believe About the Conspiracy, a Brilliantly Made Film\n', ' an enigma\n', ' No stone left unturned\n', ' It may not be fact but Stone delivers with pace and easily grips for pretty much the whole running time\n', ' the conspiracy continues unraveling\n', ' Conspiracies May Be Dumb, But Make For Great Cinema\n', ' Hey, Ollie....Thanks For Giving Us Objective History Lessons!\n', ' Byzantine docudrama\n', " Don't forget your dying king\n", " Back, and to the left....Stone's second best picture behind Born on the Fourth\n", ' I want to believe\n', ' A Brief Reminder\n', ' A Great and Gargantuan Masterwork\n', ' Dynamic Piece Of Speculative Fantasy\n', ' No expense spared and no corners cut\n', ' Speculative but riveting...superb story-telling...\n', ' Bang\n', ' The military-industrial complex\n', " Might Be the Only Oliver Stone Movie I've Ever Liked\n", ' Mystery, Riddle, Enigma\n', ' Very interesting film, but horrible pacing\n']</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>554. Big Fish</t>
+          <t>554. Dances with Wolves</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D555" t="n">
         <v>8</v>
       </c>
       <c r="E555" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>tt0319061</t>
+          <t>tt0099348</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>[' Sweet, imaginative and moving\n', ' Burton does Forrest Gump - with middling results\n', ' One crazy story after another\n', ' There Are Lots of Big Fish in the Sea\n', " about the life's magic\n", ' Life is a ...\n', ' A Wonderful Fable About A Dreamer Who Sees the World With Beautiful Eyes\n', ' Very sweet, imaginative story despite lacking a strong conclusion\n', " the point is not whether or not he's lying...\n", ' Burton Makes A Nice, Light Film\n', ' Patchily successful\n', ' The director- as well as character- as illusionist: a Tim Burton treat\n', ' Beautifully weird\n', ' I Never Swam for My Father\n', ' This is a Tim Burton film with a different vibe...\n', ' Moving and visually stunning\n', " It's a wonderful lie\n", ' Truth is Stranger than Fiction\n', ' That is all it is, a big fish\n', ' "There are some fish that cannot be caught."\n', ' Throw This One Back\n', ' there are so many good messages in this and this is definitely an underrated Burton film\n', ' what was dad really doing all those years?\n', " Tim Burton's Tall Tale\n", ' Big Fish, Twice The Man\n']</t>
+          <t>[' Exceptionally gorgeous and touching\n', ' A marvel from beginning to end\n', ' Thorough and compelling\n', ' Going Native American\n', ' Epic and compelling human drama\n', ' A Great View of a Time Now Gone\n', ' An enjoyable patient epic but you need to accept the naïve and simplistic way it is presented to get into it\n', ' last days of the frontier\n', ' A Story of White and Red on the Frontier\n', ' Horribly Biased, But A Memorable, Entertaining Film\n', ' A long but absorbing movie, deals with "white man" displacing Native Americans out west.\n', ' Good epic\n', ' Assimilation in Reverse\n', ' Prefabricated, Posturing Picture\n', ' Well-intentioned but badly executed: tedious, self-indulgent and pretentious\n', ' It is the trail of a true human being. I think you are on this trail and it is good to see.\n', ' Horses\n', ' Quite Possibly the Best Film of 1990\n', ' A masterpiece, a classic\n', ' This is a beautiful movie that tells a worthwhile story that makes the 3 hours run time bearable.\n', ' Tastes Slightly of Watered Down Spielberg\n', ' Its Indian name is Does Not Show Age\n', " Costner's final grace note\n", ' Rediscover "Dances With Wolves"\n', ' A New Identity.\n']</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>555. Soul</t>
+          <t>555. Big Fish</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>1h 40m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D556" t="n">
         <v>8</v>
       </c>
       <c r="E556" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>tt2948372</t>
+          <t>tt0319061</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>[" I wouldn't show this one to kids...\n", ' Filled with soul\n', ' the water is the ocean\n', ' Well Done/Above Average\n', ' Soul\n', ' Plenty of heart and soul. Dream big!\n', ' So much ... Soul/Pixar\n', ' you must have a goal in life\n', ' Quite entertaining but also with deep messages.\n', ' Love it\n', ' GROWN-UP MAGICAL THINKING FORCED ON KIDS TOO YOUNG TO PROCESS/CONTEMPLATE\n', ' Mediocre\n', ' Had a "Spark"\n', " It didn't have the depth of some Disney Classics but was still entertaining.\n", ' fun adventure... gotta watch this one again.\n', ' Pixar Has Lost Its Touch\n', ' jazzing\n', ' Good for the soul.\n', ' A beautiful Pixar animation almost on par with Inside Out\n', ' A gift for the holidays. A soul nourishing, Pixar thing of beauty\n', ' Cinema Omnivore - Soul (2020) 8.2/10\n', " It's Definitely Got It\n", ' Wonderfully imagined and plotted Pixar classic\n', ' Tearjerker with a cherry top of a perfect dessert\n', " Animated movie with soul, but didn't feel all that original.\n"]</t>
+          <t>[' Sweet, imaginative and moving\n', ' Burton does Forrest Gump - with middling results\n', ' One crazy story after another\n', ' There Are Lots of Big Fish in the Sea\n', " about the life's magic\n", ' Life is a ...\n', ' A Wonderful Fable About A Dreamer Who Sees the World With Beautiful Eyes\n', ' Very sweet, imaginative story despite lacking a strong conclusion\n', " the point is not whether or not he's lying...\n", ' Burton Makes A Nice, Light Film\n', ' Patchily successful\n', ' The director- as well as character- as illusionist: a Tim Burton treat\n', ' Beautifully weird\n', ' I Never Swam for My Father\n', ' This is a Tim Burton film with a different vibe...\n', ' Moving and visually stunning\n', " It's a wonderful lie\n", ' Truth is Stranger than Fiction\n', ' That is all it is, a big fish\n', ' "There are some fish that cannot be caught."\n', ' Throw This One Back\n', ' there are so many good messages in this and this is definitely an underrated Burton film\n', ' what was dad really doing all those years?\n', " Tim Burton's Tall Tale\n", ' Big Fish, Twice The Man\n']</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>556. Young Frankenstein</t>
+          <t>556. Soul</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 40m</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -18717,52 +18717,52 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>tt0072431</t>
+          <t>tt2948372</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>[" Not Mel Brooks' best film, but pretty close\n", ' My personal favourite Mel Brooks film\n', ' Affectionate tribute to the Universal horrors of old\n', ' "AH, SWEET Mystery Of Life At Last I Found YOU"\n', ' Lots of Mel Brooks zaniness, some work, some not so much\n', ' Great Fun\n', " I Think I'll Watch It Again\n", ' Putting on the Ritz\n', " Funny but it's reputation flatters it as a film\n", ' Wholesome fun...\n', " This is one of Mel Brooks/Gene Wilder's best ; plenty of humor , entertainment and amusement\n", ' Pronounce it right, Herr Doktor!\n', ' Mel Brooks fails to bring much life to his parody of Frankenstein.\n', ' Not Sure Why This Gets the Raving Appreciation It Does\n', " Possibly Mel Brooks' Best Film\n", ' OK. Not fantastic though\n', ' Incredible cast and production design, erratic script\n', ' Hilarious send-up of the Frankenstein story\n', " A funny comedy, one of Brooks' best\n", " Mel Brooks ' comedy triumph !!\n", ' Blazing Saddles I loved, but...\n', ' Great fun for comedy *and* horror fans.\n', ' Inspired Lunacy\n', ' What a great satire\n', ' More Here to Admire than Not\n']</t>
+          <t>[" I wouldn't show this one to kids...\n", ' Filled with soul\n', ' the water is the ocean\n', ' Well Done/Above Average\n', ' Soul\n', ' Plenty of heart and soul. Dream big!\n', ' So much ... Soul/Pixar\n', ' you must have a goal in life\n', ' Quite entertaining but also with deep messages.\n', ' Love it\n', ' GROWN-UP MAGICAL THINKING FORCED ON KIDS TOO YOUNG TO PROCESS/CONTEMPLATE\n', ' Mediocre\n', ' Had a "Spark"\n', " It didn't have the depth of some Disney Classics but was still entertaining.\n", ' fun adventure... gotta watch this one again.\n', ' Pixar Has Lost Its Touch\n', ' jazzing\n', ' Good for the soul.\n', ' A beautiful Pixar animation almost on par with Inside Out\n', ' Cinema Omnivore - Soul (2020) 8.2/10\n', ' A gift for the holidays. A soul nourishing, Pixar thing of beauty\n', " It's Definitely Got It\n", ' Tearjerker with a cherry top of a perfect dessert\n', ' Wonderfully imagined and plotted Pixar classic\n', " Animated movie with soul, but didn't feel all that original.\n"]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>557. Aladdin</t>
+          <t>557. Young Frankenstein</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D558" t="n">
         <v>8</v>
       </c>
       <c r="E558" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>tt0103639</t>
+          <t>tt0072431</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>[' Very good...but Jasmine?\n', " Aladdin is a beautifully constructed film. that is for me one of Disney's best!\n", ' Robin Williams outshines\n', ' A Story With Teeth and Great Songs\n', ' The Blue Genie\n', " Disney's greatest villain? (Well, one of the main contenders.)\n", " I'm losin' to a rug!\n", ' A fun Disney adventure with plenty of laughs and solid songs\n', " The End of Disney's Golden Years\n", ' Robin Williams, Great Songs Make This One Of The Best Animated Films Ever\n', ' Robin Williams goes blue\n', ' Lots of color and pep, good songs but derivative elements...\n', ' Quite good\n', ' Entertaining\n', ' Sweet Arabian Skins\n', ' Robin Williams Was Born to Be a Cartoon\n', ' Great songs and a good villain make "Aladdin" a Disney classic.\n', ' Just really, really good\n', ' Surprised by all the positive comments\n', ' One of the classics\n', ' A massive highlight for Disney\n', ' Aladdin\n', " You ain't never had a friend like him.\n", ' How the genie got out the bottle...\n', ' Aladdin!\n']</t>
+          <t>[" Not Mel Brooks' best film, but pretty close\n", ' My personal favourite Mel Brooks film\n', ' Affectionate tribute to the Universal horrors of old\n', ' "AH, SWEET Mystery Of Life At Last I Found YOU"\n', ' Lots of Mel Brooks zaniness, some work, some not so much\n', ' Great Fun\n', " I Think I'll Watch It Again\n", ' Putting on the Ritz\n', " Funny but it's reputation flatters it as a film\n", ' Wholesome fun...\n', " This is one of Mel Brooks/Gene Wilder's best ; plenty of humor , entertainment and amusement\n", ' Pronounce it right, Herr Doktor!\n', ' Mel Brooks fails to bring much life to his parody of Frankenstein.\n', ' Not Sure Why This Gets the Raving Appreciation It Does\n', " Possibly Mel Brooks' Best Film\n", ' OK. Not fantastic though\n', ' Incredible cast and production design, erratic script\n', ' Hilarious send-up of the Frankenstein story\n', " A funny comedy, one of Brooks' best\n", " Mel Brooks ' comedy triumph !!\n", ' Blazing Saddles I loved, but...\n', ' Great fun for comedy *and* horror fans.\n', ' Inspired Lunacy\n', ' What a great satire\n', ' More Here to Admire than Not\n']</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>558. Scent of a Woman</t>
+          <t>558. Aladdin</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -18772,96 +18772,96 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2h 36m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D559" t="n">
         <v>8</v>
       </c>
       <c r="E559" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>tt0105323</t>
+          <t>tt0103639</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>[' A film that lacks the usual narrative or formula.\n', ' Lengthy but very impressive- Pacino makes the film as good as it is\n', ' A Generation Gap Of Values\n', ' some memorable iconic moments\n', ' Masterful Performance by Pacino\n', ' Al Pacino\n', ' Al taking it to a whole new level\n', ' Nowadays, it\'s hard to believe that this was directed by the same guy who did "Gigli".\n', ' A Speech Everyone Likes\n', ' Overcharged...\n', ' Longish, overrated, but watchable\n', " Please? I mean, you're just in a slump right now.\n", ' Drags A Bit ...\n', ' Woo Haa\n', ' Smell\n', ' It makes you like it despite your best efforts\n', " Pacino's Oscar Bait\n", ' It lingers, in the good way\n', ' "Hoo-ah!" indeed\n', ' Performances to Remember and Treasure\n', ' Very energetic, corny and enjoyable\n', ' Long drama of friendship and connection and a standout bold turn from Pacino\n', ' Hoo-Haa... Pacino rules!\n', ' Oscar bait that was caught\n', ' Overrated and tedious\n']</t>
+          <t>[' Very good...but Jasmine?\n', " Aladdin is a beautifully constructed film. that is for me one of Disney's best!\n", ' Robin Williams outshines\n', ' A Story With Teeth and Great Songs\n', ' The Blue Genie\n', " Disney's greatest villain? (Well, one of the main contenders.)\n", " I'm losin' to a rug!\n", ' A fun Disney adventure with plenty of laughs and solid songs\n', " The End of Disney's Golden Years\n", ' Robin Williams, Great Songs Make This One Of The Best Animated Films Ever\n', ' Robin Williams goes blue\n', ' Lots of color and pep, good songs but derivative elements...\n', ' Quite good\n', ' Entertaining\n', ' Sweet Arabian Skins\n', ' Robin Williams Was Born to Be a Cartoon\n', ' Great songs and a good villain make "Aladdin" a Disney classic.\n', ' Just really, really good\n', ' Surprised by all the positive comments\n', ' One of the classics\n', ' Aladdin\n', ' A massive highlight for Disney\n', " You ain't never had a friend like him.\n", ' How the genie got out the bottle...\n', ' Aladdin!\n']</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>559. 12 Monkeys</t>
+          <t>559. Scent of a Woman</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 36m</t>
         </is>
       </c>
       <c r="D560" t="n">
         <v>8</v>
       </c>
       <c r="E560" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>tt0114746</t>
+          <t>tt0105323</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>[' So much Terry Gilliam originality and great Brad Pitt\n', ' Too Many Unanswered Questions\n', ' Ahead of the Time\n', " Imaginative, clever, engaging and very enjoyable \x96 one of the best sci-fi's I've seen\n", ' A fantastic and engaging Terry Gilliam film about an apocalyptic Earth\n', ' Could this really happen?\n', " One of Gilliam's better films.\n", " Terry Gilliam's Home Run\n", ' Wow, What An Ugly Story\n', ' An intelligent comedy/thriller that rewards careful watching.\n', ' It has some amazing moments...and, finally, a strong performance by Madeleine Stowe\n', ' these monkeys will go to heaven...\n', ' Confusing, but after a while it comes together, extremely well\n', ' More Fun Than a Barrel Full of Monkeys\n', ' Is there a past in your future; or a future in your past?\n', ' Unique But An Acquired Taste\n', ' Great, intelligent sci-fi drama\n', ' Desperate Dystopian Downer!\n', " 90's Classic\n", ' Virus\n', ' Mentally Divergent...\n', ' Extremely confusing\n', " I'm looking for the Army of the Twelve Monkeys.\n", ' Into the Funhouse with Terry Gilliam\n', ' Another Terry Gilliam oddity.\n']</t>
+          <t>[' A film that lacks the usual narrative or formula.\n', ' Lengthy but very impressive- Pacino makes the film as good as it is\n', ' A Generation Gap Of Values\n', ' some memorable iconic moments\n', ' Masterful Performance by Pacino\n', ' Al Pacino\n', ' Al taking it to a whole new level\n', ' Nowadays, it\'s hard to believe that this was directed by the same guy who did "Gigli".\n', ' A Speech Everyone Likes\n', ' Overcharged...\n', ' Longish, overrated, but watchable\n', " Please? I mean, you're just in a slump right now.\n", ' Drags A Bit ...\n', ' Woo Haa\n', ' Smell\n', ' It makes you like it despite your best efforts\n', " Pacino's Oscar Bait\n", ' It lingers, in the good way\n', ' "Hoo-ah!" indeed\n', ' Performances to Remember and Treasure\n', ' Very energetic, corny and enjoyable\n', ' Long drama of friendship and connection and a standout bold turn from Pacino\n', ' Hoo-Haa... Pacino rules!\n', ' Oscar bait that was caught\n', ' Overrated and tedious\n']</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>560. Blood Diamond</t>
+          <t>560. 12 Monkeys</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D561" t="n">
         <v>8</v>
       </c>
       <c r="E561" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>tt0450259</t>
+          <t>tt0114746</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>[' Taut, original African drama\n', ' T.I.A.---------- This Is Africa\n', ' Djimon Hounsou brings humanity\n', ' Is All This Really Happening?\n', ' Great Performances\n', ' The Price of a Diamond Ring\n', ' Strong film despite the problems with merging a real horror with a traditional Hollywood narrative\n', ' This truly was a hidden diamond...\n', ' Overlong although touching and clever film with action,violence and drama\n', " diamonds are a warlord's best friend\n", ' Ripped From the Headlines, the Nearly True Story of Diamonds\n', ' Overly Preachy &amp; Clichéd\n', ' "Do you think I\'m exploiting his grief?"\n', ' That bling on your finger is bloody\n', ' a message picture, sure, but a good one, with strong leads\n', ' Blood Diamond is a compelling drama about historical events\n', " Blood Diamond- They Are Not A Gal's Best Friend **1/2\n", ' A must watch\n', ' Blood Movie\n', ' I cannot rave enough about this movie\n', ' Foot\n', ' BLOOD DIAMOND (Edward Zwick, 2006) ***\n', ' This picture has an absolutely magnificent and insightful storyline.\n', ' God left this place a long time ago.\n', ' Ridiculous in More Ways Than I Can Count\n']</t>
+          <t>[' So much Terry Gilliam originality and great Brad Pitt\n', ' Too Many Unanswered Questions\n', ' Ahead of the Time\n', " Imaginative, clever, engaging and very enjoyable \x96 one of the best sci-fi's I've seen\n", ' A fantastic and engaging Terry Gilliam film about an apocalyptic Earth\n', ' Could this really happen?\n', " One of Gilliam's better films.\n", " Terry Gilliam's Home Run\n", ' Wow, What An Ugly Story\n', ' An intelligent comedy/thriller that rewards careful watching.\n', ' It has some amazing moments...and, finally, a strong performance by Madeleine Stowe\n', ' these monkeys will go to heaven...\n', ' Confusing, but after a while it comes together, extremely well\n', ' More Fun Than a Barrel Full of Monkeys\n', ' Is there a past in your future; or a future in your past?\n', ' Unique But An Acquired Taste\n', ' Great, intelligent sci-fi drama\n', ' Desperate Dystopian Downer!\n', " 90's Classic\n", ' Virus\n', ' Mentally Divergent...\n', ' Extremely confusing\n', " I'm looking for the Army of the Twelve Monkeys.\n", ' Into the Funhouse with Terry Gilliam\n', ' Another Terry Gilliam oddity.\n']</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>561. The Pursuit of Happyness</t>
+          <t>561. Blood Diamond</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -18882,217 +18882,217 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>tt0454921</t>
+          <t>tt0450259</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>[' Will Smith good in one note movie\n', ' Child Abuse\n', ' Much More Than I Expected.\n', ' After Ali, comes the Pursuit ...\n', ' A Touching Story of Perseverance, Commitment and Objective in Life\n', ' Almost too heartbreaking to be uplifting even if it ultimately does it, but still engaging and driven by another very good performance from Will Smith\n', ' we treat our homeless cruelly\n', ' Never give up\n', ' empathy for the struggling working man - connect with it, if you can\n', ' Struggles\n', ' Well, Leo Nice Guys Can Succeed -Pursuit Rates ***1/2\n', ' Realistic portrayal of urban life\n', ' Safe and amiable tale that does what it sets out to achieve.\n', ' Deserves the Adulation\n', ' A brilliant movie about desperation, perseverance and fatherhood\n', ' Where are we going?\n', ' This Part of My Life\n', ' The True Pursuit of Happiness!\n', ' Running Toward Happiness: The American Dream Revisited\n', ' Trivial pursuit\n', ' A Nutshell Review: The Pursuit of Happiness\n', ' how about "Happeness"?\n', ' Tugs at the moral heart strings as if it has immediate access\n', " The 'Gardner' who took care of his garden...\n", ' Inspiring story of pursuing happiness.\n']</t>
+          <t>[' Taut, original African drama\n', ' T.I.A.---------- This Is Africa\n', ' Djimon Hounsou brings humanity\n', ' Is All This Really Happening?\n', ' Great Performances\n', ' The Price of a Diamond Ring\n', ' Strong film despite the problems with merging a real horror with a traditional Hollywood narrative\n', ' This truly was a hidden diamond...\n', ' Overlong although touching and clever film with action,violence and drama\n', " diamonds are a warlord's best friend\n", ' Ripped From the Headlines, the Nearly True Story of Diamonds\n', ' Overly Preachy &amp; Clichéd\n', ' "Do you think I\'m exploiting his grief?"\n', ' That bling on your finger is bloody\n', ' a message picture, sure, but a good one, with strong leads\n', ' Blood Diamond is a compelling drama about historical events\n', " Blood Diamond- They Are Not A Gal's Best Friend **1/2\n", ' A must watch\n', ' Blood Movie\n', ' I cannot rave enough about this movie\n', ' Foot\n', ' BLOOD DIAMOND (Edward Zwick, 2006) ***\n', ' This picture has an absolutely magnificent and insightful storyline.\n', ' God left this place a long time ago.\n', ' Ridiculous in More Ways Than I Can Count\n']</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>562. The Graduate</t>
+          <t>562. The Pursuit of Happyness</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D563" t="n">
         <v>8</v>
       </c>
       <c r="E563" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>tt0061722</t>
+          <t>tt0454921</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>[" Wonderful, and one of Dustin Hoffmann's best roles\n", ' Cougar On The Prowl\n', ' great uncomfortable giggles\n', ' Hoffman and Bancroft Make the Film\n', ' The Voice of the Sixties\n', ' Unforgettable Movie for People of My Generation\n', " Here's to you, Anne Bancroft!\n", ' One Giant Leap For Immorality\n', ' Classic and the kickstart that Dustin Hoffman needed.\n', ' Rebelliousness and reality...\n', " A film that still holds up thirty-six years later, though not to the fullest extent it's hyped to be\n", ' Ph.D for this one\n', ' Delightfully Dry\n', ' A masterpiece\n', ' Some graduates may be able to relate\n', " It's just not likable\n", " Mrs. Robinson, you're trying to seduce me.\n", ' Thank You Mr. Nichols\n', ' Completely Baked\n', ' A really enjoyable movie, above all things.\n', " It's almost unreal how good it is\n", ' SUBLIMELY SEDUCTIVE!\n', ' full of ambiguities and contradictions\n', ' Not A Classic.\n', " Undoubtedly a product of its time, and that ain't a bad thing.\n"]</t>
+          <t>[' Will Smith good in one note movie\n', ' Child Abuse\n', ' Much More Than I Expected.\n', ' After Ali, comes the Pursuit ...\n', ' A Touching Story of Perseverance, Commitment and Objective in Life\n', ' Almost too heartbreaking to be uplifting even if it ultimately does it, but still engaging and driven by another very good performance from Will Smith\n', ' we treat our homeless cruelly\n', ' Never give up\n', ' empathy for the struggling working man - connect with it, if you can\n', ' Struggles\n', ' Well, Leo Nice Guys Can Succeed -Pursuit Rates ***1/2\n', ' Realistic portrayal of urban life\n', ' Safe and amiable tale that does what it sets out to achieve.\n', ' Deserves the Adulation\n', ' A brilliant movie about desperation, perseverance and fatherhood\n', ' Where are we going?\n', ' This Part of My Life\n', ' The True Pursuit of Happiness!\n', ' Running Toward Happiness: The American Dream Revisited\n', ' Trivial pursuit\n', ' A Nutshell Review: The Pursuit of Happiness\n', ' how about "Happeness"?\n', ' Tugs at the moral heart strings as if it has immediate access\n', " The 'Gardner' who took care of his garden...\n", ' Inspiring story of pursuing happiness.\n']</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>563. Perfect Blue</t>
+          <t>563. The Graduate</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>1h 21m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D564" t="n">
         <v>8</v>
       </c>
       <c r="E564" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>tt0156887</t>
+          <t>tt0061722</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>[' To say this is a very dark anime is quite an understatement!\n', ' One fine anime!\n', ' Perfect, blue or not\n', ' A suspenseful and twisted animated thriller about a pop singer gives up her career to become an actress\n', ' An underrated anime horror gem\n', ' Superb, twisted psychological thriller\n', ' There are times when you forget you are watching animation\n', ' Perfect Blue\n', ' Genuinely disturbing.\n', ' This could have been a regular movie instead\n', ' A mind-shaking psychological thriller from Japanese Cinema sets benchmark for Animated Films\n', ' An Edge-Of-The-Seat Experience That Blurs The Lines Between Fantasy &amp; Reality\n', ' Dreaming of real fame comes at a cost.\n', " Marvellous anime entry in the 'woman losing her grip on reality' horror niche\n", ' Shocking and insane\n', " Satoshi Kon's debut feature near masterfully blurs the lines of dreams and reality in story that dives into the darkest corners of celebrity and sanity.\n", ' Blurred Reality\n', ' Interesting Giallo Anime Film\n', ' Perfect Blue perfectly blends psychologically disturbed fantasy with grounded reality.\n', ' Perfect Blue\n', ' Intense and uncomfortable fear\n', ' Outstanding animated mindbender. Fans of Hitchcock, Argento and Lynch will be hooked.\n', ' An Honest Review\n', ' Rip Kon\n', ' Perfect Blue\n']</t>
+          <t>[" Wonderful, and one of Dustin Hoffmann's best roles\n", ' Cougar On The Prowl\n', ' great uncomfortable giggles\n', ' Hoffman and Bancroft Make the Film\n', ' The Voice of the Sixties\n', ' Unforgettable Movie for People of My Generation\n', " Here's to you, Anne Bancroft!\n", ' Summer - ? - of 67\n', ' One Giant Leap For Immorality\n', ' Classic and the kickstart that Dustin Hoffman needed.\n', ' Rebelliousness and reality...\n', " A film that still holds up thirty-six years later, though not to the fullest extent it's hyped to be\n", ' Ph.D for this one\n', ' Delightfully Dry\n', ' A masterpiece\n', ' Some graduates may be able to relate\n', " It's just not likable\n", " Mrs. Robinson, you're trying to seduce me.\n", ' Thank You Mr. Nichols\n', ' Completely Baked\n', ' A really enjoyable movie, above all things.\n', " It's almost unreal how good it is\n", ' SUBLIMELY SEDUCTIVE!\n', ' full of ambiguities and contradictions\n', ' Not A Classic.\n']</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>564. Magnolia</t>
+          <t>564. Perfect Blue</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>3h 8m</t>
+          <t>1h 21m</t>
         </is>
       </c>
       <c r="D565" t="n">
         <v>8</v>
       </c>
       <c r="E565" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>tt0175880</t>
+          <t>tt0156887</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>[' A really creative film that is certainly not for everyone...\n', ' The three Ds- dark, daring and dazzling\n', ' A Biblical Plague\n', ' complex web of stories\n', ' Stories to tell\n', ' Spellbinding ride through one day\n', ' chance...chance\n', ' Byzantine collection of California lives\n', ' a day in the life\n', ' One of the oddest and best films of the year\n', ' Good Looking Overrated Talk Fest Where Every Character Cries\x85No Sobs\n', ' Disappointing\n', ' Way overpraised\n', " It's for those who know the Bible\n", ' Great storytelling makes a great movie.\n', ' Heavy-handed and slow, but not without its moments and definitely interesting\n', " There's in-the-moment impact but, in the end, it all sort of feels like filler.\n", ' Sprawling but with some truly sublime moments\n', ' Amongst The Best Ever!\n', ' Be prepared for a lot of whining from depressed and mentally twisted characters.3 hours long. Edited as an artsy fartsy video clip. If you like that, this is your movie.\n', ' interesting characters more-or-less make up for its oddities\n', ' One of the most grizzly movies I have ever seen\n', ' My 900th review on here and such a masterful film at that!\n', ' This movie comes at you like a traffic accident...\n', ' Brilliant? Maybe. Pretentious? Yes. Refreshing? Definitely. A great film? I think so.\n']</t>
+          <t>[' To say this is a very dark anime is quite an understatement!\n', ' One fine anime!\n', ' Perfect, blue or not\n', ' A suspenseful and twisted animated thriller about a pop singer gives up her career to become an actress\n', ' An underrated anime horror gem\n', ' Superb, twisted psychological thriller\n', ' There are times when you forget you are watching animation\n', ' Perfect Blue\n', ' Genuinely disturbing.\n', ' This could have been a regular movie instead\n', ' A mind-shaking psychological thriller from Japanese Cinema sets benchmark for Animated Films\n', ' An Edge-Of-The-Seat Experience That Blurs The Lines Between Fantasy &amp; Reality\n', ' Dreaming of real fame comes at a cost.\n', " Marvellous anime entry in the 'woman losing her grip on reality' horror niche\n", ' Shocking and insane\n', " Satoshi Kon's debut feature near masterfully blurs the lines of dreams and reality in story that dives into the darkest corners of celebrity and sanity.\n", ' Blurred Reality\n', ' Interesting Giallo Anime Film\n', ' Perfect Blue perfectly blends psychologically disturbed fantasy with grounded reality.\n', ' Perfect Blue\n', ' Intense and uncomfortable fear\n', ' Outstanding animated mindbender. Fans of Hitchcock, Argento and Lynch will be hooked.\n', ' An Honest Review\n', ' Rip Kon\n', ' Perfect Blue\n']</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>565. Rosemary's Baby</t>
+          <t>565. Magnolia</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>3h 8m</t>
         </is>
       </c>
       <c r="D566" t="n">
         <v>8</v>
       </c>
       <c r="E566" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>tt0063522</t>
+          <t>tt0175880</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>[' One of the great chilling films of the 1960s\n', ' A psychological horror that chilled me to the bones...\n', ' More creepy than scary\n', ' Masterfully Directed by Polanski\n', ' Overwhelming Blackness\n', ' Successful Roman Polanski film about modern witchcraft with thrills, chills and suspenseful events\n', ' Psychological horror that is more disturbing than scary\n', ' What a horny devil!\n', ' The Biggest Satanic Cult Film Ever Made?\n', ' Brilliant Polanski film\n', ' Rosemary in Chinatown.\n', " Two of the shots in this film were equally disturbing and uproarious- the film stands as one of Polanski's crowning thrillers\n", " Baby, You'll Be Scared by this One **1/2\n", ' Brilliantly Constructed\n', " Started Occult Trend of the 1970's...Relentless Slow-Burn Supernatural Thriller\n", ' Classic horror\n', ' No Surprises Here\n', ' Seems tame today but still delivers chills...\n', ' "This Is No Dream! This Is Really Happening!"...\n', ' Horror classic\n', ' This is an all time great movie, especially for the genre\n', ' He chose you, honey! From all the women in the world to be the mother of his only living son!\n', ' Slow-paced but highly rewarding and chilling experience\n', ' Eat Your Liver, Rosemary\n', ' Classic Roman\n']</t>
+          <t>[' A really creative film that is certainly not for everyone...\n', ' The three Ds- dark, daring and dazzling\n', ' A Biblical Plague\n', ' complex web of stories\n', ' Stories to tell\n', ' Spellbinding ride through one day\n', ' chance...chance\n', ' Byzantine collection of California lives\n', ' a day in the life\n', ' One of the oddest and best films of the year\n', ' Good Looking Overrated Talk Fest Where Every Character Cries\x85No Sobs\n', ' Disappointing\n', ' Way overpraised\n', " It's for those who know the Bible\n", ' Great storytelling makes a great movie.\n', ' Heavy-handed and slow, but not without its moments and definitely interesting\n', " There's in-the-moment impact but, in the end, it all sort of feels like filler.\n", ' Sprawling but with some truly sublime moments\n', ' Amongst The Best Ever!\n', ' My 900th review on here and such a masterful film at that!\n', ' Be prepared for a lot of whining from depressed and mentally twisted characters.3 hours long. Edited as an artsy fartsy video clip. If you like that, this is your movie.\n', ' interesting characters more-or-less make up for its oddities\n', ' One of the most grizzly movies I have ever seen\n', ' This movie comes at you like a traffic accident...\n', ' Brilliant? Maybe. Pretentious? Yes. Refreshing? Definitely. A great film? I think so.\n']</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>566. The King's Speech</t>
+          <t>566. Rosemary's Baby</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D567" t="n">
         <v>8</v>
       </c>
       <c r="E567" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>tt1504320</t>
+          <t>tt0063522</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>[" Yeah, it's really, really good...what else would you expect?\n", ' One of my favourite movies of 2010\n', ' Heartfelt, moving drama\n', ' George VI And His Therapist\n', ' Two incredible performances\n', ' Masterful Performances\n', ' Great View of a Lesser Known Period in England\n', ' fascinating\n', " Words don't come easy\n", ' Royal achievements\n', ' Magnificent Film Based on a True Story\n', ' A touch over-hyped but a high-calibre film across the board – accessible, enjoyable and engaging\n', ' George could have used the Public Speaking class that I recently took\n', ' Well-Acted, Well-Paced Historical Drama\n', ' Worthy Of All The Awards\n', ' The awards speak for themselves\n', ' Marvelous cinema...\n', ' Incredible\n', " Colin Firth's jowls steal the spotlight, but it's a jolly well good movie too\n", " The King's Speech is one of the best historical dramas I've recently seen\n", ' Really brilliant\n', ' A touching historical drama\n', ' Great movie, driven by a great cast.\n', ' Great movie, driven by a great cast\n', ' The gift of cinema does credit to the gift of speech.\n']</t>
+          <t>[' One of the great chilling films of the 1960s\n', ' A psychological horror that chilled me to the bones...\n', ' More creepy than scary\n', ' Masterfully Directed by Polanski\n', ' Overwhelming Blackness\n', ' Successful Roman Polanski film about modern witchcraft with thrills, chills and suspenseful events\n', ' Psychological horror that is more disturbing than scary\n', ' What a horny devil!\n', ' The Biggest Satanic Cult Film Ever Made?\n', ' Brilliant Polanski film\n', ' Rosemary in Chinatown.\n', " Two of the shots in this film were equally disturbing and uproarious- the film stands as one of Polanski's crowning thrillers\n", " Baby, You'll Be Scared by this One **1/2\n", ' Brilliantly Constructed\n', " Started Occult Trend of the 1970's...Relentless Slow-Burn Supernatural Thriller\n", ' Classic horror\n', ' No Surprises Here\n', ' Seems tame today but still delivers chills...\n', ' "This Is No Dream! This Is Really Happening!"...\n', ' Horror classic\n', ' This is an all time great movie, especially for the genre\n', ' Slow-paced but highly rewarding and chilling experience\n', ' He chose you, honey! From all the women in the world to be the mother of his only living son!\n', ' Eat Your Liver, Rosemary\n', ' Classic Roman\n']</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>567. Rain Man</t>
+          <t>567. The King's Speech</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D568" t="n">
         <v>8</v>
       </c>
       <c r="E568" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>tt0095953</t>
+          <t>tt1504320</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>[' Very good but not as good as its Oscars would imply.\n', ' What a brilliant movie!\n', ' The Yuppie And The Savant\n', ' great performances from Hoffman and Cruise\n', ' What Actors Can Produce\n', ' Kmart sucks\n', ' Definitely worth watching. Definitely. Yeah...\n', ' Good, but the best movie of 1988?\n', ' Classic Hoffman\n', " Cruise's Abrasive Character Ruins This For Me\n", ' The rain man\n', ' "Rain Man" Autism Speaks Out ***1/2\n', ' Barry Levinson directs a masterpiece. Greed or family?\n', ' Emotional journey\n', ' My main man Charlie Babbitt.\n', ' Good\n', " Tom Cruise as another yuppie that works asa result of Barry Levinson's direction\n", ' Rain man\n', ' Excellent Performance by Dustin Hoffman\n', ' This is an all time great American film that is timeless\n', " Road Trippin' with Hoffman and Cruise\n", ' Oscar worthy movie.\n', " One of my all-time faves; Levinson's masterpiece; superlative Hoffman &amp; Cruise\n", ' Road movie with Tom Cruise and Dustin Hoffman as brothers, the latter autistic\n', ' Raymond\n']</t>
+          <t>[" Yeah, it's really, really good...what else would you expect?\n", ' One of my favourite movies of 2010\n', ' Heartfelt, moving drama\n', ' George VI And His Therapist\n', ' Two incredible performances\n', ' Masterful Performances\n', ' Great View of a Lesser Known Period in England\n', ' fascinating\n', " Words don't come easy\n", ' Royal achievements\n', ' Magnificent Film Based on a True Story\n', ' A touch over-hyped but a high-calibre film across the board – accessible, enjoyable and engaging\n', ' George could have used the Public Speaking class that I recently took\n', ' Well-Acted, Well-Paced Historical Drama\n', ' Worthy Of All The Awards\n', ' The awards speak for themselves\n', ' Marvelous cinema...\n', ' Incredible\n', " Colin Firth's jowls steal the spotlight, but it's a jolly well good movie too\n", " The King's Speech is one of the best historical dramas I've recently seen\n", ' Really brilliant\n', ' A touching historical drama\n', ' Great movie, driven by a great cast.\n', ' Great movie, driven by a great cast\n', ' The gift of cinema does credit to the gift of speech.\n']</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>568. Akira</t>
+          <t>568. Rain Man</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -19102,302 +19102,304 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="D569" t="n">
         <v>8</v>
       </c>
       <c r="E569" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>tt0094625</t>
+          <t>tt0095953</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>[' good but not great\n', ' Amazing\n', ' Ahead of its times\n', ' Plot goes a little weird and drags at times but overall very good animation that set a trend\n', " I Don't Get It\n", " As inspired and bizarre an anime sci-fi film you're likely to see, not perfect, but still a post-apocalyptic wonder\n", ' Not sure what all the fuss is about\n', ' Hard Edges\n', ' Wild and Imaginative\n', ' Violent, adult and fascinating\n', ' Groundbreaking apocalypse animation\n', ' This is an all time great anime picture that is a masterpiece and absolutely must see\n', ' Stunning\n', ' Kinda slow at first...but it really gets going.\n', ' A triumph of animation\n', ' Anime 101\n', ' Upon the fourth viewing\n', ' This film should be taken more seriously\n', ' Awe-inspiring anime.\n', ' Sprawling\n', ' The Most Influential Of All Things Anime!\n', ' Great movie\n', " Technically very good, but so confusing that it doesn't work.\n", ' Apocalyptic Animation...\n', ' Great animation...\n']</t>
+          <t>[' Very good but not as good as its Oscars would imply.\n', ' What a brilliant movie!\n', ' The Yuppie And The Savant\n', ' great performances from Hoffman and Cruise\n', ' What Actors Can Produce\n', ' Kmart sucks\n', ' Definitely worth watching. Definitely. Yeah...\n', ' Good, but the best movie of 1988?\n', ' Classic Hoffman\n', " Cruise's Abrasive Character Ruins This For Me\n", ' The rain man\n', ' "Rain Man" Autism Speaks Out ***1/2\n', ' Barry Levinson directs a masterpiece. Greed or family?\n', ' Emotional journey\n', ' My main man Charlie Babbitt.\n', ' Good\n', " Tom Cruise as another yuppie that works asa result of Barry Levinson's direction\n", ' Rain man\n', ' Excellent Performance by Dustin Hoffman\n', ' This is an all time great American film that is timeless\n', " Road Trippin' with Hoffman and Cruise\n", ' Oscar worthy movie.\n', " One of my all-time faves; Levinson's masterpiece; superlative Hoffman &amp; Cruise\n", ' Road movie with Tom Cruise and Dustin Hoffman as brothers, the latter autistic\n', ' Raymond\n']</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>569. Beauty and the Beast</t>
+          <t>569. Akira</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>1h 24m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D570" t="n">
         <v>8</v>
       </c>
       <c r="E570" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>tt0101414</t>
+          <t>tt0094625</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>[' Perfection.\n', ' One word=F-L-A-W-L-E-S-S!\n', ' Great music and fun simplified story\n', ' A Masterpiece from Disney\n', ' A True Musical\n', ' pure show\n', ' Classy piece of animation\n', " things totally change after you see Cocteau's version\n", " Middle of Disney's Golden Age\n", ' A Winner This Time For Disney\n', ' A classic Disney film\n', ' Much grand showing-off, but more magic might have helped...\n', " Disney's Beauty and the Beast is still the most enchanted of their animated fairy tales\n", ' Decent adaptation of the classic fable\n', ' Disney discovers feminism (sort of)\n', ' Perfect mix of music and animation...a solid achievement...\n', ' Candle\n', ' Life Before and After "Beauty and the Beast"\n', ' Tale as old as time...\n', ' Tale as old as time\n', ' A classy affair\n', ' Beauty and the Beast\n', ' Nice Disney Classic\n', ' Classic\n', ' Such a Belle after All These Years\n']</t>
+          <t>[' good but not great\n', ' Amazing\n', ' Ahead of its times\n', ' Plot goes a little weird and drags at times but overall very good animation that set a trend\n', " I Don't Get It\n", " As inspired and bizarre an anime sci-fi film you're likely to see, not perfect, but still a post-apocalyptic wonder\n", ' Not sure what all the fuss is about\n', ' Hard Edges\n', ' Wild and Imaginative\n', ' Violent, adult and fascinating\n', ' Groundbreaking apocalypse animation\n', ' This is an all time great anime picture that is a masterpiece and absolutely must see\n', ' Stunning\n', ' Kinda slow at first...but it really gets going.\n', ' A triumph of animation\n', ' Anime 101\n', ' Upon the fourth viewing\n', ' This film should be taken more seriously\n', ' Awe-inspiring anime.\n', ' Sprawling\n', ' The Most Influential Of All Things Anime!\n', ' Great movie\n', " Technically very good, but so confusing that it doesn't work.\n", ' Apocalyptic Animation...\n', ' Great animation...\n']</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>570. Slumdog Millionaire</t>
+          <t>570. Beauty and the Beast</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1h 24m</t>
         </is>
       </c>
       <c r="D571" t="n">
         <v>8</v>
       </c>
       <c r="E571" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>tt1010048</t>
+          <t>tt0101414</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>[' A very clever idea, constructed into a very interesting film.\n', " It's not supposed to be in his experience\n", " The only thing I don't like is the game show\n", ' Masterpiece\n', ' Sprawling Humanity\n', ' The Three Musketeers\n', ' An energetic, stylish and engaging fairytale that has enough about it to cover the main weaknesses it has while you are watching\n', ' India wink\n', ' Deserved The Oscar For Cinematography\n', " one of Danny Boyle's best!\n", ' Slumdog Millionaire was pretty entertaining, if a little okay, as a recent Oscar winner\n', ' An amazing cinematic experience\n', ' Great movie\n', ' Slum Dogma\n', ' A Film That Works Better As An Inspiration Rather Than A Film\n', ' SLUMDOG MILLIONAIRE (Danny Boyle, 2008) ***\n', ' This is a very well made film that I would strongly recommend\n', ' It is Written\n', ' An original but far from perfect movie.\n', ' As if we required more proof that the Oscars are nothing to go by when trying to find out about quality\n', ' Meet Your Destiny\n', " Absolute Best Film of the Year! The one you can't miss!\n", ' Slumdog Millionaire\n', " A film that proves no matter how harsh one's life has been thru those experiences can help one master knowledge and win big in the end!\n", ' The Best\n']</t>
+          <t>[' Perfection.\n', ' One word=F-L-A-W-L-E-S-S!\n', ' Great music and fun simplified story\n', ' A Masterpiece from Disney\n', ' A True Musical\n', ' pure show\n', ' Classy piece of animation\n', " things totally change after you see Cocteau's version\n", " Middle of Disney's Golden Age\n", ' A Winner This Time For Disney\n', ' A classic Disney film\n', ' Much grand showing-off, but more magic might have helped...\n', " Disney's Beauty and the Beast is still the most enchanted of their animated fairy tales\n", ' Decent adaptation of the classic fable\n', ' Disney discovers feminism (sort of)\n', ' Perfect mix of music and animation...a solid achievement...\n', ' Candle\n', ' Life Before and After "Beauty and the Beast"\n', ' Tale as old as time...\n', ' Tale as old as time\n', ' A classy affair\n', ' Beauty and the Beast\n', ' Nice Disney Classic\n', ' Classic\n', ' Such a Belle after All These Years\n']</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>571. The Last Picture Show</t>
+          <t>571. Slumdog Millionaire</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="D572" t="n">
         <v>8</v>
       </c>
       <c r="E572" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>tt0067328</t>
+          <t>tt1010048</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>[" For me, it's one of the best of the 70s\n", ' The Texas Ice Princess\n', ' aimless teens in coming-of-age movie\n', ' Classic Drama Just as Powerful as the Day it Was Released\n', ' It Makes You Sweat\n', ' The new easy riders\n', ' Slice of Texas life with great cast giving unforgettable performances\n', ' Goodbye, America\n', ' Melodrama in Small-Town Texas\n', ' Evocative, desperately important, cinematically exciting...\n', " a film that plays even better long after it's been seen, for its unforgettable characters and classic mode of subversion\n", " I'm glad to have finally seen the entirety of The Last Picture Show just now!\n", ' It Ain\'t the Texas of "Giant"\n', ' Entirely too much bored meaningless sex...\n', ' Good examination of 1950s rural America\n', ' Fascinating but VERY depressing\n', ' I had more questions about the deterioration of the town than I did about the people who still lived there\n', ' Whiling Away the Hours in Abilene, Texas\n', " Good portrayal of American small-town-life of the '50's.\n", ' Bleak, trashy B&amp;W drama of life in a fading Texas town in the early 50s with several strong points\n', ' Terrific Cast Scores an Unforgettable Film!\n', ' Evocative\n', ' Behind the Van of Time\n', ' An excellent film of the drifting of small town America it showcases raging hormones, yet it takes you back to your traditional days of growing up.\n', ' The Kids Stay In The Picture\n']</t>
+          <t>[' A very clever idea, constructed into a very interesting film.\n', " It's not supposed to be in his experience\n", " The only thing I don't like is the game show\n", ' Masterpiece\n', ' Sprawling Humanity\n', ' The Three Musketeers\n', ' An energetic, stylish and engaging fairytale that has enough about it to cover the main weaknesses it has while you are watching\n', ' India wink\n', ' Deserved The Oscar For Cinematography\n', " one of Danny Boyle's best!\n", ' Slumdog Millionaire was pretty entertaining, if a little okay, as a recent Oscar winner\n', ' An amazing cinematic experience\n', ' Great movie\n', ' Slum Dogma\n', ' A Film That Works Better As An Inspiration Rather Than A Film\n', ' SLUMDOG MILLIONAIRE (Danny Boyle, 2008) ***\n', ' This is a very well made film that I would strongly recommend\n', ' It is Written\n', ' An original but far from perfect movie.\n', ' As if we required more proof that the Oscars are nothing to go by when trying to find out about quality\n', ' Meet Your Destiny\n', " Absolute Best Film of the Year! The one you can't miss!\n", ' Slumdog Millionaire\n', " A film that proves no matter how harsh one's life has been thru those experiences can help one master knowledge and win big in the end!\n", ' The Best\n']</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>572. Dogville</t>
+          <t>572. The Last Picture Show</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D573" t="n">
         <v>8</v>
       </c>
       <c r="E573" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>tt0276919</t>
+          <t>tt0067328</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>[' extremely experimental\n', ' Unique and Disquieting\n', ' parable\n', ' Morally challenging but still a gripping, well written and well acted film\n', ' Lars von Trier or Wes Anderson?\n', " Something's Rotten in Dogville\n", ' Engrossing\n', ' Powerful and highly original\n', ' Essays\n', ' Why must a morality tale be so hard to digest???\n', " You'll Either Love It or Hate It\n", ' I think the world would be better without Dogville.\n', ' Shall I ring the bell?\n', ' An extremely honest exploration of humanity\n', ' Audacious with hints of genius; Kidman is a marvel of understated "Grace"\n', ' Pseudo Brechtian Drama Falls Flat\n', ' A completely originally styled film! Wonders will never cease!\n', ' Dogville\n', ' Brilliant filmmaking, but von Trier misses his mark a bit\n', ' Fantastical And Critical Story\n', " Von Trier's most problematic and masterful cinematic allegory\n", ' Imaginative, original, but unambiguous\n', ' Great theater, but is it great cinema?\n', ' Human nature and morality\n', ' "Of Course It Was All A Load Of Nonsense"\n']</t>
+          <t>[" For me, it's one of the best of the 70s\n", ' The Texas Ice Princess\n', ' aimless teens in coming-of-age movie\n', ' Classic Drama Just as Powerful as the Day it Was Released\n', ' It Makes You Sweat\n', ' The new easy riders\n', ' Slice of Texas life with great cast giving unforgettable performances\n', ' Goodbye, America\n', ' Melodrama in Small-Town Texas\n', ' Evocative, desperately important, cinematically exciting...\n', " a film that plays even better long after it's been seen, for its unforgettable characters and classic mode of subversion\n", " I'm glad to have finally seen the entirety of The Last Picture Show just now!\n", ' It Ain\'t the Texas of "Giant"\n', ' Entirely too much bored meaningless sex...\n', ' Good examination of 1950s rural America\n', ' Fascinating but VERY depressing\n', ' I had more questions about the deterioration of the town than I did about the people who still lived there\n', ' Whiling Away the Hours in Abilene, Texas\n', " Good portrayal of American small-town-life of the '50's.\n", ' Bleak, trashy B&amp;W drama of life in a fading Texas town in the early 50s with several strong points\n', ' Terrific Cast Scores an Unforgettable Film!\n', ' Evocative\n', ' Behind the Van of Time\n', ' An excellent film of the drifting of small town America it showcases raging hormones, yet it takes you back to your traditional days of growing up.\n', ' The Kids Stay In The Picture\n']</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>573. Kill Bill: Vol. 2</t>
+          <t>573. Dogville</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="D574" t="n">
         <v>8</v>
       </c>
       <c r="E574" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>tt0378194</t>
+          <t>tt0276919</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>[' Very good, but not as much like "Kill Bill: Vol.1" as I expected.\n', ' Not as great as hoped for but still a very good watch\n', ' a lesson\n', ' Disappointing and Overrated Sequel\n', ' Stimulating and thrilling second part that closes the splendid volume\n', ' where it all leads up to\n', ' The Second Half of a Controversial Film...\n', ' Pure "style", ties up unusual story started in KB: V 1.\n', ' the adventures of the Bride, round 2\n', " Tarantino's Triumph: Volume Two\n", ' Calming Calamity\n', ' Brilliant movie(s)\n', " Don't mess around with The Bride\n", ' Really\n', ' Dull\n', ' Satisfaction Attained...\n', ' This is a good movie...just not as good as the first one\n', ' Vol. 1 Was Dessert--This Is the Main Course\n', ' An eye for an eye\n', ' Well made but I wish it was more like "Kill Bill: Vol. 1".\n', ' Exactly as it should be\n', ' More like it\n', " Hell Hath No Fury Like a Woman's Scorn Redux! Uma Kills!\n", " Tarantino's amusing super-assassin bizarro world\n", ' Best to rent Vol 1 and 2 and watch it together!\n']</t>
+          <t>[' extremely experimental\n', ' Unique and Disquieting\n', ' parable\n', ' Morally challenging but still a gripping, well written and well acted film\n', ' Lars von Trier or Wes Anderson?\n', " Something's Rotten in Dogville\n", ' Engrossing\n', ' Powerful and highly original\n', ' Essays\n', ' Why must a morality tale be so hard to digest???\n', " You'll Either Love It or Hate It\n", ' I think the world would be better without Dogville.\n', ' Shall I ring the bell?\n', ' An extremely honest exploration of humanity\n', ' Audacious with hints of genius; Kidman is a marvel of understated "Grace"\n', ' Pseudo Brechtian Drama Falls Flat\n', ' Dogville\n', ' A completely originally styled film! Wonders will never cease!\n', ' Brilliant filmmaking, but von Trier misses his mark a bit\n', ' Fantastical And Critical Story\n', " Von Trier's most problematic and masterful cinematic allegory\n", ' Imaginative, original, but unambiguous\n', ' Great theater, but is it great cinema?\n', ' Human nature and morality\n', ' "Of Course It Was All A Load Of Nonsense"\n']</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>574. The Bourne Ultimatum</t>
+          <t>574. Kill Bill: Vol. 2</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D575" t="n">
         <v>8</v>
       </c>
       <c r="E575" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>tt0440963</t>
+          <t>tt0378194</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>[' The original Bourne trilogy at its best\n', ' Shaky camera got to me a little\n', ' The Best of All\n', ' Action seen/scene\n', ' Who Am I?\n', ' Magnificent and thrilling third part completing perfectly the trilogy\n', ' Matt Damon and David Strathairn went from serious roles to this?\n', ' Good Action, The Best Bourne?\n', " Should Have Finished It With 'Supremacy'\n", ' action, action, action\n', " it's not simply about the shaky camera that's the problem, in this tense but uneasy third Bourne film\n", ' The Bourne Ultimatum is the best in series so far\n', ' Intense action\n', ' Thrilling and suspenseful\n', ' ULTIMATE SHAKY-CAM...DETERMINES LOVE/HATE...SPY-THRILLER TRILOGY\n', ' Great Scotts\n', ' Repeat of "Bourne Identity"\n', " Paul Greengrass does it again...shaky camera movement and fast cuts don't make a thriller...\n", ' I liked Bourne Supremacy and this one equally entertaining\n', ' Totally different to the others\n', ' Bourne continues to run as those that created him try to kill him in a film thats pure action and almost no plot\n', ' Operation Blackbriar\n', " Bourne kicks Spidey's Ass\n", ' Perhaps a Perfect Action Thriller\n', ' Sir, He drove off the roof\n']</t>
+          <t>[' Very good, but not as much like "Kill Bill: Vol.1" as I expected.\n', ' Not as great as hoped for but still a very good watch\n', ' a lesson\n', ' Disappointing and Overrated Sequel\n', ' Stimulating and thrilling second part that closes the splendid volume\n', ' where it all leads up to\n', ' The Second Half of a Controversial Film...\n', ' Pure "style", ties up unusual story started in KB: V 1.\n', ' the adventures of the Bride, round 2\n', " Tarantino's Triumph: Volume Two\n", ' Calming Calamity\n', ' Brilliant movie(s)\n', " Don't mess around with The Bride\n", ' Really\n', ' Dull\n', ' Satisfaction Attained...\n', ' This is a good movie...just not as good as the first one\n', ' Vol. 1 Was Dessert--This Is the Main Course\n', ' An eye for an eye\n', ' Well made but I wish it was more like "Kill Bill: Vol. 1".\n', ' Exactly as it should be\n', ' More like it\n', " Hell Hath No Fury Like a Woman's Scorn Redux! Uma Kills!\n", " Tarantino's amusing super-assassin bizarro world\n", ' Best to rent Vol 1 and 2 and watch it together!\n']</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>575. Life of Brian</t>
+          <t>575. The Bourne Ultimatum</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>1h 34m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D576" t="n">
         <v>8</v>
       </c>
       <c r="E576" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>tt0079470</t>
+          <t>tt0440963</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>[' Utterly hilarious from start to finish!\n', ' Brian the mistaken Messiah\n', ' A Comment on Our Gullibility\n', ' Eternal comedy genius.\n', ' Timeless classic\n', ' A classic comedy that is rightly held up as the best of the Python films\n', ' Delightful as well as hilarious film about a false and unwilling Messiah who wants to free his land from the oppression of Rome\n', ' Ave Monty Python!\n', " Don't crucify me, but I don't think it's that great.\n", ' The Second Best of the Python Films\n', " Not necessarily laugh-out-loud every minute, but it's satirical edge and wit is as clever as the technical side of the film\n", ' Every scene is very funny!\n', " CB DeMille It Ain't\n", ' I think it was "Blessed are the cheesemakers".\n', ' Still funny, after 25 years\n', ' Sacrilegiously funny\n', ' a real treat\n', ' Deligtfully brazen\n', ' Razor sharp, and still holds up\n', ' Bible Bashers\n', ' Life Of Brian\n', " An irreverently funny comedy that doesn't cross the border of blasphemy\n", ' May God bless the holy souls of Monty Python for the unholy laughs they gave us. Just like Jesus, this cult comedy will be remembered for a thousand years\n', ' Fun, Funnier, Life of Brian\n', " Monty Python's Magnum Opus\n"]</t>
+          <t>[' The original Bourne trilogy at its best\n', ' Shaky camera got to me a little\n', ' The Best of All\n', ' Action seen/scene\n', ' Who Am I?\n', ' Magnificent and thrilling third part completing perfectly the trilogy\n', ' Matt Damon and David Strathairn went from serious roles to this?\n', ' Good Action, The Best Bourne?\n', " Should Have Finished It With 'Supremacy'\n", ' action, action, action\n', " it's not simply about the shaky camera that's the problem, in this tense but uneasy third Bourne film\n", ' The Bourne Ultimatum is the best in series so far\n', ' Intense action\n', ' Thrilling and suspenseful\n', ' ULTIMATE SHAKY-CAM...DETERMINES LOVE/HATE...SPY-THRILLER TRILOGY\n', ' Great Scotts\n', ' Repeat of "Bourne Identity"\n', " Paul Greengrass does it again...shaky camera movement and fast cuts don't make a thriller...\n", ' I liked Bourne Supremacy and this one equally entertaining\n', ' Totally different to the others\n', ' Operation Blackbriar\n', ' Bourne continues to run as those that created him try to kill him in a film thats pure action and almost no plot\n', " Bourne kicks Spidey's Ass\n", ' Perhaps a Perfect Action Thriller\n', ' Sir, He drove off the roof\n']</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>576. Baahubali: The Beginning</t>
+          <t>576. Life of Brian</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2h 39m</t>
+          <t>1h 34m</t>
         </is>
       </c>
       <c r="D577" t="n">
         <v>8</v>
       </c>
-      <c r="E577" t="inlineStr"/>
+      <c r="E577" t="n">
+        <v>77</v>
+      </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>tt2631186</t>
+          <t>tt0079470</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>[' Stepping stone\n', ' Bit of Letdown After "RRR"\n', ' Spectacular!\n', ' An Indian version of avatar according to budget but not so great experience to watch. Still good film to watch\n', ' Epic epic\n', ' Grandeur Will Get You. ♦ 63%\n', ' The trendsetter.\n', ' A daringly brave, never before kind of Herculean triumph achieved in Indian filmmaking by the gifted director that also lacks entertainment to be honest.\n', ' Bahubali: The Beginning (2015)\n', ' Baahubali The Beginning: Indian Cinema at its best!\n', ' I enjoyed this movie\n', ' Bahubali should be lauded for surreal direction, exemplary CGI and commendable performances\n', ' Having Seen Great Hindu Epics Ramayana By Ramanand Sagar And Mahabharata By B.R. Chopra, I find this film inferior.\n', " Impressive, but not for the reasons mentioned by the people from it's country of origin...\n", ' Recommended 👍\n', ' Bollywood 9, Hollywood 5\n', ' Baahubali: The Beginning (U/A) TELUGU --------- my Rating: ★★★★½ FULL OF CREATIVITY\n', ' Climax is absolute interval\n', ' Perfect in every sense\n', ' Review - Bãhubali: The Beginning\n', ' Revival of Vedic!\n', ' Long Live Mahishmati!\n', ' Indian symbol!!\n', ' Spectacular production but far too gory\n', ' Deserves applause for taking Indian cinema to the next level\n']</t>
+          <t>[' Utterly hilarious from start to finish!\n', ' Brian the mistaken Messiah\n', ' A Comment on Our Gullibility\n', ' Eternal comedy genius.\n', ' Timeless classic\n', ' A classic comedy that is rightly held up as the best of the Python films\n', ' Delightful as well as hilarious film about a false and unwilling Messiah who wants to free his land from the oppression of Rome\n', ' Ave Monty Python!\n', " Don't crucify me, but I don't think it's that great.\n", ' The Second Best of the Python Films\n', " Not necessarily laugh-out-loud every minute, but it's satirical edge and wit is as clever as the technical side of the film\n", ' Every scene is very funny!\n', " CB DeMille It Ain't\n", ' I think it was "Blessed are the cheesemakers".\n', ' Still funny, after 25 years\n', ' Sacrilegiously funny\n', ' a real treat\n', ' Deligtfully brazen\n', ' Razor sharp, and still holds up\n', ' Bible Bashers\n', ' Life Of Brian\n', " An irreverently funny comedy that doesn't cross the border of blasphemy\n", ' May God bless the holy souls of Monty Python for the unholy laughs they gave us. Just like Jesus, this cult comedy will be remembered for a thousand years\n', ' Fun, Funnier, Life of Brian\n', " Monty Python's Magnum Opus\n"]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>577. The Invisible Guest</t>
+          <t>577. Baahubali: The Beginning</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 39m</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -19406,786 +19408,784 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
-          <t>tt4857264</t>
+          <t>tt2631186</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>[' so twisty\n', ' Making things ... appear\n', ' a wow of a movie\n', ' Completely blown away\n', ' Intriguing thriller\n', ' Another good Spanish mystery movie\n', ' History is written by the victors.\n', " And Like That, POOF! He's Gone\n", ' Spanish Cinema releases a Detailed Study Material for Thriller Genre..\n', ' [8.9] The guest that was beyond invisible\n', ' Thrilling, Suspenseful &amp; Consistently Engaging\n', ' Pure Detective Movie Masterpiece\n', ' Spanish Agatha Hitchcock...\n', ' Unexpected...\n', ' The Ending...\n', ' Mind-blowing thriller\n', ' Not a Top 250 movie but still a fun and engaging thriller\n', ' The Invisible Guest\n', ' Impossible to fault\n', ' The usual suspect\n', ' Awesome suspense thriller.\n', ' The Invisible Guest\n', ' GRIPPING FROM START TO END!\n', ' WOW!\n', ' Playful in the best possible sense of the word\n']</t>
+          <t>[' Stepping stone\n', ' Bit of Letdown After "RRR"\n', ' Spectacular!\n', ' An Indian version of avatar according to budget but not so great experience to watch. Still good film to watch\n', ' Epic epic\n', ' Grandeur Will Get You. ♦ 63%\n', ' The trendsetter.\n', ' A daringly brave, never before kind of Herculean triumph achieved in Indian filmmaking by the gifted director that also lacks entertainment to be honest.\n', ' Bahubali: The Beginning (2015)\n', ' Baahubali The Beginning: Indian Cinema at its best!\n', ' I enjoyed this movie\n', ' Bahubali should be lauded for surreal direction, exemplary CGI and commendable performances\n', ' Having Seen Great Hindu Epics Ramayana By Ramanand Sagar And Mahabharata By B.R. Chopra, I find this film inferior.\n', " Impressive, but not for the reasons mentioned by the people from it's country of origin...\n", ' Recommended 👍\n', ' Bollywood 9, Hollywood 5\n', ' Baahubali: The Beginning (U/A) TELUGU --------- my Rating: ★★★★½ FULL OF CREATIVITY\n', ' Climax is absolute interval\n', ' Perfect in every sense\n', ' Review - Bãhubali: The Beginning\n', ' Revival of Vedic!\n', ' Long Live Mahishmati!\n', ' Indian symbol!!\n', ' Spectacular production but far too gory\n', ' Deserves applause for taking Indian cinema to the next level\n']</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>578. Do the Right Thing</t>
+          <t>578. The Invisible Guest</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D579" t="n">
         <v>8</v>
       </c>
-      <c r="E579" t="n">
-        <v>93</v>
-      </c>
+      <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
-          <t>tt0097216</t>
+          <t>tt4857264</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>[' A brave film you could never make today....\n', ' American cinema vérité\n', ' Controversy Needed\n', ' Not Surprised at the Responses\n', ' It would be the right thing to watch this movie.\n', ' Good concept, the execution is sorely lacking.\n', ' and make no mistake my friends.\n', " Results vary on the viewer, but it's still mostly mind-blowing\n", " Spike Lee's Real Coming Out Party\n", ' This is a movie that is hard to not love\n', ' For Once, Spike Lee Does the Right Thing\n', ' When someone does the wrong thing and others react the wrong way\n', ' One hand is always fighting the other hand\n', ' excellent drama with a message\n', ' Fantastic\n', ' a cardinal food for thought that is deathless to us all\n', ' Important, Smart &amp; Unforgettable!\n', ' Avoids turning into a walking cliché or a heavy-handed lecture\n', ' Good story, amateur execution\n', ' Summer in the city\n', ' An Essential Spike Lee Joint\n', ' An amazing achievement that, almost thirty years later, is as relevant as ever\n', ' Waltzing with Watts\n', ' Pointless aggression and hateful.\n', ' do the right thing\n']</t>
+          <t>[' so twisty\n', ' Making things ... appear\n', ' a wow of a movie\n', ' Completely blown away\n', ' Intriguing thriller\n', ' Another good Spanish mystery movie\n', ' History is written by the victors.\n', " And Like That, POOF! He's Gone\n", ' [8.9] The guest that was beyond invisible\n', ' Spanish Cinema releases a Detailed Study Material for Thriller Genre..\n', ' Thrilling, Suspenseful &amp; Consistently Engaging\n', ' Pure Detective Movie Masterpiece\n', ' Spanish Agatha Hitchcock...\n', ' Unexpected...\n', ' The Ending...\n', ' Mind-blowing thriller\n', ' Not a Top 250 movie but still a fun and engaging thriller\n', ' The Invisible Guest\n', ' Impossible to fault\n', ' The usual suspect\n', ' Awesome suspense thriller.\n', ' The Invisible Guest\n', ' GRIPPING FROM START TO END!\n', ' WOW!\n', ' Playful in the best possible sense of the word\n']</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>579. Butch Cassidy and the Sundance Kid</t>
+          <t>579. Do the Right Thing</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="D580" t="n">
         <v>8</v>
       </c>
       <c r="E580" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>tt0064115</t>
+          <t>tt0097216</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>[" it just didn't do much for me,...\n", ' Different, but a great movie all the same\n', ' "You Keep Thinking Butch, That\'s What Your Good At"\n', ' charming cool fun duo\n', ' Newman and Redford Make This a Classic\n', ' Butch Cassidy and the Sundance Kid\n', ' Western? No \x96 but a warming and funny gentle comedy\n', ' Famed Western by an exceptional trio who gives an engaging acting : Newman ,Redford and Ross\n', ' 3 great westerns in 1969\n', " I'm in with the outlaws, I go where the outlaws go.\n", ' As Far As Westerns Go, This One Probably Tops Them All\n', ' Mythic, classic, tragic\n', ' One Of The All-Time Great Westerns\n', ' A perfect blending of script with acting of Newman and Redford.\n', ' Great chemistry between Newman and Redford lifts a legendary film\n', ' Legend of the famous outlaws becomes in-jokey star-vehicle\n', ' Superb, and not your average western\n', ' The Best Beatles Movie\n', ' Esto es un robo, las manos arriba!\n', ' Carefree Outlaws\n', ' Mediocre at best\n', ' A classic that left a legacy\n', ' This is a really fun movie that is an absolutely must see and American cinematic gold\n', ' Oh, good. For a moment there I thought we were in trouble.\n', ' tale based on real guys\n']</t>
+          <t>[' A brave film you could never make today....\n', ' American cinema vérité\n', ' Controversy Needed\n', ' Not Surprised at the Responses\n', ' It would be the right thing to watch this movie.\n', ' Good concept, the execution is sorely lacking.\n', ' and make no mistake my friends.\n', " Results vary on the viewer, but it's still mostly mind-blowing\n", " Spike Lee's Real Coming Out Party\n", ' This is a movie that is hard to not love\n', ' For Once, Spike Lee Does the Right Thing\n', ' When someone does the wrong thing and others react the wrong way\n', ' One hand is always fighting the other hand\n', ' excellent drama with a message\n', ' Fantastic\n', ' a cardinal food for thought that is deathless to us all\n', ' Important, Smart &amp; Unforgettable!\n', ' Avoids turning into a walking cliché or a heavy-handed lecture\n', ' Good story, amateur execution\n', ' Summer in the city\n', ' An Essential Spike Lee Joint\n', ' An amazing achievement that, almost thirty years later, is as relevant as ever\n', ' Waltzing with Watts\n', ' Pointless aggression and hateful.\n', ' do the right thing\n']</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>580. Dog Day Afternoon</t>
+          <t>580. Butch Cassidy and the Sundance Kid</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D581" t="n">
         <v>8</v>
       </c>
       <c r="E581" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>tt0072890</t>
+          <t>tt0064115</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>[' Very gritty and realistic\n', " Another one of Pacino's best(and one of Lumet's best)\n", " Just when you thought it couldn't get any better...\n", ' Underlying Motive\n', ' funny and original\n', ' Masterpiece\n', ' A Look at the Soul\n', ' masterpiece\n', ' Dog Day Afternoon\n', ' An interesting true story made a good film with great performances\n', ' Successful and outlandish drama about two offbeat men involved in bank robbering\n', ' I once saw an art exhibit about the robbery.\n', ' Does Loving a Transvestite Make You Gay?\n', ' Who said it was a heist film?\n', ' Still "Dogging\' Us 30 Years Later\n', ' Tragic comedy-of-errors with Brooklyn, New York the central character...\n', ' The eyes have it\n', " It's OK to be Gay! It's not OK to rob banks, though\n", ' A Different Kind of Afternoon ***1/2\n', ' Beter Suited for the Stage or Television\n', ' Brilliant drama\n', ' Superb\n', ' A Good Enough Movie But How Honest Is It ?\n', ' Just End Already\n', " Only by the '70s would filmmakers dare to make this film...\n"]</t>
+          <t>[" it just didn't do much for me,...\n", ' Different, but a great movie all the same\n', ' "You Keep Thinking Butch, That\'s What Your Good At"\n', ' charming cool fun duo\n', ' Newman and Redford Make This a Classic\n', ' Butch Cassidy and the Sundance Kid\n', ' Western? No \x96 but a warming and funny gentle comedy\n', ' Famed Western by an exceptional trio who gives an engaging acting : Newman ,Redford and Ross\n', ' 3 great westerns in 1969\n', " I'm in with the outlaws, I go where the outlaws go.\n", ' As Far As Westerns Go, This One Probably Tops Them All\n', ' Mythic, classic, tragic\n', ' One Of The All-Time Great Westerns\n', ' A perfect blending of script with acting of Newman and Redford.\n', ' Great chemistry between Newman and Redford lifts a legendary film\n', ' Legend of the famous outlaws becomes in-jokey star-vehicle\n', ' Superb, and not your average western\n', ' The Best Beatles Movie\n', ' Esto es un robo, las manos arriba!\n', ' Carefree Outlaws\n', ' Mediocre at best\n', ' A classic that left a legacy\n', ' This is a really fun movie that is an absolutely must see and American cinematic gold\n', ' Oh, good. For a moment there I thought we were in trouble.\n', ' tale based on real guys\n']</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>581. The Maltese Falcon</t>
+          <t>581. Dog Day Afternoon</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>1h 40m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D582" t="n">
         <v>8</v>
       </c>
       <c r="E582" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>tt0033870</t>
+          <t>tt0072890</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>[" It's very good but Bogart did several better films AND it was nearly a duplicate of the 1931 version\n", ' Superb cinematic entertainment\n', ' "I Won\'t Play The Sap For You."\n', ' the ultimate classic noir\n', ' Masterpiece\n', ' Just Another Fan\n', ' The Maltese Falcon\n', ' Absorbing and worthy suspense film about blackmails , killings , corruption and strong intrigue\n', ' How many movies mention Malta?\n', ' The Very Best of the Film Noir Genre\n', ' The best detective story.\n', ' Bogart at his best, as detective Sam Spade.\n', " Bogie as Sam Spade in John Huston's film debut...\n", ' Such stuff as dreams are made on\n', ' The first filmed noir story is a pure gem after so many years\n', ' Full of Sound and Fury\n', " Where's The Good Guy\n", ' Iconaclastic\n', ' Crime-drama classic\n', ' The cheaper the crook, the gaudier the patter.\n', ' The definition of detective film noir...excellent performances by all...\n', ' Gritty and dark Dashiell Hammett adaption\n', ' Falcon\n', ' The Stuff Dreams Are Made Of\n', ' "Don\'t be too sure I\'m as crooked as I\'m supposed to be."\n']</t>
+          <t>[' Very gritty and realistic\n', " Another one of Pacino's best(and one of Lumet's best)\n", " Just when you thought it couldn't get any better...\n", ' Underlying Motive\n', ' funny and original\n', ' Masterpiece\n', ' A Look at the Soul\n', ' masterpiece\n', ' Dog Day Afternoon\n', ' An interesting true story made a good film with great performances\n', ' Successful and outlandish drama about two offbeat men involved in bank robbering\n', ' I once saw an art exhibit about the robbery.\n', ' Does Loving a Transvestite Make You Gay?\n', ' Who said it was a heist film?\n', ' Still "Dogging\' Us 30 Years Later\n', ' Tragic comedy-of-errors with Brooklyn, New York the central character...\n', ' The eyes have it\n', " It's OK to be Gay! It's not OK to rob banks, though\n", ' A Different Kind of Afternoon ***1/2\n', ' Beter Suited for the Stage or Television\n', ' Brilliant drama\n', ' Superb\n', ' A Good Enough Movie But How Honest Is It ?\n', ' Just End Already\n', " Only by the '70s would filmmakers dare to make this film...\n"]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>582. Lion</t>
+          <t>582. The Maltese Falcon</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>1h 40m</t>
         </is>
       </c>
       <c r="D583" t="n">
         <v>8</v>
       </c>
       <c r="E583" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>tt3741834</t>
+          <t>tt0033870</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>[' Roars like a near mighty lion\n', ' harrowing first half\n', " One of 2016's Best Films\n", ' A Gripping Story That Could Have Been Better\n', ' The Long Way Home\n', ' The lost child\n', ' A fabulous movie based on reality, not a comic.....\n', ' A long way to go\n', ' Great Film Based on a True Story\n', ' Very sentimental and moving film with emotion, family relationship, thought-provoking scenes and big feeling\n', " a trip to one's past\n", ' Excellent, But Sort of Boring\n', ' An emotional journey\n', ' Okay, but weakened by a clumsily told, superficially melodramatic second act\n', ' A Roaring Success That Might Spring A Surprise At The Oscars\n', ' Trains\n', ' I literally have no complaints about this movie and would strongly recommend it.\n', ' What an amazing story.\n', " 'We wanted the two of you in our lives. That's what we chose.'\n", ' Tells a moving, uplifting and gripping tale to the tune of one of the best, most emotive soundtracks of recent years.\n', ' A film of loss, courage, memories, and a search to reconnect after a new life.\n', ' Dev Patel is swell.\n', ' Remarkable Performances Lead A Decent Film!\n', ' Heart-breaking and heart-warming at the same time\n', ' Waiting for Guddu...\n']</t>
+          <t>[" It's very good but Bogart did several better films AND it was nearly a duplicate of the 1931 version\n", ' Superb cinematic entertainment\n', ' "I Won\'t Play The Sap For You."\n', ' the ultimate classic noir\n', ' Masterpiece\n', ' Just Another Fan\n', ' The Maltese Falcon\n', ' Absorbing and worthy suspense film about blackmails , killings , corruption and strong intrigue\n', ' How many movies mention Malta?\n', ' The Very Best of the Film Noir Genre\n', ' The best detective story.\n', ' Bogart at his best, as detective Sam Spade.\n', " Bogie as Sam Spade in John Huston's film debut...\n", ' Such stuff as dreams are made on\n', ' The first filmed noir story is a pure gem after so many years\n', ' Full of Sound and Fury\n', " Where's The Good Guy\n", ' Iconaclastic\n', ' Crime-drama classic\n', ' The cheaper the crook, the gaudier the patter.\n', ' The definition of detective film noir...excellent performances by all...\n', ' Gritty and dark Dashiell Hammett adaption\n', ' Falcon\n', ' The Stuff Dreams Are Made Of\n', ' "Don\'t be too sure I\'m as crooked as I\'m supposed to be."\n']</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>583. Sling Blade</t>
+          <t>583. Lion</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2h 15m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D584" t="n">
         <v>8</v>
       </c>
       <c r="E584" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>tt0117666</t>
+          <t>tt3741834</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>[" I dislike Billy Bob but despite this I couldn't help but admire and enjoy this film\n", ' All about Billy Bob\n', " Billy Bob Thornton's masterful entry to fame.\n", ' A Bit Odd, But Pretty Good\n', ' Karl Childers: an unforgettable character in modern fiction\n', ' phenomenal\n', ' It definately lives up to the hype\n', ' Billy Bob Thornton Swings in Like a Pendulum\n', ' A dynamic tale of desperate lives crossing.\n', ' Suspenseful and Dynamic Tear-Jerker that Demands Patience\n', ' You Ought Not Pass on this Movie\n', ' A brilliant slice of life...excellent performances...\n', " This film has a great buildup that leads to a perfect conclusion. I wouldn't change a single thing about this movie\n", " I Like Me Some Fried 'Taters\n", ' Beautiful slow character portrayal.\n', ' Ladies and gentleman, Mr. Billy Bob Thornton\n', ' When a murderer is the likable protagonist, mmm-hmm\n', ' Should have at least got a nomination for Best Picture\n', ' Billy Bob is a Master Stoyteller!\n', ' A Terrific Effort by Billy Bob Thornton!\n', " Billy Bob's Break\n", ' Genuine filmmaking masterpiece - one of a kind! Verdict 100/100\n', " An excellent fim. If any film deserves to be higher up on the top 250, it's this film!\n", ' Great performances, over-earnest film\n', ' a modern American masterpiece\n']</t>
+          <t>[' Roars like a near mighty lion\n', ' harrowing first half\n', " One of 2016's Best Films\n", ' A Gripping Story That Could Have Been Better\n', ' The Long Way Home\n', ' The lost child\n', ' A fabulous movie based on reality, not a comic.....\n', ' A long way to go\n', ' Great Film Based on a True Story\n', ' Very sentimental and moving film with emotion, family relationship, thought-provoking scenes and big feeling\n', " a trip to one's past\n", ' Excellent, But Sort of Boring\n', ' An emotional journey\n', ' Okay, but weakened by a clumsily told, superficially melodramatic second act\n', ' A Roaring Success That Might Spring A Surprise At The Oscars\n', ' Trains\n', ' I literally have no complaints about this movie and would strongly recommend it.\n', ' What an amazing story.\n', " 'We wanted the two of you in our lives. That's what we chose.'\n", ' Tells a moving, uplifting and gripping tale to the tune of one of the best, most emotive soundtracks of recent years.\n', ' A film of loss, courage, memories, and a search to reconnect after a new life.\n', ' Dev Patel is swell.\n', ' Remarkable Performances Lead A Decent Film!\n', ' Heart-breaking and heart-warming at the same time\n', ' Waiting for Guddu...\n']</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>584. Cinderella Man</t>
+          <t>584. Sling Blade</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2h 24m</t>
+          <t>2h 15m</t>
         </is>
       </c>
       <c r="D585" t="n">
         <v>8</v>
       </c>
       <c r="E585" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>tt0352248</t>
+          <t>tt0117666</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>[' A very good film that apparently takes HUGE liberties with some facts to make for a more exciting film.\n', ' Great emotional story\n', ' Great Story\n', ' Promotes the Human Element\n', ' No knock out\n', ' He Was a Symbol of Hope in a Ruined Nation\n', " You've seen it before but it is still professionally effective\n", ' A Tour-de-force acting of Rusell Crowe as a boxer desperately fights his way to save his family\n', ' Russell Crowe Fighting\n', " 'Seabiscuit' In Human Form\n", ' Hoary boxing-movie clichés abound!\n', ' Cinderella Man and His Princess ***12\n', ' A Working Class Hero Is Something to Be\n', ' Triumph against heavy odds.\n', ' I guess every Hollywood movie has to have a villain...\n', ' Fighting Intents\n', ' For Dignity and Milk.\n', ' The Braddock family in the Great Depresion\n', ' Jimmy Braddock: not your average boxer\n', ' Bop\n', ' Painfully slow first hour weakens a very good Depression era drama\n', ' Cinderella Man (2005) ***\n', " Haven't Rocky and De Niro Pretty Much Said All There Is to Say About Boxing?\n", ' Get Your Dukes Up\n', ' James J. Braddock: Gladiator of the Great Depression\n']</t>
+          <t>[" I dislike Billy Bob but despite this I couldn't help but admire and enjoy this film\n", ' All about Billy Bob\n', " Billy Bob Thornton's masterful entry to fame.\n", ' A Bit Odd, But Pretty Good\n', ' Karl Childers: an unforgettable character in modern fiction\n', ' phenomenal\n', ' It definately lives up to the hype\n', ' Billy Bob Thornton Swings in Like a Pendulum\n', ' A dynamic tale of desperate lives crossing.\n', ' Suspenseful and Dynamic Tear-Jerker that Demands Patience\n', ' You Ought Not Pass on this Movie\n', ' A brilliant slice of life...excellent performances...\n', " This film has a great buildup that leads to a perfect conclusion. I wouldn't change a single thing about this movie\n", " I Like Me Some Fried 'Taters\n", ' Beautiful slow character portrayal.\n', ' Ladies and gentleman, Mr. Billy Bob Thornton\n', ' When a murderer is the likable protagonist, mmm-hmm\n', ' Should have at least got a nomination for Best Picture\n', ' Billy Bob is a Master Stoyteller!\n', ' A Terrific Effort by Billy Bob Thornton!\n', ' Genuine filmmaking masterpiece - one of a kind! Verdict 100/100\n', " Billy Bob's Break\n", " An excellent fim. If any film deserves to be higher up on the top 250, it's this film!\n", ' Great performances, over-earnest film\n', ' a modern American masterpiece\n']</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>585. Chungking Express</t>
+          <t>585. Cinderella Man</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>2h 24m</t>
         </is>
       </c>
       <c r="D586" t="n">
         <v>8</v>
       </c>
       <c r="E586" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>tt0109424</t>
+          <t>tt0352248</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>[' split in two\n', ' And the hype was about?...\n', ' Nailed It\n', ' I like to revisit this movie every now and then, like a quirky, quintessentially cool photo in a pineapple frame\n', ' Discontinuous\n', ' Expirary and new beginnings?\n', ' A person may like pineapple today, and something else tomorrow.\n', ' wkw was just getting started\n', ' A Hong Kong love story.\n', ' Shallow and hard to connect with. Nice camera work though\n', ' Chungking Express\n', ' Fantastic\n', ' 2 cops in love\n', ' Quirky, Melancholic &amp; Delightfully Amusing, Chungking Express Is As Endearing As It Is Captivating\n', ' A wonderful film\n', ' Stunning exploration of love\n', ' Full of style, substance, and self-reflective humor\n', ' chungking xpress\n', " Stunning visuals and an unforgettable performance from cutie Fay Wong make 'Chungking Express' a winner!\n", ' The Answers to Mundane Everyday Repetition are Everywhere\n', ' FEEL-GOOD ROMANCE\n', ' God movie\n', ' The most chilled out movie.\n', ' Good but\n', ' A Good, Broken Record\n']</t>
+          <t>[' A very good film that apparently takes HUGE liberties with some facts to make for a more exciting film.\n', ' Great emotional story\n', ' Great Story\n', ' Promotes the Human Element\n', ' No knock out\n', ' He Was a Symbol of Hope in a Ruined Nation\n', " You've seen it before but it is still professionally effective\n", ' A Tour-de-force acting of Rusell Crowe as a boxer desperately fights his way to save his family\n', ' Russell Crowe Fighting\n', " 'Seabiscuit' In Human Form\n", ' Hoary boxing-movie clichés abound!\n', ' Cinderella Man and His Princess ***12\n', ' A Working Class Hero Is Something to Be\n', ' Triumph against heavy odds.\n', ' I guess every Hollywood movie has to have a villain...\n', ' Fighting Intents\n', ' For Dignity and Milk.\n', ' The Braddock family in the Great Depresion\n', ' Jimmy Braddock: not your average boxer\n', ' Bop\n', ' Painfully slow first hour weakens a very good Depression era drama\n', ' Cinderella Man (2005) ***\n', " Haven't Rocky and De Niro Pretty Much Said All There Is to Say About Boxing?\n", ' Get Your Dukes Up\n', ' James J. Braddock: Gladiator of the Great Depression\n']</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>586. Annie Hall</t>
+          <t>586. Chungking Express</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D587" t="n">
         <v>8</v>
       </c>
       <c r="E587" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>tt0075686</t>
+          <t>tt0109424</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>[' The film where Woody Allen found his own voice, and one of his best ever films\n', ' Alvy and Annie\n', ' still funny and daring\n', ' My Favorite Film of All Time\n', " Woody's Best\n", ' Annie Hall\n', ' Woody Allen begins to grow up \x96one of his best\n', ' Refusing to belong to a club that would have you as a member...\n', " Considered Allen's Best Film, I Personally Disagree\n", " I didn't get the hype.\n", ' A valentine to unhappiness--and the need to be unhappy\n', " One of the best-remembered films of the '70s\n", " it's better than I remembered.\n", " I'm Not With the In Crowd- Annie Hall Takes A Fall *\n", ' Dull\n', " Woody Allen's fresh, intelligent, and innovative romantic comedy.\n", ' A Neat(!) Movie\n', ' Razz Ma Tazz\n', ' One of the greatest movies ever made\n', ' The Story about the Story\n', ' A relationship, I think, is like a shark. It has to constantly move forward or it dies. And I think what we got on our hands is a dead shark.\n', " One of Allen's best\n", ' I Lurv "Annie Hall." I Luff It (with Two "F"s).....\n', ' Incredible\n', " Woody's Masterpiece\n"]</t>
+          <t>[' split in two\n', ' And the hype was about?...\n', ' Nailed It\n', ' I like to revisit this movie every now and then, like a quirky, quintessentially cool photo in a pineapple frame\n', ' Discontinuous\n', ' Expirary and new beginnings?\n', ' A person may like pineapple today, and something else tomorrow.\n', ' wkw was just getting started\n', ' A Hong Kong love story.\n', ' Chungking Express\n', ' Shallow and hard to connect with. Nice camera work though\n', ' Fantastic\n', ' 2 cops in love\n', ' Quirky, Melancholic &amp; Delightfully Amusing, Chungking Express Is As Endearing As It Is Captivating\n', ' A wonderful film\n', ' Stunning exploration of love\n', ' Full of style, substance, and self-reflective humor\n', ' chungking xpress\n', " Stunning visuals and an unforgettable performance from cutie Fay Wong make 'Chungking Express' a winner!\n", ' The Answers to Mundane Everyday Repetition are Everywhere\n', ' FEEL-GOOD ROMANCE\n', ' God movie\n', ' The most chilled out movie.\n', ' Good but\n', ' A Good, Broken Record\n']</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>587. Le Samouraï</t>
+          <t>587. Annie Hall</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="D588" t="n">
         <v>8</v>
       </c>
-      <c r="E588" t="inlineStr"/>
+      <c r="E588" t="n">
+        <v>92</v>
+      </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>tt0062229</t>
+          <t>tt0075686</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>[' exceptionally realistic and cold\n', ' Cool Killer Movie without the excitement\n', ' At Times So Cliched\n', ' One of the Most Perfect Alibis in a Great French Film Noir\n', ' Exceptional French noir film with the incomparable Alain Delon as a cold murderous\n', ' An Inspiration to John Woo\n', ' Genuine DNA of the French master\n', " Melville's minimalist, cool film with a perfect Alain Delon\n", ' May be my favorite Melville film with a style that has inspired some, but is hard to match\n', ' "Our job leaves no room for etiquette."\n', ' Stylish thriller\n', ' Magnifique.\n', ' An exquisite, quietly charged classic of a crime drama\n', ' Slow Burn\n', ' Impressive.\n', ' Minimal but suspenseful\n', ' A joy to watch\n', ' Cold\n', ' Le Samourai\n', ' ice landscapes\n', ' aging beautifully\n', ' Fun with Frenchies- the evolution of the hit-man genre\n', ' There Is No Greater Solitude Than That Of A Samurai\n', ' Great suspenseful thriller\n', ' A very good classic\n']</t>
+          <t>[' The film where Woody Allen found his own voice, and one of his best ever films\n', ' Alvy and Annie\n', ' still funny and daring\n', ' My Favorite Film of All Time\n', " Woody's Best\n", ' Annie Hall\n', ' Woody Allen begins to grow up \x96one of his best\n', ' Refusing to belong to a club that would have you as a member...\n', " Considered Allen's Best Film, I Personally Disagree\n", " I didn't get the hype.\n", ' A valentine to unhappiness--and the need to be unhappy\n', " One of the best-remembered films of the '70s\n", " it's better than I remembered.\n", " I'm Not With the In Crowd- Annie Hall Takes A Fall *\n", ' Dull\n', " Woody Allen's fresh, intelligent, and innovative romantic comedy.\n", ' A Neat(!) Movie\n', ' Razz Ma Tazz\n', ' One of the greatest movies ever made\n', ' The Story about the Story\n', ' A relationship, I think, is like a shark. It has to constantly move forward or it dies. And I think what we got on our hands is a dead shark.\n', " One of Allen's best\n", ' I Lurv "Annie Hall." I Luff It (with Two "F"s).....\n', ' Incredible\n', " Woody's Masterpiece\n"]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>588. The Straight Story</t>
+          <t>588. Le Samouraï</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D589" t="n">
         <v>8</v>
       </c>
-      <c r="E589" t="n">
-        <v>86</v>
-      </c>
+      <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
-          <t>tt0166896</t>
+          <t>tt0062229</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>[" It's hard to imagine that this was directed by David Lynch!\n", ' Simple and meditative, but genuinely moving with a lot of heart and a wonderful lead performance\n', ' funny and bitter sweet\n', " Requires patience and will frustrate many viewers but is one of Lynch's most human films and is rewardingly warm\n", ' straight from the heart\n', ' Best John Deere Commercial Ever Made\n', ' A Shockingly-Straight Story From David Lynch\n', ' A very nice film, based on a true story, but clearly over-rated.\n', ' Odd cinematic coupling results in slow, impenetrable journey...\n', " Walt Disney Pictures presents: a film by David Lynch; far from it being a crazy concept, it's a sweet little slice of great film-making\n", ' I want to thank you for your kindness to a stranger.\n', ' "I want to sit with him, look up at the stars... like we used to do so long ago."\n', ' Simple But Beautiful\n', ' Only a fool does not change his mind\n', ' A film that will move you to tears!\n', ' A decent film with a decent lead\n', ' Wonderful\n', " Sometimes you need to slow down to notice what's important\n", ' Sit back and enjoy the journey\n', ' A sentimental story beautifully told.\n', ' A touching, heartfelt celebration of life -- totally non-Lynch and yet, at the same time, very much so\n', ' Lynch plays it straight... Farnsworth IS Straight...\n', ' A straight slice of a disappearing America\n', ' Full Of Good, Old-Fashioned Advice From Grandfather\n', " An old man decides to visit his brother whom he hasn't seen in years, and he does it by traveling very slowly.\n"]</t>
+          <t>[' exceptionally realistic and cold\n', ' Cool Killer Movie without the excitement\n', ' At Times So Cliched\n', ' One of the Most Perfect Alibis in a Great French Film Noir\n', ' Exceptional French noir film with the incomparable Alain Delon as a cold murderous\n', ' An Inspiration to John Woo\n', ' Genuine DNA of the French master\n', " Melville's minimalist, cool film with a perfect Alain Delon\n", ' May be my favorite Melville film with a style that has inspired some, but is hard to match\n', ' "Our job leaves no room for etiquette."\n', ' Stylish thriller\n', ' Magnifique.\n', ' An exquisite, quietly charged classic of a crime drama\n', ' Slow Burn\n', ' Impressive.\n', ' Minimal but suspenseful\n', ' A joy to watch\n', ' Cold\n', ' Le Samourai\n', ' ice landscapes\n', ' aging beautifully\n', ' Fun with Frenchies- the evolution of the hit-man genre\n', ' There Is No Greater Solitude Than That Of A Samurai\n', ' Great suspenseful thriller\n', ' A very good classic\n']</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>589. Rio Bravo</t>
+          <t>589. The Straight Story</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D590" t="n">
         <v>8</v>
       </c>
       <c r="E590" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>tt0053221</t>
+          <t>tt0166896</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>[' It only gets better each time I see it.\n', ' It is a good movie but it is overlong and too slow\n', ' Flawed western with some great action set-pieces\n', ' "You Can Do Just About Anything You Want To, Chance."\n', ' Classic John Wayne Western\n', ' Firing too slowly\n', ' Classic western despite being a little slow at times\n', ' Involving and fascinating Western masterfully directed by Howard Hawks\n', ' One of the All-Time Classic Westerns\n', ' An indoor western masterpiece\n', ' Long but cheerful, colorful Howard Hawks western...\n', ' a damn entertaining *classic* western\n', ' John Wayne, Dean Martin and Ricky Nelson Draw a Crowd for Howard Hawks\n', ' Good, very good, but NOT GREAT\n', ' A Howard Hawks/John Wayne classic\n', ' The good outweighs the bad in Hawks macho movie.\n', ' Good guy characters shine\n', ' "Sorry don\'t get it done, Dude."\n', ' This movie has everything you could ask for from the western genre\n', ' You want that gun, pick it up. I wish you would.\n', ' Well made but far from my favorite.\n', ' Town-confined Western focuses on the likable main characters\n', ' all right\n', ' will have you involved from the very beginning and with a constant smile upon your face\n', ' My masterpiece number 33!!!\n']</t>
+          <t>[" It's hard to imagine that this was directed by David Lynch!\n", ' Simple and meditative, but genuinely moving with a lot of heart and a wonderful lead performance\n', ' funny and bitter sweet\n', " Requires patience and will frustrate many viewers but is one of Lynch's most human films and is rewardingly warm\n", ' straight from the heart\n', ' Best John Deere Commercial Ever Made\n', ' A Shockingly-Straight Story From David Lynch\n', ' A very nice film, based on a true story, but clearly over-rated.\n', ' Odd cinematic coupling results in slow, impenetrable journey...\n', " Walt Disney Pictures presents: a film by David Lynch; far from it being a crazy concept, it's a sweet little slice of great film-making\n", ' I want to thank you for your kindness to a stranger.\n', ' "I want to sit with him, look up at the stars... like we used to do so long ago."\n', ' Simple But Beautiful\n', ' Only a fool does not change his mind\n', ' A film that will move you to tears!\n', ' A decent film with a decent lead\n', ' Wonderful\n', " Sometimes you need to slow down to notice what's important\n", ' Sit back and enjoy the journey\n', ' A sentimental story beautifully told.\n', ' A touching, heartfelt celebration of life -- totally non-Lynch and yet, at the same time, very much so\n', ' Lynch plays it straight... Farnsworth IS Straight...\n', ' A straight slice of a disappearing America\n', ' Full Of Good, Old-Fashioned Advice From Grandfather\n', " An old man decides to visit his brother whom he hasn't seen in years, and he does it by traveling very slowly.\n"]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>590. The Night of the Hunter</t>
+          <t>590. Rio Bravo</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D591" t="n">
         <v>8</v>
       </c>
       <c r="E591" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>tt0048424</t>
+          <t>tt0053221</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>[" Great in its time but doesn't hold up so well\n", ' Fantastic\n', ' Suffer the little children\n', ' terrific noir visual style and great Robert Mitchum\n', ' Masterpiece of Suspense\n', ' classic\n', ' Nights outside, Evil within\n', ' Tense and Suspenseful Classic\n', ' Very atmospheric thriller\n', ' Outstanding acting , fascinating camera-work and extraordinary direction by Charles Laughton\n', ' religious fanaticism leads to one of the most haunting movies ever\n', ' A classic that is still chilling over sixty years later\n', ' A Terrifying Real-World Situation\n', ' Haunting, eerie, but unnecessarily theatrical\n', ' "They abide and they endure."\n', ' All this and more\n', ' horror and dread coupled with hope and love. watch out for that song!\n', ' The only one, who could ever scare me, was a god-damn preacher man!\n', ' Beware of False Prophets\n', ' Blacker than black.\n', ' Brilliant One of a Kind\n', ' Laughton crafts a nightmarish fairytale that stands up now as a true masterpiece.\n', ' Innocence shattered\n', ' Great horror film\n', ' Memorable Mitchum weaves a spell of fear and impending doom...\n']</t>
+          <t>[' It only gets better each time I see it.\n', ' It is a good movie but it is overlong and too slow\n', ' Flawed western with some great action set-pieces\n', ' "You Can Do Just About Anything You Want To, Chance."\n', ' Classic John Wayne Western\n', ' Firing too slowly\n', ' Classic western despite being a little slow at times\n', ' Involving and fascinating Western masterfully directed by Howard Hawks\n', ' One of the All-Time Classic Westerns\n', ' An indoor western masterpiece\n', ' Long but cheerful, colorful Howard Hawks western...\n', ' a damn entertaining *classic* western\n', ' John Wayne, Dean Martin and Ricky Nelson Draw a Crowd for Howard Hawks\n', ' Good, very good, but NOT GREAT\n', ' A Howard Hawks/John Wayne classic\n', ' The good outweighs the bad in Hawks macho movie.\n', ' Good guy characters shine\n', ' "Sorry don\'t get it done, Dude."\n', ' This movie has everything you could ask for from the western genre\n', ' You want that gun, pick it up. I wish you would.\n', ' Well made but far from my favorite.\n', ' Town-confined Western focuses on the likable main characters\n', ' all right\n', ' will have you involved from the very beginning and with a constant smile upon your face\n', ' My masterpiece number 33!!!\n']</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>591. Castle in the Sky</t>
+          <t>591. The Night of the Hunter</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D592" t="n">
         <v>8</v>
       </c>
       <c r="E592" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>tt0092067</t>
+          <t>tt0048424</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>[' Amazing quality animation, a very unusual story and a whole lotta fun\n', " Absolutely beautiful, and one of Studio Ghibli's most imaginative works\n", ' imaginative world\n', ' Dreams\n', ' A visually impressive and engaging adventure with a solid narrative, characters and voice-work \x96 great fun\n', ' Sky Pirates\n', ' Miyazaki turns fantasy on its wonderful, conventional head once again\n', ' Interesting setup but lack of focus and engagement ruins this\n', " It is not Miyazaki's best as there are similar remnants to Nausica\n", ' LAPUTA - CASTLE IN THE SKY (Hayao Miyazaki, 1986) ***\n', " Doesn't the title give away that it does exist...?\n", ' Overrated anime fare\n', " Those pirates know she's a kid, right?\n", " Didn't love it as much as other Miyazaki films, but that might not be the movie\n", ' A bizarre storyline with surreal characters and beautiful animation\n', " Maybe too 'typical' of Miyazaki's work to be appreciated on its 'atypical' level...\n", " Studio Ghibli's Feature Film Debut\n", ' Great film\n', ' My 300th movie!\n', ' Steampunk Animation Pioneering...\n', ' One of the best again from Hayao Miyazaki...\n', ' Aerial adventures\n', " One of Miyazaki's best\n", ' My brief review of the film\n', ' This Japanese animated tale of adventure, danger and magic actually happens to be a bit better than average; a rousing and exciting film.\n']</t>
+          <t>[" Great in its time but doesn't hold up so well\n", ' Fantastic\n', ' Suffer the little children\n', ' terrific noir visual style and great Robert Mitchum\n', ' Masterpiece of Suspense\n', ' classic\n', ' Nights outside, Evil within\n', ' Tense and Suspenseful Classic\n', ' Very atmospheric thriller\n', ' Outstanding acting , fascinating camera-work and extraordinary direction by Charles Laughton\n', ' religious fanaticism leads to one of the most haunting movies ever\n', ' A classic that is still chilling over sixty years later\n', ' A Terrifying Real-World Situation\n', ' Haunting, eerie, but unnecessarily theatrical\n', ' "They abide and they endure."\n', ' All this and more\n', ' horror and dread coupled with hope and love. watch out for that song!\n', ' The only one, who could ever scare me, was a god-damn preacher man!\n', ' Beware of False Prophets\n', ' Blacker than black.\n', ' Brilliant One of a Kind\n', ' Laughton crafts a nightmarish fairytale that stands up now as a true masterpiece.\n', ' Innocence shattered\n', ' Great horror film\n', ' Memorable Mitchum weaves a spell of fear and impending doom...\n']</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>592. Nausicaä of the Valley of the Wind</t>
+          <t>592. Castle in the Sky</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D593" t="n">
         <v>8</v>
       </c>
       <c r="E593" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>tt0087544</t>
+          <t>tt0092067</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>[' Breathtaking to watch and highly imaginative, yet another winner from Studio Ghibli\n', ' A little familiar\n', ' Imaginative and wonderful\n', ' Very relevant for today.\n', ' The sci-fi story and environmental message blends together really well and produces an engaging film that is visually impressive and imaginative\n', ' Wonderful fantasy with ecologist significance by the Japanese master Hayao Miyazaki\n', ' Better Than Average Anime\n', ' Story Unable To Match Interesting Visuals\n', " a tale pure goodness, and the inanities of greed, in human beings, set in Miyazaki's amazing world\n", ' Mildly interesting\n', ' A movie that consists to have some of the same themes is "Princess Mononokae"\n', ' NAUSICAA OF THE VALLEY OF THE WIND (Hayao Miyazaki, 1984) ***\n', ' Underrated anime classic\n', ' A magnificent imaginative movie.\n', ' Great anime movie from the past.\n', ' A soaring effort\n', ' a stunning, thought-provoking anime worth the name of Miyazaki and Studio Ghibli\n', ' Beautiful, nightmare-inducing animation\n', ' If Miyazaki had made that film only, his legacy would have been the same...\n', ' One of the Finest Anime of Its Time\n', ' Very good\n', " 'The atmosphere is saturated with anger'...\n", ' Long Winded, Pun Intended\n', ' One more masterpiece from Hayao Miyazaki...\n', ' La-la Land\n']</t>
+          <t>[' Amazing quality animation, a very unusual story and a whole lotta fun\n', " Absolutely beautiful, and one of Studio Ghibli's most imaginative works\n", ' imaginative world\n', ' Dreams\n', ' A visually impressive and engaging adventure with a solid narrative, characters and voice-work \x96 great fun\n', ' Sky Pirates\n', ' Miyazaki turns fantasy on its wonderful, conventional head once again\n', ' Interesting setup but lack of focus and engagement ruins this\n', " It is not Miyazaki's best as there are similar remnants to Nausica\n", ' LAPUTA - CASTLE IN THE SKY (Hayao Miyazaki, 1986) ***\n', " Doesn't the title give away that it does exist...?\n", ' Overrated anime fare\n', " Those pirates know she's a kid, right?\n", " Didn't love it as much as other Miyazaki films, but that might not be the movie\n", ' A bizarre storyline with surreal characters and beautiful animation\n', " Maybe too 'typical' of Miyazaki's work to be appreciated on its 'atypical' level...\n", " Studio Ghibli's Feature Film Debut\n", ' Great film\n', ' My 300th movie!\n', ' Steampunk Animation Pioneering...\n', ' One of the best again from Hayao Miyazaki...\n', ' Aerial adventures\n', " One of Miyazaki's best\n", ' My brief review of the film\n', ' This Japanese animated tale of adventure, danger and magic actually happens to be a bit better than average; a rousing and exciting film.\n']</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>593. Fiddler on the Roof</t>
+          <t>593. Nausicaä of the Valley of the Wind</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D594" t="n">
         <v>8</v>
       </c>
       <c r="E594" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>tt0067093</t>
+          <t>tt0087544</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>[' Absolutely wonderful!\n', ' Slow at first but very compelling story\n', ' The Songs Make It Happen\n', ' fascinating\n', ' Classic , splendid musical movie with attractive scenes and awesome interpretations\n', ' tradition dies, life goes on\n', ' One of the All-Time Great Musicals\n', ' Too Long &amp; Generally Overrated\n', ' "One season following another/Laden with happiness and tears..."\n', ' Who Fiddled With Oscar?\n', ' That Touch of Shmutz\n', ' Good adaptation\n', ' Loud, lively but too long\n', ' A perfect adaptation of an enduring musical\n', ' Strong Material, Beautiful Score and Wonderful Lead Performance Overcome Heavy Directorial Hand\n', ' Fiddler on the Roof\n', ' A relatable musical for all ages, races, and religions\n', ' Tradition\n', ' A Great Musical\n', ' Rather Strong Musical!\n', ' Simple, great and very emotional\n', ' Religion kills\n', " Jewison's masterpiece\n", " Tradition? What tradition? Welcome to Tevye's world.\n", ' Fiddler on the Roof\n']</t>
+          <t>[' Breathtaking to watch and highly imaginative, yet another winner from Studio Ghibli\n', ' A little familiar\n', ' Imaginative and wonderful\n', ' Very relevant for today.\n', ' The sci-fi story and environmental message blends together really well and produces an engaging film that is visually impressive and imaginative\n', ' Wonderful fantasy with ecologist significance by the Japanese master Hayao Miyazaki\n', ' Better Than Average Anime\n', ' Story Unable To Match Interesting Visuals\n', " a tale pure goodness, and the inanities of greed, in human beings, set in Miyazaki's amazing world\n", ' Mildly interesting\n', ' A movie that consists to have some of the same themes is "Princess Mononokae"\n', ' NAUSICAA OF THE VALLEY OF THE WIND (Hayao Miyazaki, 1984) ***\n', ' Underrated anime classic\n', ' A magnificent imaginative movie.\n', ' Great anime movie from the past.\n', ' A soaring effort\n', ' a stunning, thought-provoking anime worth the name of Miyazaki and Studio Ghibli\n', ' Beautiful, nightmare-inducing animation\n', ' If Miyazaki had made that film only, his legacy would have been the same...\n', ' One of the Finest Anime of Its Time\n', ' Very good\n', " 'The atmosphere is saturated with anger'...\n", ' Long Winded, Pun Intended\n', ' One more masterpiece from Hayao Miyazaki...\n', ' La-la Land\n']</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>594. Papillon</t>
+          <t>594. Fiddler on the Roof</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2h 31m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D595" t="n">
         <v>8</v>
       </c>
       <c r="E595" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>tt0070511</t>
+          <t>tt0067093</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>[' A bona fide classic\n', " Butterfly Man Of Devil's Island\n", ' great humor and touching\n', ' Float like a butterfly\n', ' Free mind(s)\n', ' Enjoyable film upon escapes from an impregnable prison with strong performances\n', ' cinematic butterfly\n', ' An Excellent Prison Drama\n', ' A Fine Film Which Does The Book Justice\n', " Might be Steve McQueen 's best role, as Papillon.\n", " as I'm sure others have said, the 'Other' Great Escape - unsentimental and often harsh\n", ' Overlong, Over Produced, and Only Slightly Above Average\n', ' Epic drama\n', ' Escaped\n', ' Grim and authentic telling of Henri "Papillon" Charrière\'s time at Devil\'s Island.\n', ' Unflinching look at brutal penal colony...gripping but exhausting...\n', ' French\n', " Gripping Film About a Man's Determination to Be Free\n", ' The living hell of a penal colony in equatorial South America during the 30s\n', ' My Masterpiece number 03\n', ' Long But Harrowing Drama.\n', ' Papillon\n', ' One man and an island\n', ' The Man with the "Butterfly" Tattoo ...\n', ' Indeed The Greatest Adventure of Escape with Great Performances by McQueen and Hoffman.\n']</t>
+          <t>[' Absolutely wonderful!\n', ' Slow at first but very compelling story\n', ' The Songs Make It Happen\n', ' fascinating\n', ' Classic , splendid musical movie with attractive scenes and awesome interpretations\n', ' tradition dies, life goes on\n', ' One of the All-Time Great Musicals\n', ' Too Long &amp; Generally Overrated\n', ' "One season following another/Laden with happiness and tears..."\n', ' Who Fiddled With Oscar?\n', ' That Touch of Shmutz\n', ' Good adaptation\n', ' Loud, lively but too long\n', ' A perfect adaptation of an enduring musical\n', ' Strong Material, Beautiful Score and Wonderful Lead Performance Overcome Heavy Directorial Hand\n', ' Fiddler on the Roof\n', ' A relatable musical for all ages, races, and religions\n', ' Tradition\n', ' A Great Musical\n', ' Rather Strong Musical!\n', ' Simple, great and very emotional\n', ' Religion kills\n', " Jewison's masterpiece\n", " Tradition? What tradition? Welcome to Tevye's world.\n", ' Fiddler on the Roof\n']</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>595. Roman Holiday</t>
+          <t>595. Papillon</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 31m</t>
         </is>
       </c>
       <c r="D596" t="n">
         <v>8</v>
       </c>
       <c r="E596" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>tt0046250</t>
+          <t>tt0070511</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>[' Absolutely sublime!\n', ' Good-natured, well acted, impossible to dislike\n', ' Audrey Sparkles Through\n', ' perfect pairing\n', ' Two Really Big Stars Show Why!\n', ' special\n', ' A Princess Has All Wishes Accomplished in One Day in a Delightful Romance in Rome\n', ' Funny and enjoyable romantic comedy with an unforgettable Audrey Hepburn\n', ' OK, so I admit...\n', ' A Fun Romp, as the Kids Say\n', ' Unabashed innocence\n', " look up 'charming' in the dictionary...\n", ' Audrey Hepburn had a great start in American film with Roman Holiday\n', ' Introducing Audrey Hepburn\n', ' Viva Audrey!\n', ' Not quite as original as everybody assumes...no glass slipper for this one...\n', ' One of the all time greatest romanitc films\n', ' Elizabeth Taylor would have been better\n', " Audrey Hepburn Is the Movie's Sole Reason for Existing\n", ' Delightful movie.\n', ' And introducing Audrey Hepburn\n', ' Charming Getaway.\n', ' A Hollywood Classic!\n', " We're all going on a Roman holiday...\n", ' Magical romantic comedy\n']</t>
+          <t>[' A bona fide classic\n', " Butterfly Man Of Devil's Island\n", ' great humor and touching\n', ' Float like a butterfly\n', ' Free mind(s)\n', ' Enjoyable film upon escapes from an impregnable prison with strong performances\n', ' cinematic butterfly\n', ' An Excellent Prison Drama\n', ' A Fine Film Which Does The Book Justice\n', " Might be Steve McQueen 's best role, as Papillon.\n", " as I'm sure others have said, the 'Other' Great Escape - unsentimental and often harsh\n", ' Overlong, Over Produced, and Only Slightly Above Average\n', ' Epic drama\n', ' Escaped\n', ' Grim and authentic telling of Henri "Papillon" Charrière\'s time at Devil\'s Island.\n', ' Unflinching look at brutal penal colony...gripping but exhausting...\n', ' French\n', " Gripping Film About a Man's Determination to Be Free\n", ' The living hell of a penal colony in equatorial South America during the 30s\n', ' My Masterpiece number 03\n', ' Long But Harrowing Drama.\n', ' Papillon\n', ' One man and an island\n', ' The Man with the "Butterfly" Tattoo ...\n', ' Indeed The Greatest Adventure of Escape with Great Performances by McQueen and Hoffman.\n']</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>596. Mommy</t>
+          <t>596. Roman Holiday</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D597" t="n">
         <v>8</v>
       </c>
       <c r="E597" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>tt3612616</t>
+          <t>tt0046250</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>[' volatile performances\n', ' Family issues\n', ' Phenomenal\n', ' An emotional grinder\n', ' The Elephant In the Room\n', ' Xavier Dolan In Full Control Of His Fledgling Craft\n', ' Phenomenal acting\n', ' Lacks substantial character growth, plot development, or psychological insight\n', ' Xavier Dolan did it again!\n', ' LOVED THE RARE 1:1 RATIO\n', ' A remarkable and challenging family drama\n', ' Beavis and Butthead in real life.\n', ' Life is hard\n', " ... it's a watch-once... that's well enough\n", ' Messy and shamelessly indulgent but with a powerful performance at its forefront.\n', ' Anne Dorval leads a great cast\n', ' Wow.\n', ' Mommy\n', ' Really Good in square frame.\n', " Film making at it's best\n", ' Highly Strung Mommy and son\n', ' Brilliant film.\n', ' A work of art\n', ' Fabulous Film That really moved me\n', ' Very nearly perfection\n']</t>
+          <t>[' Absolutely sublime!\n', ' Good-natured, well acted, impossible to dislike\n', ' Audrey Sparkles Through\n', ' perfect pairing\n', ' Two Really Big Stars Show Why!\n', ' special\n', ' A Princess Has All Wishes Accomplished in One Day in a Delightful Romance in Rome\n', ' Funny and enjoyable romantic comedy with an unforgettable Audrey Hepburn\n', ' OK, so I admit...\n', ' A Fun Romp, as the Kids Say\n', ' Unabashed innocence\n', " look up 'charming' in the dictionary...\n", ' Audrey Hepburn had a great start in American film with Roman Holiday\n', ' Introducing Audrey Hepburn\n', ' Viva Audrey!\n', ' Not quite as original as everybody assumes...no glass slipper for this one...\n', ' One of the all time greatest romanitc films\n', ' Elizabeth Taylor would have been better\n', " Audrey Hepburn Is the Movie's Sole Reason for Existing\n", ' Delightful movie.\n', ' And introducing Audrey Hepburn\n', ' Charming Getaway.\n', ' A Hollywood Classic!\n', " We're all going on a Roman holiday...\n", ' Magical romantic comedy\n']</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>597. Pink Floyd: The Wall</t>
+          <t>597. Mommy</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="D598" t="n">
         <v>8</v>
       </c>
       <c r="E598" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>tt0084503</t>
+          <t>tt3612616</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>[' must for Pink Floyd fans\n', ' Terrific Album, Good Movie\n', ' Cup of tea\n', ' The Catatonic Process of Paranoia and Madness\n', ' Paranoia and Madness\n', ' The disturbing film of the Pink Floyd Album\n', ' "Is there anybody in there?"\n', " a great musical film even if it's imperfect\n", " Parker's Best\n", ' Grim - Depressing - Disparaging - Fatalistic Film of the 2LP Album\n', ' Superb surreal psychological drama\n', ' Labial Levels\n', ' The Human Condition\n', ' Fascinating but SO depressing!\n', " we don't need no...\n", ' I enjoyed every second of it!\n', " A brilliant assault on the senses you have and don't have\n", ' Less Is More\n', " Pink Floyd's music works on its own. As a film, it's a waste of time.\n", ' Well that was... something\n', ' Visual Album\n', ' My brief review of the film\n', ' Self indulgent nonsense\n', ' Tear Down The Wall\n', ' A fascinating movie, but the potential is unfulfilled...\n']</t>
+          <t>[' volatile performances\n', ' Family issues\n', ' Phenomenal\n', ' An emotional grinder\n', ' The Elephant In the Room\n', ' Xavier Dolan In Full Control Of His Fledgling Craft\n', ' Phenomenal acting\n', ' Lacks substantial character growth, plot development, or psychological insight\n', ' Xavier Dolan did it again!\n', ' LOVED THE RARE 1:1 RATIO\n', ' A remarkable and challenging family drama\n', ' Beavis and Butthead in real life.\n', ' Life is hard\n', " ... it's a watch-once... that's well enough\n", ' Messy and shamelessly indulgent but with a powerful performance at its forefront.\n', ' Anne Dorval leads a great cast\n', ' Wow.\n', ' Mommy\n', ' Really Good in square frame.\n', " Film making at it's best\n", ' Highly Strung Mommy and son\n', ' Brilliant film.\n', ' A work of art\n', ' Fabulous Film That really moved me\n', ' Very nearly perfection\n']</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>598. Ip Man</t>
+          <t>598. Pink Floyd: The Wall</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D599" t="n">
         <v>8</v>
       </c>
       <c r="E599" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>tt1220719</t>
+          <t>tt0084503</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>[" This ain't what your daddy watched back in the 1960s and 70s!\n", ' Blows Fearless out of the water\n', ' Donnie Yen great dignity\n', ' Kung Fu Master\n', ' Famous\n', ' Wing Chun, Ip Man...\n', ' Interesting as well as exciting Kung Fu movie with violent combats , thrills ,and inevitable ending showdown\n', ' Must see martial arts action\n', " You can't keep a good Ip Man down.\n", ' Brings To Light A Little-Known Historical Figure\n', ' fantastic martial arts movie, good-to-OK drama\n', ' A great martial arts film!\n', ' Well Worth Watching\n', ' A modern day martial arts masterpiece\n', ' A Nutshell Review: Ip Man\n', ' WHAT A BEAST!\n', ' Good...\n', ' highly entertaining with great performance from lead\n', ' Fight sequences was entertaining to watch from beginning to end\n', ' One Of The Greatest Martial Arts Film Of All Time\n', ' Solid film\n', ' The start of Yip Man...\n', ' Awesome\n', ' Great martial arts film\n', ' Ecxcellent action film\n']</t>
+          <t>[' must for Pink Floyd fans\n', ' Terrific Album, Good Movie\n', ' Cup of tea\n', ' The Catatonic Process of Paranoia and Madness\n', ' Paranoia and Madness\n', ' The disturbing film of the Pink Floyd Album\n', ' "Is there anybody in there?"\n', " a great musical film even if it's imperfect\n", " Parker's Best\n", ' Grim - Depressing - Disparaging - Fatalistic Film of the 2LP Album\n', ' Superb surreal psychological drama\n', ' Labial Levels\n', ' The Human Condition\n', ' Fascinating but SO depressing!\n', " we don't need no...\n", ' I enjoyed every second of it!\n', " A brilliant assault on the senses you have and don't have\n", ' Less Is More\n', " Pink Floyd's music works on its own. As a film, it's a waste of time.\n", ' Well that was... something\n', ' Visual Album\n', ' My brief review of the film\n', ' Self indulgent nonsense\n', ' Tear Down The Wall\n', ' A fascinating movie, but the potential is unfulfilled...\n']</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>599. The Shop Around the Corner</t>
+          <t>599. Ip Man</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D600" t="n">
         <v>8</v>
       </c>
       <c r="E600" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>tt0033045</t>
+          <t>tt1220719</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>[' Incredibly beautiful, funny and touching\n', ' The Darndest casting decisions\n', ' rom-com classic\n', ' Classic Romance\n', ' admirable\n', ' Delightfully Naive Romance\n', ' Above average delicate romantic comedy with great cast giving top-drawer acting and magnificently directed by Lubitsch\n', ' The Archetype of a Romantic Comedy?\n', ' Oozes With Charm\n', ' Refreshingly nice romantic comedy.\n', ' Some missteps, but otherwise very pleasant\n', ' The original "You\'ve Got Mail"\n', " It's a wonderful world.\n", ' wonderful work by Lubitsch &amp; co\n', ' Grow Old with Ernst Lubitsch\n', ' Commendable, But Over-Rated\n', ' All remakes pale in comparison\n', ' Pen pals in Budapest\n', ' Charming\n', ' Not quite as good as I expected...\n', ' Fine Ernst Lubitsch movie\n', ' Wonderful characters, heartwarming performances\n', ' Timeless Classic\n', ' This is an underrated holiday gem that is an absolute must see\n', ' A Nearly Perfect Little Romance\n']</t>
+          <t>[" This ain't what your daddy watched back in the 1960s and 70s!\n", ' Blows Fearless out of the water\n', ' Donnie Yen great dignity\n', ' Kung Fu Master\n', ' Famous\n', ' Wing Chun, Ip Man...\n', ' Interesting as well as exciting Kung Fu movie with violent combats , thrills ,and inevitable ending showdown\n', ' Must see martial arts action\n', " You can't keep a good Ip Man down.\n", ' Brings To Light A Little-Known Historical Figure\n', ' fantastic martial arts movie, good-to-OK drama\n', ' A great martial arts film!\n', ' Well Worth Watching\n', ' A modern day martial arts masterpiece\n', ' A Nutshell Review: Ip Man\n', ' WHAT A BEAST!\n', ' Good...\n', ' highly entertaining with great performance from lead\n', ' Fight sequences was entertaining to watch from beginning to end\n', ' One Of The Greatest Martial Arts Film Of All Time\n', ' Solid film\n', ' The start of Yip Man...\n', ' Awesome\n', ' Great martial arts film\n', ' Ecxcellent action film\n']</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>600. Solaris</t>
+          <t>600. The Shop Around the Corner</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2h 47m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="D601" t="n">
         <v>8</v>
       </c>
       <c r="E601" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>tt0069293</t>
+          <t>tt0033045</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>[" How do I give this movie a score--there just isn't much I can compare it to!\n", ' Possibly Tarkovsky at his least accessible but from personal opinion Solaris is a fine film\n', ' Russian\n', ' Real Science Fiction\n', ' personal story\n', ' Original Approach of First Contact and Alien Lifeform\n', ' knowledge of the outside vs. knowledge of oneself\n', ' The Russian Sci Fi Masterpiece?\n', ' "You mean more to me than any scientific truth."\n', ' Original and intriguing plot, executed painfully slowly\n', ' Incredibly slow and dull\n', " Tarkovsky's response to 2001\n", ' Excellent, contemplative sci-fi drama\n', ' Cerebral Sci-Fi\n', ' The year we made contact.\n', ' Let it take you\n', ' Most overrated sci-fi in cinematic history.\n', ' Solaris\n', ' A film pondering the limits of man\n', ' One of the best sci-fi films of all time.\n', ' As Thoughtful As It Is Thought-Provoking\n', ' A Dreary "Russian-Style" Space-Age Soap Opera\n', ' Philosophical\n', ' Cosmonaut of the mind\n', ' "When man is happy, the meaning of life and other eternal themes rarely interest him."\n']</t>
+          <t>[' Incredibly beautiful, funny and touching\n', ' The Darndest casting decisions\n', ' rom-com classic\n', ' Classic Romance\n', ' admirable\n', ' Delightfully Naive Romance\n', ' Above average delicate romantic comedy with great cast giving top-drawer acting and magnificently directed by Lubitsch\n', ' The Archetype of a Romantic Comedy?\n', ' Oozes With Charm\n', ' Refreshingly nice romantic comedy.\n', ' Some missteps, but otherwise very pleasant\n', ' The original "You\'ve Got Mail"\n', " It's a wonderful world.\n", ' wonderful work by Lubitsch &amp; co\n', ' Grow Old with Ernst Lubitsch\n', ' Commendable, But Over-Rated\n', ' All remakes pale in comparison\n', ' Pen pals in Budapest\n', ' Charming\n', ' Not quite as good as I expected...\n', ' Fine Ernst Lubitsch movie\n', ' Wonderful characters, heartwarming performances\n', ' Timeless Classic\n', ' This is an underrated holiday gem that is an absolute must see\n', ' A Nearly Perfect Little Romance\n']</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>601. 8½</t>
+          <t>601. Solaris</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 47m</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -20196,62 +20196,62 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>tt0056801</t>
+          <t>tt0069293</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>[" I didn't particularly enjoy it, but I certainly respect what it attempted as well as its impact on future films\n", ' A masterpiece\n', ' imaginative and rambling\n', ' Such Vitriol\n', ' an event\n', ' Memories of a film-maker\n', ' A difficult film that is worth seeing due to its influence more than its own merits, even if it does have merit on its own\n', ' intellectual crisis of artistry\n', " Fellini's Masterpiece?\n", ' "What are you working on now? Another film without hope?"\n', ' one of the first foreign films I saw is still in my top 10 of all time\n', " Sorry, but I just don't see the same movie everyone else has.\n", ' Another Indulgent Fellini Offering\n', ' Wow\n', ' Cinema!\n', ' My definition of masterpiece is totally opposite!!!\n', ' Peak\n', ' Fantastic\n', ' Unique and interesting\n', ' Cinema is a subjective art form\n', " Fellini's visionary, autobiographical masterpiece\n", ' A fundamental piece of new cinematic expression ...\n', " Federico Fellini's most revered masterpiece is undoubtedly one of most creative portrait of artistic and surrealist cinema ever made across the globe.\n", ' A Tedious, Overlong &amp; Self-Indulgent Exercise\n', ' What a huge dissapointment\n']</t>
+          <t>[" How do I give this movie a score--there just isn't much I can compare it to!\n", ' Possibly Tarkovsky at his least accessible but from personal opinion Solaris is a fine film\n', ' Russian\n', ' Real Science Fiction\n', ' personal story\n', ' Original Approach of First Contact and Alien Lifeform\n', ' knowledge of the outside vs. knowledge of oneself\n', ' The Russian Sci Fi Masterpiece?\n', ' "You mean more to me than any scientific truth."\n', ' Original and intriguing plot, executed painfully slowly\n', ' Incredibly slow and dull\n', " Tarkovsky's response to 2001\n", ' Excellent, contemplative sci-fi drama\n', ' Cerebral Sci-Fi\n', ' The year we made contact.\n', ' Let it take you\n', ' Most overrated sci-fi in cinematic history.\n', ' Solaris\n', ' A film pondering the limits of man\n', ' One of the best sci-fi films of all time.\n', ' As Thoughtful As It Is Thought-Provoking\n', ' A Dreary "Russian-Style" Space-Age Soap Opera\n', ' Philosophical\n', ' Cosmonaut of the mind\n', ' "When man is happy, the meaning of life and other eternal themes rarely interest him."\n']</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>602. La Dolce Vita</t>
+          <t>602. 8½</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2h 54m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D603" t="n">
         <v>8</v>
       </c>
       <c r="E603" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>tt0053779</t>
+          <t>tt0056801</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>[' La Dolce Vita is a wonder to behold!\n', ' iconic\n', ' Watched It Several Times/Hope Someday to Really Understand It\n', ' sweet life of irony\n', ' The Modern Italian Film\n', ' A man searches for meanings and finds...nothing\n', ' Consistently entertaining and entrancing Fellini-lore\n', ' Anita Ekberg steals the show\n', ' Women: Handkerchiefs, Shirts and Bras\n', ' Beautiful Looking But Profoundly Hollow\n', ' Fellini ... Sweet\n', ' An ode to life.\n', ' pure cinema\n', ' So good. We want it on DVD, please. Do films get better? No. There are some equals, but no superiors.\n', ' Glamorous but shallow, which I suppose was the point\n', ' Fellini in pure form\n', ' Seductive but exhausting New Wave epic\n', ' The Sweetness of Life\n', ' Just Marcello Mastroianni...\n', ' Scattered and incoherent\n', ' A brilliant and strangely engrossing film\n', ' My brief review of the film\n', ' The Irony in the Search for the Sweet Life\n', ' Simply Perfection\n', " Not That It's Not Overrated Or Anything, But...\n"]</t>
+          <t>[" I didn't particularly enjoy it, but I certainly respect what it attempted as well as its impact on future films\n", ' A masterpiece\n', ' imaginative and rambling\n', ' Such Vitriol\n', ' an event\n', ' Memories of a film-maker\n', ' A difficult film that is worth seeing due to its influence more than its own merits, even if it does have merit on its own\n', ' intellectual crisis of artistry\n', " Fellini's Masterpiece?\n", ' "What are you working on now? Another film without hope?"\n', ' one of the first foreign films I saw is still in my top 10 of all time\n', " Sorry, but I just don't see the same movie everyone else has.\n", ' Another Indulgent Fellini Offering\n', ' Wow\n', ' Cinema!\n', ' My definition of masterpiece is totally opposite!!!\n', ' Peak\n', ' Fantastic\n', ' Unique and interesting\n', ' Cinema is a subjective art form\n', " Fellini's visionary, autobiographical masterpiece\n", ' A fundamental piece of new cinematic expression ...\n', " Federico Fellini's most revered masterpiece is undoubtedly one of most creative portrait of artistic and surrealist cinema ever made across the globe.\n", ' A Tedious, Overlong &amp; Self-Indulgent Exercise\n', ' What a huge dissapointment\n']</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>603. Anatomy of a Murder</t>
+          <t>603. La Dolce Vita</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2h 41m</t>
+          <t>2h 54m</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -20262,536 +20262,536 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>tt0052561</t>
+          <t>tt0053779</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>[' Unlike most courtroom films, this one seems to follow the case from start to finish.\n', ' One classy, sophisticated and entertaining courtroom drama\n', " Stewart's film\n", ' Sensational Murder In The U.P.\n', ' classic courtroom drama\n', ' Stewart at His Best\n', ' Murder who (re)wrote\n', " Classy courtroom drama that trades on it's cynical edge\n", ' Top-drawer courtroom drama with classic performances and thought-provoking screenplay\n', ' this is what courtroom movies are all about\n', ' A Good Courtroom Drama, But Far From the Best\n', " The Good &amp; Bad Of 'Anatomy Of A Murder'\n", ' Masterful courtroom drama, impeccably cast...\n', ' one fine courtroom drama: epic, cool, extremely well-plotted and acted\n', ' Anatomy of an Oscar Loser ***\n', ' A Great Anatomy\n', ' DARING IN ITS DAY...TODAY A STRAIGHT WORDY "STAGE" PLAY\n', ' Brilliant - the greatest courtroom drama film ever made\n', ' Drunk Lawyers\n', " The prosecution would like to separate the motive from the act. Well, that's like trying to take the core from an apple without breaking the skin.\n", ' Time has blunted the shock appeal this had originally...\n', ' Involving court precedings with outstanding performances by James Stewart and cast\n', ' One of my favorites\n', " All right, the cat's out of the bag; it's fair game for me to chase it!\n", " The Verdict Doesn't Matter in This Courtroom Thriller\n"]</t>
+          <t>[' La Dolce Vita is a wonder to behold!\n', ' iconic\n', ' Watched It Several Times/Hope Someday to Really Understand It\n', ' sweet life of irony\n', ' The Modern Italian Film\n', ' A man searches for meanings and finds...nothing\n', ' Consistently entertaining and entrancing Fellini-lore\n', ' Anita Ekberg steals the show\n', ' Women: Handkerchiefs, Shirts and Bras\n', ' Beautiful Looking But Profoundly Hollow\n', ' Fellini ... Sweet\n', ' An ode to life.\n', ' pure cinema\n', ' So good. We want it on DVD, please. Do films get better? No. There are some equals, but no superiors.\n', ' Glamorous but shallow, which I suppose was the point\n', ' Fellini in pure form\n', ' Seductive but exhausting New Wave epic\n', ' The Sweetness of Life\n', ' Just Marcello Mastroianni...\n', ' Scattered and incoherent\n', ' A brilliant and strangely engrossing film\n', ' My brief review of the film\n', ' The Irony in the Search for the Sweet Life\n', ' Simply Perfection\n', " Not That It's Not Overrated Or Anything, But...\n"]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>604. Gandhi</t>
+          <t>604. Anatomy of a Murder</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>3h 11m</t>
+          <t>2h 41m</t>
         </is>
       </c>
       <c r="D605" t="n">
         <v>8</v>
       </c>
       <c r="E605" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>tt0083987</t>
+          <t>tt0052561</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>[" One of Richard Attenborough's best films\n", ' Mohandas Karamchand Gandhi.........1869-1948\n', ' grand epic from Attenborough and human scale epic from Kingsley\n', ' Deserves All the Praise\n', ' Sir Gandhi\n', ' Deserves to be as highly regarded as it is\n', ' Splendid biopic about the lawyer who became the prestigious leader of the Indian revolts against the British through his philosophy of non-violence\n', ' Does anyone remember "Gandhi II" from "UHF"? Or Robin Williams\' comment about Gandhi Jeans?\n', ' Ben Kingsley, One of the All-Time Greats\n', ' The Good - And The Bad - Of Gandhi\n', ' "There have been tyrants, and for a time they can seem invincible, but in the end they always fall..."\n', ' A great man gets the great bio he deserves\n', ' an intellectually engaging experience, with a moving central performance at the center\n', ' Gandhi the Great ***\n', ' A powerful biopic of wisdom, compassion and selflessness\n', ' The Hunger Games\n', ' Good film on a great man\n', ' Important movie about an actual historical figure\n', ' Powerful\n', ' If you are a minority of one, the truth is the truth.\n', ' Serviceable Rather Than Inspired\n', ' A wonderful movie about a remarkable man.\n', ' Beautiful film\n', ' All-Time Great Performance By Ben Kingsly.\n', ' Beautiful movie about a truly enlightened man\n']</t>
+          <t>[' Unlike most courtroom films, this one seems to follow the case from start to finish.\n', ' One classy, sophisticated and entertaining courtroom drama\n', " Stewart's film\n", ' Sensational Murder In The U.P.\n', ' classic courtroom drama\n', ' Stewart at His Best\n', ' Murder who (re)wrote\n', " Classy courtroom drama that trades on it's cynical edge\n", ' Top-drawer courtroom drama with classic performances and thought-provoking screenplay\n', ' this is what courtroom movies are all about\n', ' A Good Courtroom Drama, But Far From the Best\n', " The Good &amp; Bad Of 'Anatomy Of A Murder'\n", ' Masterful courtroom drama, impeccably cast...\n', ' one fine courtroom drama: epic, cool, extremely well-plotted and acted\n', ' Anatomy of an Oscar Loser ***\n', ' A Great Anatomy\n', ' DARING IN ITS DAY...TODAY A STRAIGHT WORDY "STAGE" PLAY\n', ' Brilliant - the greatest courtroom drama film ever made\n', ' Drunk Lawyers\n', " The prosecution would like to separate the motive from the act. Well, that's like trying to take the core from an apple without breaking the skin.\n", ' Time has blunted the shock appeal this had originally...\n', ' Involving court precedings with outstanding performances by James Stewart and cast\n', ' One of my favorites\n', " All right, the cat's out of the bag; it's fair game for me to chase it!\n", " The Verdict Doesn't Matter in This Courtroom Thriller\n"]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>605. High Noon</t>
+          <t>605. Gandhi</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>1h 25m</t>
+          <t>3h 11m</t>
         </is>
       </c>
       <c r="D606" t="n">
         <v>8</v>
       </c>
       <c r="E606" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>tt0044706</t>
+          <t>tt0083987</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>[' Not the best Western ever,...but pretty darn close\n', ' A classic? I think so!\n', ' Still packs a punch\n', ' "Oh, To Be Torn Twixt Love And Duty"\n', ' true hero movie\n', ' One of the All Time Greats\n', ' The Prototype for a Hundred Westerns\n', ' A man apart\n', ' Real Time\n', ' A Tense and Suspenseful Western\n', ' Tense and Suspenseful Western\n', ' Famed Western with a magnificent Gary Cooper and a splendid Grace Kelly\n', ' now this is what I call a western\n', ' Gary Cooper Makes a Pretty Good Sheriff\n', ' Classic confrontation...\n', ' "What will I doooooo?"\n', ' Raising Kane\n', ' Stripped-Down Classic\n', ' "A person is smart but people are dumb panicky animals and you know it"...\n', ' Classic western\n', ' This is just a dirty little village in the middle of nowhere. Nothing that happens here is really important.\n', ' Citizen Kane\n', ' What Happens at High Noon?\n', ' Tightly constructed western with that unforgettable Dimitri Tiomkin song...\n', ' Ground breaking Western\n']</t>
+          <t>[" One of Richard Attenborough's best films\n", ' Mohandas Karamchand Gandhi.........1869-1948\n', ' grand epic from Attenborough and human scale epic from Kingsley\n', ' Deserves All the Praise\n', ' Sir Gandhi\n', ' Deserves to be as highly regarded as it is\n', ' Splendid biopic about the lawyer who became the prestigious leader of the Indian revolts against the British through his philosophy of non-violence\n', ' Does anyone remember "Gandhi II" from "UHF"? Or Robin Williams\' comment about Gandhi Jeans?\n', ' Ben Kingsley, One of the All-Time Greats\n', ' The Good - And The Bad - Of Gandhi\n', ' "There have been tyrants, and for a time they can seem invincible, but in the end they always fall..."\n', ' A great man gets the great bio he deserves\n', ' an intellectually engaging experience, with a moving central performance at the center\n', ' Gandhi the Great ***\n', ' A powerful biopic of wisdom, compassion and selflessness\n', ' The Hunger Games\n', ' Good film on a great man\n', ' Important movie about an actual historical figure\n', ' Powerful\n', ' If you are a minority of one, the truth is the truth.\n', ' Serviceable Rather Than Inspired\n', ' A wonderful movie about a remarkable man.\n', ' Beautiful film\n', ' All-Time Great Performance By Ben Kingsly.\n', ' Beautiful movie about a truly enlightened man\n']</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>606. Infernal Affairs</t>
+          <t>606. High Noon</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 25m</t>
         </is>
       </c>
       <c r="D607" t="n">
         <v>8</v>
       </c>
       <c r="E607" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>tt0338564</t>
+          <t>tt0044706</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>[" An excellent game of cat and mouse...but who's the cat and who is the mouse?!\n", ' A reminder that decent plotting makes a film\n', ' stylish crime drama\n', ' Really Strong Film\n', " At it's heart, a gripping cop thriller\n", ' Crime thriller done right...\n', ' Solid Hong Kong Thriller\n', " even if I'd seen this before the Departed, it's still simply a good movie\n", ' Great drama\n', ' The Cosmos, Two Cosmi\n', ' Gangs of Hong Kong\n', ' Almost as Good as They Say\n', ' A Fairly Entertaining Crime-Drama\n', " I'll dream of you, Officer Yan.\n", " Hong Kong 'No Way Out'\n", ' a modern masterpiece\n', ' Undercover inception.\n', ' Intricate web of undercover deceit.\n', " Very well made, but the 4/10 is because I just didn't enjoy it that much...\n", ' A textbook thriller\n', ' not bad,but i think The Departed is a better film\n', " If You've Seen The Departed First, Then Infernal Affairs Might Leave You Cold.\n", ' Great movie\n', ' Good But 2 Sequels Are Hard To Justify\n', ' The Worst of The 8 Hells Is Continuous Hell\n']</t>
+          <t>[' Not the best Western ever,...but pretty darn close\n', ' A classic? I think so!\n', ' Still packs a punch\n', ' "Oh, To Be Torn Twixt Love And Duty"\n', ' true hero movie\n', ' One of the All Time Greats\n', ' The Prototype for a Hundred Westerns\n', ' A man apart\n', ' Real Time\n', ' A Tense and Suspenseful Western\n', ' Tense and Suspenseful Western\n', ' Famed Western with a magnificent Gary Cooper and a splendid Grace Kelly\n', ' now this is what I call a western\n', ' Gary Cooper Makes a Pretty Good Sheriff\n', ' Classic confrontation...\n', ' "What will I doooooo?"\n', ' Raising Kane\n', ' Stripped-Down Classic\n', ' "A person is smart but people are dumb panicky animals and you know it"...\n', ' Classic western\n', ' This is just a dirty little village in the middle of nowhere. Nothing that happens here is really important.\n', ' Citizen Kane\n', ' What Happens at High Noon?\n', ' Tightly constructed western with that unforgettable Dimitri Tiomkin song...\n', ' Ground breaking Western\n']</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>607. Fitzcarraldo</t>
+          <t>607. Infernal Affairs</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2h 38m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D608" t="n">
         <v>8</v>
       </c>
-      <c r="E608" t="inlineStr"/>
+      <c r="E608" t="n">
+        <v>75</v>
+      </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>tt0083946</t>
+          <t>tt0338564</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>[' an incredible feast for the eyes\n', " Werner Herzog's masterpiece\n", ' madness, madness, madness\n', ' The Madman Wins\n', ' Crazy Men\n', " Kinski's visionary adventurer obsessively hatches a grandiose scheme through the Amazon jungles\n", ' opera in the jungle\n', ' the most operatic documentary-style epic ever made- fearlessly unique\n', ' Werner &amp; Klaus can move, move, move any mountain!\n', ' Reasonably interesting story, great cinematography\n', ' Into the Jungle Again with Werner Herzog\n', ' Apocalypse Now in the Amazon headwaters\n', ' Memorable images\n', " Those who'll fight for art, must conquer my heart\n", ' An amazing feat of filming an amazing feat.\n', ' Another Mad Act\n', ' The High of Hope, The Low of Despair...\n', ' Audacious and imperfect, unique and disappointing\n', ' Mesmerizing masterpiece\n', " Quite staggering tale of scope, physically in its journeying, but mentally in its lead's dreams; as Herzog directs a rather remarkable adventure film.\n", ' fitzcarraldo\n', ' Magical masterpiece of film technique\n', ' A film about a maniacal drive, in many respects\n', ' Werner Herzog : A director who believes in methods of madness. Fitzcarraldo : A film which will always symbolize such methods of madness.\n', ' Of Opera And Headhunters\n']</t>
+          <t>[" An excellent game of cat and mouse...but who's the cat and who is the mouse?!\n", ' A reminder that decent plotting makes a film\n', ' stylish crime drama\n', ' Really Strong Film\n', " At it's heart, a gripping cop thriller\n", ' Crime thriller done right...\n', ' Solid Hong Kong Thriller\n', " even if I'd seen this before the Departed, it's still simply a good movie\n", ' Great drama\n', ' The Cosmos, Two Cosmi\n', ' Gangs of Hong Kong\n', ' A Fairly Entertaining Crime-Drama\n', ' Almost as Good as They Say\n', " I'll dream of you, Officer Yan.\n", " Hong Kong 'No Way Out'\n", ' a modern masterpiece\n', ' Undercover inception.\n', ' Intricate web of undercover deceit.\n', " Very well made, but the 4/10 is because I just didn't enjoy it that much...\n", ' A textbook thriller\n', ' not bad,but i think The Departed is a better film\n', " If You've Seen The Departed First, Then Infernal Affairs Might Leave You Cold.\n", ' Great movie\n', ' Good But 2 Sequels Are Hard To Justify\n', ' The Worst of The 8 Hells Is Continuous Hell\n']</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>608. Who's Afraid of Virginia Woolf?</t>
+          <t>608. Fitzcarraldo</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 38m</t>
         </is>
       </c>
       <c r="D609" t="n">
         <v>8</v>
       </c>
-      <c r="E609" t="n">
-        <v>75</v>
-      </c>
+      <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr">
         <is>
-          <t>tt0061184</t>
+          <t>tt0083946</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>[' Brilliant movie\n', ' "George and Martha,.......sad........sad........sad"\n', ' Nichols brings out four amazing performances\n', ' Brilliantly Made But What Ugly Characters\n', ' A Night to Remember\n', ' Vitriolic stage portrayal of domestic blisslessness translated effectively to the big screen\n', ' human conduits\n', " Nominated For Every Oscar Award, But Doesn't Get My Blessing\n", ' Boozy rage, hard-fought battles, empty triumph\n', " This George and Martha Aren't First People ***\n", " Mike Nichols is Hosting a Cocktail Party for Elizabeth Taylor &amp; Richard Burton and You're Invited!\n", ' Gutter Snipes\n', " Made by Taylor and Burton's performances and chemistry\n", ' Incredble Acting\n', ' This is a very smart movie that is very well done. It does drag in a few spots but not enough to prevent this from being a must see.\n', ' A Harrowing, Disturbing Film with a Dazzling Performance from Liz Taylor\n', ' A masterclass in acting.\n', ' just a notch better than my other Taylor favourite, Cat on a Hot Tin Roof\n', " Watch Who's Afraid of Virginia Woolf? Once is Great, Twice is Dreadful, More than this is a masochism!!\n", " Burton's Scene Stealing Performance!\n", " 'I swear, if you existed, I'd divorce you.'\n", ' In Their Way, They Still Love One Another\n', ' a forcible masterpiece pitilessly scrutinises the most surreptitious human stains\n', ' perfect experience\n', ' Amazing play brilliantly filmed and acted\n']</t>
+          <t>[' an incredible feast for the eyes\n', " Werner Herzog's masterpiece\n", ' madness, madness, madness\n', ' The Madman Wins\n', ' Crazy Men\n', " Kinski's visionary adventurer obsessively hatches a grandiose scheme through the Amazon jungles\n", ' opera in the jungle\n', ' the most operatic documentary-style epic ever made- fearlessly unique\n', ' Werner &amp; Klaus can move, move, move any mountain!\n', ' Reasonably interesting story, great cinematography\n', ' Into the Jungle Again with Werner Herzog\n', ' Apocalypse Now in the Amazon headwaters\n', ' Memorable images\n', " Those who'll fight for art, must conquer my heart\n", ' An amazing feat of filming an amazing feat.\n', ' Another Mad Act\n', ' The High of Hope, The Low of Despair...\n', ' Audacious and imperfect, unique and disappointing\n', ' Mesmerizing masterpiece\n', " Quite staggering tale of scope, physically in its journeying, but mentally in its lead's dreams; as Herzog directs a rather remarkable adventure film.\n", ' fitzcarraldo\n', ' Magical masterpiece of film technique\n', ' A film about a maniacal drive, in many respects\n', ' Werner Herzog : A director who believes in methods of madness. Fitzcarraldo : A film which will always symbolize such methods of madness.\n', ' Of Opera And Headhunters\n']</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>609. Touch of Evil</t>
+          <t>609. Who's Afraid of Virginia Woolf?</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D610" t="n">
         <v>8</v>
       </c>
       <c r="E610" t="n">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>tt0052311</t>
+          <t>tt0061184</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>[" It's very good, but,....\n", ' One of the great American masterworks\n', ' A Great Detective, A Lousy Cop, And Some Kind Of Man\n', " great opening, great noir, hate Heston's mustache\n", ' A Dark Work of Genius\n', ' Welles at HIs Cinematic Best\n', ' Just a touch\n', ' A Masterpiece of Malevolence and Loss of Humanity\n', ' Atmospheric thriller with Welles on top form\n', ' Dark Noir film masterfully played and directed by Welles dealing with killing and corruption in the Mexican/US border\n', ' occurrences in a border town\n', ' Welles at Almost His Finest\n', " Want To Like This.....But I Can't\n", " The talent is there, but Welles' loosely-handled direction causes the narrative to flag...\n", ' the classic, deluxe film-noir by Orson Welles\n', ' Provocative. Innovative. Warped sense of power.\n', ' Overpraised Exotica\n', ' Offensive...Off Putting\x85Off Beat\x85Off Center...Off World\n', ' Classic crime-thriller\n', ' Los Robles-Bizarro Baroque Border Town.\n', ' Dark, Darker, Darkest...\n', ' Well, it taught me one line of Spanish\n', ' Your future is all used up.\n', ' Exquisite, masterful, absolutely essential\n', ' Ready, Set, Go!\n']</t>
+          <t>[' Brilliant movie\n', ' "George and Martha,.......sad........sad........sad"\n', ' Nichols brings out four amazing performances\n', ' Brilliantly Made But What Ugly Characters\n', ' A Night to Remember\n', ' Vitriolic stage portrayal of domestic blisslessness translated effectively to the big screen\n', ' human conduits\n', " Nominated For Every Oscar Award, But Doesn't Get My Blessing\n", ' Boozy rage, hard-fought battles, empty triumph\n', " This George and Martha Aren't First People ***\n", " Mike Nichols is Hosting a Cocktail Party for Elizabeth Taylor &amp; Richard Burton and You're Invited!\n", ' Gutter Snipes\n', " Made by Taylor and Burton's performances and chemistry\n", ' Incredble Acting\n', ' This is a very smart movie that is very well done. It does drag in a few spots but not enough to prevent this from being a must see.\n', ' A Harrowing, Disturbing Film with a Dazzling Performance from Liz Taylor\n', ' A masterclass in acting.\n', ' just a notch better than my other Taylor favourite, Cat on a Hot Tin Roof\n', " Watch Who's Afraid of Virginia Woolf? Once is Great, Twice is Dreadful, More than this is a masochism!!\n", " Burton's Scene Stealing Performance!\n", " 'I swear, if you existed, I'd divorce you.'\n", ' In Their Way, They Still Love One Another\n', ' a forcible masterpiece pitilessly scrutinises the most surreptitious human stains\n', ' perfect experience\n', ' Amazing play brilliantly filmed and acted\n']</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>610. The Cabinet of Dr. Caligari</t>
+          <t>610. Touch of Evil</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>1h 7m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D611" t="n">
         <v>8</v>
       </c>
-      <c r="E611" t="inlineStr"/>
+      <c r="E611" t="n">
+        <v>99</v>
+      </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>tt0010323</t>
+          <t>tt0052311</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>[' A milestone of silent film and of Expressionism\n', ' A huge influence on the horror genre\n', ' Weirdly unique\n', ' The Cabinet of Dr. Caligari\n', ' Visually Stunning\n', ' Mayhem and madness.\n', ' this doctor is in\n', " Wiene's cabinet displays iconic visuals but poor pacing.\n", ' One of the Greatest Silent Films\n', ' important for the movement of expressionism and, more importantly, in the realm of fantasy and horror\n', ' The First, the Ultimate\n', ' Opening the Cabinet of Dr. Caligari\n', ' The Eyes Have It\n', ' Extreme-Exaggerated-Expressionism\n', ' A classic drama from the silent era\n', ' The Cabinet of Dr. Caligari\n', ' The first horror film ever and one of the best\n', ' Ground breaking and deserves discussion\n', ' This movie is absolutely awesome, especially when you consider when it was made\n', ' You fools, this man is plotting our doom! We die at dawn! He is Caligari!\n', ' I Can Thank This Film for Inspiring My Favorite Film Genre\n', ' Artistic piece of art.\n', ' still creepy and excellent performances, instant classic\n', ' A massive achievement for silent cinema\n', ' No Narnia in this coffin shaped Cabinet...\n']</t>
+          <t>[" It's very good, but,....\n", ' One of the great American masterworks\n', ' A Great Detective, A Lousy Cop, And Some Kind Of Man\n', " great opening, great noir, hate Heston's mustache\n", ' A Dark Work of Genius\n', ' Welles at HIs Cinematic Best\n', ' Just a touch\n', ' A Masterpiece of Malevolence and Loss of Humanity\n', ' Atmospheric thriller with Welles on top form\n', ' Dark Noir film masterfully played and directed by Welles dealing with killing and corruption in the Mexican/US border\n', ' occurrences in a border town\n', ' Welles at Almost His Finest\n', " Want To Like This.....But I Can't\n", " The talent is there, but Welles' loosely-handled direction causes the narrative to flag...\n", ' the classic, deluxe film-noir by Orson Welles\n', ' Provocative. Innovative. Warped sense of power.\n', ' Overpraised Exotica\n', ' Offensive...Off Putting\x85Off Beat\x85Off Center...Off World\n', ' Classic crime-thriller\n', ' Los Robles-Bizarro Baroque Border Town.\n', ' Dark, Darker, Darkest...\n', ' Well, it taught me one line of Spanish\n', ' Your future is all used up.\n', ' Exquisite, masterful, absolutely essential\n', ' Ready, Set, Go!\n']</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>611. Out of the Past</t>
+          <t>611. The Cabinet of Dr. Caligari</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>1h 37m</t>
+          <t>1h 7m</t>
         </is>
       </c>
       <c r="D612" t="n">
         <v>8</v>
       </c>
-      <c r="E612" t="n">
-        <v>85</v>
-      </c>
+      <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
-          <t>tt0039689</t>
+          <t>tt0010323</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>[' Very good,...but a tad overrated\n', ' Defines the term quintessential film noir\n', ' One of the most ruthless femme fatales ever\n', ' The Scope of Her Evil\n', ' flashback structure takes the sting out of a nasty noir\n', " Doesn't Get Much Better Than This\n", ' He Could Us a New Coat\n', ' Find the lady not run away with her\n', " Don't make them like they used to\n", ' Caught up by the Past\n', ' A solid noir made great by some tough performances\n', ' Classic and definitive Film Noir , considered to be one of the most beautiful ever made\n', ' Top Notch Film Noir\n', ' There Was A Better Mitchum-Greer Noir\n', ' Excellent example of film noir at its best\n', " perhaps the major studio triumph of Touner's career; cast is fantastic\n", ' Who needs Humphrey?\n', ' Through the Past Darkly\n', ' Mitchum is, once again, the King of Cool.\n', ' Some Side Notes\n', ' The quintessential noir\n', ' Quintessential Film-Noir...Dynamic Pithy Script...Wrapped in a Web of Despair\n', ' Classic film noir\n', ' Scheming dame\n', ' A classic--maybe the best film noir ever\n']</t>
+          <t>[' A milestone of silent film and of Expressionism\n', ' A huge influence on the horror genre\n', ' Weirdly unique\n', ' The Cabinet of Dr. Caligari\n', ' Visually Stunning\n', ' Mayhem and madness.\n', ' this doctor is in\n', " Wiene's cabinet displays iconic visuals but poor pacing.\n", ' One of the Greatest Silent Films\n', ' important for the movement of expressionism and, more importantly, in the realm of fantasy and horror\n', ' The First, the Ultimate\n', ' Opening the Cabinet of Dr. Caligari\n', ' The Eyes Have It\n', ' Extreme-Exaggerated-Expressionism\n', ' A classic drama from the silent era\n', ' The Cabinet of Dr. Caligari\n', ' The first horror film ever and one of the best\n', ' Ground breaking and deserves discussion\n', ' This movie is absolutely awesome, especially when you consider when it was made\n', ' You fools, this man is plotting our doom! We die at dawn! He is Caligari!\n', ' I Can Thank This Film for Inspiring My Favorite Film Genre\n', ' Artistic piece of art.\n', ' No Narnia in this coffin shaped Cabinet...\n', ' still creepy and excellent performances, instant classic\n', ' A massive achievement for silent cinema\n']</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>612. Mirror</t>
+          <t>612. Out of the Past</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>1h 37m</t>
         </is>
       </c>
       <c r="D613" t="n">
         <v>8</v>
       </c>
       <c r="E613" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>tt0072443</t>
+          <t>tt0039689</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>[' The most personal Tarkovsky film?\n', ' memories, and refuges\n', ' mirror image of stream of consciousness\n', ' Tarkovsky\n', " taking a walk through the portals of Tarkovsky's mind: poetic and dreamlike, with the flow of thought as opposed to narrative\n", ' Reflections Reflections Reflections\n', ' Keep in mind that the VHS I watched was in awful quality\n', ' Cinema Omnivore - Mirror (1975) 8.7/10\n', " Another walk into Andrei Tarkovsky's maverick world which shows the unseen dimensions and patterns of unconventional storytelling.\n", ' One that may require several viewings to fully appreciate.\n', " You know you're in trouble when the narrator refuses to talk to you, but spits bad poetry left and right\x85 Tarkovsky's pretentious sloth.\n", ' Andrei Tarkovsky In Full Pretentious Mode\n', ' Visually it was great of course\n', ' The world left and found again\n', ' Mirror\n', ' A famous director and a very strange film\n', ' Painful, and with a shocking disregard to its audience, the heaving abyss of banality that is The Mirror barely makes it out of the traps.\n', ' Great boredom!\n', ' Memory and the Russian Experience\n', ' This is the movie you show off.\n', ' A very personal film\n', ' The Mirror-An exceptionally brilliant film about childhood,memories and war directed by Andrei Tarkovski.\n', ' Poetry is usually crap.\n', ' Art\n', ' Zerkalo\n']</t>
+          <t>[' Very good,...but a tad overrated\n', ' Defines the term quintessential film noir\n', ' One of the most ruthless femme fatales ever\n', ' The Scope of Her Evil\n', ' flashback structure takes the sting out of a nasty noir\n', " Doesn't Get Much Better Than This\n", ' He Could Us a New Coat\n', ' Find the lady not run away with her\n', " Don't make them like they used to\n", ' Caught up by the Past\n', ' A solid noir made great by some tough performances\n', ' Classic and definitive Film Noir , considered to be one of the most beautiful ever made\n', ' Top Notch Film Noir\n', ' There Was A Better Mitchum-Greer Noir\n', ' Excellent example of film noir at its best\n', " perhaps the major studio triumph of Touner's career; cast is fantastic\n", ' Who needs Humphrey?\n', ' Through the Past Darkly\n', ' Mitchum is, once again, the King of Cool.\n', ' Some Side Notes\n', ' The quintessential noir\n', ' Quintessential Film-Noir...Dynamic Pithy Script...Wrapped in a Web of Despair\n', ' Classic film noir\n', ' Scheming dame\n', ' A classic--maybe the best film noir ever\n']</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>613. What Ever Happened to Baby Jane?</t>
+          <t>613. Mirror</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="D614" t="n">
         <v>8</v>
       </c>
       <c r="E614" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>tt0056687</t>
+          <t>tt0072443</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>[' about as subtle and sophisticated as a 2x4 upside your head!\n', ' A must see\n', ' Two great performances\n', ' Davis and Crawford Make it a Must See\n', ' Mature Stars Strut Their Stuff\n', ' Acerbic view of fame\n', ' Sibling Jealousy, Rivalry, Malevolence and Insanity\n', ' Astounding movie with two riveting actresses : Davis and Crawford\n', ' Are you ready?\n', " Bette Davis' in full-on bonkers mode.\n", ' Odd Classic\n', ' perfect example of Bob Aldrich strategy about his topics\n', ' Film about insanity swings uncertainly between humor and horror...\n', ' What shall we do with the elderly ladies \x85 late in their careers?\n', ' Whatever Did Happen to Baby Jane Hudson? ***\n', ' Two Stars Who Never Set\n', ' A great come back for these two\n', ' The Living Dead\n', ' Powerful story of envy, bitterness, malice, insanity and torment\n', ' Baby Jane is Insane\n', ' Extremely unpleasant but fascinating\n', ' Darker side of sibling rivalry...excellent support by Buono...\n', ' The Movie That Every Child Star Must See...\n', ' Campy cult classic\n', ' Bette vs Joan\n']</t>
+          <t>[' The most personal Tarkovsky film?\n', ' memories, and refuges\n', ' mirror image of stream of consciousness\n', ' Tarkovsky\n', " taking a walk through the portals of Tarkovsky's mind: poetic and dreamlike, with the flow of thought as opposed to narrative\n", ' Reflections Reflections Reflections\n', ' Keep in mind that the VHS I watched was in awful quality\n', ' Cinema Omnivore - Mirror (1975) 8.7/10\n', " Another walk into Andrei Tarkovsky's maverick world which shows the unseen dimensions and patterns of unconventional storytelling.\n", ' One that may require several viewings to fully appreciate.\n', " You know you're in trouble when the narrator refuses to talk to you, but spits bad poetry left and right\x85 Tarkovsky's pretentious sloth.\n", ' Andrei Tarkovsky In Full Pretentious Mode\n', ' Visually it was great of course\n', ' The world left and found again\n', ' Mirror\n', ' A famous director and a very strange film\n', ' Painful, and with a shocking disregard to its audience, the heaving abyss of banality that is The Mirror barely makes it out of the traps.\n', ' Great boredom!\n', ' Memory and the Russian Experience\n', ' This is the movie you show off.\n', ' A very personal film\n', ' The Mirror-An exceptionally brilliant film about childhood,memories and war directed by Andrei Tarkovski.\n', ' Poetry is usually crap.\n', ' Art\n', ' Zerkalo\n']</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>614. Stalag 17</t>
+          <t>614. What Ever Happened to Baby Jane?</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="D615" t="n">
         <v>8</v>
       </c>
       <c r="E615" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>tt0046359</t>
+          <t>tt0056687</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>[' A wonderful war film that dares to be different\n', ' Classic Second World War comedy-drama from Billy Wilder\n', ' Likable prisoner of war movie\n', ' Dark POW story and really broad comedy\n', ' Bad Enough Being a Prisoner\n', ' Inside man\n', ' Enjoyable but uneven mix of comedy and drama\n', " Wilder's top-drawer movie in which Holden provides an Academy Award-winning acting along with a stunning remaining cast\n", ' Billy Wilder Just Keeps Pumping Out the Hits\n', ' A big hit with critics and the Academy, but only marginal...\n', " the perennial 'feel-good' American POW movie\n", ' An absolute classic\n', ' Very good\n', ' Survives translation from stage to screen with flying colors...\n', ' Not realistic in POW treatment\n', ' W holden in his prime\n', ' Holden Won His Oscar for the Wrong Movie\n', ' Another WW II POW classic.\n', ' POW Comedy/Drama.\n', ' Ugh. Not a good film at all\n', ' Not so great escape\n', ' An unusual mix of silly humor and serious situations\n', ' Master Billy Wilder delivers a Cracking Classic escape of POW...\n', ' Pretty Good POW Camp Mystery\n', " Another One Of Billy Wilder's Unpolished Gem.\n"]</t>
+          <t>[' about as subtle and sophisticated as a 2x4 upside your head!\n', ' A must see\n', ' Two great performances\n', ' Davis and Crawford Make it a Must See\n', ' Mature Stars Strut Their Stuff\n', ' Acerbic view of fame\n', ' Sibling Jealousy, Rivalry, Malevolence and Insanity\n', ' Astounding movie with two riveting actresses : Davis and Crawford\n', ' Are you ready?\n', " Bette Davis' in full-on bonkers mode.\n", ' Odd Classic\n', ' perfect example of Bob Aldrich strategy about his topics\n', ' Film about insanity swings uncertainly between humor and horror...\n', ' What shall we do with the elderly ladies \x85 late in their careers?\n', ' Whatever Did Happen to Baby Jane Hudson? ***\n', ' Two Stars Who Never Set\n', ' A great come back for these two\n', ' The Living Dead\n', ' Powerful story of envy, bitterness, malice, insanity and torment\n', ' Baby Jane is Insane\n', ' Extremely unpleasant but fascinating\n', ' Darker side of sibling rivalry...excellent support by Buono...\n', ' The Movie That Every Child Star Must See...\n', ' Campy cult classic\n', ' Bette vs Joan\n']</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>615. Wolfwalkers</t>
+          <t>615. Stalag 17</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="D616" t="n">
         <v>8</v>
       </c>
       <c r="E616" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>tt5198068</t>
+          <t>tt0046359</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>[' beautiful and wonderous\n', ' Delightful\n', ' Nice Change of Animation Style\n', ' Howling at the moon.\n', ' If you loved Song of the Sea, you will like this, too\n', ' Cinema Omnivore - Wolfwalkers (2020) 7.3/10\n', ' Cute and fun...\n', ' stars pretty good, gets really good\n', ' I wish it was on something other than Apple TV+\n', ' Robyn in Wonderland\n', ' A Magical &amp; Mesmerising Fantasy-Adventure For Viewers Of All Ages\n', ' Fang-Tastic\n', ' Endearing Lupinus Loveliness...\n', ' Behold, Meaningful Animation\n', " Cartoon Saloon's best film\n", " A WOLFIN' WE WILL GO...!\n", ' Wolf wolf howls the wolf.\n', ' Irish Magic\n', ' A Masterpiece\n', ' WolfWalkers\n', ' Sweet Fantasy\n', ' Finishes off the trilogy in a strong fashion\n', ' An amazing -Cartoon Sallon- work... (again)\n', ' WHAT A VISUALS.\n', ' WereWalkers\n']</t>
+          <t>[' A wonderful war film that dares to be different\n', ' Classic Second World War comedy-drama from Billy Wilder\n', ' Likable prisoner of war movie\n', ' Dark POW story and really broad comedy\n', ' Bad Enough Being a Prisoner\n', ' Inside man\n', ' Enjoyable but uneven mix of comedy and drama\n', " Wilder's top-drawer movie in which Holden provides an Academy Award-winning acting along with a stunning remaining cast\n", ' Billy Wilder Just Keeps Pumping Out the Hits\n', ' A big hit with critics and the Academy, but only marginal...\n', " the perennial 'feel-good' American POW movie\n", ' An absolute classic\n', ' Very good\n', ' Survives translation from stage to screen with flying colors...\n', ' Not realistic in POW treatment\n', ' W holden in his prime\n', ' Holden Won His Oscar for the Wrong Movie\n', ' Another WW II POW classic.\n', ' POW Comedy/Drama.\n', ' Ugh. Not a good film at all\n', ' Not so great escape\n', ' An unusual mix of silly humor and serious situations\n', ' Master Billy Wilder delivers a Cracking Classic escape of POW...\n', ' Pretty Good POW Camp Mystery\n', " Another One Of Billy Wilder's Unpolished Gem.\n"]</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>616. Persepolis</t>
+          <t>616. Wolfwalkers</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="D617" t="n">
         <v>8</v>
       </c>
       <c r="E617" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>tt0808417</t>
+          <t>tt5198068</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>[' Wonderful\n', ' Animation works great for childhood\n', ' The Contemporary History of Iran\n', ' An engagingly personal tale with an interesting background of history delivered with deceptively basic but very clever animation\n', ' A self-biographic film about the misfortunes of an Iranian girl growing up during the Islamic Revolution.\n', " girl's life in revolutionary Iran\n", ' Iran 101\n', ' Great Black-White Visuals; Not-So-Great Main Character\n', ' smashingly funny and disarmingly astute (and tragic) tale of growing up, girl or otherwise\n', ' PERSEPOLIS (Vincent Paronnaud and Marjane Satrapi, 2007) ***\n', " There's nothing worse than bitterness and revenge.\n", ' Wonderful Film Is Much More Than Just a "Cartoon"\n', ' Future Prophet with shaved legs\n', ' Persepolis\n', ' Deeply personal, and beautifully rendered\n', ' A Nutshell Review: Persepolis\n', ' more than an Iranian tale\n', ' An Iranian Taste of Freedom...\n', ' Wonderfully drawn and personal\n', ' superb\n', ' An Original, Sincere &amp; Evocative Autobiographical Account\n', ' graphic novel come to life\n', ' Pretty excellent\n', ' This was something completely different\n', ' Impactful personal story\n']</t>
+          <t>[' beautiful and wonderous\n', ' Delightful\n', ' Nice Change of Animation Style\n', ' Howling at the moon.\n', ' If you loved Song of the Sea, you will like this, too\n', ' Cinema Omnivore - Wolfwalkers (2020) 7.3/10\n', ' Cute and fun...\n', ' stars pretty good, gets really good\n', ' I wish it was on something other than Apple TV+\n', ' Robyn in Wonderland\n', ' A Magical &amp; Mesmerising Fantasy-Adventure For Viewers Of All Ages\n', ' Fang-Tastic\n', ' Endearing Lupinus Loveliness...\n', ' Behold, Meaningful Animation\n', " Cartoon Saloon's best film\n", " A WOLFIN' WE WILL GO...!\n", ' Wolf wolf howls the wolf.\n', ' Irish Magic\n', ' A Masterpiece\n', ' WolfWalkers\n', ' Sweet Fantasy\n', ' Finishes off the trilogy in a strong fashion\n', ' An amazing -Cartoon Sallon- work... (again)\n', ' WHAT A VISUALS.\n', ' WereWalkers\n']</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>617. Secrets &amp; Lies</t>
+          <t>617. Persepolis</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D618" t="n">
         <v>8</v>
       </c>
       <c r="E618" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>tt0117589</t>
+          <t>tt0808417</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>[' a phenomenal movie...as well as a very emotional and painful one.\n', ' humanity in the performances\n', " Mike Leigh's masterpiece.\n", ' "secrets" beyond the door\n', ' A Morality Tale?\n', " a woman's secret causes family problems to rise to the surface\n", ' A lovely, harrowing experience this is.\n', ' Should be emotional, but instead is boring and irritating\n', ' Dreary Brit Flick\n', " You gotta laugh, ain't ya sweetheart? Else you'd cry.\n", ' everyone has a story\n', " One of Mike Leigh's Best\n", " Leigh's famous party scenes to come\n", ' Secrets &amp; Lies\n', ' Perfect, hypnotic, uncomfortable, depressive...\n', " A harrowing emotional journey, witnessing the eternal struggle between 'secrets &amp; lies' and 'love &amp; understanding'...\n", ' A good work, currently forgotten.\n', ' Mystery, Deception and Deceit...\n', ' Compelling\n', ' British Soap Opera That Delivers\n', ' "If you\'re thinking of being my baby, it don\'t matter if you\'re black or white."\n', ' Emotional and Engaging\n', ' Very intimate and realistic look at a handful of people trying to get by, but plagued by events bound to raise emotion.\n', ' A very special movie!\n', ' secrets and lies\n']</t>
+          <t>[' Wonderful\n', ' Animation works great for childhood\n', ' The Contemporary History of Iran\n', ' An engagingly personal tale with an interesting background of history delivered with deceptively basic but very clever animation\n', ' A self-biographic film about the misfortunes of an Iranian girl growing up during the Islamic Revolution.\n', " girl's life in revolutionary Iran\n", ' Iran 101\n', ' Great Black-White Visuals; Not-So-Great Main Character\n', ' smashingly funny and disarmingly astute (and tragic) tale of growing up, girl or otherwise\n', ' PERSEPOLIS (Vincent Paronnaud and Marjane Satrapi, 2007) ***\n', " There's nothing worse than bitterness and revenge.\n", ' Wonderful Film Is Much More Than Just a "Cartoon"\n', ' Future Prophet with shaved legs\n', ' Persepolis\n', ' Deeply personal, and beautifully rendered\n', ' A Nutshell Review: Persepolis\n', ' more than an Iranian tale\n', ' An Iranian Taste of Freedom...\n', ' Wonderfully drawn and personal\n', ' superb\n', ' An Original, Sincere &amp; Evocative Autobiographical Account\n', ' graphic novel come to life\n', ' Pretty excellent\n', ' This was something completely different\n', ' Impactful personal story\n']</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>618. The Tale of The Princess Kaguya</t>
+          <t>618. Secrets &amp; Lies</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D619" t="n">
         <v>8</v>
       </c>
       <c r="E619" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>tt2576852</t>
+          <t>tt0117589</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>[' It looks lovely\n', " Truly stunning and quite possibly Studio Ghibli's best since Spirited Away\n", ' simple fable turns into more\n', ' Deeply moving story\n', ' Anime at its best!\n', ' Another soulful and quite beautiful film from Studio Ghibli\n', ' Engaging story and some amazing animation\n', ' Beautiful and long\n', ' Bizarrely interesting but a bit overrated.\n', ' Aesthetically Pleasing, Artistically Fulfilling &amp; Emotionally Captivating!\n', ' Delightful and sort of frustrating\n', ' The Tale of the Bamboo Cutter\n', ' Too long\n', " A lot to like, but it was a little overlong and didn't hit emotionally (for me)\n", ' Let Her Be\n', ' The Tale of the Princess Kaguya is an absolute stunning piece of art.\n', " Isao Takahata's best work\n", ' Long and boring.\n', ' Color palet is so strong and eyecatching\n', ' Solid for parents but not for me\n', ' Beautiful and original\n', ' Great beauty in simplistic animation that matches the story mood\n', ' Takahata brings a new style of animation\n', ' Beautiful.\n', " The least of Takahata's films, but still a glorious film\n"]</t>
+          <t>[' a phenomenal movie...as well as a very emotional and painful one.\n', ' humanity in the performances\n', " Mike Leigh's masterpiece.\n", ' "secrets" beyond the door\n', ' A Morality Tale?\n', " a woman's secret causes family problems to rise to the surface\n", ' A lovely, harrowing experience this is.\n', ' Should be emotional, but instead is boring and irritating\n', ' Dreary Brit Flick\n', " You gotta laugh, ain't ya sweetheart? Else you'd cry.\n", ' everyone has a story\n', " One of Mike Leigh's Best\n", " Leigh's famous party scenes to come\n", ' Secrets &amp; Lies\n', ' Perfect, hypnotic, uncomfortable, depressive...\n', " A harrowing emotional journey, witnessing the eternal struggle between 'secrets &amp; lies' and 'love &amp; understanding'...\n", ' A good work, currently forgotten.\n', ' Mystery, Deception and Deceit...\n', ' Compelling\n', ' British Soap Opera That Delivers\n', ' "If you\'re thinking of being my baby, it don\'t matter if you\'re black or white."\n', ' Emotional and Engaging\n', ' Very intimate and realistic look at a handful of people trying to get by, but plagued by events bound to raise emotion.\n', ' A very special movie!\n', ' secrets and lies\n']</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>619. The Leopard</t>
+          <t>619. The Tale of The Princess Kaguya</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>3h 6m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D620" t="n">
         <v>8</v>
       </c>
       <c r="E620" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>tt0057091</t>
+          <t>tt2576852</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>[' Risorgimento\n', ' The Leopard\n', ' an experience\n', ' Paintings in Movement\n', " Glamorous as well as spectacular historical drama about the uprising of 1860's Sicily during the unification of Italy\n", ' life in a declining institution\n', ' The End of Sicily?\n', " Visconti's film about dying aristocracy in Sicily\n", " it's one of Visconti's most ambitious and gorgeous films\n", ' Long but fascinating\n', " Luchino Visconti's finest achievement\n", ' A Fantastic Period Film from Luchino Visconti\n', ' Burt Lancaster goes Italian aristocratic.\n', ' the prancing and dancing in monied splendour goes on for the whole of the final 40 minutes\n', ' Sumptuous, but difficult to follow\n', ' On the inevitability of change\n', ' No Longer the Biggest Cat in the Jungle\n', ' The Leopard\n', ' Sunset of a world\n', ' An apotheosis of nobility\n', ' Keeping His Paws in the Gilded Cage\n', ' a classic by all definition\n', ' The Leopard\n', ' the leopard\n', ' Overlong and dull\n']</t>
+          <t>[' It looks lovely\n', " Truly stunning and quite possibly Studio Ghibli's best since Spirited Away\n", ' simple fable turns into more\n', ' Deeply moving story\n', ' Anime at its best!\n', ' Another soulful and quite beautiful film from Studio Ghibli\n', ' Engaging story and some amazing animation\n', ' Beautiful and long\n', ' Bizarrely interesting but a bit overrated.\n', ' Aesthetically Pleasing, Artistically Fulfilling &amp; Emotionally Captivating!\n', ' Delightful and sort of frustrating\n', ' The Tale of the Bamboo Cutter\n', ' Too long\n', " A lot to like, but it was a little overlong and didn't hit emotionally (for me)\n", ' Let Her Be\n', ' The Tale of the Princess Kaguya is an absolute stunning piece of art.\n', " Isao Takahata's best work\n", ' Long and boring.\n', ' Color palet is so strong and eyecatching\n', ' Solid for parents but not for me\n', ' Beautiful and original\n', ' Great beauty in simplistic animation that matches the story mood\n', ' Takahata brings a new style of animation\n', ' Beautiful.\n', " The least of Takahata's films, but still a glorious film\n"]</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>[" Yet one more reason I won't ever visit Brazil....\n", " It's not City of God, but it comes close...\n", ' dark violent brutal world\n', ' How did that happen?\n', ' Realistic and violent picture about a Special Police Battalion attempting to take down drug dealers and killers in Rio De Janeiro\n', ' Great crime-drama\n', ' Gritty Brazilian Thriller\n', ' Ripe for a Hollywood remake.\n', ' A Nutshell Review: Elite Squad\n', ' Style over content. Glorification of police violence. Still a reasonably good, grim portrait of poverty driven drug wars.\n', ' bad neighborhoods\n', ' Not quite what I expected, but still a taut and compelling action drama\n', ' Too Fragmented, Messed-Up &amp; Confusing!\n', ' One of the best films that Brazil exported internationally.\n', ' An eye for ignorance\n', ' Unelite and Unwatchable\n', ' Apparently realistic, but slightly arid and raw\n', ' GRANDIOSO\n', ' Elite Squad is a remarkable film. The film opens up the brutality practiced by both sides, police and bandits, becoming even more frightening\n', ' Gritty and realistic - but oh so one-sided at times . . .\n', ' Tropa de Elite\n', ' The stench of corruption\n', ' Very good\n', ' A corrupção começa em baixo\n', ' All out intensity\n']</t>
+          <t>[" Yet one more reason I won't ever visit Brazil....\n", " It's not City of God, but it comes close...\n", ' dark violent brutal world\n', ' How did that happen?\n', ' Realistic and violent picture about a Special Police Battalion attempting to take down drug dealers and killers in Rio De Janeiro\n', ' Great crime-drama\n', ' Gritty Brazilian Thriller\n', ' Ripe for a Hollywood remake.\n', ' A Nutshell Review: Elite Squad\n', ' Style over content. Glorification of police violence. Still a reasonably good, grim portrait of poverty driven drug wars.\n', ' bad neighborhoods\n', ' Not quite what I expected, but still a taut and compelling action drama\n', ' Too Fragmented, Messed-Up &amp; Confusing!\n', ' One of the best films that Brazil exported internationally.\n', ' An eye for ignorance\n', ' Unelite and Unwatchable\n', ' Apparently realistic, but slightly arid and raw\n', ' Elite Squad is a remarkable film. The film opens up the brutality practiced by both sides, police and bandits, becoming even more frightening\n', ' GRANDIOSO\n', ' Gritty and realistic - but oh so one-sided at times . . .\n', ' Tropa de Elite\n', ' The stench of corruption\n', ' Very good\n', ' A corrupção começa em baixo\n', ' All out intensity\n']</t>
         </is>
       </c>
     </row>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>[' Unusual and interesting graphics but the story left me a bit cold.\n', ' Really does cast an enchantingly intoxicating spell on anyone watching\n', ' One for the kids\n', ' fresh lovely charming\n', ' More than a kids movie\n', ' Sweet modern-day fairy tale\n', ' An Irish Gem\n', ' Wondrous\n', ' Song of the Sea\n', ' Simply and stunningly beautiful.\n', ' A beautifully animated Irish folk tale. Totally worth watching.\n', ' Simply beautiful: I defy you not to love it!\n', ' Traditional animation again proves it is an irreplaceable curio!\n', ' Enchanting, imaginative and quite beautiful animated film from Ireland\n', ' Gorgeous and charming\n', ' The Myth Buster\n', ' An Adorable, Enriching &amp; Beautifully Animated Fairy Tale!\n', ' Beautiful animation\n', ' Sweet\n', ' A Simply Told Compelling Animated Aventure\n', ' Magical story\n', ' Brand new from non-Disney and non-Studio Ghibli.\n', ' The Sea Inside\n', ' Song of the Sea lyrically paints Irish folklore with limited narrative brushing techniques.\n', ' One of the few remaining hopes for traditional animation\n']</t>
+          <t>[' Unusual and interesting graphics but the story left me a bit cold.\n', ' Really does cast an enchantingly intoxicating spell on anyone watching\n', ' One for the kids\n', ' fresh lovely charming\n', ' More than a kids movie\n', ' Sweet modern-day fairy tale\n', ' An Irish Gem\n', ' Wondrous\n', ' Song of the Sea\n', ' Simply and stunningly beautiful.\n', ' A beautifully animated Irish folk tale. Totally worth watching.\n', ' Traditional animation again proves it is an irreplaceable curio!\n', ' Simply beautiful: I defy you not to love it!\n', ' Enchanting, imaginative and quite beautiful animated film from Ireland\n', ' Gorgeous and charming\n', ' The Myth Buster\n', ' An Adorable, Enriching &amp; Beautifully Animated Fairy Tale!\n', ' Beautiful animation\n', ' Sweet\n', ' A Simply Told Compelling Animated Aventure\n', ' Magical story\n', ' Brand new from non-Disney and non-Studio Ghibli.\n', ' The Sea Inside\n', ' Song of the Sea lyrically paints Irish folklore with limited narrative brushing techniques.\n', ' One of the few remaining hopes for traditional animation\n']</t>
         </is>
       </c>
     </row>
@@ -21121,7 +21121,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>[' Powerful winter sleep\n', ' Turkish film\n', ' Reasonably engaging but slow and seemingly interminable\n', ' Extremely long boring movie\n', ' Beautiful in landscape and language.\n', ' the cosmically intangible yet intrinsically tangible incapability of communication among us humans\n', ' Bleak, Deep, Intelligent... Bergmanian...\n', " Turkish Cinema's attempt to make Ingmar Bergman Cinema is trapped in Overlong Narrative and Over-Intellectualism.\n", ' One Of The Most Engrossing, Mesmerizing &amp; Satisfying Films Of 2014\n', ' Desolate &amp; Bleak...\n', ' Winter Storm\n', ' Haunting and mesmerizing\n', ' Very good...\n', ' Good Film From An Overrated Director\n', ' Meditative drama\n', ' Well-made, but far too long\n', ' The problem of this movie is not that it contains so much dialogue, the problem is the static way in which this dialogue is portrayed\n', ' A movie about what?\n', " Funniest comedy in years. Wait, it's not a comedy?\n", ' Suffocating Virtues\n', ' Philosophical\n', ' Overwhelming\n', ' A masterful Steppe\n', ' An intellectual feast on a literary scale paired with stunning poetic cinematography.\n', ' Well worth the long journey\n']</t>
+          <t>[' Powerful winter sleep\n', ' Turkish film\n', ' Reasonably engaging but slow and seemingly interminable\n', ' Extremely long boring movie\n', ' the cosmically intangible yet intrinsically tangible incapability of communication among us humans\n', ' Beautiful in landscape and language.\n', ' Bleak, Deep, Intelligent... Bergmanian...\n', " Turkish Cinema's attempt to make Ingmar Bergman Cinema is trapped in Overlong Narrative and Over-Intellectualism.\n", ' One Of The Most Engrossing, Mesmerizing &amp; Satisfying Films Of 2014\n', ' Desolate &amp; Bleak...\n', ' Winter Storm\n', ' Haunting and mesmerizing\n', ' Very good...\n', ' Good Film From An Overrated Director\n', ' Meditative drama\n', ' Well-made, but far too long\n', ' The problem of this movie is not that it contains so much dialogue, the problem is the static way in which this dialogue is portrayed\n', ' A movie about what?\n', " Funniest comedy in years. Wait, it's not a comedy?\n", ' Suffocating Virtues\n', ' Philosophical\n', ' Overwhelming\n', ' A masterful Steppe\n', ' An intellectual feast on a literary scale paired with stunning poetic cinematography.\n', ' Well worth the long journey\n']</t>
         </is>
       </c>
     </row>
@@ -21757,7 +21757,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[' Good crime epic\n', ' More than a worthy sequel\n', ' The Masterminds of the Organized Crime in Rio\n', ' Violent and realistic motion picture based on real facts , about a high ranking officer fighting total corruption\n', ' Brazilian Crime\n', ' better and even more intriguing than the first Elite Squad\n', ' Great - as good as the first Elite Squad\n', ' It does not do anything for me I do not know myself\n', ' A Nutshell Review: Elite Squad 2\n', ' A Massive Improvement Over The Original\n', ' High Speed Dialogue Dilution...\n', ' Fight for the truth...\n', ' BETTER THAN THE FIRST.\n', ' Elite Squad 2 is a dense and fearless work, which does not shy away from exposing the problems of a sick society and a dying political system\n', ' Cuts sweetly to the bone\n', ' Entertaining political action thriller\n', ' Governor... you know what this is? The "kiss it good-bye" dance.\n', ' The never ending drug &amp; corruption war\n', ' Drug wars in another world\n', ' Fascinating and necessary\n', ' A slam dunk to the senses. I expected that, but this delivers so much more.\n', ' A timeless reality\n', " A movie that speaks to a nation's search for a righteous identity.\n", ' Not as good as the first\n', ' Vastly superior to the original.\n']</t>
+          <t>[' Good crime epic\n', ' More than a worthy sequel\n', ' The Masterminds of the Organized Crime in Rio\n', ' Violent and realistic motion picture based on real facts , about a high ranking officer fighting total corruption\n', ' Brazilian Crime\n', ' better and even more intriguing than the first Elite Squad\n', ' Great - as good as the first Elite Squad\n', ' It does not do anything for me I do not know myself\n', ' A Nutshell Review: Elite Squad 2\n', ' A Massive Improvement Over The Original\n', ' High Speed Dialogue Dilution...\n', ' Fight for the truth...\n', ' Elite Squad 2 is a dense and fearless work, which does not shy away from exposing the problems of a sick society and a dying political system\n', ' BETTER THAN THE FIRST.\n', ' Cuts sweetly to the bone\n', ' Entertaining political action thriller\n', ' Governor... you know what this is? The "kiss it good-bye" dance.\n', ' The never ending drug &amp; corruption war\n', ' Drug wars in another world\n', ' Fascinating and necessary\n', ' A slam dunk to the senses. I expected that, but this delivers so much more.\n', ' A timeless reality\n', " A movie that speaks to a nation's search for a righteous identity.\n", ' Not as good as the first\n', ' Vastly superior to the original.\n']</t>
         </is>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>[" Not one of Kurasawa's best but still a great film\n", ' Outstanding Kurosawa, my favourite thus far\n', ' Funny sequel to Yojimbo\n', ' Sanjuro\n', ' Is It Really Fun?\n', ' Funny Adventure\n', ' Accessible, brisk, action-packed and a lot of fun\n', ' Lighter Sequel to "Yojimbo"\n', " Better than most in the genre, even if not a 'masterpiece' for Kurosawa\n", " Good, but not among Kurosawa's best\n", ' Stupid friends are dangerous.\n', ' The charismatic star does not seem to put himself out too much\n', ' Sanjûrô\n', ' An unsheathed sword.\n', ' A film about peace\n', ' entertaining but surprisingly dumb\n', ' Not quite Yojimbo, but still stands solidly on its own two feet\n', " Yet another significant samurai action classic by Toshiro Mifune-Akira Kurosawa duo serves a great sequel to their previous Classic 'Yojimbo'.\n", ' Excellence\n', " A Worthy Follow-Up To 'Yojimbo'\n", " So far the weakest Akira Kurosawa's movie i saw\n", " Among the Most Entertaining of Kurosawa's or Mifune's Movies\n", ' Not bad, but not great\n', ' Sanjuro\n', ' Masterful samurai sword-opera\n']</t>
+          <t>[" Not one of Kurasawa's best but still a great film\n", ' Outstanding Kurosawa, my favourite thus far\n', ' Funny sequel to Yojimbo\n', ' Sanjuro\n', ' Is It Really Fun?\n', ' Funny Adventure\n', ' Accessible, brisk, action-packed and a lot of fun\n', ' Lighter Sequel to "Yojimbo"\n', " Better than most in the genre, even if not a 'masterpiece' for Kurosawa\n", " Good, but not among Kurosawa's best\n", ' Stupid friends are dangerous.\n', ' The charismatic star does not seem to put himself out too much\n', ' Sanjûrô\n', ' An unsheathed sword.\n', ' A film about peace\n', ' entertaining but surprisingly dumb\n', ' Not quite Yojimbo, but still stands solidly on its own two feet\n', " Yet another significant samurai action classic by Toshiro Mifune-Akira Kurosawa duo serves a great sequel to their previous Classic 'Yojimbo'.\n", ' Excellence\n', " A Worthy Follow-Up To 'Yojimbo'\n", " So far the weakest Akira Kurosawa's movie i saw\n", " Among the Most Entertaining of Kurosawa's or Mifune's Movies\n", ' Not bad, but not great\n', ' Masterful samurai sword-opera\n', ' Sanjuro\n']</t>
         </is>
       </c>
     </row>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>[' Claustrophobic beauty\n', ' brilliant performances\n', ' Terrific Thriller with Great Performances\n', ' Taking What Could Have Been Maudlin to the Stratosphere\n', ' From one room to a bigger world\n', ' An incredibly good film.\n', ' Inside out\n', ' Sensitive and Delicate\n', ' Emotional and compelling stuff thanks to the tight focus on well written and performed characters\n', ' intense rock candy mountain\n', ' A Sparse Tale Powered By Two Strong Leads\n', ' Excellent acting and an expressive eye help make the film a moving experience...\n', ' Haunting\n', ' Intense\n', ' Wonderful - highly original and incredibly emotional\n', ' Makes a Better Movie Than Book\n', ' Normal is not so easy\n', ' Should have won movie of the year award.\n', " 'There are so many things out here. And sometimes it's scary. But that's OK. Because it's still just you and me...'\n", ' Room\n', ' A film that shows how shelter and surroundings differ, especially when a boy becomes open to the outside world!\n', ' Oscar worthy.\n', ' a heartfelt sensation without sensationalising its characterisation\n', ' my notes\n', ' A Harrowing Film with Incredible Performances!\n']</t>
+          <t>[' Claustrophobic beauty\n', ' brilliant performances\n', ' Terrific Thriller with Great Performances\n', ' Taking What Could Have Been Maudlin to the Stratosphere\n', ' From one room to a bigger world\n', ' An incredibly good film.\n', ' Inside out\n', ' Sensitive and Delicate\n', ' Emotional and compelling stuff thanks to the tight focus on well written and performed characters\n', ' intense rock candy mountain\n', ' A Sparse Tale Powered By Two Strong Leads\n', ' Excellent acting and an expressive eye help make the film a moving experience...\n', ' Haunting\n', ' Intense\n', ' Wonderful - highly original and incredibly emotional\n', ' Makes a Better Movie Than Book\n', ' Normal is not so easy\n', ' Should have won movie of the year award.\n', " 'There are so many things out here. And sometimes it's scary. But that's OK. Because it's still just you and me...'\n", ' Room\n', ' A film that shows how shelter and surroundings differ, especially when a boy becomes open to the outside world!\n', ' a heartfelt sensation without sensationalising its characterisation\n', ' Oscar worthy.\n', ' my notes\n', ' A Harrowing Film with Incredible Performances!\n']</t>
         </is>
       </c>
     </row>
@@ -22764,7 +22764,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>[' Uneven but often very impressive\n', ' Traumatic exploration of the POW experience\n', ' One Shot\n', ' great war movie without the big war action\n', ' Emotionally Draining But Incredibly Powerful and Haunting\n', ' The Deer Hunter\n', ' Hunting &amp; surviving\n', ' Overlong and not as deep as it thinks but still a very good film\n', ' A powerful story...\n', ' A vivid and brooding portrait of Middle america with three steel-working friends to face the Vietnam War\n', ' Disturbing, if flawed.\n', ' Great, But Missed Its Mark on Me\n', ' It affects people on the deepest of levels...but is it really interested in searching the souls of these men or in being a treatise in brutality?\n', ' to call it masterpiece is to state the obvious\n', ' Not the best film of 1978, but close\n', ' Hits its audience hard.\n', ' Intense war drama. Friends experience P.O.W. camp.\n', ' Disjointed, Dismal, and Gut-Wrenching God-Awful\n', ' Brilliant - a powerful examination of war and its consequences\n', ' Small Town Soldiers\n', ' Gritty film can hardly be called entertainment...\n', ' great Rom com\n', ' A masterpiece of the era\n', ' A Superb, Sprawling Epic About the Psychological Toll of Vietnam\n', ' Not impressed\n']</t>
+          <t>[' Uneven but often very impressive\n', ' Traumatic exploration of the POW experience\n', ' One Shot\n', ' great war movie without the big war action\n', ' Emotionally Draining But Incredibly Powerful and Haunting\n', ' The Deer Hunter\n', ' Hunting &amp; surviving\n', ' Overlong and not as deep as it thinks but still a very good film\n', ' A powerful story...\n', ' A vivid and brooding portrait of Middle america with three steel-working friends to face the Vietnam War\n', ' Disturbing, if flawed.\n', ' Great, But Missed Its Mark on Me\n', ' Simply a masterpiece but....\n', ' It affects people on the deepest of levels...but is it really interested in searching the souls of these men or in being a treatise in brutality?\n', ' to call it masterpiece is to state the obvious\n', ' Not the best film of 1978, but close\n', ' Hits its audience hard.\n', ' Intense war drama. Friends experience P.O.W. camp.\n', ' Disjointed, Dismal, and Gut-Wrenching God-Awful\n', ' Brilliant - a powerful examination of war and its consequences\n', ' Small Town Soldiers\n', ' Gritty film can hardly be called entertainment...\n', ' great Rom com\n', ' A masterpiece of the era\n', ' A Superb, Sprawling Epic About the Psychological Toll of Vietnam\n']</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>[' Shane-X\n', ' Re-tiring\n', ' Dismal, Violent and Sad\n', ' Succeeds because it makes you care, and gives the viewer grit and consequences\n', ' An "X-Men" movie for the adult audience...\n', ' A good outing in "Wolverine saga" with Logan taking on ominous enemies and filled with gory and spectacular action scenes\n', ' Logan buried.\n', ' emotionally it gets it so right that one can mostly look over story flaws\n', ' Logan is a more than excellent final chapter of the Wolverine saga!\n', ' Not bad, but not as amazing as they say\n', " Great movie, even if you're not an X-Men follower\n", ' The Last Cut Is The Deepest!\n', ' Super Abilities Second to Super Story\n', ' No other superhero movie can compare\n', ' A fitting farewell\n', ' Logan, best Wolverine movie as thus far.\n', ' Quasi-"superhero" movie focusing on the grim reality behind the comic book\n', ' Hugh Jackman in his last go around as Wolverine\n', ' The claws (really) come out\n', " 'Take your friends and run... They'll keep coming, and coming... You don't have to fight anymore.'\n", " One of the best 'superhero' films out there.\n", ' A better mutant movie, but still not great\n', ' The greatest adventure of all.\n', " another triumph of comic material's R-rated transmutation on the big screen\n", ' my notes\n']</t>
+          <t>[' Shane-X\n', ' Re-tiring\n', ' Dismal, Violent and Sad\n', ' Succeeds because it makes you care, and gives the viewer grit and consequences\n', ' An "X-Men" movie for the adult audience...\n', ' A good outing in "Wolverine saga" with Logan taking on ominous enemies and filled with gory and spectacular action scenes\n', ' Logan buried.\n', ' emotionally it gets it so right that one can mostly look over story flaws\n', ' Logan is a more than excellent final chapter of the Wolverine saga!\n', ' Not bad, but not as amazing as they say\n', " Great movie, even if you're not an X-Men follower\n", ' The Last Cut Is The Deepest!\n', ' Super Abilities Second to Super Story\n', ' No other superhero movie can compare\n', ' A fitting farewell\n', ' Logan, best Wolverine movie as thus far.\n', ' Quasi-"superhero" movie focusing on the grim reality behind the comic book\n', ' Hugh Jackman in his last go around as Wolverine\n', ' The claws (really) come out\n', " 'Take your friends and run... They'll keep coming, and coming... You don't have to fight anymore.'\n", " One of the best 'superhero' films out there.\n", ' A better mutant movie, but still not great\n', " another triumph of comic material's R-rated transmutation on the big screen\n", ' The greatest adventure of all.\n', ' my notes\n']</t>
         </is>
       </c>
     </row>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>[' Comedy, tragedy and morality rolled into one\n', ' Inconsolable grief\n', ' so many issues\n', ' Too Far Out!\n', ' great\n', ' Frances McDormand\n', ' Vengeance is mine\n', ' A powerful film that draws many emotions.\n', ' Searching for ... aka the truth is out there\n', ' A search for justice... or vengeance?\n', ' A very offbeat drama\n', ' Angry and profane characters, could have been much better.\n', ' Anger begets more anger\n', ' Do the Right Thing in Ebbing, Missouri\n', ' Not bad but lacks focus\n', ' Mercurial Mildred\n', ' Truly an actors movie\n', ' Mad men\n', ' A Troubled Movie for Our Troubled Times\n', ' another McDonagh classic\n', ' Quality\n', " I'm from Missouri\n", ' nobody can really award this 10/10 and be taken seriously.\n', ' Original, dramatic and unexpectedly funny\n', ' Oscar-worthy performances, uneven movie\n']</t>
+          <t>[' Comedy, tragedy and morality rolled into one\n', ' Inconsolable grief\n', ' so many issues\n', ' Too Far Out!\n', ' great\n', ' Frances McDormand\n', ' Vengeance is mine\n', ' A powerful film that draws many emotions.\n', ' Searching for ... aka the truth is out there\n', ' A dramatic and black comedy film with terrific acting from Frances McDormand\n', ' A search for justice... or vengeance?\n', ' A very offbeat drama\n', ' Angry and profane characters, could have been much better.\n', ' Anger begets more anger\n', ' Do the Right Thing in Ebbing, Missouri\n', ' Not bad but lacks focus\n', ' Mercurial Mildred\n', ' Truly an actors movie\n', ' Mad men\n', ' A Troubled Movie for Our Troubled Times\n', ' another McDonagh classic\n', ' Quality\n', " I'm from Missouri\n", ' nobody can really award this 10/10 and be taken seriously.\n', ' Original, dramatic and unexpectedly funny\n']</t>
         </is>
       </c>
     </row>
@@ -23490,7 +23490,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>[' Too artsy and slow....and the relationship, sadly, seemed unreal.\n', ' French film\n', ' beautiful\n', " What Women Do When Men Aren't Watching\n", ' Portrait of a Filmmaker with Something to Say (I mean that as a compliment!)\n', ' A woman who cannot control her destiny\n', ' Beautifully filmed but otherwise dull and unoriginal\n', ' A masterpiece of cinematic art\n', ' The Gazer and the Gazed\n', ' Looks pretty enough but rather shallow and predictable.\n', ' Burning desire.\n', ' Beautiful\n', " It's a beauty speaking to all lovers.\n", ' an audacious sapphic testament of conspiratorial sororal solidarity and explicit sexual desire\n', ' Beautiful, poetic...\n', ' A Classic Cinematic Portrait of Love beyond Gender and Regret beyond Sacrifice\n', ' art and love in difficult times\n', ' Everyone should see this; a masterpiece.\n', ' Passionate Storytelling At Its Most Serene\n', ' Good movie\n', " Burning with Desire, Passion &amp; L'Amour...\n", ' Special Features\n', ' Absolutely exquisite\n', ' Average...\n', ' Embers of previous life\n']</t>
+          <t>[' Too artsy and slow....and the relationship, sadly, seemed unreal.\n', ' French film\n', ' beautiful\n', " What Women Do When Men Aren't Watching\n", ' Portrait of a Filmmaker with Something to Say (I mean that as a compliment!)\n', ' A woman who cannot control her destiny\n', ' Beautifully filmed but otherwise dull and unoriginal\n', ' A masterpiece of cinematic art\n', ' The Gazer and the Gazed\n', ' Looks pretty enough but rather shallow and predictable.\n', ' Burning desire.\n', ' Beautiful\n', ' an audacious sapphic testament of conspiratorial sororal solidarity and explicit sexual desire\n', " It's a beauty speaking to all lovers.\n", ' Beautiful, poetic...\n', ' A Classic Cinematic Portrait of Love beyond Gender and Regret beyond Sacrifice\n', ' art and love in difficult times\n', ' Everyone should see this; a masterpiece.\n', ' Passionate Storytelling At Its Most Serene\n', ' Good movie\n', " Burning with Desire, Passion &amp; L'Amour...\n", ' Special Features\n', ' Absolutely exquisite\n', ' Average...\n', ' Embers of previous life\n']</t>
         </is>
       </c>
     </row>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>[' a relation\n', ' Loyalty\n', ' Buttons\n', ' Touching and sensitive film based on a heartwarming true story\n', ' A Highly-Rated Richard Gere Movie\n', ' Family film is a bit underfed...still a worthy heart-tugger for animal lovers\n', " kind of an impossible film to truly hate, though I don't quite love it\n", ' Sweet\n', " Incredibly moving tale of a dog's loyalty to his owner\n", ' Love, Loyalty, Commitment, Devotion\n', ' It will probably make you cry about a dog\n', " A Nutshell Review: Hachiko: A Dog's Story\n", ' An Emotional &amp; Beautiful Film...\n', ' An AMAZING movie!\n', ' They stretched this story really, really thin\n', ' EPIC !!! The longest sobbing i ever had for any film..\n', ' Overly Sentimental &amp; Emotionally Manipulative.\n', ' A cute, sweet and tender film, which imports an originally Japanese story to the USA and which promises to make many children insistently ask their parents for puppies.\n', ' One Man &amp; His Dog...\n', ' Devastatingly Beautiful\n', ' Emotional...\n', ' As a cat lover i loved this film\n', ' Why?\n', ' Prepare yourself for watch this\n', " Hachi: A Dog's Tale\n"]</t>
+          <t>[' a relation\n', ' Loyalty\n', ' Buttons\n', ' Touching and sensitive film based on a heartwarming true story\n', ' A Highly-Rated Richard Gere Movie\n', ' Family film is a bit underfed...still a worthy heart-tugger for animal lovers\n', " kind of an impossible film to truly hate, though I don't quite love it\n", ' Sweet\n', " Incredibly moving tale of a dog's loyalty to his owner\n", ' Love, Loyalty, Commitment, Devotion\n', ' It will probably make you cry about a dog\n', " A Nutshell Review: Hachiko: A Dog's Story\n", ' An Emotional &amp; Beautiful Film...\n', ' An AMAZING movie!\n', ' They stretched this story really, really thin\n', ' EPIC !!! The longest sobbing i ever had for any film..\n', ' Overly Sentimental &amp; Emotionally Manipulative.\n', ' A cute, sweet and tender film, which imports an originally Japanese story to the USA and which promises to make many children insistently ask their parents for puppies.\n', ' One Man &amp; His Dog...\n', ' Devastatingly Beautiful\n', ' Emotional...\n', ' As a cat lover i loved this film\n', ' Prepare yourself for watch this\n', ' Why?\n', " Hachi: A Dog's Tale\n"]</t>
         </is>
       </c>
     </row>
@@ -23686,7 +23686,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>[" Despite it being a classic, it's NOT a film for many people...perhaps most people.\n", ' One of the best movies of the 80s\n', ' a long winding road\n', ' An Odd Film\n', ' "Is four years a long time?\' .. "It is for a little boy."\n', ' interesting character study\n', ' Arthouse character study from director Wim Wenders\n', ' Patient Viewers in for a Beautiful Treat...Unique Movie-Going Experience\n', ' A brilliant, searingly emotional examination of relationships and life\n', " I'm not afraid of heights. I'm afraid of fallin'.\n", ' Literally Made My Heart Ache\n', ' A Fancy Lady\n', ' I was never very keen of this film\n', ' By far the best of Win Wenders, near masterpiece road movie!!\n', " One's place in the world\n", ' Excellent and potent tale of loss\n', ' Paris, Texas\n', ' PLEASE! RELEASE THIS TO DVD!!!\n', ' Desert of the soul.\n', ' Masterful\n', ' "Taxi Driver" and "The Searchers" in a curious European art-house mix...\n', ' Hardly a good film if you are interested in wild and senseless fascinations of two people otherwise OVERRATED!\n', ' An Underwhelming Road Movie That Keeps Drifting Aimlessly Throughout Its Runtime\n', ' Great character study movie\n', ' Sort of disappointing\n']</t>
+          <t>[" Despite it being a classic, it's NOT a film for many people...perhaps most people.\n", ' One of the best movies of the 80s\n', ' a long winding road\n', ' An Odd Film\n', ' "Is four years a long time?\' .. "It is for a little boy."\n', ' interesting character study\n', ' Arthouse character study from director Wim Wenders\n', ' Patient Viewers in for a Beautiful Treat...Unique Movie-Going Experience\n', ' A brilliant, searingly emotional examination of relationships and life\n', " I'm not afraid of heights. I'm afraid of fallin'.\n", ' Literally Made My Heart Ache\n', ' A Fancy Lady\n', ' I was never very keen of this film\n', ' By far the best of Win Wenders, near masterpiece road movie!!\n', " One's place in the world\n", ' Paris, Texas\n', ' Excellent and potent tale of loss\n', ' PLEASE! RELEASE THIS TO DVD!!!\n', ' Desert of the soul.\n', ' Masterful\n', ' "Taxi Driver" and "The Searchers" in a curious European art-house mix...\n', ' Hardly a good film if you are interested in wild and senseless fascinations of two people otherwise OVERRATED!\n', ' An Underwhelming Road Movie That Keeps Drifting Aimlessly Throughout Its Runtime\n', ' Great character study movie\n', ' Sort of disappointing\n']</t>
         </is>
       </c>
     </row>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>[' The consequences of bullying\n', ' emotional pounding\n', ' A Silent Voice\n', ' Intense, emotional and engrossing\n', ' Wonderful, profound themes, explored in a lethargic, unfocussed manner\n', ' This is a movie with a unique storyline and a worthwhile premise.\n', ' Good but nothing great to be called out..\n', ' Everyone Deserves A Shot At Redemption\n', ' Worthy of More\n', ' The voice...\n', ' Very grim\n', ' Has a good heart, and works well as an animated film\n', ' ONE OF THE BEST...!\n', ' A second chance to fix the past mistake.\n', ' A Silent Voice encapsulates a deafening amount of humanity that grants bullying a path to redemption.\n', ' Well this was an experience...\n', ' The point of view of a bully\n', ' Solid Japanese animation film\n', ' Nice anime-drama film\n', ' Better then Your Name\n', ' Excellent\n', ' Woukd have given it a 9, BUT\n', ' Far from a romance, but closest to a moving, poignant redemption drama.\n', ' One of my top 10 favorite anime.\n', ' As Sincerely Hard-Hitting as it Gets\n']</t>
+          <t>[' The consequences of bullying\n', ' emotional pounding\n', ' A Silent Voice\n', ' Intense, emotional and engrossing\n', ' Wonderful, profound themes, explored in a lethargic, unfocussed manner\n', ' This is a movie with a unique storyline and a worthwhile premise.\n', ' Good but nothing great to be called out..\n', ' Everyone Deserves A Shot At Redemption\n', ' Worthy of More\n', ' The voice...\n', ' Very grim\n', ' Has a good heart, and works well as an animated film\n', ' ONE OF THE BEST...!\n', ' A second chance to fix the past mistake.\n', ' Well this was an experience...\n', ' A Silent Voice encapsulates a deafening amount of humanity that grants bullying a path to redemption.\n', ' The point of view of a bully\n', ' Solid Japanese animation film\n', ' Nice anime-drama film\n', ' Better then Your Name\n', ' Excellent\n', ' Woukd have given it a 9, BUT\n', ' Far from a romance, but closest to a moving, poignant redemption drama.\n', ' One of my top 10 favorite anime.\n', ' As Sincerely Hard-Hitting as it Gets\n']</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>[" Not surprisingly, you'll need to have some Kleenex nearby as you watch this film.\n", ' Powerful, gut-wrenching and compelling\n', ' sincere history telling\n', ' terrible portrait\n', ' Genocide tales\n', ' He Made the Difference In a Country of Poor Black People Without Oil, Gold or Diamonds\n', ' Extraordinary film based correctly on real deeds about the brutal genocide\n', ' I heard Paul Rusesabagina speak at Lewis &amp; Clark College.\n', ' A Captivating Story of Genocide in Africa\n', ' Hotel Rwanda Meets Oscar Schindler and Raoul Wallenberg****\n', ' Powerful, touching reflection of the good and bad of humanity\n', ' A document for humanity\n', ' An awesomely done film about an awful event\n', ' A great inspiring story weakened by bad casting\n', " You're black. You're not even a n*gger. You're an African.\n", ' The Horrors of Genocide\n', " There's always room\n", ' A disturbing and unsettling piece of truth and cinema\n', ' "Schindler\'s List" meets "The Killing Fields" by way of "Casablanca" ; Cheadle\'s triumphant career best\n', ' The Timing of the Actual Genocide could not be anymore poignant!\n', ' "I promise to tell your story"\n', ' Not bad, but definitely a disappointment\n', ' Hotel Rwanda\n', ' A Nutshell Review: Hotel Rwanda\n', ' An incredible story of bravery within one of the most barbaric episodes in recent history\n']</t>
+          <t>[" Not surprisingly, you'll need to have some Kleenex nearby as you watch this film.\n", ' Powerful, gut-wrenching and compelling\n', ' sincere history telling\n', ' terrible portrait\n', ' Genocide tales\n', ' He Made the Difference In a Country of Poor Black People Without Oil, Gold or Diamonds\n', ' Extraordinary film based correctly on real deeds about the brutal genocide\n', ' I heard Paul Rusesabagina speak at Lewis &amp; Clark College.\n', ' A Captivating Story of Genocide in Africa\n', ' Hotel Rwanda Meets Oscar Schindler and Raoul Wallenberg****\n', ' Powerful, touching reflection of the good and bad of humanity\n', ' A document for humanity\n', ' An awesomely done film about an awful event\n', ' A great inspiring story weakened by bad casting\n', " You're black. You're not even a n*gger. You're an African.\n", ' The Horrors of Genocide\n', " There's always room\n", ' A disturbing and unsettling piece of truth and cinema\n', ' "Schindler\'s List" meets "The Killing Fields" by way of "Casablanca" ; Cheadle\'s triumphant career best\n', ' The Timing of the Actual Genocide could not be anymore poignant!\n', ' "I promise to tell your story"\n', ' Hotel Rwanda\n', ' Not bad, but definitely a disappointment\n', ' A Nutshell Review: Hotel Rwanda\n', ' An incredible story of bravery within one of the most barbaric episodes in recent history\n']</t>
         </is>
       </c>
     </row>
@@ -24179,7 +24179,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>[" A brilliant film, but is not for everybody I don't think\n", ' artistic film\n', ' Those Bergman Females Could Act\n', ' A Theatrical Movie of Direction and Performances\n', ' Classic Bergman\n', ' Nothing if not bizarre\n', ' open to several interpretations\n', ' The most ambiguous, inviting, surreal, whatever-you-can-think philosophical experiment by Bergman\n', " Persona is a women's' picture in the best sense of the term.\n", " Ingmar Bergman's superb study of (insert your interpretation here)\n", ' If I knew WHAT I was watching I might have liked it more\n', ' The important thing is the effort, not what we achieve.\n', " It's Movies Like This That Earned Bergman His Reputation\n", ' Psychological breakdown and dissection, with Ingmar Bergman.\n', ' Persona\n', ' Rambling on...\n', " a dazzling Bergman's study in unfathomable nature of human being\n", " Liv Ulmann's smile\n", ' Maybe I would have liked this better when I was in film school?\n', ' The vision of an Artist on the inner Tragedy of Life ...\n', ' One of the most complicated film ever and a Landmark Art Film experimenting in human personae philosophy.\n', " the enigmas of 'Persona'\n", ' A Surreal Meditation On Duality, Identity &amp; Psychology\n', ' The Sounds of Silence\n', ' What is the buzz about?\n']</t>
+          <t>[" A brilliant film, but is not for everybody I don't think\n", ' artistic film\n', ' Those Bergman Females Could Act\n', ' A Theatrical Movie of Direction and Performances\n', ' Classic Bergman\n', ' Nothing if not bizarre\n', ' open to several interpretations\n', ' The most ambiguous, inviting, surreal, whatever-you-can-think philosophical experiment by Bergman\n', " Persona is a women's' picture in the best sense of the term.\n", " Ingmar Bergman's superb study of (insert your interpretation here)\n", ' If I knew WHAT I was watching I might have liked it more\n', ' The important thing is the effort, not what we achieve.\n', " It's Movies Like This That Earned Bergman His Reputation\n", ' Psychological breakdown and dissection, with Ingmar Bergman.\n', ' Persona\n', ' Rambling on...\n', " a dazzling Bergman's study in unfathomable nature of human being\n", " Liv Ulmann's smile\n", ' Maybe I would have liked this better when I was in film school?\n', ' The vision of an Artist on the inner Tragedy of Life ...\n', ' One of the most complicated film ever and a Landmark Art Film experimenting in human personae philosophy.\n', " the enigmas of 'Persona'\n", ' A Surreal Meditation On Duality, Identity &amp; Psychology\n', ' What is the buzz about?\n', ' The Sounds of Silence\n']</t>
         </is>
       </c>
     </row>
@@ -24633,7 +24633,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>[' exceptionally crafted but depressing\n', ' Beautiful and deeply moving\n', ' slow but mesmerizing\n', ' Just Too Real\n', ' Still (moving)\n', " A Movie to Make You Think about Parents' Seniority and Children Indifference and Selfishness\n", ' One of the Best Japanese Films Ever\n', ' I need to see it again even after two times; a beautiful mix of simplicity, nuance, style and humility\n', ' Engaging and emotional drama from Yasujiro Ozu\n', ' Untimely\n', ' Almost Unbearably Sad\n', ' Tokyo Story review\n', ' Tokyo Story\n', ' Slice of life, for those who like that sort of thing\n', ' An influential Classic from Japanese Cinema on Old Age Circle.\n', ' parents and children\n', ' A Heartfelt Meditation of Old Age &amp; Parents-Children Relationship\n', ' Great movie\n', ' Predictable\n', ' How do you find each other after the night?\n', ' Plodding\n', ' Tokyo Story\n', ' Touching tale of an elderly couple in post-war Japan\n', ' Touching Story\n', ' A masterpiece from a master director\n']</t>
+          <t>[' exceptionally crafted but depressing\n', ' Beautiful and deeply moving\n', ' slow but mesmerizing\n', ' Just Too Real\n', ' Still (moving)\n', " A Movie to Make You Think about Parents' Seniority and Children Indifference and Selfishness\n", ' One of the Best Japanese Films Ever\n', ' I need to see it again even after two times; a beautiful mix of simplicity, nuance, style and humility\n', ' Engaging and emotional drama from Yasujiro Ozu\n', ' Untimely\n', ' Almost Unbearably Sad\n', ' Tokyo Story review\n', ' Tokyo Story\n', ' Slice of life, for those who like that sort of thing\n', ' An influential Classic from Japanese Cinema on Old Age Circle.\n', ' parents and children\n', ' A Heartfelt Meditation of Old Age &amp; Parents-Children Relationship\n', ' Great movie\n', ' Predictable\n', ' How do you find each other after the night?\n', ' Plodding\n', ' Touching tale of an elderly couple in post-war Japan\n', ' Tokyo Story\n', ' Touching Story\n', ' A masterpiece from a master director\n']</t>
         </is>
       </c>
     </row>
@@ -24761,7 +24761,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>[" Sweden's greatest director continues to captivate!\n", ' Not my cup of tea but still impressed with two scenes\n', ' Fanny and Alexander (Tv Version)\n', ' Remarkable and Unsettling\n', ' Call me Ishmael\n', ' Not so fanny ... in the end\n', ' Bergman Does Dickens (Sort Of)\n', " (review of the 5-hour cut) A total, un-abashed work of art that you'll love or hate. I loved it, and it's likely one of the great epics I'll ever see\n", " Ingmar Bergman's Alexander (and the Bishop)\n", " Really don't know what all the fuss is about...\n", ' Sweet Castor Oil\n', " One of Bergman's finest\n", ' ...doomed for a certain time ...\n', ' Almost a Masterpiece\n', ' Maybe there are no boundaries\n', ' Closing the Arc opened with "The Seventh Seal"... God has the final word... with Bergman\'s consent...\n', ' the last masterpiece\n', " A Semi-Autobiographical Account Of Ingmar Bergman's Own Upbringing\n", ' Like a great novel\n', ' Subtle &amp; Sublime...\n', ' Definition of drama...\n', ' Mixed feelings\n', ' Fanny and Alexander\n', ' Intriguing at many levels\n', " Bergman's Curtain Call\n"]</t>
+          <t>[" Sweden's greatest director continues to captivate!\n", ' Not my cup of tea but still impressed with two scenes\n', ' Fanny and Alexander (Tv Version)\n', ' Remarkable and Unsettling\n', ' Call me Ishmael\n', ' Not so fanny ... in the end\n', ' Bergman Does Dickens (Sort Of)\n', " (review of the 5-hour cut) A total, un-abashed work of art that you'll love or hate. I loved it, and it's likely one of the great epics I'll ever see\n", " Ingmar Bergman's Alexander (and the Bishop)\n", " Really don't know what all the fuss is about...\n", ' Sweet Castor Oil\n', " One of Bergman's finest\n", ' ...doomed for a certain time ...\n', ' Almost a Masterpiece\n', ' Maybe there are no boundaries\n', ' Closing the Arc opened with "The Seventh Seal"... God has the final word... with Bergman\'s consent...\n', ' the last masterpiece\n', " A Semi-Autobiographical Account Of Ingmar Bergman's Own Upbringing\n", ' Like a great novel\n', ' Subtle &amp; Sublime...\n', ' Definition of drama...\n', ' Mixed feelings\n', ' Intriguing at many levels\n', ' Fanny and Alexander\n', " Bergman's Curtain Call\n"]</t>
         </is>
       </c>
     </row>
@@ -24860,7 +24860,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>[" France's illusion\n", ' Great and important movie\n', ' Much Like Today\n', ' Powerful and Impressive Masterpiece\n', ' A balanced and fascinating historical piece with lessons that extend far beyond Algiers\n', ' Powerful , award-winning flick depicting the uprising against French Colonial rule\n', ' atrocities are nothing: everyone commits them\n', ' The Battle For Algiers\n', ' The Costa Gavras touch\n', " as fitting a tip-of-the-hat to Rossellini's post-WW2 work made in the 60's, and them some\n", ' Superb Treatment of Difficult Material\n', ' Groundbreaking docu-drama\n', " We aren't madmen or sadists, gentlemen. We are soldiers and our only duty is to win.\n", ' good telling of fight for independence\n', ' An Astonishing and Authentic Examination of Terrorism\n', ' the two hours go fast\n', ' Cold, brutal and hard to connect with\n', ' The grim reality of war - and colonialism\n', ' An unforgettable study of occupation and defeat.\n', ' A telling recount of a shocking history in modern revolution\n', ' A disturbing, hard-hitting and extraordinary tale of Freedom Fight.\n', ' An Informing, Historical &amp; Essential Piece Of World Cinema\n', ' Algeria 1954-62: A history lesson on film\n', ' A documentary film, tiring to the eyes and with a bad script.\n', ' The Hypocrisy of Occupation...\n']</t>
+          <t>[" France's illusion\n", ' Great and important movie\n', ' Much Like Today\n', ' Powerful and Impressive Masterpiece\n', ' A balanced and fascinating historical piece with lessons that extend far beyond Algiers\n', ' Powerful , award-winning flick depicting the uprising against French Colonial rule\n', ' atrocities are nothing: everyone commits them\n', ' The Battle For Algiers\n', ' The Costa Gavras touch\n', " as fitting a tip-of-the-hat to Rossellini's post-WW2 work made in the 60's, and them some\n", ' Superb Treatment of Difficult Material\n', ' Groundbreaking docu-drama\n', " We aren't madmen or sadists, gentlemen. We are soldiers and our only duty is to win.\n", ' good telling of fight for independence\n', ' An Astonishing and Authentic Examination of Terrorism\n', ' the two hours go fast\n', ' Cold, brutal and hard to connect with\n', ' The grim reality of war - and colonialism\n', ' A telling recount of a shocking history in modern revolution\n', ' An unforgettable study of occupation and defeat.\n', ' A disturbing, hard-hitting and extraordinary tale of Freedom Fight.\n', ' An Informing, Historical &amp; Essential Piece Of World Cinema\n', ' Algeria 1954-62: A history lesson on film\n', ' A documentary film, tiring to the eyes and with a bad script.\n', ' The Hypocrisy of Occupation...\n']</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>[' Amusing and exciting with spectacular spectacle-another winner from Akira Kurasawa!\n', ' Light-hearted romp from a usually serious talent\n', ' kinda funny samurai movie\n', ' Hidden Fortress, The\n', ' Lots of Action; Lots of Fun\n', ' Another Masterpiece by Master Akira Kurosawa\n', ' Enjoyably comic adventure\n', " Akira Kurosawa's splendid story of a general escorting a princess across enemy territory from warring feudal lords\n", ' More Greatness From Kurosawa\n', ' A searing, sweeping adventure by Kurosawa\n', ' Man, Can the Man Fill a Frame\n', " Weak, especially by Kurosawa's high standards\n", ' Toho Vision\n', ' Another influential movie by Akira Kurosawa\n', ' Hide a stone among stones and a man among men.\n', ' Mediocre for Kurosawa\n', ' Action movie storytelling - Kurosawa style.\n', ' The Hidden Fortress review\n', ' Another epic journey from the master director\n', ' The Hidden Fortress\n', " A brilliant film. One of Kurosawa's best\n", ' Great adventure film\n', ' Good movie for the times, but difficult to watch now\n', ' Adventure in the days before CGI\n', ' A long time ago, in a Japanese country far, far away...\n']</t>
+          <t>[' Amusing and exciting with spectacular spectacle-another winner from Akira Kurasawa!\n', ' Light-hearted romp from a usually serious talent\n', ' kinda funny samurai movie\n', ' Hidden Fortress, The\n', ' Lots of Action; Lots of Fun\n', ' Another Masterpiece by Master Akira Kurosawa\n', ' Enjoyably comic adventure\n', " Akira Kurosawa's splendid story of a general escorting a princess across enemy territory from warring feudal lords\n", ' More Greatness From Kurosawa\n', ' A searing, sweeping adventure by Kurosawa\n', ' Man, Can the Man Fill a Frame\n', " Weak, especially by Kurosawa's high standards\n", ' Toho Vision\n', ' Another influential movie by Akira Kurosawa\n', ' Hide a stone among stones and a man among men.\n', ' Mediocre for Kurosawa\n', ' Action movie storytelling - Kurosawa style.\n', ' The Hidden Fortress review\n', ' The Hidden Fortress\n', ' Another epic journey from the master director\n', " A brilliant film. One of Kurosawa's best\n", ' Great adventure film\n', ' Good movie for the times, but difficult to watch now\n', ' Adventure in the days before CGI\n', ' A long time ago, in a Japanese country far, far away...\n']</t>
         </is>
       </c>
     </row>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>[" One of Fellini's best...\n", ' Fellini creates memorable character\n', ' Night of Cabiria\n', ' an experience\n', ' Fellini always creates great characters\n', ' Man With The Sack\n', ' Oooh, it\'s a lady! One of the sharpest, most highly entertaining "chick flicks" ever conceived\n', " Fellini's bitter-sweet classic: funny, sad, sweet, cynical and very engaging\n", ' The eternal optimist\n', " One of Federico Fellini's finest films\n", ' A Fellini classic\n', ' Tremendous Giulietta Masina Performance\n', ' Wonderful film.\n', ' A wonderful and unique film that is as near perfect as can be, surely.\n', ' Bleak portrait of a bleak person\n', ' Nights of Cabiria\n', ' Unbelievably Great\n', ' Giulietta Masina as a prostitute and making the best of it even at the ultimate disaster.\n', ' The Greatest Woman Oriented Tragedy ever told in any corner of the world and the Greatest Leading Actress Performance of the decade in any cinema industry. Period.\n', ' splendid film, splendid creation of Giulietta Masina\n', ' The Final Scene Redeems The Whole Film\n', ' Involving, yet repetitive\n', ' Nights of Cabiria\n', ' Lovely, poignant film.\n', ' nights of cabiria\n']</t>
+          <t>[" One of Fellini's best...\n", ' Fellini creates memorable character\n', ' Night of Cabiria\n', ' an experience\n', ' Fellini always creates great characters\n', ' Man With The Sack\n', ' Oooh, it\'s a lady! One of the sharpest, most highly entertaining "chick flicks" ever conceived\n', " Fellini's bitter-sweet classic: funny, sad, sweet, cynical and very engaging\n", ' The eternal optimist\n', " One of Federico Fellini's finest films\n", ' A Fellini classic\n', ' Tremendous Giulietta Masina Performance\n', ' Wonderful film.\n', ' A wonderful and unique film that is as near perfect as can be, surely.\n', ' Nights of Cabiria\n', ' Bleak portrait of a bleak person\n', ' Unbelievably Great\n', ' Giulietta Masina as a prostitute and making the best of it even at the ultimate disaster.\n', ' The Greatest Woman Oriented Tragedy ever told in any corner of the world and the Greatest Leading Actress Performance of the decade in any cinema industry. Period.\n', ' splendid film, splendid creation of Giulietta Masina\n', ' The Final Scene Redeems The Whole Film\n', ' Involving, yet repetitive\n', ' Lovely, poignant film.\n', ' Nights of Cabiria\n', ' nights of cabiria\n']</t>
         </is>
       </c>
     </row>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>[" don't really buy Ahmed's turn\n", ' about basic truth\n', ' Superb drama on the inanity and wastefulness of war\n', ' War beautiful? YES, in this beautiful film..\n', ' Cinema Omnivore - Tangerines (2013) 7.9/10\n', ' my notes\n', ' story from East\n', ' This Estonian-Georgian Classic is a major breakthrough for changing the face of War films.\n', ' A remarkable piece of work\n', ' A Timely &amp; Topical Drama About The Futility Of War, Hatred &amp; Conflict\n', ' Rare movie gem\n', ' A Bit About War; A Bit About Understanding\n', ' Very good\n', ' A film about our common humanity\n', ' A touching human drama. Well worth seeking out\n', ' Examining the human side of conflicts of war\n', ' Pacifism Rules. ♦ 70%\n', " It's set in Abkhazia which is fun.\n", ' A strong human values film, with the war intruded and in the background\n', ' Amazing and touching film\n', ' ANTI-WAR\n', ' A small scaled anti-war film that delivers its message effectively.\n', ' War has a whole new meaning now.\n', ' Webs of Wartime\n', ' Engaing but lacks depth\n']</t>
+          <t>[" don't really buy Ahmed's turn\n", ' about basic truth\n', ' Superb drama on the inanity and wastefulness of war\n', ' Cinema Omnivore - Tangerines (2013) 7.9/10\n', ' War beautiful? YES, in this beautiful film..\n', ' my notes\n', ' story from East\n', ' This Estonian-Georgian Classic is a major breakthrough for changing the face of War films.\n', ' A remarkable piece of work\n', ' A Timely &amp; Topical Drama About The Futility Of War, Hatred &amp; Conflict\n', ' Rare movie gem\n', ' A Bit About War; A Bit About Understanding\n', ' Very good\n', ' A film about our common humanity\n', ' A touching human drama. Well worth seeking out\n', ' Examining the human side of conflicts of war\n', ' Pacifism Rules. ♦ 70%\n', " It's set in Abkhazia which is fun.\n", ' A strong human values film, with the war intruded and in the background\n', ' Amazing and touching film\n', ' ANTI-WAR\n', ' A small scaled anti-war film that delivers its message effectively.\n', ' War has a whole new meaning now.\n', ' Webs of Wartime\n', ' Engaing but lacks depth\n']</t>
         </is>
       </c>
     </row>
@@ -26477,7 +26477,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>[' Best of the trilogy\n', ' Wow!\n', ' Three different Spidermen as the Multiverse gets jumbled.\n', ' Spider-Man: No Way Home\n', ' This is more like a family reunion...\n', ' This has an Avengers style grandiose epic feel to it\n', ' Good entertainment.\n', ' Back to formula?\n', ' Spider-Man: Consolidation\n', ' A Cluster Of Spiders\n', ' CRAZY\n', ' S2..\n', " The moment you've all been waiting for\n", " Third Time's the Best Charm\n", ' Emotionally incoherent but chunks are good\n', ' One of the best marvel movies ever!\n', ' They did it! A Spider-Man trilogy finally stuck the landing!\n', ' One of the strongest MCU movies for me\n', ' Spectacle, But Not Spectacular\n', ' The Finest Outing For The MCU Spider-Man So Far\n', ' More Notable Nine, Than Sinister Six\n', ' Superb escapism\n', ' Spidey Spidey Spidey\n', ' 8\n', ' The Amazing Wider-Span...\n']</t>
+          <t>[' Best of the trilogy\n', ' Wow!\n', ' Three different Spidermen as the Multiverse gets jumbled.\n', ' Spider-Man: No Way Home\n', ' This is more like a family reunion...\n', ' This has an Avengers style grandiose epic feel to it\n', ' Good entertainment.\n', ' Back to formula?\n', ' Spider-Man: Consolidation\n', ' A Cluster Of Spiders\n', ' CRAZY\n', ' S2..\n', " The moment you've all been waiting for\n", " Third Time's the Best Charm\n", ' One of the best marvel movies ever!\n', ' Emotionally incoherent but chunks are good\n', ' They did it! A Spider-Man trilogy finally stuck the landing!\n', ' One of the strongest MCU movies for me\n', ' Spectacle, But Not Spectacular\n', ' The Finest Outing For The MCU Spider-Man So Far\n', ' More Notable Nine, Than Sinister Six\n', ' Superb escapism\n', ' Spidey Spidey Spidey\n', ' The Amazing Wider-Span...\n', ' 8\n']</t>
         </is>
       </c>
     </row>
@@ -26510,7 +26510,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>[' Still has the power to shock...\n', ' Disturbing Look into a Disturbed Mind\n', ' A Masterpiece\n', ' Gut Wrenching\n', ' portrait of loneliness\n', ' Here is......A piece of cinematic magic.\n', ' A wonderfully engaging and convincing slide into a modern madness from a director and actor showing some of their best form\n', ' A crazed Robert DeNiro undergoes a criminal rampage when his dreams fail\n', " You talking' to him?\n", ' Well-Made Film, Though Not Sure It Stands Time For Me\n', ' An Unforgettable Movie and Lead Character\n', ' Dark look at 1970s New York City.\n', ' We never learn much about Travis Bickle, yet the talent involved makes him a compelling figure\n', ' A Disturbing and Powerful Masterpiece\n', ' Cinematic\n', ' An incredible snapshot of 1970s NYC.\n', ' YOU talking to me? You talking to ME?\n', ' A New York cab driver slowly goes mad...\n', ' Disturbing &amp; Compelling Film Making...All Contributors in Fine Form...Top Neo-Noir\n', ' Gritty, enthralling and iconic masterpiece\n', " Unrelenting descent into one man's private hell.\n", ' Travis the Trainwreck?\n', ' "Are you talking to me!"\n', ' Hair\n', ' This belongs in the American cinematic hall of fame\n']</t>
+          <t>[' Still has the power to shock...\n', ' Disturbing Look into a Disturbed Mind\n', ' A Masterpiece\n', ' Gut Wrenching\n', ' portrait of loneliness\n', ' Here is......A piece of cinematic magic.\n', ' A wonderfully engaging and convincing slide into a modern madness from a director and actor showing some of their best form\n', ' A crazed Robert DeNiro undergoes a criminal rampage when his dreams fail\n', " You talking' to him?\n", ' Well-Made Film, Though Not Sure It Stands Time For Me\n', ' An Unforgettable Movie and Lead Character\n', ' Dark look at 1970s New York City.\n', ' We never learn much about Travis Bickle, yet the talent involved makes him a compelling figure\n', ' A Disturbing and Powerful Masterpiece\n', ' Cinematic\n', ' An incredible snapshot of 1970s NYC.\n', ' YOU talking to me? You talking to ME?\n', ' A New York cab driver slowly goes mad...\n', ' Disturbing &amp; Compelling Film Making...All Contributors in Fine Form...Top Neo-Noir\n', ' Gritty, enthralling and iconic masterpiece\n', " Unrelenting descent into one man's private hell.\n", ' Travis the Trainwreck?\n', ' "Are you talking to me!"\n', ' Hair\n', ' Taking It All In...\n']</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>[' Very important historically but not for the faint of heart\n', ' A bravura piece of storytelling\n', ' compelling last days of the Third Reich\n', ' The Lunatic and HIs Partners\n', ' form of exorcism\n', " Hitler's last days\n", " An intense and gritty film, which explores Hitler's final days.\n", ' The Most Impressive, Depressive and Realistic Dramatic Movie about the World War II\n', ' DOWNFALL is essential and indispensable watching for outstanding performance by Bruno Ganz\n', ' towards the end\n', ' Downfall\n', ' Sympathetic Without Crossing The Line\n', ' Docudrama, A Good One.\n', ' Mindblowing\n', " 'Grim' Look At The Nazis' Final Hours\n", ' why so much fuss about this film?\n', ' One of the best foreign films of the year\n', ' The Stage Under Das Boot\n', ' Compelling But With One Serious Flaw\n', " I hope Bruno Ganz isn't blacklisted for his performance it was so good\n", ' In a war as such there are no civilians.\n', ' A Not Horrible Enough Telling of a Horrible Story\n', ' Eavesdropping on History\n', ' Extremely well made movie.\n', ' A chillingly accurate portrayal of Der Führer and the fall of The Third Reich\n']</t>
+          <t>[' Very important historically but not for the faint of heart\n', ' A bravura piece of storytelling\n', ' compelling last days of the Third Reich\n', ' The Lunatic and HIs Partners\n', ' form of exorcism\n', " Hitler's last days\n", " An intense and gritty film, which explores Hitler's final days.\n", ' The Most Impressive, Depressive and Realistic Dramatic Movie about the World War II\n', ' DOWNFALL is essential and indispensable watching for outstanding performance by Bruno Ganz\n', ' towards the end\n', ' Downfall\n', ' Sympathetic Without Crossing The Line\n', ' Mindblowing\n', ' Docudrama, A Good One.\n', " 'Grim' Look At The Nazis' Final Hours\n", ' why so much fuss about this film?\n', ' One of the best foreign films of the year\n', ' The Stage Under Das Boot\n', ' Compelling But With One Serious Flaw\n', " I hope Bruno Ganz isn't blacklisted for his performance it was so good\n", ' In a war as such there are no civilians.\n', ' A Not Horrible Enough Telling of a Horrible Story\n', ' Eavesdropping on History\n', ' Extremely well made movie.\n', ' A chillingly accurate portrayal of Der Führer and the fall of The Third Reich\n']</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>[' An honest copy-paste makes for a thrilling watch to the freshers.\n', ' Gasp-inducing twists n turns throughout with a solid unsettling atmosphere.\n', ' Competent Storytelling but not without its flaws\n', ' Not a frame-to-frame remake.. enjoyably crisp! [+73%]\n', ' Perfect as a sequel as well as remake!!\n', ' A decent sequel\n', " One of the best the year's finest thrillers.\n", ' Faithful remake\n', ' Master stroke\n', ' Excellent Sequel\n', ' Too far-fetched, yet entertaining\n', ' A Very Gripping and Intelligent Sequel With Perfect Twits and Turns !!!\n', ' A gripping, suspenseful narrative once again\n', ' A taut thriller which sets a franchise....\n', ' Good remake!\n', ' Drishyam 2 Will Be A Blockbuster In Bollywood Cinema\n', ' Just ok...\n', ' Absolutely unmissable!! Ajay Tabu and Akshaye Khanna rock!!\n', ' A remake that retains its own identity\n', ' UNPREDICTABLE...\n', ' Drishyam 2\n', ' little crispier than original\n', ' A Justifiable Remake 👍👍\n', ' Another remake !\n', ' Slowly builds up to a great climax\n']</t>
+          <t>[' An honest copy-paste makes for a thrilling watch to the freshers.\n', ' Gasp-inducing twists n turns throughout with a solid unsettling atmosphere.\n', ' Competent Storytelling but not without its flaws\n', ' Not a frame-to-frame remake.. enjoyably crisp! [+73%]\n', ' Perfect as a sequel as well as remake!!\n', ' A decent sequel\n', " One of the best the year's finest thrillers.\n", ' Faithful remake\n', ' Master stroke\n', ' Excellent Sequel\n', ' Too far-fetched, yet entertaining\n', ' A gripping, suspenseful narrative once again\n', ' A Very Gripping and Intelligent Sequel With Perfect Twits and Turns !!!\n', ' A taut thriller which sets a franchise....\n', ' Good remake!\n', ' Drishyam 2 Will Be A Blockbuster In Bollywood Cinema\n', ' Just ok...\n', ' Absolutely unmissable!! Ajay Tabu and Akshaye Khanna rock!!\n', ' A remake that retains its own identity\n', ' UNPREDICTABLE...\n', ' Drishyam 2\n', ' little crispier than original\n', ' A Justifiable Remake 👍👍\n', ' Another remake !\n', ' Slowly builds up to a great climax\n']</t>
         </is>
       </c>
     </row>
@@ -27921,7 +27921,7 @@
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>[' Another Kurasawa masterpiece\n', " Kurosawa's class act\n", ' So much owe to this movie\n', ' Great\n', ' A Bloodbath\n', ' The bodyguard\n', ' The Saga of a Samurai Without a Master, in Another Great Movie of Akira Kurosawa\n', ' Cool, funny and engaging across the board - everything about it just works\n', " Akira Kurosawa's masterpiece about a laconic masterless samurai who sells his services to two different warlords\n", ' Clint Eastwood had better thank these guys.\n', ' The Classic Samurai Tale\n', ' Superb, influential movie\n', ' A Fistful of Dollars at High Noon\n', ' A Fistful of Yen\n', ' the grinning, growling and gungho, jobless samurai marching back and forth\n', ' visually stunning, excellent story, great acting make this one of my favorites\n', ' Just another masterful movie from the master of masterful movies\n', ' Yojimbo\n', ' A fistful of Ryo.\n', ' Iconic and influential\n', ' Playing Both Sides against the Middle\n', ' A believable character who uses his wits (and his sword) to defeat his enemies\n', " One of Kurosawa's best.\n", ' Another milestone from the Sensei of modern cinema...\n', ' Excellent Samurai Film!\n']</t>
+          <t>[' Another Kurasawa masterpiece\n', " Kurosawa's class act\n", ' So much owe to this movie\n', ' Great\n', ' A Bloodbath\n', ' The bodyguard\n', ' The Saga of a Samurai Without a Master, in Another Great Movie of Akira Kurosawa\n', ' Cool, funny and engaging across the board - everything about it just works\n', " Akira Kurosawa's masterpiece about a laconic masterless samurai who sells his services to two different warlords\n", ' Clint Eastwood had better thank these guys.\n', ' The Classic Samurai Tale\n', ' Superb, influential movie\n', ' A Fistful of Dollars at High Noon\n', ' A Fistful of Yen\n', ' the grinning, growling and gungho, jobless samurai marching back and forth\n', ' visually stunning, excellent story, great acting make this one of my favorites\n', ' Yojimbo\n', ' Just another masterful movie from the master of masterful movies\n', ' A fistful of Ryo.\n', ' Iconic and influential\n', ' Playing Both Sides against the Middle\n', ' A believable character who uses his wits (and his sword) to defeat his enemies\n', " One of Kurosawa's best.\n", ' Another milestone from the Sensei of modern cinema...\n', ' Excellent Samurai Film!\n']</t>
         </is>
       </c>
     </row>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>[' A truly beautiful and moving movie.\n', " Best Bollywood I've seen\n", ' An Epic Indian Film... Very Epic\n', ' A Nutshell Review: Swades: We, the People\n', ' A Priceless Film! Shahrukh is Outstanding!\n', ' Way too long for the story it tells\n', ' "Habits may change over time, but narrow-mindedness and belief do not."\n', ' Overly long\n', ' What a ride!\n', ' The best of Gowariker and SRK.\n', ' A brilliant attempt with superb performance by Sharukh\n', ' Well intentioned but sluggishly paced and badly edited\n', ' Motherland, yours and mine!\n', ' An Individual Can Make A Difference And Have Fun In The Process\n', ' One of the most important spirit lifting and patriotic films of the last decade.\n', ' Fantastic film\n', ' Review - Swades: We, the People\n', ' Swades: the two dimensions\n', ' Little bit dragged\n', ' An Exemplary Tribute to grassroot realism with excellent SRK.\n', ' Beautiful film. A 96/100\n', ' One of The Best Movies In Long Time\n', ' A slow simmer - the best way to cook!!\n', ' Most Indian film\n', " Don't forget where you belong to, remember the roots that nurtured you\n"]</t>
+          <t>[' A truly beautiful and moving movie.\n', " Best Bollywood I've seen\n", ' An Epic Indian Film... Very Epic\n', ' A Nutshell Review: Swades: We, the People\n', ' A Priceless Film! Shahrukh is Outstanding!\n', ' Way too long for the story it tells\n', ' "Habits may change over time, but narrow-mindedness and belief do not."\n', ' Overly long\n', ' What a ride!\n', ' The best of Gowariker and SRK.\n', ' A brilliant attempt with superb performance by Sharukh\n', ' Well intentioned but sluggishly paced and badly edited\n', ' Motherland, yours and mine!\n', ' An Individual Can Make A Difference And Have Fun In The Process\n', ' One of the most important spirit lifting and patriotic films of the last decade.\n', ' Fantastic film\n', ' Review - Swades: We, the People\n', ' Swades: the two dimensions\n', ' An Exemplary Tribute to grassroot realism with excellent SRK.\n', ' Little bit dragged\n', ' Beautiful film. A 96/100\n', ' One of The Best Movies In Long Time\n', ' A slow simmer - the best way to cook!!\n', ' Most Indian film\n', " Don't forget where you belong to, remember the roots that nurtured you\n"]</t>
         </is>
       </c>
     </row>
@@ -28175,7 +28175,7 @@
       </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>[" nowhere NEAR the standards of Chaplin's later feature films\n", ' Charming and truly touching\n', ' Pathos And Comedy\n', ' Funny and Emotional\n', " Chaplin's First Feature and First Masterpiece\n", ' Sensitive and enjoyable film in which Chaplin meets a streetwise orphan and raises him\n', ' bittersweet done well\n', ' A Solid, Though Short, Chaplin Effort\n', ' Pretty Good Sentimental Comedy\n', ' One Of The Most Memorable Silent Films Ever\n', ' rarely has there ever been such a deft mix of wonderful absurdity and (dark) sentiment as here\n', ' First feature-length film from director-star Charlie Chaplin\n', ' Sweet silent-era classic\n', ' Still effective as it was back then\n', ' A truly essential, must-see cinematic classic\n', ' A classic in every sense of the word\n', " Chaplin's most emotionally resonant silent film.\n", ' Charming\n', ' a map\n', ' Great Chaplin &amp; Jackie Coogans First Film\n', ' Heartfelt.\n', ' Little Jackie Coogan is a scene-stealer!\n', ' "A picture with a smile-and perhaps, a tear." You were too modest, Sir Chaplin ...\n', ' This is where the Unbeatable Legacy begun. A Classic Silent Feature with a historic combination of Smile and Tear.\n', ' One Of The Greatest Achievements In The Silent Era Of Filmmaking\n']</t>
+          <t>[" nowhere NEAR the standards of Chaplin's later feature films\n", ' Charming and truly touching\n', ' Pathos And Comedy\n', ' Funny and Emotional\n', " Chaplin's First Feature and First Masterpiece\n", ' Sensitive and enjoyable film in which Chaplin meets a streetwise orphan and raises him\n', ' bittersweet done well\n', ' A Solid, Though Short, Chaplin Effort\n', ' Pretty Good Sentimental Comedy\n', ' One Of The Most Memorable Silent Films Ever\n', ' rarely has there ever been such a deft mix of wonderful absurdity and (dark) sentiment as here\n', ' First feature-length film from director-star Charlie Chaplin\n', ' Sweet silent-era classic\n', ' Still effective as it was back then\n', ' A truly essential, must-see cinematic classic\n', ' A classic in every sense of the word\n', " Chaplin's most emotionally resonant silent film.\n", ' Charming\n', ' a map\n', ' Heartfelt.\n', ' Great Chaplin &amp; Jackie Coogans First Film\n', ' Little Jackie Coogan is a scene-stealer!\n', ' "A picture with a smile-and perhaps, a tear." You were too modest, Sir Chaplin ...\n', ' This is where the Unbeatable Legacy begun. A Classic Silent Feature with a historic combination of Smile and Tear.\n', ' One Of The Greatest Achievements In The Silent Era Of Filmmaking\n']</t>
         </is>
       </c>
     </row>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>[" Once Again: The Children's Hour\n", ' This is one powerful film.\n', ' Rumor Mill\n', ' Incredible\n', ' Very engaging and unnerving\n', ' Great, incredibly riveting, suffocating drama\n', ' Rudimentary Treatment Of A Serious Topic\n', ' Compelling Premise Becomes Preposterous\n', ' Mob Rules\n', ' the unstoppable fire of the modern day witch hunt\n', " 'The world is full of evil but if we hold n to each other, it goes away.'\n", ' Tackles heavy themes with poise; heartbreaking and powerful stuff.\n', ' The danger of jumping to conclusions\n', ' Classy and disturbing tale of small town injustice.\n', ' Vinterberg eventually finds the equilibrium between his full-grown aesthetics and biting social critique with the advent of THE HUNT\n', ' Excellent!\n', ' Simply Incredible!! Everyone should see this.\n', ' Madds Mikkelsen is the "hunted one"...\n', " Don't die before watching Masterpiece. Danish Cinema delivers a Mind-Shattering Universal Concept.\n", ' The fragility of the social contract\n', ' Heartbreaking but also masterfully made.\n', ' One of the Strongest Contenders for Best Foreign Language Film Oscar, This Year.\n', ' Jagten (The Hunt) - A Gut-Wrenching Experience\n', ' One Little Lie\n', ' Gripping\n']</t>
+          <t>[" Once Again: The Children's Hour\n", ' This is one powerful film.\n', ' Rumor Mill\n', ' Incredible\n', ' Very engaging and unnerving\n', ' Great, incredibly riveting, suffocating drama\n', ' Rudimentary Treatment Of A Serious Topic\n', ' Compelling Premise Becomes Preposterous\n', ' Mob Rules\n', ' the unstoppable fire of the modern day witch hunt\n', " 'The world is full of evil but if we hold n to each other, it goes away.'\n", ' Tackles heavy themes with poise; heartbreaking and powerful stuff.\n', ' The danger of jumping to conclusions\n', ' Vinterberg eventually finds the equilibrium between his full-grown aesthetics and biting social critique with the advent of THE HUNT\n', ' Classy and disturbing tale of small town injustice.\n', ' Excellent!\n', ' Simply Incredible!! Everyone should see this.\n', ' Madds Mikkelsen is the "hunted one"...\n', " Don't die before watching Masterpiece. Danish Cinema delivers a Mind-Shattering Universal Concept.\n", ' The fragility of the social contract\n', ' Heartbreaking but also masterfully made.\n', ' One of the Strongest Contenders for Best Foreign Language Film Oscar, This Year.\n', ' Jagten (The Hunt) - A Gut-Wrenching Experience\n', ' One Little Lie\n', ' Gripping\n']</t>
         </is>
       </c>
     </row>
@@ -29209,7 +29209,7 @@
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>[' How much you enjoy this is highly dependent on your age.\n', ' Musical history\n', ' musical play film\n', ' A Great Representation\n', ' Hamilton\n', ' Very enjoyable musical theatre with all the aspects of that genre present\n', ' what a treat\n', ' Really enjoyed it\n', ' Brilliant: highly entertaining, edifying and creative\n', ' just superb\n', " Conceptually impressive, but while I liked it, I didn't love it\n", ' Complex, emotional, and lives up to the hype\n', ' All Rise.\n', ' Great show\n', ' Hamilton the Musical?; Not for Me\n', ' Theatre not Cinema but Spectacular Nonetheless...\n', ' Watch it...\n', ' Theatrically Revolutionary; Cinematically Backwards\n', ' I fell asleep\n', ' Best seat in the house bringing a play onto the big screen.\n', ' An original musical delight\n', ' Hamilton\n', ' Liked it for the music, but struggled to follow the story line\n', ' Much better than my (unjustified) expectations\n', ' Woah...\n']</t>
+          <t>[' How much you enjoy this is highly dependent on your age.\n', ' Musical history\n', ' musical play film\n', ' A Great Representation\n', ' Hamilton\n', ' Very enjoyable musical theatre with all the aspects of that genre present\n', ' what a treat\n', ' Really enjoyed it\n', ' Brilliant: highly entertaining, edifying and creative\n', ' just superb\n', " Conceptually impressive, but while I liked it, I didn't love it\n", ' Complex, emotional, and lives up to the hype\n', ' All Rise.\n', ' Great show\n', ' Hamilton the Musical?; Not for Me\n', ' Theatre not Cinema but Spectacular Nonetheless...\n', ' Watch it...\n', ' Theatrically Revolutionary; Cinematically Backwards\n', ' I fell asleep\n', ' Best seat in the house bringing a play onto the big screen.\n', ' An original musical delight\n', ' Liked it for the music, but struggled to follow the story line\n', ' Much better than my (unjustified) expectations\n', ' Hamilton\n', ' Woah...\n']</t>
         </is>
       </c>
     </row>
@@ -29797,7 +29797,7 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>[" While not especially pleasant viewing, it's a very complex film--the sort that will get you and your friends talking.\n", ' For me A Separation is definitely one of the best films of 2011\n', ' A Terrific Film On So Many Levels\n', ' special\n', ' The praise hurts it but the character-driven story is engaging, natural and convincing\n', ' inside Iran\n', ' This is Iran!\n', " you'll leave feeling so many things - maybe, a little, hope\n", ' A must watch film\n', ' Interesting\n', " There's a lot of thinking dialogue\n", ' Shades of Gray in a Black and White World\n', " What's wrong is wrong ... but what's wrong?\n", ' A great genre example, that also manages to surprise.\n', ' Remarkably effective and affecting film making\n', " Good, very good, even, but I don't see the greatness that everyone else apparently does\n", ' Wonderfully authentic\n', ' Multiple Splits\n', ' A Separation\n', ' A Nutshell Review: A Separation\n', ' Puzzle of small things\n', ' Morally complex and impossible to emerge silent\n', ' Wow, incredible!!\n', ' A gripping and heart-pounding universal masterpiece ... made in Iran ...\n', ' Pride and perjury\n']</t>
+          <t>[" While not especially pleasant viewing, it's a very complex film--the sort that will get you and your friends talking.\n", ' For me A Separation is definitely one of the best films of 2011\n', ' A Terrific Film On So Many Levels\n', ' special\n', ' The praise hurts it but the character-driven story is engaging, natural and convincing\n', ' inside Iran\n', ' This is Iran!\n', " you'll leave feeling so many things - maybe, a little, hope\n", ' A must watch film\n', ' Interesting\n', " There's a lot of thinking dialogue\n", ' Shades of Gray in a Black and White World\n', " What's wrong is wrong ... but what's wrong?\n", ' A great genre example, that also manages to surprise.\n', ' Remarkably effective and affecting film making\n', " Good, very good, even, but I don't see the greatness that everyone else apparently does\n", ' Wonderfully authentic\n', ' A Separation\n', ' Multiple Splits\n', ' A Nutshell Review: A Separation\n', ' Puzzle of small things\n', ' Morally complex and impossible to emerge silent\n', ' Wow, incredible!!\n', ' A gripping and heart-pounding universal masterpiece ... made in Iran ...\n', ' Pride and perjury\n']</t>
         </is>
       </c>
     </row>
@@ -29989,7 +29989,7 @@
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>[' Shershaah leaves you in tears as well as celebrates hardcore patriotism with commercialized jingoism in War Drama.\n', ' This IS a world record!\n', ' Yeh Dil Maange More!!\n', ' Yeh Dil Maange More!\n', ' Shershah\n', ' Durge Maa Ki Jai!!\n', ' Patriotic war melodrama lacks nuance\n', ' Every Indian Should Watch Brave Story Of Vikram Batra Brilliantly Portrayed By Sidharth Malhotra\n', ' A nice movie on someone who has Param Veer Chakra!\n', ' For the brave soldiers of Kargil War 1999\n', " An Inspiring War Drama Of Braveheart's And Victories !!!\n", ' Fit tribute to a brave Indian Army officer, Sidharth scores\n', " Maybe sometimes we don't just die especially when we truely live by our values and believes\n", ' Technically brilliant war saga cum biopic but emotionally pretty blatant\n', ' Great movie to watch\n', ' Good 1-time watch, but the real-life story - much respect!\n', ' A tribute film deserving of the great war hero Captain Batra!\n', ' Brilliant. The best thing to see this I-day\n', " Sid's career defining film\n", ' A MUST MUST WATCH For everyone.\n', ' Best Movie of This year\n', ' About a brilliant life and a tale of national pride\n', ' Super Duper Hit Movie\n', ' Wow\n', ' Go for it\n']</t>
+          <t>[' Shershaah leaves you in tears as well as celebrates hardcore patriotism with commercialized jingoism in War Drama.\n', ' This IS a world record!\n', ' Yeh Dil Maange More!!\n', ' Yeh Dil Maange More!\n', ' Shershah\n', ' Durge Maa Ki Jai!!\n', ' Patriotic war melodrama lacks nuance\n', ' Every Indian Should Watch Brave Story Of Vikram Batra Brilliantly Portrayed By Sidharth Malhotra\n', ' A nice movie on someone who has Param Veer Chakra!\n', ' For the brave soldiers of Kargil War 1999\n', ' Fit tribute to a brave Indian Army officer, Sidharth scores\n', " An Inspiring War Drama Of Braveheart's And Victories !!!\n", " Maybe sometimes we don't just die especially when we truely live by our values and believes\n", ' Technically brilliant war saga cum biopic but emotionally pretty blatant\n', ' Great movie to watch\n', ' Good 1-time watch, but the real-life story - much respect!\n', ' A tribute film deserving of the great war hero Captain Batra!\n', ' Brilliant. The best thing to see this I-day\n', " Sid's career defining film\n", ' A MUST MUST WATCH For everyone.\n', ' Best Movie of This year\n', ' About a brilliant life and a tale of national pride\n', ' Super Duper Hit Movie\n', ' Wow\n', ' Go for it\n']</t>
         </is>
       </c>
     </row>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>[' Time to play the (end)game\n', ' Plot holes and other blockbuster weaknesses, but it is impressive in how well it lands this huge beast in a way that satisfies and delivers\n', ' Visually great, but not an overly thrilling or exciting movie...\n', ' in the end, whatever will be will be\n', ' Forget Captain Marvel... meet The Rat!\n', ' A continuation of "Infinity War", Thanos has to be dealt with and it takes all Avengers.\n', ' action-packed and effects galore\n', ' Avengers: Endgame was a great way to end the first series of the Marvel Cinematic Univeerse\n', ' A fantastic end of a chapter\n', ' EXTRAVAGANT...SPRAWLING...SPECTACLE...SO MANY CHARACTERS...SO LITTLE TIME\n', ' Solemn and Subdued\n', ' Depression\n', ' when over the top is just right\n', ' Smooth landing to an amazing 11 year ride\n', ' Disappointing for an Avengers movie.\n', ' How can they possibly save half of all living beings in the Universe?\n', " The MCU's riveting, moving, uneven crescendo\n", ' way too long\n', ' It goes for the heart.\n', ' A nice looking solution for an imperfect situation\n', ' One of the best superhero blockbusters ever.\n', ' Perfection...\n', ' Kill Thanos Vol. 2\n', ' Silly special effects in an even sillier story. BUT the actors starring in it are good and the dialogues between them are terrific\n', ' entertaining and at times exhausting\n']</t>
+          <t>[' Time to play the (end)game\n', ' Plot holes and other blockbuster weaknesses, but it is impressive in how well it lands this huge beast in a way that satisfies and delivers\n', ' Visually great, but not an overly thrilling or exciting movie...\n', ' in the end, whatever will be will be\n', ' Forget Captain Marvel... meet The Rat!\n', ' A continuation of "Infinity War", Thanos has to be dealt with and it takes all Avengers.\n', ' action-packed and effects galore\n', ' Avengers: Endgame was a great way to end the first series of the Marvel Cinematic Univeerse\n', ' A fantastic end of a chapter\n', ' EXTRAVAGANT...SPRAWLING...SPECTACLE...SO MANY CHARACTERS...SO LITTLE TIME\n', ' Solemn and Subdued\n', ' Depression\n', ' when over the top is just right\n', ' Smooth landing to an amazing 11 year ride\n', ' Disappointing for an Avengers movie.\n', ' How can they possibly save half of all living beings in the Universe?\n', " The MCU's riveting, moving, uneven crescendo\n", ' way too long\n', ' It goes for the heart.\n', ' A nice looking solution for an imperfect situation\n', ' One of the best superhero blockbusters ever.\n', ' Perfection...\n', ' Kill Thanos Vol. 2\n', ' Outstanding visually &amp; epically delightful!\n', ' Silly special effects in an even sillier story. BUT the actors starring in it are good and the dialogues between them are terrific\n']</t>
         </is>
       </c>
     </row>
@@ -30439,7 +30439,7 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>[' Harrowing\n', ' The horror, The horror\n', ' Iconic, Original, Impossible to Forget\n', ' Take the long ride to perdition.\n', ' Apocalypse Now\n', ' Great interpretation of a good book to deliver points on the nature of war\n', ' Redux: still brilliant - but now with new strengths and weaknesses\n', ' Not your typical Vietnam War movie...\n', ' Spectacular and fascinating movie about a journey leading to horror\n', ' The best Vietnam War movie ever.\n', ' The REDUX version\n', " Francis Ford Coppola's Vietnam Epic\n", ' Sheen Shines In This Unique Classic\n', ' "A snail on the edge of a straight razor..."\n', ' In my top five favorite films ever made\n', ' It smells like a nightmare! But it is just napalm in the morning.\n', ' FRANCIS FORD COPPOLA\'S "HEART OF DARKNESS"...FINAL CUT\n', ' A masterpiece - one of the greatest movies ever made\n', " It wasn't just insanity and murder, there was enough of that to go around for everyone.\n", ' My All Time Favourite Movie\n', " Napalm Can't Smell that Good\n", ' Ok\n', ' "I Wanted A Mission, And, For My Sins, They Gave Me One!"...\n', " This is/shouldn't be entertainment\n", ' A top 3 all time great war genre picture\n']</t>
+          <t>[' Harrowing\n', ' The horror, The horror\n', ' Iconic, Original, Impossible to Forget\n', ' Take the long ride to perdition.\n', ' Apocalypse Now\n', ' Great interpretation of a good book to deliver points on the nature of war\n', ' Redux: still brilliant - but now with new strengths and weaknesses\n', ' Not your typical Vietnam War movie...\n', ' Spectacular and fascinating movie about a journey leading to horror\n', ' The best Vietnam War movie ever.\n', ' The REDUX version\n', " Francis Ford Coppola's Vietnam Epic\n", ' Monument of a movie\n', ' Sheen Shines In This Unique Classic\n', ' "A snail on the edge of a straight razor..."\n', ' In my top five favorite films ever made\n', ' It smells like a nightmare! But it is just napalm in the morning.\n', ' FRANCIS FORD COPPOLA\'S "HEART OF DARKNESS"...FINAL CUT\n', ' A masterpiece - one of the greatest movies ever made\n', " It wasn't just insanity and murder, there was enough of that to go around for everyone.\n", ' My All Time Favourite Movie\n', " Napalm Can't Smell that Good\n", ' Ok\n', ' "I Wanted A Mission, And, For My Sins, They Gave Me One!"...\n', " This is/shouldn't be entertainment\n"]</t>
         </is>
       </c>
     </row>
@@ -30472,7 +30472,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>[' What a great head trip\n', ' Great\n', ' A family thing\n', ' Grown up\n', ' Impressive and Violent Kafkanian Tale of Revenge\n', ' Dark, stylish, engaging stuff that will appeal to modern audiences even if the lack of depth is a problem\n', ' It has been hyped up to something that it hardly can deliver...\n', ' there are gritty things to discover\n', " South Korea's Violent Masterpiece?\n", " a revenge picture that isn't very pretty, and loves it that way\n", ' Asian Trash Cinema Has Become Respectable\n', ' Vertigo\n', " It's a little bit much\n", ' YES IT IS THAT GOOD\n', ' "You can\'t find the right answer if you ask the wrong questions."\n', ' My all time favorite Korean movie\n', ' Revenge is good for your health, but pain will find you again.\n', " I don't even know why but it worked!\n", ' Intriguing mix of "Memento" meets "Payback" by way of "Chinatown"\n', ' remarkable film\n', ' A dark and uncompromising tale that seeks to prove that when seeking vengeance, you should dig at least two graves.\n', ' Dark entertainment\n', " Leaves you with a taste for more. Or maybe that's just blood.\n", ' Oh Boy!\n', ' Korean Cinema gifts the Most Stunning and Savagely Emotional Revenge story of this Millenium.\n']</t>
+          <t>[' What a great head trip\n', ' Great\n', ' A family thing\n', ' Grown up\n', ' Impressive and Violent Kafkanian Tale of Revenge\n', ' Dark, stylish, engaging stuff that will appeal to modern audiences even if the lack of depth is a problem\n', ' It has been hyped up to something that it hardly can deliver...\n', ' there are gritty things to discover\n', " South Korea's Violent Masterpiece?\n", " a revenge picture that isn't very pretty, and loves it that way\n", ' Asian Trash Cinema Has Become Respectable\n', ' Vertigo\n', " It's a little bit much\n", ' YES IT IS THAT GOOD\n', ' "You can\'t find the right answer if you ask the wrong questions."\n', ' My all time favorite Korean movie\n', ' Revenge is good for your health, but pain will find you again.\n', " I don't even know why but it worked!\n", ' Intriguing mix of "Memento" meets "Payback" by way of "Chinatown"\n', ' remarkable film\n', ' A dark and uncompromising tale that seeks to prove that when seeking vengeance, you should dig at least two graves.\n', ' Dark entertainment\n', " Leaves you with a taste for more. Or maybe that's just blood.\n", ' Oh Boy!\n', ' [6.8] Raw materials contain vitamins A and D!\n']</t>
         </is>
       </c>
     </row>
@@ -30670,7 +30670,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>[' Once seen, never forgotten- truly magnificent\n', ' magical realism\n', ' Switching\n', ' Reasonably interesting, but not great\n', ' Wistful, poignant and ultimately uplifting; beautifully animated and wonderfully inventive.\n', ' It was very beautiful, but also quite derivative\n', ' A mega-hit anime not produced by the named Studio Ghibli\n', ' Love Returns To Cinema With This One!\n', ' Utterly amazing\n', ' Superb!\n', ' A beautiful and unique film\n', ' could be the greatest love story of all time\n', ' Not a huge fan of anime, or animated movies in general, but I did like this film.\n', ' One Of The Most Enchanting &amp; Emotionally Engrossing Films Of Its Year\n', ' Great story\n', ' As Deep as the Mariana Trench...\n', ' A Timeless Romance\n', ' Beautiful story\n', " Watch it even if you don't like anime\n", ' Sentimental but well made\n', ' Your Name: Not as good as it should have been\n', " They're no strangers, yet they've never met.\n", ' One of my favorite animes ever.\n', " It's utterly gorgeous to watch\n", ' One of the best Animation movies ever made!\n']</t>
+          <t>[' Once seen, never forgotten- truly magnificent\n', ' magical realism\n', ' Switching\n', ' Reasonably interesting, but not great\n', ' Wistful, poignant and ultimately uplifting; beautifully animated and wonderfully inventive.\n', ' It was very beautiful, but also quite derivative\n', ' A mega-hit anime not produced by the named Studio Ghibli\n', ' Love Returns To Cinema With This One!\n', ' Utterly amazing\n', ' Superb!\n', ' A beautiful and unique film\n', ' could be the greatest love story of all time\n', ' Not a huge fan of anime, or animated movies in general, but I did like this film.\n', ' One Of The Most Enchanting &amp; Emotionally Engrossing Films Of Its Year\n', ' Great story\n', ' As Deep as the Mariana Trench...\n', ' A Timeless Romance\n', ' Beautiful story\n', " Watch it even if you don't like anime\n", ' Sentimental but well made\n', ' Your Name: Not as good as it should have been\n', " They're no strangers, yet they've never met.\n", ' One of my favorite animes ever.\n', ' One of the best Animation movies ever made!\n', " It's utterly gorgeous to watch\n"]</t>
         </is>
       </c>
     </row>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="G930" t="inlineStr">
         <is>
-          <t>[' Well made but very difficult to watch....and not a film for everyone.\n', ' unrelenting, raw\n', " I Guess It's Sincere\n", ' Other World\n', ' I bet that more people live like this than we realize\n', ' Well intentioned and a magnetic lead performance but too long and saccharine\n', ' Unfocused and very badly paced but with a reasonably powerful ending\n', ' Took My Breath Away\n', ' Zain steals our heart\n', ' Touching movie.\n', " As close to 'real' as possible.\n", ' This great film should give Roma and Shoplifters the jitters.\n', ' a confidently wrought social reportage that dares to offer an unflinching look on the abject underbelly of a hand-to-mouth existence\n', ' Unbelievable, Unusual yet Universal. A Labenese Masterpiece Beyond Imagination in Child Oriented Genre.\n', ' Harrowing but perceptive\n', ' A Masterwork of Social-Realism\n', ' Brilliant directing and amazing acting\n', ' Educational\n', ' Effective\n', ' Speechless...\n', ' Very hard hitting\n', ' A harrowing but beautiful human tale with one of the decades best child performances\n', ' Deeply moving (and haunting)\n', ' One of the great films of 2018\n', ' A Masterpiece\n']</t>
+          <t>[' Well made but very difficult to watch....and not a film for everyone.\n', ' unrelenting, raw\n', " I Guess It's Sincere\n", ' Other World\n', ' I bet that more people live like this than we realize\n', ' Well intentioned and a magnetic lead performance but too long and saccharine\n', ' Unfocused and very badly paced but with a reasonably powerful ending\n', ' Took My Breath Away\n', ' Zain steals our heart\n', ' Touching movie.\n', " As close to 'real' as possible.\n", ' a confidently wrought social reportage that dares to offer an unflinching look on the abject underbelly of a hand-to-mouth existence\n', ' This great film should give Roma and Shoplifters the jitters.\n', ' Unbelievable, Unusual yet Universal. A Labenese Masterpiece Beyond Imagination in Child Oriented Genre.\n', ' Harrowing but perceptive\n', ' A Masterwork of Social-Realism\n', ' Brilliant directing and amazing acting\n', ' Educational\n', ' Effective\n', ' Speechless...\n', ' Very hard hitting\n', ' A harrowing but beautiful human tale with one of the decades best child performances\n', ' Deeply moving (and haunting)\n', ' One of the great films of 2018\n', ' A Masterpiece\n']</t>
         </is>
       </c>
     </row>
@@ -31038,17 +31038,17 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>936. Sardar Udham</t>
+          <t>936. Kaithi</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="D937" t="n">
@@ -31057,29 +31057,29 @@
       <c r="E937" t="inlineStr"/>
       <c r="F937" t="inlineStr">
         <is>
-          <t>tt10280296</t>
+          <t>tt9900782</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>[' compelling history\n', " One of the most powerful films I've seen.\n", ' A compelling biopic and a superb lead performance at its center\n', " Yes, bollywood can make a patriotic film far away from dramatic jigoism like Hollywood Classics Patton and Schindler's List and Sardar Udham is our first impactful attempt.\n", ' Powerful. Haunting. Gut-Wrenching.\n', ' Brutal...\n', ' Amazing...\n', ' Well worth the build up\n', ' "Let the world know, I was a revolutionary"\n', ' Shoojit Sircar, Take a bow!\n', " Shoojit Sircar's best.\n", ' Honest and brutal\n', ' A history worth remembering...\n', ' Slow movie!!\n', ' Perfect is not just a word for Sardar Udham\n', " Vicky Kaushal's Sardar Udham Is A Ticking Time Bomb Waiting To Explode !!!\n", ' A little long and slow, but still first rate\n', ' The seed of many strong determinations have early and hard hitting triggers\n', " Vicky Kaushal's monumental performance does justice to the tale of a legendary freedom fighter!\n", ' Brilliant journey\n', " CAN'T Review.\n", ' Very good Movie\n', ' EXTREMELY EXTREMELY LONG!\n', ' Sardar udham\n', ' Ending Shattered me!\n']</t>
+          <t>[" A Hollywood Remake converted into a 'Blockbuster A Grade Action Drama' in Tamil Cinema.\n", ' A full-blown massy entertainer that surprisingly got a classy execution\n', ' An action thriller with heart! [+68%]\n', ' Awesome action crime thriller...!!!\n', ' Drug war road movie AND hostage drama rolled into one\n', ' Kaithi\n', ' A nice one\n', ' An Engaging one!\n', ' Intense &amp; Engaging!!\n', " Karthi's Pacy Action Thriller Keeps You Engaged !!!\n", ' Compelling action thriller.\n', ' Breathtaking performance from Karthi!\n', ' Directorial triumph\n', ' Audience become kaithi\n', ' P.E.R.F.E.C.T.I.O.N\n', ' Almost as good as an out-an-out action movie can be\n', ' Kaithi Outstanding\n', ' What kind of a joke is this?\n', ' The Driver\n', ' Lokesh Kanakarajan Universe 🔥🔥🔥\n', ' Best action thriller of 2019 period\n', ' It would have been theatrical masterpiece for us!\n', ' Brutal, Raw and Magnificent\n', ' Kanagraj has majic\n', ' Action is good but story is not damdar\n']</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>937. Asuran</t>
+          <t>937. Sardar Udham</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D938" t="n">
@@ -31088,29 +31088,29 @@
       <c r="E938" t="inlineStr"/>
       <c r="F938" t="inlineStr">
         <is>
-          <t>tt9477520</t>
+          <t>tt10280296</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>[' A Revenge drama filled with action raises voice against lower class discrimination and higher class oppression.\n', ' When violence hits too close to home! [+73%]\n', ' Asuran\n', ' Slow movie that keeps you engaged throughout\n', ' Another piece of art from Vetrimaaran.\n', ' Asuran\n', ' Everything about this film is Amazing!\n', ' Little overrated\n', ' A good watch.\n', ' well made movie with no added BS\n', ' Promising plot with Fabulous Acting!\n', ' Only Dhanush can do this.\n', " Dhanush's raw and Rivetting revenge drama is Gripping and gory.\n", ' Bloody violent movie\n', ' Another Vetrimaran violent movie\n', ' Old wine with a mixture of emotions and violence and with a good screenplay!\n', ' An average movie\n', ' Rustic combo of Vetrimaran and Dhanush\n', ' Terrific, breathe taking, goosebumps\n', ' True story awesome screenplay play\n', ' Wasted potential\n', " Vetri Maran's Mastery Classic\n", ' ASURAN: Masterpiece\n', ' Cinematic Brilliance\n', ' An Extremely Violent Blockbuster\n']</t>
+          <t>[' compelling history\n', " One of the most powerful films I've seen.\n", ' A compelling biopic and a superb lead performance at its center\n', " Yes, bollywood can make a patriotic film far away from dramatic jigoism like Hollywood Classics Patton and Schindler's List and Sardar Udham is our first impactful attempt.\n", ' Powerful. Haunting. Gut-Wrenching.\n', ' Brutal...\n', ' Amazing...\n', ' Well worth the build up\n', ' "Let the world know, I was a revolutionary"\n', ' Shoojit Sircar, Take a bow!\n', " Shoojit Sircar's best.\n", ' Honest and brutal\n', ' A history worth remembering...\n', ' Slow movie!!\n', ' Perfect is not just a word for Sardar Udham\n', ' A little long and slow, but still first rate\n', " Vicky Kaushal's Sardar Udham Is A Ticking Time Bomb Waiting To Explode !!!\n", ' The seed of many strong determinations have early and hard hitting triggers\n', " Vicky Kaushal's monumental performance does justice to the tale of a legendary freedom fighter!\n", ' Brilliant journey\n', " CAN'T Review.\n", ' Very good Movie\n', ' EXTREMELY EXTREMELY LONG!\n', ' Sardar udham\n', ' Ending Shattered me!\n']</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>938. Drishyam 2</t>
+          <t>938. Asuran</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>2h 32m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D939" t="n">
@@ -31119,750 +31119,748 @@
       <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr">
         <is>
-          <t>tt12361178</t>
+          <t>tt9477520</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>[' Malayalam Cinema deserves Loudest Applause for fetching an Impossible and Never Seen Before Classic Sequel to a Masterpiece thriller.\n', " 'I fear it's the beginning of something'...\n", ' BRILLIANT. SUPER BRILLIANT.\n', ' Falls flat in an attempt to be too clever!\n', ' A film by Georgekutty, for his family! [+82%]\n', " Tries too hard, but it's still awesome.\n", ' A worthy sequel indeed!!\n', ' Drishyam 2\n', ' Unexpectedly, surprisingly, unbelievably unique. The best of this year\n', ' master stroke!!!!!\n', ' Kickass!!!\n', ' Stands Head to Head to its Predecessor\n', ' Necessity is the mother of invention, even more when our instincts are challenged\n', " I'll have whatever Jeetu Joseph has before he starts to write, because I didn't expect this. Go watch this now!!\n", ' Best ever sequel in Malayalam film history!\n', ' A SOLID Sequel &amp; A Perfect Thriller.\n', ' What a Story\n', ' A decent sequel where Covid is the real villain.\n', ' Good movie for a sequel.\n', ' Unmissable crime thriller!! Just fantastic !!\n', ' Lightning does strike at the same spot twice !!\n', ' The Dead Body\n', ' Unnecessary sequel\n', ' Not a patch on the (first) Drishyam\n', ' Just one Word "MASTERPIECE:.\n']</t>
+          <t>[' A Revenge drama filled with action raises voice against lower class discrimination and higher class oppression.\n', ' When violence hits too close to home! [+73%]\n', ' Asuran\n', ' Slow movie that keeps you engaged throughout\n', ' Another piece of art from Vetrimaaran.\n', ' Asuran\n', ' Everything about this film is Amazing!\n', ' Little overrated\n', ' A good watch.\n', ' Promising plot with Fabulous Acting!\n', ' well made movie with no added BS\n', ' Only Dhanush can do this.\n', " Dhanush's raw and Rivetting revenge drama is Gripping and gory.\n", ' Bloody violent movie\n', ' Another Vetrimaran violent movie\n', ' Old wine with a mixture of emotions and violence and with a good screenplay!\n', ' An average movie\n', ' Rustic combo of Vetrimaran and Dhanush\n', ' Terrific, breathe taking, goosebumps\n', ' True story awesome screenplay play\n', ' Wasted potential\n', " Vetri Maran's Mastery Classic\n", ' ASURAN: Masterpiece\n', ' Cinematic Brilliance\n', ' An Extremely Violent Blockbuster\n']</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>939. Oppenheimer</t>
+          <t>939. Drishyam 2</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 32m</t>
         </is>
       </c>
       <c r="D940" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E940" t="n">
-        <v>88</v>
-      </c>
+        <v>8.4</v>
+      </c>
+      <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr">
         <is>
-          <t>tt15398776</t>
+          <t>tt12361178</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>[" I'll Bet That's Jack Quaid As Richard Feynman Playing The Bongo Drum\n", ' The cinematic event of 2023.\n', " It's da bomb\n", " it's the world in which we now live\n", ' Or: Lewis Strauss Meets the Theoretical Physical Godzilla\n', ' Powerful docudrama\n', ' Nolan a Good Choice for the Task\n', ' An absolute must see\n', ' Spoiler Alert: The Bomb Worked\n', ' superior filmmaking and historical storytelling\n', " They won't fear it until they understand it. And they won't understand it until they've used it. Theory will take you only so far.\n", ' Jumbled storytelling but relevant message\n', ' Oppenheimer\n', ' Fission. Fusion. Oscars.\n', ' In depth and complex tense historical political drama of discovery and regret.\n', ' A challenging and rewarding epic masterpiece\n', ' Best movie of the year and one of the great war movies of all time.\n', ' Cinema Omnivore - Oppenheimer (2023) 8.4/10\n', ' An unpopular opinion from a die-hard Nolan fan\n', ' I tend to agree with all of the people saying that . . .\n', ' Masterful IMAX experience!\n', ' A Quantum world of possibilities.\n', ' All round excellent biography\n', " Christopher Nolan's Cinematic Bomb Blasts On And Off Screen\n", ' the destroyer of worlds\n']</t>
+          <t>[' Malayalam Cinema deserves Loudest Applause for fetching an Impossible and Never Seen Before Classic Sequel to a Masterpiece thriller.\n', " 'I fear it's the beginning of something'...\n", ' BRILLIANT. SUPER BRILLIANT.\n', ' Falls flat in an attempt to be too clever!\n', ' A film by Georgekutty, for his family! [+82%]\n', " Tries too hard, but it's still awesome.\n", ' A worthy sequel indeed!!\n', ' Drishyam 2\n', ' Unexpectedly, surprisingly, unbelievably unique. The best of this year\n', ' master stroke!!!!!\n', ' Kickass!!!\n', ' Stands Head to Head to its Predecessor\n', ' Necessity is the mother of invention, even more when our instincts are challenged\n', " I'll have whatever Jeetu Joseph has before he starts to write, because I didn't expect this. Go watch this now!!\n", ' Best ever sequel in Malayalam film history!\n', ' A SOLID Sequel &amp; A Perfect Thriller.\n', ' What a Story\n', ' A decent sequel where Covid is the real villain.\n', ' Good movie for a sequel.\n', ' Unmissable crime thriller!! Just fantastic !!\n', ' Lightning does strike at the same spot twice !!\n', ' The Dead Body\n', ' Unnecessary sequel\n', ' Not a patch on the (first) Drishyam\n', ' Best Sequel ever made in Indian movie History! 👌 Too Notch!\n']</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>940. Gladiator</t>
+          <t>940. Oppenheimer</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D941" t="n">
         <v>8.5</v>
       </c>
       <c r="E941" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>tt0172495</t>
+          <t>tt15398776</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>[' Disturbing, but beautifully made and well acted, as well as jaw-dropping scenery!\n', ' Grand\n', ' Predictable Spectacle\n', ' admirable work\n', ' Spellbinding.\n', ' Resurrection\n', ' A great revenge movie that is not as worthy as it thinks it is but is still a great movie\n', ' An epic...\n', ' Impressive epic movie with strong casting , rousing sets , and overwhelming combats\n', ' Ave!\n', ' Maximus Excitus Entertainius.\n', ' Great Roman Epic, Better On The Second Viewing\n', ' Fantastic Ridley Scott\n', " A Throwback To The Epics Of The '60s\n", ' Not in the league of "Spartacus", though well worth-seeing...\n', " A poor man's Ben Hur\n", ' Enjoying the spectacle even more on DVD\n', ' Are you not entertained?\n', " What is a man's life worth in ancient Rome.\n", ' Overrated Entertainment for the Easily Pacified "Mob" with Dated CGI\n', ' Okayish, but not great\n', ' Film as Colosseum\n', " They said you were a giant. They said you can crush a man's skull with one hand.\n", ' Good Hollywood Epic\n', ' Predictable, long, loud, bloody\n']</t>
+          <t>[' artistic biopic\n', " I'll Bet That's Jack Quaid As Richard Feynman Playing The Bongo Drum\n", ' The cinematic event of 2023.\n', " It's da bomb\n", " it's the world in which we now live\n", ' Or: Lewis Strauss Meets the Theoretical Physical Godzilla\n', ' Powerful docudrama\n', ' Nolan a Good Choice for the Task\n', ' An absolute must see\n', ' Spoiler Alert: The Bomb Worked\n', ' superior filmmaking and historical storytelling\n', " They won't fear it until they understand it. And they won't understand it until they've used it. Theory will take you only so far.\n", ' Jumbled storytelling but relevant message\n', ' Oppenheimer\n', ' Fission. Fusion. Oscars.\n', ' In depth and complex tense historical political drama of discovery and regret.\n', ' A challenging and rewarding epic masterpiece\n', ' Cinema Omnivore - Oppenheimer (2023) 8.4/10\n', ' Best movie of the year and one of the great war movies of all time.\n', ' An unpopular opinion from a die-hard Nolan fan\n', ' I tend to agree with all of the people saying that . . .\n', ' Masterful IMAX experience!\n', ' A Quantum world of possibilities.\n', ' All round excellent biography\n', " Christopher Nolan's Cinematic Bomb Blasts On And Off Screen\n"]</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>941. Whiplash</t>
+          <t>941. Gladiator</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="D942" t="n">
         <v>8.5</v>
       </c>
       <c r="E942" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>tt2582802</t>
+          <t>tt0172495</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>[' This is review #572....so is there really any need to say more?!\n', ' Blistering\n', ' Fake, fake, fake\n', ' terrific performances\n', ' One of the Best of 2014\n', ' A Brutal Character\n', ' I like to teach the world to play\n', ' A strive for perfection.\n', ' Carrot and stick\n', ' music and obsession\n', ' An Emotional Punch to the Gut\n', ' who knew\n', ' J.K. Simmons deserved his Oscar for his performance in Whiplash\n', ' Great music, but the plot angers me\n', ' The Suffering Artist\n', ' Enthralling story\n', ' Intense But The Hype And Awards Possibly Work Against It\n', ' Explosive, inescapably riveting, a phenomenal achievement\n', ' A Portrait of the Artist as a Crazy Young Man\n', ' Just My Tempo\n', ' Too bad it was not about Metal instead of Jazz\n', ' Comically exaggerated and entertaining\n', ' Clawing to the top with blood-stained drumsticks\n', " For the record, Metz wasn't out of tune. You were, Erickson, but he didn't know and that's bad enough.\n", " 'I was there to push people beyond what's expected of them. I believe that's an absolute necessity'\n"]</t>
+          <t>[' Disturbing, but beautifully made and well acted, as well as jaw-dropping scenery!\n', ' Grand\n', ' Predictable Spectacle\n', ' admirable work\n', ' Spellbinding.\n', ' Resurrection\n', ' A great revenge movie that is not as worthy as it thinks it is but is still a great movie\n', ' An epic...\n', ' Impressive epic movie with strong casting , rousing sets , and overwhelming combats\n', ' Ave!\n', ' Maximus Excitus Entertainius.\n', ' Great Roman Epic, Better On The Second Viewing\n', ' Fantastic Ridley Scott\n', " A Throwback To The Epics Of The '60s\n", ' Not in the league of "Spartacus", though well worth-seeing...\n', " A poor man's Ben Hur\n", ' Enjoying the spectacle even more on DVD\n', ' Are you not entertained?\n', " What is a man's life worth in ancient Rome.\n", ' Overrated Entertainment for the Easily Pacified "Mob" with Dated CGI\n', ' Okayish, but not great\n', ' Film as Colosseum\n', " They said you were a giant. They said you can crush a man's skull with one hand.\n", ' Good Hollywood Epic\n', ' Predictable, long, loud, bloody\n']</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>942. Parasite</t>
+          <t>942. Whiplash</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D943" t="n">
         <v>8.5</v>
       </c>
       <c r="E943" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>tt6751668</t>
+          <t>tt2582802</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>[' Totally Unique\n', ' Incredible.\n', ' Not a leech (?)\n', ' Original, Unconventional and Overrated\n', ' Engaging as a drama, with an intelligent social aspect to it\n', " it's about time that the Oscars pay attention to these topics\n", ' Parasite\n', ' A tad underwhelming.\n', ' Intruders\n', ' Korean movie, winner of the Oscar for Best Picture.\n', " Parasite was an interesting enough piece of work that probably earned its Best Picture Oscar. It's certainly not conventional, I'll tell you that!\n", ' What a thought provoking story\n', ' Superb: funny, dark, intriguing and profound\n', " Bong's Brilliance\n", ' This is just a well done film that is very compelling, smart, entertaining and worth your time.\n', ' Fiercely Original\n', ' brilliant cinema\n', ' Bong Joon Ho did it again.\n', ' Crossing the Line\n', ' a very capable film maker here who needs to get himself a decent script writer\n', ' Unforgettable and original\n', ' home invasion with funny situations\n', ' Tonal tightrope.\n', ' Powerful\n', ' A good movie, but not Oscar worthy\n']</t>
+          <t>[' This is review #572....so is there really any need to say more?!\n', ' Blistering\n', ' Fake, fake, fake\n', ' terrific performances\n', ' One of the Best of 2014\n', ' A Brutal Character\n', ' I like to teach the world to play\n', ' A strive for perfection.\n', ' Carrot and stick\n', ' music and obsession\n', ' An Emotional Punch to the Gut\n', ' who knew\n', ' J.K. Simmons deserved his Oscar for his performance in Whiplash\n', ' Great music, but the plot angers me\n', ' The Suffering Artist\n', ' Enthralling story\n', ' Intense But The Hype And Awards Possibly Work Against It\n', ' Explosive, inescapably riveting, a phenomenal achievement\n', ' A Portrait of the Artist as a Crazy Young Man\n', ' Just My Tempo\n', ' Too bad it was not about Metal instead of Jazz\n', ' Comically exaggerated and entertaining\n', ' Clawing to the top with blood-stained drumsticks\n', " For the record, Metz wasn't out of tune. You were, Erickson, but he didn't know and that's bad enough.\n", " 'I was there to push people beyond what's expected of them. I believe that's an absolute necessity'\n"]</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>943. The Departed</t>
+          <t>943. Parasite</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>2h 31m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="D944" t="n">
         <v>8.5</v>
       </c>
       <c r="E944" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>tt0407887</t>
+          <t>tt6751668</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>[' For me, so far, this is my least favourite Martin Scorsese movie\n', ' Moles And Rats\n', " Scorsese's Boston gangster opera\n", ' Masterpiece\n', ' Whom Do You Trust?\n', ' Amazing movie, with an ensemble cast.\n', ' Scorsese did a good job remaking an awesome movie\n', ' Oscar Nominated and Winner? Another Shameful Joke of Hollywood\n', ' Enjoyable thriller but there are failings and missed targets across the running time\n', ' This time, they gotta give Martin Scorsese an Oscar.\n', ' Without a Doubt, The Movie of the Year in 2006\n', " The Good &amp; Bad Of 'The Departed'\n", ' "Honesty is not synonymous with truth..."\n', ' Outstanding\n', ' "...Do you lie?"\n', " Watch Scorsese's The Departed for Damon, DiCaprio, Nicholson\n", ' Bloodbath\n', " I Couldn't Wait to Depart from the Violence **\n", ' Red Meat for Oscar\n', ' When the good and evil cannot be distinguished!\n', ' Scorsese in his element.\n', ' Scorsese probably had great fun directing this\n', ' Breathless But Bewildering\n', ' Brilliant: intense, clever and action-filled\n', ' A Truculent Pancake\n']</t>
+          <t>[' Totally Unique\n', ' Incredible.\n', ' Not a leech (?)\n', ' Original, Unconventional and Overrated\n', ' Engaging as a drama, with an intelligent social aspect to it\n', " it's about time that the Oscars pay attention to these topics\n", ' Parasite\n', ' A tad underwhelming.\n', ' Intruders\n', ' Korean movie, winner of the Oscar for Best Picture.\n', " Parasite was an interesting enough piece of work that probably earned its Best Picture Oscar. It's certainly not conventional, I'll tell you that!\n", ' What a thought provoking story\n', ' Superb: funny, dark, intriguing and profound\n', " Bong's Brilliance\n", ' This is just a well done film that is very compelling, smart, entertaining and worth your time.\n', ' Fiercely Original\n', ' brilliant cinema\n', ' Bong Joon Ho did it again.\n', ' Crossing the Line\n', ' a very capable film maker here who needs to get himself a decent script writer\n', ' Unforgettable and original\n', ' home invasion with funny situations\n', ' Tonal tightrope.\n', ' Powerful\n', ' A good movie, but not Oscar worthy\n']</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>944. Django Unchained</t>
+          <t>944. The Departed</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>2h 45m</t>
+          <t>2h 31m</t>
         </is>
       </c>
       <c r="D945" t="n">
         <v>8.5</v>
       </c>
       <c r="E945" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>tt1853728</t>
+          <t>tt0407887</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>[' Over indulgent, gross....but also terrific.\n', ' Self-indulgent, but still a worthwhile Tarantino movie\n', ' From slave to bounty hunter\n', ' Unmistakable Tarantino\n', ' Tarantino At the Top of His Game\n', " It's Like a Day at the Slaughterhouse\n", ' why Tarantino ?\n', " My favourite Tarantino, and that's a bold statement.\n", ' Beautiful and violent\n', ' Highly Entertaining and Funny\n', ' Works really well despite so much of it seeming to be at odds with itself\n', ' It was too much...\n', ' A violent and entertaining Quentin Tarantino movie , paying tribute to Spaghetti Western\n', ' revenge is a dish best served cold\n', " That's another genre ticked off.\n", " One of Tarantino's Finest Works\n", ' Great, but no longer genius...\n', " It's me baby\n", ' I was bored by the very slow pacing\n', " There's Nothing Like It...Except\n", ' Another great Tarantino drama\n', ' Sam Peckinpah Does Blazing Saddles\n', ' Slave Era Justice... Sweet\n', ' Corbucci, Leone even Giuliano Carnimeo are better\n', ' Slavery\n']</t>
+          <t>[' For me, so far, this is my least favourite Martin Scorsese movie\n', ' Moles And Rats\n', " Scorsese's Boston gangster opera\n", ' Masterpiece\n', ' Whom Do You Trust?\n', ' Amazing movie, with an ensemble cast.\n', ' Scorsese did a good job remaking an awesome movie\n', ' Oscar Nominated and Winner? Another Shameful Joke of Hollywood\n', ' Enjoyable thriller but there are failings and missed targets across the running time\n', ' This time, they gotta give Martin Scorsese an Oscar.\n', ' Without a Doubt, The Movie of the Year in 2006\n', " The Good &amp; Bad Of 'The Departed'\n", ' "Honesty is not synonymous with truth..."\n', ' Outstanding\n', ' "...Do you lie?"\n', " Watch Scorsese's The Departed for Damon, DiCaprio, Nicholson\n", ' Bloodbath\n', " I Couldn't Wait to Depart from the Violence **\n", ' Red Meat for Oscar\n', ' When the good and evil cannot be distinguished!\n', ' Scorsese in his element.\n', ' Scorsese probably had great fun directing this\n', ' Breathless But Bewildering\n', ' Brilliant: intense, clever and action-filled\n', ' A Truculent Pancake\n']</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>945. Alien</t>
+          <t>945. Django Unchained</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 45m</t>
         </is>
       </c>
       <c r="D946" t="n">
         <v>8.5</v>
       </c>
       <c r="E946" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>tt0078748</t>
+          <t>tt1853728</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>[' Sci-fi classic\n', ' A new level for Sci-fi Horror\n', " You Don't Want to Go There\n", ' Alien\n', ' Holds up as a classic.\n', ' Enemy within\n', ' Classic horror\n', ' Visually impressive and exciting Sci/Fi horror , including Oscar-winning special effects\n', ' In space, no one can hear you scream...but in the theater/TV room, EVERYONE will!\n', ' A Classic in Both Horror and Sci-Fi Genres\n', ' SF "lost patrol" movie\n', ' A Ground-Breaker In Sci-Fi/Horror\n', ' Well,\n', ' It\'s "only" the most claustrophobic masterpiece ever made!\n', ' Ripley\n', ' One of the quintessential sci-fi horror films.\n', ' A New Screen Monster Is Born\n', ' Sci-fi classic\n', ' There is a clause in the contract which specifically states any systematized transmission indicating a possible intelligent origin must be investigated...\n', ' Overrated\n', ' There Will Never Be an Alien as Terrifying\n', ' The first "Alien" movie is still the best\n', ' Horror and Science-Fiction Combined\n', ' Parasitic Relationship...\n', ' This is a very clever and well done movie with great special effects and characters that make it cinematic gold\n']</t>
+          <t>[' Over indulgent, gross....but also terrific.\n', ' Self-indulgent, but still a worthwhile Tarantino movie\n', ' From slave to bounty hunter\n', ' Unmistakable Tarantino\n', ' Tarantino At the Top of His Game\n', " It's Like a Day at the Slaughterhouse\n", ' why Tarantino ?\n', " My favourite Tarantino, and that's a bold statement.\n", ' Beautiful and violent\n', ' Highly Entertaining and Funny\n', ' Works really well despite so much of it seeming to be at odds with itself\n', ' It was too much...\n', ' A violent and entertaining Quentin Tarantino movie , paying tribute to Spaghetti Western\n', ' revenge is a dish best served cold\n', " That's another genre ticked off.\n", " One of Tarantino's Finest Works\n", ' Great, but no longer genius...\n', " It's me baby\n", ' I was bored by the very slow pacing\n', " There's Nothing Like It...Except\n", ' Another great Tarantino drama\n', ' Sam Peckinpah Does Blazing Saddles\n', ' Slave Era Justice... Sweet\n', ' Corbucci, Leone even Giuliano Carnimeo are better\n', ' Slavery\n']</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>946. The Prestige</t>
+          <t>946. Alien</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D947" t="n">
         <v>8.5</v>
       </c>
       <c r="E947" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>tt0482571</t>
+          <t>tt0078748</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>[' fascinating\n', ' An outstanding movie.\n', ' (Magic) Layers\n', ' A Great Tale of Rivalry, Obsession, Revenge and Sacrifice\n', ' Imaginative and intriguing crash of wits between two famous magicians\n', ' Batman and Alfred (outside Gotham) meet Wolverine\n', ' Give This Film Time to Sink In...\n', ' Just As Intriguing The Second Time, Too!\n', ' How many times can you double-cross your audience?\n', " Obsession is a young man's game\n", ' a basic tale of one-up-manship, but done in a great fashion of professional storytelling and acting\n', ' The Prestige was interesting if maybe a little slow to wade through\n', " The Prestige- Don't Need this Type of Honor 1/2*\n", ' Outstandingly good film\n', ' Does anybody look better in a top hat and tails than Hugh Jackman?...\n', ' Challenges The Audience\n', ' The Obsession\n', ' Intelligent and incredibly suspenseful\n', ' Dark tale of magician rivalry takes many twists and turns...\n', ' I did not care too much for the revelation toward the end.\n', ' Wonderful story of magical rivalry is best seen knowing as little as possible\n', ' Two Magicians Engaged in a Deadly Rivalry\n', ' Pretty people in pretty costumes\n', ' THE PRESTIGE (Christopher Nolan, 2006) ***1/2\n', ' Pure Magic\n']</t>
+          <t>[' Sci-fi classic\n', ' A new level for Sci-fi Horror\n', " You Don't Want to Go There\n", ' Alien\n', ' Holds up as a classic.\n', ' Enemy within\n', ' Classic horror\n', ' Visually impressive and exciting Sci/Fi horror , including Oscar-winning special effects\n', ' In space, no one can hear you scream...but in the theater/TV room, EVERYONE will!\n', ' A Classic in Both Horror and Sci-Fi Genres\n', ' SF "lost patrol" movie\n', ' A Ground-Breaker In Sci-Fi/Horror\n', ' Well,\n', ' It\'s "only" the most claustrophobic masterpiece ever made!\n', ' Ripley\n', ' One of the quintessential sci-fi horror films.\n', ' A New Screen Monster Is Born\n', ' Sci-fi classic\n', ' There is a clause in the contract which specifically states any systematized transmission indicating a possible intelligent origin must be investigated...\n', ' Overrated\n', ' There Will Never Be an Alien as Terrifying\n', ' The first "Alien" movie is still the best\n', ' Horror and Science-Fiction Combined\n', ' Parasitic Relationship...\n', ' This is a very clever and well done movie with great special effects and characters that make it cinematic gold\n']</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>947. Back to the Future</t>
+          <t>947. The Prestige</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D948" t="n">
         <v>8.5</v>
       </c>
       <c r="E948" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>tt0088763</t>
+          <t>tt0482571</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>[' So good in so many ways\n', " An '80s classic that never disappoints\n", ' Wonderful story Wonderful Michael J Fox\n', ' So Much Fun\n', ' adorable\n', ' Huge fun.\n', ' Marty got Back\n', ' Very entertaining film \x96 as slick as it is fun as it is engaging\n', ' Great Scott! Strap in for some entertaining time travel...\n', " Many people may remember Michael J. Fox as Alex Keaton, but I'll always remember him as Marty McFly\n", ' A film you can watch time and time again.\n', ' Gets Better With Age\n', ' Mixed Emotions Looking Back On This Film Today\n', ' Back To The Future, great start to the trilogy, movies in 1985, 1989, and 1990.\n', ' Good fun\n', ' Old Man Peabody owned all of this!\n', ' Brilliant Scenario!\n', ' After 30 years, the original Back to the Future is still the best of the series!\n', ' A time travel movie that never gets old.\n', ' A timeless classic\n', ' 1.21 gigawatts worth of entertainment.\n', ' "I guess you weren\'t ready for that......But your kids are gonna love it."\n', ' Good, fun movie\n', ' Zemeckis Flies\n', ' Earth Angel And The Nuclear DeLorean.\n']</t>
+          <t>[' fascinating\n', ' An outstanding movie.\n', ' (Magic) Layers\n', ' A Great Tale of Rivalry, Obsession, Revenge and Sacrifice\n', ' Imaginative and intriguing crash of wits between two famous magicians\n', ' Batman and Alfred (outside Gotham) meet Wolverine\n', ' Give This Film Time to Sink In...\n', ' Just As Intriguing The Second Time, Too!\n', ' How many times can you double-cross your audience?\n', " Obsession is a young man's game\n", ' a basic tale of one-up-manship, but done in a great fashion of professional storytelling and acting\n', ' The Prestige was interesting if maybe a little slow to wade through\n', " The Prestige- Don't Need this Type of Honor 1/2*\n", ' Outstandingly good film\n', ' Does anybody look better in a top hat and tails than Hugh Jackman?...\n', ' Challenges The Audience\n', ' The Obsession\n', ' Intelligent and incredibly suspenseful\n', ' Dark tale of magician rivalry takes many twists and turns...\n', ' I did not care too much for the revelation toward the end.\n', ' Two Magicians Engaged in a Deadly Rivalry\n', ' Wonderful story of magical rivalry is best seen knowing as little as possible\n', ' Pretty people in pretty costumes\n', ' THE PRESTIGE (Christopher Nolan, 2006) ***1/2\n', ' Pure Magic\n']</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>948. Léon: The Professional</t>
+          <t>948. Back to the Future</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="D949" t="n">
         <v>8.5</v>
       </c>
       <c r="E949" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>tt0110413</t>
+          <t>tt0088763</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>[" Good but #27?! I just don't get it.\n", ' Intense, gripping, stylish and poignant with one of the best feature debuts ever\n', ' Luc Besson style of violent action\n', ' One of the greatest thrillers of all time.\n', ' Professionals and not\n', ' Beautiful love story\n', ' My introduction to Luc Besson, Jean Reno, and Natalie Portman.\n', ' The hit-man and her.\n', ' One of the Greats of the 1990s\n', ' A Movie Of Extremes &amp; Fascinating\n', " Unconventional love story. A professional hitman and his protege', a 12-year-old orphan.\n", ' Moody and exciting, coolly defiant...but ultimately dispiriting\n', ' An utter travesty.\n', " A thrilling crime film, in deep touch and care with the characters- Besson and Portman's best work to date\n", " I'm a cleaner\n", " Even with its flaws, it's a pretty entertaining film.\n", ' UnHollywood and Uneasy\n', ' Brilliant, powerful story of revenge...and belonging\n', ' Great\n', ' This is action genre gold with an amazing storyline, tremendous writing and out of this world acting\n', ' Cleaners need love, too\n', ' Good drama/action film\n', " Light dialog, far out plot, and wild mayhem don't make a good movie\n", ' Natalia Portman was splendid\n', ' Cops are the bad guys here.\n']</t>
+          <t>[' So good in so many ways\n', " An '80s classic that never disappoints\n", ' Wonderful story Wonderful Michael J Fox\n', ' So Much Fun\n', ' adorable\n', ' Huge fun.\n', ' Marty got Back\n', ' Very entertaining film \x96 as slick as it is fun as it is engaging\n', ' Great Scott! Strap in for some entertaining time travel...\n', " Many people may remember Michael J. Fox as Alex Keaton, but I'll always remember him as Marty McFly\n", ' A film you can watch time and time again.\n', ' Gets Better With Age\n', ' Mixed Emotions Looking Back On This Film Today\n', ' Back To The Future, great start to the trilogy, movies in 1985, 1989, and 1990.\n', ' Good fun\n', ' Old Man Peabody owned all of this!\n', ' Brilliant Scenario!\n', ' After 30 years, the original Back to the Future is still the best of the series!\n', ' A time travel movie that never gets old.\n', ' A timeless classic\n', ' 1.21 gigawatts worth of entertainment.\n', ' "I guess you weren\'t ready for that......But your kids are gonna love it."\n', ' Good, fun movie\n', ' Zemeckis Flies\n', ' Earth Angel And The Nuclear DeLorean.\n']</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>949. The Usual Suspects</t>
+          <t>949. Léon: The Professional</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D950" t="n">
         <v>8.5</v>
       </c>
       <c r="E950" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>tt0114814</t>
+          <t>tt0110413</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>[" Well made...it just isn't the sort of film I particularly enjoy.\n", ' Magnificent film that deserves to be re-watched over and over\n', ' A Gang Formed During A Police Lineup\n', ' Then comes the twist\n', ' not so bad\n', " It's a brilliant Thriller.\n", ' More than usual\n', ' Who is Keyser Söze?\n', ' The greatest trick the Devil ever played...\n', ' USUAL SUSPECTS for an unusual film.\n', " Okay, But Let's Not Get Carried Away\n", ' Interesting, engrossing, but might have benefited from a stronger cast\n', ' The greatest trick the devil ever pulled...\n', ' the American thriller of the nineties\n', ' Good film, but over-rated from my perspective\n', ' Brilliant, clever thriller\n', ' Keaton always said, "I don\'t believe in God, but I\'m afraid of him." Well I believe in God, and the only thing that scares me is Keyser Soze.\n', ' Gimp\n', ' The storyline and characters for this picture is brilliantly written and presented to the audience in a perfectly paced manner\n', ' One Half Martin Scorsese Mixed with One Half Film Noir\n', ' It all started with five guys in a lineup\n', ' Superior neo-noir with a crackling script &amp; excellent cast; genuine plot twisting marvel\n', " Who IS Keyser Söze? Who freakin' cares?\n", ' Twist-Laden Story.\n', " It killed in the '90s and still does\n"]</t>
+          <t>[" Good but #27?! I just don't get it.\n", ' Intense, gripping, stylish and poignant with one of the best feature debuts ever\n', ' Luc Besson style of violent action\n', ' One of the greatest thrillers of all time.\n', ' Professionals and not\n', ' Beautiful love story\n', ' My introduction to Luc Besson, Jean Reno, and Natalie Portman.\n', ' The hit-man and her.\n', ' One of the Greats of the 1990s\n', ' A Movie Of Extremes &amp; Fascinating\n', " Unconventional love story. A professional hitman and his protege', a 12-year-old orphan.\n", ' Moody and exciting, coolly defiant...but ultimately dispiriting\n', ' An utter travesty.\n', " A thrilling crime film, in deep touch and care with the characters- Besson and Portman's best work to date\n", " I'm a cleaner\n", " Even with its flaws, it's a pretty entertaining film.\n", ' UnHollywood and Uneasy\n', ' Brilliant, powerful story of revenge...and belonging\n', ' Great\n', ' This is action genre gold with an amazing storyline, tremendous writing and out of this world acting\n', ' Cleaners need love, too\n', ' Good drama/action film\n', " Light dialog, far out plot, and wild mayhem don't make a good movie\n", ' Natalia Portman was splendid\n', ' Cops are the bad guys here.\n']</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>950. The Lion King</t>
+          <t>950. The Usual Suspects</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D951" t="n">
         <v>8.5</v>
       </c>
       <c r="E951" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>tt0110357</t>
+          <t>tt0114814</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>[" This is my sister's favourite film, and one of mine!\n", ' great songs in Shakespearian epic\n', ' Wonderful Music and Rhythms\n', ' an experience\n', " '....There's one in every family...' Disney magic.\n", ' Classic stuff\n', ' A Disney classic\n', ' One of the Great Disney Films of the Early 1990s\n', ' Un\\satisfying New Age Baloney\n', ' Pure Disney magic\n', ' Exhilarating highs--preachy, syrupy lows...\n', ' King of the nineties!\n', ' The Best Animated Film I Have Ever Seen\n', ' The king has returned\n', ' Cheesy and predictable, but has its moments\n', ' Lions\n', ' The Last Great Hand-Drawn Animated Film from Disney\n', ' An impressive animated movie.\n', ' Another of the Disney greats\n', ' From a person who generally does not enjoy a Disney musical this one was pretty good.\n', ' The Lion King\n', ' a bit mundane\n', ' Falls short of the hype; poorly-paced, lacking in proper emotional investment and, sometimes, quite dull.\n', ' Not feeling the love tonight\n', ' The Lion King\n']</t>
+          <t>[" Well made...it just isn't the sort of film I particularly enjoy.\n", ' Magnificent film that deserves to be re-watched over and over\n', ' A Gang Formed During A Police Lineup\n', ' Then comes the twist\n', ' not so bad\n', " It's a brilliant Thriller.\n", ' More than usual\n', ' Who is Keyser Söze?\n', ' The greatest trick the Devil ever played...\n', ' USUAL SUSPECTS for an unusual film.\n', " Okay, But Let's Not Get Carried Away\n", ' Interesting, engrossing, but might have benefited from a stronger cast\n', ' The greatest trick the devil ever pulled...\n', ' the American thriller of the nineties\n', ' Good film, but over-rated from my perspective\n', ' Brilliant, clever thriller\n', ' Keaton always said, "I don\'t believe in God, but I\'m afraid of him." Well I believe in God, and the only thing that scares me is Keyser Soze.\n', ' Gimp\n', ' The storyline and characters for this picture is brilliantly written and presented to the audience in a perfectly paced manner\n', ' One Half Martin Scorsese Mixed with One Half Film Noir\n', ' It all started with five guys in a lineup\n', ' Superior neo-noir with a crackling script &amp; excellent cast; genuine plot twisting marvel\n', " Who IS Keyser Söze? Who freakin' cares?\n", ' Twist-Laden Story.\n', " It killed in the '90s and still does\n"]</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>951. American History X</t>
+          <t>951. The Lion King</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D952" t="n">
         <v>8.5</v>
       </c>
       <c r="E952" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>tt0120586</t>
+          <t>tt0110357</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>[' exceptionally powerful drama--but not for the kids\n', ' great American cinema\n', ' So Mind Bending\n', ' useful\n', ' Still a tough watch.\n', ' Not perfect but still very strong\n', ' It gets under your skin...\n', ' Outstanding film with a sensational performance by Edward Norton as fanatic Nazi\n', " Why didn't anyone challenge Derek when he became a racist?\n", ' X-cellent.\n', ' "Now we can ignore each other in peace..."\n', " The Best masterpiece of it's time\n", ' You will grimace and flinch; but you have to watch.\n', ' Dramatic But Disappointing\n', ' Superb\n', ' American (Heavy) History X\n', ' Excellent but curiously unmoving\n', ' X\n', ' This is a well done movie\n', " This Film Is All About Edward Norton's Performance\n", ' One of the most powerful movies I have ever seen.\n', " After two days, I didn't think I would last a week\n", ' Unforgettable Norton; powerful film\n', ' Brutal, visceral drama on hateful tribalism and escape\n', ' Deeply flawed, but still resonant.\n']</t>
+          <t>[" This is my sister's favourite film, and one of mine!\n", ' great songs in Shakespearian epic\n', ' Wonderful Music and Rhythms\n', ' an experience\n', " '....There's one in every family...' Disney magic.\n", ' Classic stuff\n', ' A Disney classic\n', ' One of the Great Disney Films of the Early 1990s\n', ' Un\\satisfying New Age Baloney\n', ' Pure Disney magic\n', ' Exhilarating highs--preachy, syrupy lows...\n', ' King of the nineties!\n', ' The Best Animated Film I Have Ever Seen\n', ' The king has returned\n', ' Cheesy and predictable, but has its moments\n', ' Lions\n', ' The Last Great Hand-Drawn Animated Film from Disney\n', ' An impressive animated movie.\n', ' Another of the Disney greats\n', ' From a person who generally does not enjoy a Disney musical this one was pretty good.\n', ' The Lion King\n', ' a bit mundane\n', ' Falls short of the hype; poorly-paced, lacking in proper emotional investment and, sometimes, quite dull.\n', ' Not feeling the love tonight\n', ' The Lion King\n']</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>952. The Intouchables</t>
+          <t>952. American History X</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D953" t="n">
         <v>8.5</v>
       </c>
       <c r="E953" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>tt1675434</t>
+          <t>tt0120586</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
         <is>
-          <t>[' Very nice acting.\n', ' 8.5 Rating? Really?\n', ' Marvelous Film with Two Great Performances\n', ' Chasing the clouds away\n', ' Best friends\n', ' Beautiful and Uplifting Story of Friendship\n', ' Shamelessly feel-good and sentimental but it works despite how simplistic it all is\n', ' modern France\n', ' A French Look At Race And Class\n', " it's hearts in the right place and never bad, it's just too... safe for me\n", ' Heartfelt\n', ' A beautiful tale of mutual inspiration\n', ' Great - funny and moving\n', ' Tweaked a Known Formula\n', " Let's Dance\n", ' This is how a genre movie should be done!\n', " 'Art is the only trace we leave behind.'\n", ' A feel-good, life-affirming picture that does its job and does it well.\n', ' Emotional tale of true friendship\n', ' The Intouchables\n', ' A Nutshell Review: The Intouchables\n', ' Defines "wholesomeness" and then some\n', ' Beautiful and touching.\n', ' Touché ...\n', ' This French cinema sensation is too easy to predict but the true story factor still makes it work..\n']</t>
+          <t>[' exceptionally powerful drama--but not for the kids\n', ' great American cinema\n', ' So Mind Bending\n', ' useful\n', ' Still a tough watch.\n', ' Not perfect but still very strong\n', ' It gets under your skin...\n', ' Outstanding film with a sensational performance by Edward Norton as fanatic Nazi\n', " Why didn't anyone challenge Derek when he became a racist?\n", ' X-cellent.\n', ' "Now we can ignore each other in peace..."\n', " The Best masterpiece of it's time\n", ' You will grimace and flinch; but you have to watch.\n', ' Dramatic But Disappointing\n', ' Superb\n', ' American (Heavy) History X\n', ' Excellent but curiously unmoving\n', ' X\n', ' This is a well done movie\n', " This Film Is All About Edward Norton's Performance\n", ' One of the most powerful movies I have ever seen.\n', " After two days, I didn't think I would last a week\n", ' Unforgettable Norton; powerful film\n', ' Brutal, visceral drama on hateful tribalism and escape\n', ' Deeply flawed, but still resonant.\n']</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>953. The Pianist</t>
+          <t>953. The Intouchables</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D954" t="n">
         <v>8.5</v>
       </c>
       <c r="E954" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>tt0253474</t>
+          <t>tt1675434</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>[' non-heroism\n', ' Tour de Force\n', ' a meeting\n', " It's a captivating film.\n", ' Another Movie About the Massacre of Jews in the Second World War, With an Outstanding Performance of Adrien Brody\n', ' Far from cheerful viewing but an impacting and engaging film that helps keep history relevant\n', ' Intense biography about a Polish pianist named Szpilman during the Warsaw ghetto\n', ' well done, even if it didn\'t quite equal "Schindler\'s List"\n', ' An Excellent Movie, Of Course\n', ' "Germans won\'t use Jewish toilets...the toilets are too clean for them."\n', ' Spilzman? What a beautiful name for a pianist...\n', ' Stoic, haunting tale of survival\n', ' Haunting\n', ' The Pianist- Destruction Hits A Memorable Chord ****\n', ' To hell and back.\n', " An extraordinary look at one man's survival...brilliant performance by Adrien Brody...\n", ' Classic\n', ' Over-rated story of survival\n', " It's an official decree, no Jews allowed in the parks.\n", " Polanski's New Spin on an Old Classic\n", ' Breathtaking\n', ' Heartbreaking portrait of survival in the face of evil; brilliant on all counts\n', ' A Jewish musician trying to survive the German occupation of Warsaw\n', ' Warsaw Concerto\n', ' he was pleased to tell the story\n']</t>
+          <t>[' Very nice acting.\n', ' 8.5 Rating? Really?\n', ' Marvelous Film with Two Great Performances\n', ' Chasing the clouds away\n', ' Best friends\n', ' Beautiful and Uplifting Story of Friendship\n', ' Shamelessly feel-good and sentimental but it works despite how simplistic it all is\n', ' modern France\n', ' A French Look At Race And Class\n', " it's hearts in the right place and never bad, it's just too... safe for me\n", ' Heartfelt\n', ' A beautiful tale of mutual inspiration\n', ' Great - funny and moving\n', ' Tweaked a Known Formula\n', " Let's Dance\n", ' This is how a genre movie should be done!\n', " 'Art is the only trace we leave behind.'\n", ' A feel-good, life-affirming picture that does its job and does it well.\n', ' Emotional tale of true friendship\n', ' The Intouchables\n', ' A Nutshell Review: The Intouchables\n', ' Defines "wholesomeness" and then some\n', ' Beautiful and touching.\n', ' Touché ...\n', ' This French cinema sensation is too easy to predict but the true story factor still makes it work..\n']</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>954. Psycho</t>
+          <t>954. The Pianist</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="D955" t="n">
         <v>8.5</v>
       </c>
       <c r="E955" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>tt0054215</t>
+          <t>tt0253474</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>[' A film that you see once, and never forget...\n', " Hitch's masterwork\n", ' Cleaning Up After Mom\n', ' Hitchcock the master salesman\n', ' One of the Greatest Ever Made\n', ' Tight and Terrifying\n', ' more than classic\n', ' A Hitchcock Masterpiece.\n', ' A must-see\n', ' One of the classics...\n', ' Hithcock masterpiece in his most accomplished and perfect movie\n', ' Not to be confused with the 1998 film of the same name (as if).\n', ' So Influential, It Makes My Head Spin\n', ' A real Hitchcock masterpiece..."She wouldn\'t even harm a fly."\n', " Exasperatingly detailed, steely-cold precursor to the 'slasher'...\n", ' Calling it a masterpiece is an euphemism.\n', ' Shocking\n', ' The one and only !\n', ' Amazing\n', ' "A boy\'s best friend is his Mother."\n', ' A Key Scene in Depth\n', ' Always holds me from beginning to end...\n', " Hitchcock's Most Famous &amp; Profitable...Groundbreaker Prefigured the 1960's\n", ' Masterpiece\n', ' I can handle a sick old woman!\n']</t>
+          <t>[' non-heroism\n', ' Tour de Force\n', ' a meeting\n', " It's a captivating film.\n", ' Another Movie About the Massacre of Jews in the Second World War, With an Outstanding Performance of Adrien Brody\n', ' Far from cheerful viewing but an impacting and engaging film that helps keep history relevant\n', ' Intense biography about a Polish pianist named Szpilman during the Warsaw ghetto\n', ' well done, even if it didn\'t quite equal "Schindler\'s List"\n', ' An Excellent Movie, Of Course\n', ' "Germans won\'t use Jewish toilets...the toilets are too clean for them."\n', ' Spilzman? What a beautiful name for a pianist...\n', ' Stoic, haunting tale of survival\n', ' Haunting\n', ' The Pianist- Destruction Hits A Memorable Chord ****\n', ' To hell and back.\n', " An extraordinary look at one man's survival...brilliant performance by Adrien Brody...\n", ' Classic\n', ' Over-rated story of survival\n', " It's an official decree, no Jews allowed in the parks.\n", " Polanski's New Spin on an Old Classic\n", ' Breathtaking\n', ' Heartbreaking portrait of survival in the face of evil; brilliant on all counts\n', ' A Jewish musician trying to survive the German occupation of Warsaw\n', ' Warsaw Concerto\n', ' he was pleased to tell the story\n']</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>955. Casablanca</t>
+          <t>955. Psycho</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="D956" t="n">
         <v>8.5</v>
       </c>
       <c r="E956" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>tt0034583</t>
+          <t>tt0054215</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>[' A perfect film.\n', ' One of the best black and white films I have ever had the privilege of watching!\n', ' .....it\'s still the same old story, a fight for love and glory, a case of do or die, the world will always welcome lovers, As Time Goes By."\n', ' Movie romanticism at its best\n', ' Great\n', ' One of our most quotable movies\n', ' special\n', ' Casablanca\n', ' A story that will never get tired, incredible film.\n', ' The Most Beautiful Movie of the Cinema History Ever\n', ' The most famed for many and one of the greatest movie ever realized\n', " Here's lookin' at you, film.\n", ' Classic Film at Its Best\n', ' Tough To Beat This Movie\n', ' Great characters, classic dialogue, teary-eyed romance...\n', " a classic that's known to people long before they actually see the movie\n", " Here's looking at cinema-perfection, kid\n", ' Casablanca is the definite all-time movie classic!\n', ' Play it Over &amp; Over Again Warner Brothers ****\n', ' Brilliant\n', ' You must remember this...\n', " I'm A Cynic So What I Say Doesn't Matter\n", ' Casablanca gets better and better as time goes by!\n', ' Very good...but no classic\n', " As time goes by, it's still one of the all-time greats...\n"]</t>
+          <t>[' A film that you see once, and never forget...\n', " Hitch's masterwork\n", ' Cleaning Up After Mom\n', ' Hitchcock the master salesman\n', ' One of the Greatest Ever Made\n', ' Tight and Terrifying\n', ' more than classic\n', ' A Hitchcock Masterpiece.\n', ' A must-see\n', ' One of the classics...\n', ' Hithcock masterpiece in his most accomplished and perfect movie\n', ' Not to be confused with the 1998 film of the same name (as if).\n', ' So Influential, It Makes My Head Spin\n', ' A real Hitchcock masterpiece..."She wouldn\'t even harm a fly."\n', " Exasperatingly detailed, steely-cold precursor to the 'slasher'...\n", ' Calling it a masterpiece is an euphemism.\n', ' Shocking\n', ' The one and only !\n', ' Amazing\n', ' "A boy\'s best friend is his Mother."\n', ' A Key Scene in Depth\n', ' Always holds me from beginning to end...\n', " Hitchcock's Most Famous &amp; Profitable...Groundbreaker Prefigured the 1960's\n", ' Masterpiece\n', ' I can handle a sick old woman!\n']</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>956. Once Upon a Time in the West</t>
+          <t>956. Casablanca</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D957" t="n">
         <v>8.5</v>
       </c>
       <c r="E957" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>tt0064116</t>
+          <t>tt0034583</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>[' One of the biggest and boldest westerns you will ever see\n', ' Some American Meatballs In A Spaghetti Western\n', ' symphonic style\n', ' admirable\n', ' The harmonica player\n', ' One of the Best Cowboy Movies (or Maybe the Best) Ever Made \x96 A Masterpiece\n', ' An epic western \x96 with all the pros and cons that come with that\n', ' Unforgettable and breathtaking Western with a big budget, masterfully made by the great Sergio Leone\n', ' Leone overdoes it.\n', ' The Best Western I Ever Saw\n', ' Excruciating Slow Or Fascinating: Your Choice\n', ' Who are you, anyway?\n', ' Elegant, but lugubrious Leone western...\n', " Maybe Leone's second best behind GB&amp;U- sophisticated weaving of techniques from past westerns into an near-mythic treatment...\n", " Sergio Leone's Once Upon a Time in the West is one of the most compellingly dramatic Westerns of all time\n", ' Cinematic brilliance from Sergio Leone.\n', ' The Love of Cinema\n', ' Decent\n', ' Twice Removed\n', ' The operatic tale of greed, lust and revenge.\n', ' Top 50 ! Yeah Right\n', ' Harmonicas Have Never Been so Symbolic\n', " Sergio's slow-moving western has some unforgettable moments...\n", " Sergio Leone's gloomest movies\n", " An underrated spaghetti Western that's a must see\n"]</t>
+          <t>[' A perfect film.\n', ' One of the best black and white films I have ever had the privilege of watching!\n', ' .....it\'s still the same old story, a fight for love and glory, a case of do or die, the world will always welcome lovers, As Time Goes By."\n', ' Movie romanticism at its best\n', ' Great\n', ' One of our most quotable movies\n', ' special\n', ' Casablanca\n', ' A story that will never get tired, incredible film.\n', ' The Most Beautiful Movie of the Cinema History Ever\n', ' The most famed for many and one of the greatest movie ever realized\n', " Here's lookin' at you, film.\n", ' Classic Film at Its Best\n', ' Tough To Beat This Movie\n', ' Great characters, classic dialogue, teary-eyed romance...\n', " a classic that's known to people long before they actually see the movie\n", " Here's looking at cinema-perfection, kid\n", ' Casablanca is the definite all-time movie classic!\n', ' Play it Over &amp; Over Again Warner Brothers ****\n', ' Brilliant\n', ' You must remember this...\n', " I'm A Cynic So What I Say Doesn't Matter\n", ' Casablanca gets better and better as time goes by!\n', ' Very good...but no classic\n', " As time goes by, it's still one of the all-time greats...\n"]</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>957. Grave of the Fireflies</t>
+          <t>957. Once Upon a Time in the West</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D958" t="n">
         <v>8.5</v>
       </c>
       <c r="E958" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>tt0095327</t>
+          <t>tt0064116</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>[' Beautiful, haunting and emotionally devastating\n', ' Utterly devastating\n', ' Heart breaking animation\n', ' Soul Breaking\n', ' portrait of life\n', ' A classic, powerful, heart breaking movie.\n', ' Stunning animated testimony to the human spirit and fight for survival\n', ' once upon a time in Japan\n', ' Greatest War Film?\n', " a combination of Rome Open City and Wiesel's Night (and like both, an extreme, personally felt story)\n", ' Incredibly powerful and emotional drama\n', ' Depressing, but a must see\n', ' Beautiful, amazing, stunning\n', ' A magnificent piece of work and one of the most heartbreaking tales ever told\n', ' Absolutely heartbreaking.\n', ' I can hardly see through the tears. Great drama anime.\n', ' Cinema Omnivore - Grave of the Fireflies (1988) 8.4/10\n', ' about war heart\n', ' Well done and very depressing\n', ' Wow, this was amazing!\n', ' This beautiful film will haunt you\n', ' A horrible and shivering reality of poverty during World War II\n', ' Beautiful and human\n', ' An Achievement Not Only For Studio Ghibli But Animation As A Whole.\n', ' Up In The Skies (Before My Eyes) Fireflies From The Grave\n']</t>
+          <t>[' One of the biggest and boldest westerns you will ever see\n', ' Some American Meatballs In A Spaghetti Western\n', ' symphonic style\n', ' admirable\n', ' The harmonica player\n', ' One of the Best Cowboy Movies (or Maybe the Best) Ever Made \x96 A Masterpiece\n', ' An epic western \x96 with all the pros and cons that come with that\n', ' Unforgettable and breathtaking Western with a big budget, masterfully made by the great Sergio Leone\n', ' Leone overdoes it.\n', ' The Best Western I Ever Saw\n', ' Excruciating Slow Or Fascinating: Your Choice\n', ' Who are you, anyway?\n', ' Elegant, but lugubrious Leone western...\n', " Maybe Leone's second best behind GB&amp;U- sophisticated weaving of techniques from past westerns into an near-mythic treatment...\n", " Sergio Leone's Once Upon a Time in the West is one of the most compellingly dramatic Westerns of all time\n", ' Cinematic brilliance from Sergio Leone.\n', ' The Love of Cinema\n', ' Decent\n', ' Twice Removed\n', ' The operatic tale of greed, lust and revenge.\n', ' Top 50 ! Yeah Right\n', ' Harmonicas Have Never Been so Symbolic\n', " Sergio's slow-moving western has some unforgettable moments...\n", " Sergio Leone's gloomest movies\n", " An underrated spaghetti Western that's a must see\n"]</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>958. Rear Window</t>
+          <t>958. Grave of the Fireflies</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D959" t="n">
         <v>8.5</v>
       </c>
       <c r="E959" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>tt0047396</t>
+          <t>tt0095327</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>[" yep--it's a good film,...but #14 on IMDb???\n", ' Sophisticated Hitchcock, with a wonderful performance from James Stewart!\n', " One of Hitch's best\n", ' Enforced Idleness\n', ' Best Hitchcock ever\n', ' Brilliant\n', " It's In the Garden\n", ' seduction in pure form\n', ' Another Hitchcock masterpiece.\n', ' Voyerism 1on1\n', ' What Have You Done with Her?\n', ' Classy, gentle excitement with nice subtexts within the enjoyably tense main story\n', ' Alfred Hitchcock top-notch suspense/thriller embroils a magazine photographer confined to wheelchair in killing\n', ' a classic in the true sense of the word\n', " One of Hitchcock's Best\n", ' An Open And Trusting World?\n', ' A colorful, friendly story...about a murder\n', ' In the mid-fifties, Hitchcock brought remarkable suspense by reverting to the logic of a silent film (with an observer behind the lens as the hero)\n', ' I spy, with my little eye, the most overrated Alfred Hitchcock thriller.\n', ' Voyeristic suspense\n', ' Tremendous thriller. Classic Hitchcock.\n', ' Probably the best thing Alfred Hitchcock ever did...\n', " Watching the Watchers, One of Hitchcock's Hightest Rated, Stiff but Suspenseful\n", ' One of the greatest movies ever made\n', ' It Had To Be Murder.\n']</t>
+          <t>[' Beautiful, haunting and emotionally devastating\n', ' Utterly devastating\n', ' Heart breaking animation\n', ' Soul Breaking\n', ' portrait of life\n', ' A classic, powerful, heart breaking movie.\n', ' Stunning animated testimony to the human spirit and fight for survival\n', ' once upon a time in Japan\n', ' Greatest War Film?\n', " a combination of Rome Open City and Wiesel's Night (and like both, an extreme, personally felt story)\n", ' Incredibly powerful and emotional drama\n', ' Depressing, but a must see\n', ' Beautiful, amazing, stunning\n', ' A magnificent piece of work and one of the most heartbreaking tales ever told\n', ' Absolutely heartbreaking.\n', ' I can hardly see through the tears. Great drama anime.\n', ' Cinema Omnivore - Grave of the Fireflies (1988) 8.4/10\n', ' about war heart\n', ' Well done and very depressing\n', ' Wow, this was amazing!\n', ' This beautiful film will haunt you\n', ' A horrible and shivering reality of poverty during World War II\n', ' Beautiful and human\n', ' An Achievement Not Only For Studio Ghibli But Animation As A Whole.\n', ' Up In The Skies (Before My Eyes) Fireflies From The Grave\n']</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>959. Cinema Paradiso</t>
+          <t>959. Rear Window</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D960" t="n">
         <v>8.5</v>
       </c>
       <c r="E960" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>tt0095765</t>
+          <t>tt0047396</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>[' About as good an Italian film as you can find\n', ' One of the best and most moving films of the 80s\n', ' a little bit of movie magic\n', ' A Film for the Ages\n', ' A Movie For Movie Lovers\n', ' Stunning film with great sense and sensibility ; being compellingly directed by Giuseppe Tornatore\n', ' In memory of Philippe Noiret\n', ' A Movie-Lovers Film\n', " The Loves Of 'Toto' Beautifully Told\n", ' sentimental but very memorable tribute to anyone who loves to go to a movie\n', ' Wonderful, emotional movie\n', ' Classic\n', ' Exquisite nostalgia that any movie fan can identify with...\n', ' Love Letter to the Movies\n', ' Are You Kidding Me?\n', ' wonderful in the first half\n', ' This is what great films are all about?\n', ' In a word: nostalgic.\n', ' A Film for Real Movie Lovers\n', ' Only interesting until the halfway mark...\n', " The best gifts in life are not given. They're taught.\n", ' A cinematic paradise of memories, emotions and heart touching recall..\n', ' Celluloid nostalgia\n', ' A masterpiece restored.\n', ' The Greatest Cinema About Cinema\n']</t>
+          <t>[" yep--it's a good film,...but #14 on IMDb???\n", ' Sophisticated Hitchcock, with a wonderful performance from James Stewart!\n', " One of Hitch's best\n", ' Enforced Idleness\n', ' Best Hitchcock ever\n', ' Brilliant\n', " It's In the Garden\n", ' seduction in pure form\n', ' Another Hitchcock masterpiece.\n', ' Voyerism 1on1\n', ' What Have You Done with Her?\n', ' Classy, gentle excitement with nice subtexts within the enjoyably tense main story\n', ' Alfred Hitchcock top-notch suspense/thriller embroils a magazine photographer confined to wheelchair in killing\n', ' a classic in the true sense of the word\n', " One of Hitchcock's Best\n", ' An Open And Trusting World?\n', ' A colorful, friendly story...about a murder\n', ' In the mid-fifties, Hitchcock brought remarkable suspense by reverting to the logic of a silent film (with an observer behind the lens as the hero)\n', ' I spy, with my little eye, the most overrated Alfred Hitchcock thriller.\n', ' Voyeristic suspense\n', ' Tremendous thriller. Classic Hitchcock.\n', ' Probably the best thing Alfred Hitchcock ever did...\n', " Watching the Watchers, One of Hitchcock's Hightest Rated, Stiff but Suspenseful\n", ' One of the greatest movies ever made\n', ' It Had To Be Murder.\n']</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>960. Modern Times</t>
+          <t>960. Cinema Paradiso</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>1h 27m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="D961" t="n">
         <v>8.5</v>
       </c>
       <c r="E961" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>tt0027977</t>
+          <t>tt0095765</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>[' amusing semi-socialist picture\n', ' Hilarious and original with a great serious message and a poignant love story\n', ' The last triumph of silence\n', ' Some iconic scenes in socially conscious movie\n', ' Another Masterpiece for Chaplin\n', ' One Last Triumph for the Silent Era\n', ' manifesto\n', ' Feel him, hear him\n', ' Not as sharp as I wanted but the comedy more than covers for this\n', ' Charles Chaplin masterpiece finds him playing a factory worker who becomes involved in problems and strikes\n', ' this movie applies in all times, modern and ancient\n', " Chaplin's Best, No Debate\n", ' Very amusing.\n', ' Funny, poignant and brilliant\n', ' maybe not as entirely, artistically fulfilling as City Lights, but it might just be funnier\n', ' Humane Satire\n', ' Antiquated Mimes\n', ' Timeless classic\n', ' Chaplin at his best...Paulette Goddard delightful...\n', " Chaplin's criticism on the industrial age\n", ' Individual Parts Greater Than the Whole\n', ' Simply hilarious!\n', ' The Tramp walks into the sunset, hand in hand with the Silent Era.\n', " Buck up - never say die. We'll get along\n", ' Modern backward-looking classic\n']</t>
+          <t>[' About as good an Italian film as you can find\n', ' One of the best and most moving films of the 80s\n', ' a little bit of movie magic\n', ' A Film for the Ages\n', ' A Movie For Movie Lovers\n', ' Stunning film with great sense and sensibility ; being compellingly directed by Giuseppe Tornatore\n', ' In memory of Philippe Noiret\n', ' A Movie-Lovers Film\n', " The Loves Of 'Toto' Beautifully Told\n", ' sentimental but very memorable tribute to anyone who loves to go to a movie\n', ' Wonderful, emotional movie\n', ' Classic\n', ' Exquisite nostalgia that any movie fan can identify with...\n', ' Love Letter to the Movies\n', ' Are You Kidding Me?\n', ' wonderful in the first half\n', ' This is what great films are all about?\n', ' In a word: nostalgic.\n', ' A Film for Real Movie Lovers\n', ' Only interesting until the halfway mark...\n', " The best gifts in life are not given. They're taught.\n", ' A cinematic paradise of memories, emotions and heart touching recall..\n', ' Celluloid nostalgia\n', ' A masterpiece restored.\n', ' The Greatest Cinema About Cinema\n']</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>961. City Lights</t>
+          <t>961. Modern Times</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -31874,47 +31872,49 @@
         <v>8.5</v>
       </c>
       <c r="E962" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>tt0021749</t>
+          <t>tt0027977</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>[' I must be missing something,...\n', " In my honest opinion, this is Charlie Chaplin's masterpiece\n", ' Masterpiece\n', ' The Epitome of Chaplin\n', ' admirable\n', ' The dazzling magic of Charlie Chaplin.\n', ' Wonderful set-pieces make the film\n', " Masterpiece that was Chaplin's last silent film providing genuinely moving scenes\n", ' a "Lights" in the darkness\n', ' Chaplin At His Best?\n', " One Of Chaplin''s Best &amp; Most Endearing Films\n", ' Lady and the Tramp, before animation and at the start of talkies- one of the most wonderful films ever conceived and executed\n', ' A Chaplin classic\n', ' One of the finest silent films Chaplin has ever done thus far\n', ' A stellar, essential classic, a must-see for one and all\n', ' Unashamedly Sentimental---Works for Me\n', " Blink once and you'll miss something funny!\n", " Not Chaplin's best, but still a charming and entertaining silent cinema staple.\n", ' Pitch perfect for the Depression\n', ' Shining Brightly\n', ' pure gem\n', ' A classic example of silent cinema\n', ' Another Emotional Masterpiece by Chaplin whose Climax will haunt me FOREVER.\n', ' The best film of 1931\n', " Charlie Chaplin's Magnum Opus.\n"]</t>
+          <t>[' amusing semi-socialist picture\n', ' Hilarious and original with a great serious message and a poignant love story\n', ' The last triumph of silence\n', ' Some iconic scenes in socially conscious movie\n', ' Another Masterpiece for Chaplin\n', ' One Last Triumph for the Silent Era\n', ' manifesto\n', ' Feel him, hear him\n', ' Not as sharp as I wanted but the comedy more than covers for this\n', ' Charles Chaplin masterpiece finds him playing a factory worker who becomes involved in problems and strikes\n', ' this movie applies in all times, modern and ancient\n', " Chaplin's Best, No Debate\n", ' Very amusing.\n', ' Funny, poignant and brilliant\n', ' maybe not as entirely, artistically fulfilling as City Lights, but it might just be funnier\n', ' Humane Satire\n', ' Antiquated Mimes\n', ' Timeless classic\n', ' Chaplin at his best...Paulette Goddard delightful...\n', " Chaplin's criticism on the industrial age\n", ' Individual Parts Greater Than the Whole\n', ' Simply hilarious!\n', ' The Tramp walks into the sunset, hand in hand with the Silent Era.\n', " Buck up - never say die. We'll get along\n", ' Modern backward-looking classic\n']</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>962. Kaithi</t>
+          <t>962. City Lights</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>1h 27m</t>
         </is>
       </c>
       <c r="D963" t="n">
         <v>8.5</v>
       </c>
-      <c r="E963" t="inlineStr"/>
+      <c r="E963" t="n">
+        <v>99</v>
+      </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>tt9900782</t>
+          <t>tt0021749</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>[" A Hollywood Remake converted into a 'Blockbuster A Grade Action Drama' in Tamil Cinema.\n", ' A full-blown massy entertainer that surprisingly got a classy execution\n', ' An action thriller with heart! [+68%]\n', ' Awesome action crime thriller...!!!\n', ' Drug war road movie AND hostage drama rolled into one\n', ' Kaithi\n', ' A nice one\n', ' An Engaging one!\n', ' Intense &amp; Engaging!!\n', " Karthi's Pacy Action Thriller Keeps You Engaged !!!\n", ' Compelling action thriller.\n', ' Breathtaking performance from Karthi!\n', ' Directorial triumph\n', ' Audience become kaithi\n', ' P.E.R.F.E.C.T.I.O.N\n', ' Almost as good as an out-an-out action movie can be\n', ' Kaithi Outstanding\n', ' What kind of a joke is this?\n', ' The Driver\n', ' Lokesh Kanakarajan Universe 🔥🔥🔥\n', ' Best action thriller of 2019 period\n', ' It would have been theatrical masterpiece for us!\n', ' Kanagraj has majic\n', ' Brutal, Raw and Magnificent\n', ' Action is good but story is not damdar\n']</t>
+          <t>[' I must be missing something,...\n', " In my honest opinion, this is Charlie Chaplin's masterpiece\n", ' Masterpiece\n', ' The Epitome of Chaplin\n', ' admirable\n', ' The dazzling magic of Charlie Chaplin.\n', ' Wonderful set-pieces make the film\n', " Masterpiece that was Chaplin's last silent film providing genuinely moving scenes\n", ' a "Lights" in the darkness\n', ' Chaplin At His Best?\n', " One Of Chaplin''s Best &amp; Most Endearing Films\n", ' Lady and the Tramp, before animation and at the start of talkies- one of the most wonderful films ever conceived and executed\n', ' A Chaplin classic\n', ' One of the finest silent films Chaplin has ever done thus far\n', ' A stellar, essential classic, a must-see for one and all\n', ' Unashamedly Sentimental---Works for Me\n', " Blink once and you'll miss something funny!\n", " Not Chaplin's best, but still a charming and entertaining silent cinema staple.\n", ' Pitch perfect for the Depression\n', ' Shining Brightly\n', ' pure gem\n', ' A classic example of silent cinema\n', ' Another Emotional Masterpiece by Chaplin whose Climax will haunt me FOREVER.\n', ' The best film of 1931\n', " Charlie Chaplin's Magnum Opus.\n"]</t>
         </is>
       </c>
     </row>
@@ -32308,7 +32308,7 @@
       </c>
       <c r="G975" t="inlineStr">
         <is>
-          <t>[" One of Kurosawa's best\n", " Kurasawa's best film\n", ' Iconic influential movie\n', ' It Helped Define Film\n', ' Ahead of its time.\n', ' One of the Best Movies of Cinema History\n', ' OK not the flawless classic that some would say but still a very engaging and enjoyable film\n', " Classic epic ,though overlong , Kurosawa's masterpiece and at the time it was Japan's most expensive picture ever\n", ' helping others is saving yourself\n', ' A Truly Epic Film\n', ' The Magnificent Seven: The Prequel.\n', ' Genuine magnificent seven\n', ' Not What It Is Cracked Up To Be\n', ' Good movie, mixes comedy with drama, but I fail to see why so many consider it great.\n', " Kurosawa's triumphant epic- totally &amp; successfully driven by character and story\n", ' Self-Sacrificing Samurai\n', ' One of the most influential in movie history\n', ' One of the Best Films Ever Made in Japan\n', ' A cinematic masterpiece\n', ' An action movie dream\n', ' another long kurosawa\n', " There's Not One Thing Wrong with This Film\n", ' Great action movie driven by its story and characters.\n', ' An amazing piece of film, but the length alone will discourage many possible viewers\n', ' Great Film, but I think Kurosawa did better\n']</t>
+          <t>[" One of Kurosawa's best\n", " Kurasawa's best film\n", ' Iconic influential movie\n', ' It Helped Define Film\n', ' Ahead of its time.\n', ' One of the Best Movies of Cinema History\n', ' OK not the flawless classic that some would say but still a very engaging and enjoyable film\n', " Classic epic ,though overlong , Kurosawa's masterpiece and at the time it was Japan's most expensive picture ever\n", ' helping others is saving yourself\n', ' A Truly Epic Film\n', ' Genuine magnificent seven\n', ' The Magnificent Seven: The Prequel.\n', ' Not What It Is Cracked Up To Be\n', ' Good movie, mixes comedy with drama, but I fail to see why so many consider it great.\n', " Kurosawa's triumphant epic- totally &amp; successfully driven by character and story\n", ' Self-Sacrificing Samurai\n', ' One of the most influential in movie history\n', ' One of the Best Films Ever Made in Japan\n', ' A cinematic masterpiece\n', ' An action movie dream\n', ' another long kurosawa\n', " There's Not One Thing Wrong with This Film\n", ' Great action movie driven by its story and characters.\n', ' An amazing piece of film, but the length alone will discourage many possible viewers\n', ' Great Film, but I think Kurosawa did better\n']</t>
         </is>
       </c>
     </row>
@@ -32632,7 +32632,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>[' R. Madhavan Ensures A Safe Take-Off While Unfolding The Dramatic Life Of Nambi Nayanan Filled With Unbearable Strife.\n', ' A film, every citizen of this country should watch!\n', ' Good biography..!\n', ' Real Nambi effect ...\n', " india's biggest failure presented poorly\n", ' No words to define\n', ' Astronomical effort!!\n', ' Amme Bhagavathi!\n', ' A story that has to be heard\n', " R Madhavan Starrer 'Rocketry: The Nambi Effect' is a Perfection to Direction !!!\n", ' Poignant saga of an innocent scientist thrown in jail\n', ' based on Nambi Narayanan, an Indian scientist\n', ' Superbly made, but not for the masses\n', ' Masterpiece Movie\n', ' Well done R. Madhavan\n', ' Rocketry-the nambi effect\n', ' This Story needs to be told &amp; to be heard..! 👍\n', ' An ordinary film about an extraordinary man\n', ' Well Made And Watchable But Apparently Not The Entire Story\n', ' Heart breaking\n', ' Flawed, but hats off to the effort\n', ' A TRUE PATRIOTIC FILM\n', ' Madhavan excels as Nambi Narayanan!\n', ' Nambi Effect\n', ' Recommended 👍🏼 by Hit Ya Flop - Movie World\n']</t>
+          <t>[' R. Madhavan Ensures A Safe Take-Off While Unfolding The Dramatic Life Of Nambi Nayanan Filled With Unbearable Strife.\n', ' A film, every citizen of this country should watch!\n', ' Good biography..!\n', ' Real Nambi effect ...\n', " india's biggest failure presented poorly\n", ' No words to define\n', ' Astronomical effort!!\n', ' Amme Bhagavathi!\n', ' A story that has to be heard\n', ' Poignant saga of an innocent scientist thrown in jail\n', " R Madhavan Starrer 'Rocketry: The Nambi Effect' is a Perfection to Direction !!!\n", ' based on Nambi Narayanan, an Indian scientist\n', ' Superbly made, but not for the masses\n', ' Masterpiece Movie\n', ' Well done R. Madhavan\n', ' Rocketry-the nambi effect\n', ' This Story needs to be told &amp; to be heard..! 👍\n', ' An ordinary film about an extraordinary man\n', ' Well Made And Watchable But Apparently Not The Entire Story\n', ' Heart breaking\n', ' Flawed, but hats off to the effort\n', ' A TRUE PATRIOTIC FILM\n', ' Madhavan excels as Nambi Narayanan!\n', ' Nambi Effect\n', ' Recommended 👍🏼 by Hit Ya Flop - Movie World\n']</t>
         </is>
       </c>
     </row>
